--- a/data_excel/tags.xlsx
+++ b/data_excel/tags.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay/xidev/signs-db/data_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay/xidev/kanban-corpus/data_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07A0BA1-548F-8D4C-9025-A303FD66D897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8DCB97-0798-A248-B720-04AC27350A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14360" yWindow="500" windowWidth="24040" windowHeight="17360" xr2:uid="{1951D371-7A8D-D346-B651-736256765602}"/>
+    <workbookView xWindow="14620" yWindow="500" windowWidth="23780" windowHeight="17360" xr2:uid="{1951D371-7A8D-D346-B651-736256765602}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="124">
   <si>
     <t>img</t>
     <phoneticPr fontId="1"/>
@@ -162,22 +162,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>天候により
-床すべり注意</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ジェフグルメカード
-加盟店</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ロゴマーク|全国共通お食事券ジェフグルメカード加盟店</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ペット
-ご遠慮下さい</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -204,11 +189,6 @@
     <rPh sb="5" eb="6">
       <t xml:space="preserve">イヌ </t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>未成年・運転者
-飲酒禁止</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -471,10 +451,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ja|en|zh|ko</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ja</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -626,13 +602,6 @@
   </si>
   <si>
     <t>IMG_6329.JPG</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日東CS
-1F OR・レストラン 用
-清掃中
-足元にご注意！</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -691,12 +660,449 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ジェフグルメカード加盟店</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天候により 床すべり注意</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット ご遠慮下さい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未成年・運転者 飲酒禁止</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>清掃中
+足元にご注意！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_9358.HEIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自転車の自由通路への昇降（↓↑）はエレベーターをご利用ください</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>南北自由通路
+South-North Promenade
+大和西大寺駅
+Yamato-Saidaiji Station</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エレベーター|人|自転車を押す人</t>
+    <rPh sb="7" eb="8">
+      <t xml:space="preserve">ヒト </t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t xml:space="preserve">ジテンシャヲ </t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t xml:space="preserve">オスヒト </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>禁止事項 Prohibited activities</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自転車走行
+Riding a bicycle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自転車駐輪
+Bicydle parking</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バイク乗り入れ
+Riding a motorcycle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>喫煙
+Smoking</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>歩きスマホ
+Using a smartphone while walking</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不法投棄
+Illegal dumping</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>火器類の使用
+Use of fire</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●他の通行者の迷惑になる行為
+●危険の恐れのある行為
+●ポール遊び・ローラースケート・スケートポード
+●通路の損傷および汚損
+●座り込み・寝泊り
+●ポスターの掲示・看板の設置
+●物品の配布・販売
+●集会・デモ・演説</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>防犯カメラ作動中
+Security Cameras in Operation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤丸斜線|倒れる人|衝突|自転車に乗る人</t>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">ショウトツ </t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t xml:space="preserve">ジテンシャン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤丸斜線|自転車</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">アカマル </t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">シャセン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤丸斜線|バイク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤丸斜線|スマホを持って歩く人</t>
+    <rPh sb="9" eb="10">
+      <t xml:space="preserve">モッテアルク </t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t xml:space="preserve">ヒト </t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t/>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤丸斜線|手|丸めた紙</t>
+    <rPh sb="5" eb="6">
+      <t>☚</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t xml:space="preserve">マルメタカミ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤丸斜線|マッチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>駐車禁止</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_8116.HEIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_7162.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お願い！
+大変危険ですのでパーテンションをまたがないでください！</t>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">タイヘン </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">キケン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロープ|貼紙</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">ハリガミ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_4856.HEIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>危院！！立入禁止
+Danger!! Off-limits
+危</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>险</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>！！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>别</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>进</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">入
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>위험하다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">!! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출입금지</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>警官|手のひらをこちらへ向ける|No!と書かれた板</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ケイカン </t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">テノヒラヲ </t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t xml:space="preserve">イタ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘルメットを被った人|手のひらをこちらへ向ける|赤四角バツ</t>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">カブッタヒト </t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t xml:space="preserve">アカシカク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ja|en|zh|ko|multi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_4583.HEIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>駐輪禁止
+駐輪場に止めること。
+基礎工学部長</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">チュウリンキンシ </t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t xml:space="preserve">チュウリンジョウニ </t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t xml:space="preserve">トメルコト </t>
+    </rPh>
+    <rPh sb="16" eb="22">
+      <t xml:space="preserve">キソコウガクブチョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_4324_2.heic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間帯禁煙
+平日11:30～14:00 禁煙
+平日14:00~18:00 喫煙
+平日18:00~最終 禁煙
+土・日・祝日は、すべての時間が禁煙になります。
+ご協力お願いします。</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ジカンタイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤丸斜線|タバコ|時計</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">アカマル </t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">トケイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ご注文が決まればレジ前カウンターでご注文して下さい。（料金は先払いになります。）
+お水のおかわりはセルフサービスになります。自由にどうぞ。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_4324.heic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かぶりつき厳禁！
+生煎包は、いきなりほおばろうとすると、熱いスープが飛び出し大変危険です。
+生煎包をレンゲに乗せ箸や口で穴をあけて、やけどに気をつけながらスープを楽しみください。
+その後、残った肉と皮をお召し上がり下さい。
+味はしっかりついています。先ずは何も付けずにそのままの味をお楽しみ下さい。その後、お好みで黒酢を付けて下さい。黒酢を付けるとさっぱと頂けます。</t>
+    <rPh sb="5" eb="7">
+      <t>💰</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オレンジ三角|火|赤丸斜線|液体が飛び出す生煎包|レンゲにのった生煎包|皿の上に並んだ生煎包</t>
+    <rPh sb="4" eb="6">
+      <t>‣</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t xml:space="preserve">ヒ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_4147.HEIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>南区は終日駐車禁止です。
+我々区分所有者の有料駐車場の出入口です。ここに駐車されますと車の出入が出来ません。
+不法駐車されますとレッカー車を要請します。
+道頓堀区分所有者管理組合</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キケン
+携帯電話などを操作しながらホームを歩くのは大変危険です
+駅長</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_1689.HEIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>看板|黄ダイヤ|人|スマホ|電車|線路</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カンバン </t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>🌲</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t xml:space="preserve">ヒト </t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">デンシャ </t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">センロ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -726,6 +1132,13 @@
       <name val="Malgun Gothic"/>
       <family val="2"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1094,9 +1507,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0244D4E8-F443-D54E-A975-960F8853E327}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="166" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="106" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
@@ -1123,567 +1538,987 @@
         <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="147">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="42">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="105">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="84">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="84">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="21">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="84">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="42">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="42">
+      <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="42">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7">
         <v>5</v>
       </c>
-      <c r="E5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="84">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="42">
+      <c r="A8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="42">
+      <c r="A9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="42">
+      <c r="A10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="42">
+      <c r="A11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="168">
+      <c r="A12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" t="s">
         <v>5</v>
       </c>
-      <c r="E6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="21">
-      <c r="A7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="21">
-      <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="42">
-      <c r="A9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="42">
-      <c r="A10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="42">
-      <c r="A11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="42">
-      <c r="A12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="42">
+      <c r="A13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="42">
-      <c r="A13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>6</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>28</v>
-      </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="21">
-      <c r="A14" s="2" t="s">
-        <v>15</v>
+      <c r="A14" t="s">
+        <v>101</v>
       </c>
       <c r="B14">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="399">
-      <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="63">
+      <c r="A15" t="s">
+        <v>102</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="63">
-      <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="84">
+      <c r="A16" t="s">
+        <v>105</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="D16" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="84">
-      <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="63">
+      <c r="A17" t="s">
+        <v>110</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="21">
-      <c r="A18" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="126">
+      <c r="A18" t="s">
+        <v>112</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="126">
-      <c r="A19" s="2" t="s">
         <v>46</v>
       </c>
+    </row>
+    <row r="19" spans="1:6" ht="84">
+      <c r="A19" t="s">
+        <v>112</v>
+      </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="42">
-      <c r="A20" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="189">
+      <c r="A20" t="s">
+        <v>116</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="D20" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="E20" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="21">
-      <c r="A21" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="105">
+      <c r="A21" t="s">
+        <v>119</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="D21" t="s">
         <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="84">
-      <c r="A22" s="2" t="s">
-        <v>56</v>
+      <c r="A22" t="s">
+        <v>122</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="D22" t="s">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="E22" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="42">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="21">
       <c r="A23" s="2" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E23" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="63">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="84">
       <c r="A24" s="2" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
         <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="126">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="399">
       <c r="A25" s="2" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="E25" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="63">
-      <c r="A26" t="s">
-        <v>69</v>
+      <c r="A26" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="84">
       <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="84">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="84">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="105">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="147">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="105">
+      <c r="A32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" t="s">
         <v>72</v>
       </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="F32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="42">
+      <c r="A33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" t="s">
         <v>71</v>
       </c>
-      <c r="D27" t="s">
-        <v>73</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="E33" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="42">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="63">
+      <c r="A35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="126">
+      <c r="A36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" t="s">
+        <v>109</v>
+      </c>
+      <c r="F36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="21">
+      <c r="A37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="21">
+      <c r="A38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" t="s">
+        <v>45</v>
+      </c>
+      <c r="F38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="42">
+      <c r="A39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="21">
+      <c r="A40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" t="s">
+        <v>45</v>
+      </c>
+      <c r="F40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="42">
+      <c r="A41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" t="s">
+        <v>45</v>
+      </c>
+      <c r="F41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="21">
+      <c r="A42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" t="s">
+        <v>45</v>
+      </c>
+      <c r="F42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="21">
+      <c r="A43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43">
+        <v>6</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" t="s">
+        <v>45</v>
+      </c>
+      <c r="F43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="21">
+      <c r="A44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44">
+        <v>7</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" t="s">
+        <v>45</v>
+      </c>
+      <c r="F44" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="126">
+      <c r="A45" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" t="s">
+        <v>61</v>
+      </c>
+      <c r="E45" t="s">
+        <v>45</v>
+      </c>
+      <c r="F45" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="63">
+      <c r="A46" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" t="s">
+        <v>45</v>
+      </c>
+      <c r="F46" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="42">
+      <c r="A47" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" t="s">
+        <v>45</v>
+      </c>
+      <c r="F47" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="21">
+      <c r="A48" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F27" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="42">
-      <c r="A28" t="s">
-        <v>75</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" t="s">
-        <v>77</v>
-      </c>
-      <c r="E28" t="s">
-        <v>78</v>
-      </c>
-      <c r="F28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="105">
-      <c r="A29" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D29" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" t="s">
-        <v>78</v>
-      </c>
-      <c r="F29" t="s">
-        <v>74</v>
+      <c r="D48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" t="s">
+        <v>45</v>
+      </c>
+      <c r="F48" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="84">
+      <c r="A49" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" t="s">
+        <v>45</v>
+      </c>
+      <c r="F49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="42">
+      <c r="A50" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" t="s">
+        <v>60</v>
+      </c>
+      <c r="E50" t="s">
+        <v>45</v>
+      </c>
+      <c r="F50" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/data_excel/tags.xlsx
+++ b/data_excel/tags.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay/xidev/kanban-corpus/data_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay/xidev/kanban/data_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8DCB97-0798-A248-B720-04AC27350A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{EA6035FF-C1C4-B942-894D-84E4E009AC65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14620" yWindow="500" windowWidth="23780" windowHeight="17360" xr2:uid="{1951D371-7A8D-D346-B651-736256765602}"/>
+    <workbookView xWindow="13660" yWindow="660" windowWidth="24580" windowHeight="17120" xr2:uid="{1951D371-7A8D-D346-B651-736256765602}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="293">
   <si>
     <t>img</t>
     <phoneticPr fontId="1"/>
@@ -537,35 +538,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>黄ダイヤ|人|衝突|自転車に乗る人</t>
-    <rPh sb="0" eb="1">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t xml:space="preserve">ヒト </t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t xml:space="preserve">ショウトツ </t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t xml:space="preserve">ジテンシャ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>黄三角|滑る人|！</t>
-    <rPh sb="1" eb="3">
-      <t>‣</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t xml:space="preserve">スベル </t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t xml:space="preserve">ヒト </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>監視カメラ作動中
 犬のおしっこ禁止！
 罰金3万円</t>
@@ -796,9 +768,6 @@
     <rPh sb="14" eb="15">
       <t xml:space="preserve">ヒト </t>
     </rPh>
-    <rPh sb="15" eb="16">
-      <t/>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -973,10 +942,6 @@
     <rPh sb="24" eb="27">
       <t xml:space="preserve">アカシカク </t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ja|en|zh|ko|multi</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1097,12 +1062,3399 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>IMG_3029.HEIC</t>
+  </si>
+  <si>
+    <t>IMG_2426.HEIC</t>
+  </si>
+  <si>
+    <t>IMG_2128.HEIC</t>
+  </si>
+  <si>
+    <t>IMG_2115.heic</t>
+  </si>
+  <si>
+    <t>IMG_1567.HEIC</t>
+  </si>
+  <si>
+    <t>IMG_1162.heic</t>
+  </si>
+  <si>
+    <t>IMG_1088.HEIC</t>
+  </si>
+  <si>
+    <t>IMG_0681.HEIC</t>
+  </si>
+  <si>
+    <t>IMG_0662.HEIC</t>
+  </si>
+  <si>
+    <t>これは、腰掛です。
+危険ですので、この上に登らないでください。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お勤めご苦労さまです
+公園に家庭の生ゴミを捨てないで下さい．
+皆さんの良心に恥じないようお願い！！
+あなたはよくても皆が困る？</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オツトメ </t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">コウエンニ </t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">カテイノ </t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t xml:space="preserve">ナマゴミ </t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t xml:space="preserve">ステナイデ </t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t xml:space="preserve">クダサイ </t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t xml:space="preserve">ミナサン </t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">リョウシン </t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t xml:space="preserve">コマル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>看板|手書き</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カンバン </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">テガキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>防犯連絡所
+こどもをまもる110の家(店)
+あぶないときはにげてきてね！！
+門をはいってすぐひだりのたてものに、にげてね</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ボウハン </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">レンラクショ </t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>_x0000__x0000__x0002_</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>_x0005__x0002__x0002_</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>_x000C__x0004__x0001_</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t/>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鳥のキャラクター|地図|ココ</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">トリ </t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">チズ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構内出入口の開閉について
+日曜日・祝日 8/13〜8/21 12/25〜1/5 閉門
+上記以外の開閉時間
+授業期間中 開門 午前7時 閉門午後11時30分
+授業期間外 開門 午前7時 閉門 午後11時30分
+関係者以外立ち入り禁止
+同窓の方、教職員、学生、その他関西学院にご用の方は正門横受付にお申し出ください。
+関西学院</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コウナイ </t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t xml:space="preserve">カイモン </t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t xml:space="preserve">ゴゼン </t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t xml:space="preserve">ジ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緊急自動車出入口につき駐車をご遠慮下さい。
+関西学院</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>駐輪禁止
+車イス・歩行者の通行の妨げになりますので駐輪場に置いて下さい。
+関西学院</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あぶないから はいってはいけません！
+JR西日本 新幹線管理本部 神戸新幹線保線区</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>立入禁止
+KEEP OUT
+新幹線の用地内に無断で立ち入ると法律により罰せられます
+JR西日本 新幹線鉄道事業本部</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘルメットを被った人|手のひらをこちらへ向ける|赤四角バツ</t>
+  </si>
+  <si>
+    <t>ヘルメットを被った人|手のひらをこちらへ向ける|カメラ</t>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">カブッタヒト </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤四角|ヘルメットを被った人|手のひらをこちらへ向ける</t>
+    <rPh sb="0" eb="3">
+      <t>アカシk</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t xml:space="preserve">カブッタヒト </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>禁止
+ゴミ捨て場ではありません！
+ゴミは各自持ち帰りましょう
+北部みどり管理事務所</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">キンシ </t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ステb</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t xml:space="preserve">カクジ </t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t xml:space="preserve">モチカエリ </t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">ホクブ </t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t xml:space="preserve">カンリ </t>
+    </rPh>
+    <rPh sb="38" eb="41">
+      <t xml:space="preserve">ジムショ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当店は台車・番重を放置しません！
+台車放置禁止！
+台車立てかけ禁止！
+番重立てかけ禁止！
+膝下番重禁止！
+注意！
+STOP! 転倒事故
+お客さまに安全・安心にご利用いただくため当店では台車・番重を放置しません。</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">トウテン </t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>_x0000__x0000__x0002_</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t/>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バツ|台車の写真|番重の写真|黄三角|台車|転倒する人</t>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">ダイシャ </t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">バンジュウノ </t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">シャシン </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">サンカク </t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t xml:space="preserve">ダイシャ </t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t xml:space="preserve">テントウスルヒト </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壁|貼紙</t>
+  </si>
+  <si>
+    <t>壁|貼紙</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ハリガミ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壁|手書き</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カベ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">テガキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本日分 売り切れ頂きました．
+ありがとうございます．</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>駐輪場ご利用のお客様へ
+注意
+この場所はパチンコされるお客様以外の駐輪は固くお断わり致します。
+放置して行かれたバイク・自転車等は処分致します。
+遊技場 ロンドン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（曲り角に付）
+駐輪禁止</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここは公団住宅居住者の玄関入口です
+該場所に放置自転車等を置くことは禁止します
+UR都市住宅機構</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_3531.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ESTACIONAMENTO PROIBIDO
+IGREJA CATÓLICA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">いらっしゃいませ。
+Welcome to Otaru Canal Terminal.
+Добро пожаловать!
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오십시오</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. 
+歡迎光臨</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_5008.JPG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガラス|貼紙</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">ハリガミ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>段差にご注意ください
+Please watch your step.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>段差|ぎざぎざ|転びそうな人</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ダンサ </t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t xml:space="preserve">コロビソウナヒト </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黄三角|滑る人|ぎざぎざ|！</t>
+    <rPh sb="1" eb="3">
+      <t>‣</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">スベル </t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">ヒト </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黄ダイヤ|人|ぎざぎざ|自転車に乗る人</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">ヒト </t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t xml:space="preserve">ジテンシャ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://isomocha.hatenablog.com/entry/2025/02/21/000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_5011.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせ
+窓口ロビーの禁煙を実施しております。
+皆様のご理解、ご協力をお願い申し上げます。
+No Smoking
+ПОМЕЩЕНИИ
+小樽郵便局長</t>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">マドグチ </t>
+    </rPh>
+    <rPh sb="67" eb="73">
+      <t xml:space="preserve">オタルユウビンキョクチョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>化粧室
+BANHEIRO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_5758.JPG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>矢印|人</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヤジルシ </t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">ヒト </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ja|pt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天井|看板</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">テンジョウ </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">カンバン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_6953.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>防犯監視中</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お願い
+1 自転車、バイクなどを乗り入れないこと。
+2 物品等を販売したり、宣伝や勧誘などをしないこと。
+3 通行を妨げるなど、他人に迷惑をかけないこと。
+豊橋市長
+豊橋駅長
+豊橋警察署長
+ATTENTION!
+1 The riding bicycles and motor bikes is strictly prohibited.
+2 Selling, advertising and canvassing in this area is strictly prohibited.
+3 Preventing smooth walking and giving annoyance to others is strictly prohibited.
+Mayor of Toyohashi City
+Stationmaster of Toyohashi Station
+Chief of Toyohashi Police Station
+ATENÇÃO!
+1 PROIBIDA A ENTRADA DE MOTOS OU BICICLETAS.
+2 PROIBIDO QUALQUER TIPO DE COMÉRCIO OU PROPAGANDA.
+3 FAVOR NÃO INCOMODAR A PASSAGEM ETC. DE OUTROS.
+Prefeito da Cidade de Toyohashi
+Chefe da Estação de Toyohashi
+Delegado da Policia de Toyohashi</t>
+    <rPh sb="38" eb="39">
+      <t xml:space="preserve">センデン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>notes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_9002.HEIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>危ない！！立入禁止
+Danger!! Off-limits
+危</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>险</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>！！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>别</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>进</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">入
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>위험하다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">!! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출입금지</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_1010.HEIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Street vendors
+Live on the street
+Fine
+50000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>en</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_2899.HEIC</t>
+  </si>
+  <si>
+    <t>IMG_8504.HEIC</t>
+  </si>
+  <si>
+    <t>IMG_8149.HEIC</t>
+  </si>
+  <si>
+    <t>IMG_7786.heic</t>
+  </si>
+  <si>
+    <t>IMG_4643.HEIC</t>
+  </si>
+  <si>
+    <t>IMG_4220.heic</t>
+  </si>
+  <si>
+    <t>IMG_3202.heic</t>
+  </si>
+  <si>
+    <t>IMG_3182.heic</t>
+  </si>
+  <si>
+    <t>IMG_3165.HEIC</t>
+  </si>
+  <si>
+    <t>IMG_3162.heic</t>
+  </si>
+  <si>
+    <t>IMG_3111.heic</t>
+  </si>
+  <si>
+    <t>IMG_2311.heic</t>
+  </si>
+  <si>
+    <t>IMG_0301.heic</t>
+  </si>
+  <si>
+    <t>IMG_9972.HEIC</t>
+  </si>
+  <si>
+    <t>IMG_9951.heic</t>
+  </si>
+  <si>
+    <t>IMG_9762.heic</t>
+  </si>
+  <si>
+    <t>IMG_9678.heic</t>
+  </si>
+  <si>
+    <t>IMG_9622.HEIC</t>
+  </si>
+  <si>
+    <t>IMG_9585.HEIC</t>
+  </si>
+  <si>
+    <t>IMG_8252.HEIC</t>
+  </si>
+  <si>
+    <t>IMG_5487.heic</t>
+  </si>
+  <si>
+    <t>立ち小便禁止
+No! Standing!
+大阪市 建設局</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>en|ja</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>24h SECURITY CAMERAS
+防犯カメラ作動中 24時間記録中
+不法投棄禁止
+不法投棄は犯罪です！！
+違反者は法律により処罰されます。
+空き缶やタバコ、ゴミなどを捨てた場合も不法投棄にあたります。
+(株)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>詩風花</t>
+    </r>
+    <rPh sb="38" eb="42">
+      <t xml:space="preserve">フホウトウキ </t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t xml:space="preserve">キンシ </t>
+    </rPh>
+    <rPh sb="45" eb="49">
+      <t xml:space="preserve">フホウトウキ </t>
+    </rPh>
+    <rPh sb="57" eb="60">
+      <t xml:space="preserve">イハンシャハ </t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t xml:space="preserve">ホウリツニヨリ </t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t xml:space="preserve">ショバツ </t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t xml:space="preserve">アキカンヤ </t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t xml:space="preserve">ステタバアイ </t>
+    </rPh>
+    <rPh sb="93" eb="97">
+      <t xml:space="preserve">フホウトウキ </t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t xml:space="preserve">カブ </t>
+    </rPh>
+    <rPh sb="108" eb="109">
+      <t>💀</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t xml:space="preserve">カゼ </t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t xml:space="preserve">ハナ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黄ダイヤ|カメラ|手|ぎざぎざ|STOP</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">キイロ </t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t xml:space="preserve">テ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ứ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t rác giá b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ợ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p pháp
+Chú ý
+Vi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ứ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t rác giá b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ợ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p pháp sẽ b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ị</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ử</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t theo ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t lu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ậ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t
+T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i đa 5 năm tù giam
+Ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t ti</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ề</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n 10 000 000 yên
+禁止非法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>丢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">弃垃圾
+警告
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>违</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>法丟弃垃圾者将被</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>处</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>以五年以下徒刑，或一千万日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>圆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>以下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>罚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>款，或两者併</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>罚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <rPh sb="162" eb="163">
+      <t xml:space="preserve">モノ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>I have the English menu in the store.
+(I'm sorry, but there isn’t an employee who can communicate.)
+准</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>备</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中文的菜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。（能中文会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>话</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的服</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>务员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">不折）
+準備中文的菜單。（能中文會話的服務員不折）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한국어의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메뉴를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>준비하고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한국어회화를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서비스계는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>접지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>않습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.)</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>貼紙</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ハリガミ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>駐輪禁止
+不要停自行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ừ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ừ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng xe đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p.</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鎖|貼紙</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">クサリ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">ハリガミ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_1625.HEIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>携</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>带</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>行李者禁止通行（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>购</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>物者除外）
+No thoroughfare with suitcases</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤丸斜線|スーツケースを引く人</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">アカマル </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">シャセン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壁|貼紙|壁</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ハリガミ </t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">カベ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>使用楼梯或酒店入口的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>缓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>台
+Please use the stairs or the ramp at the back of the building.</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地図</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">チズ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ニューヤマザキデイリーストア奈良猿沢Deer店
+店舗入口</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロゴマーク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>周辺のお店では両替はできません
+I cannot exchange money in the neighboring shops</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>勿乱扔垃圾
+請勿亂丟垃扱
+Please Do Not Litter Here
+ゴミを捨てないでください</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤丸斜線|丸めた紙|捨てる人</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">アカマル </t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">マルメタ </t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>🪮</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t xml:space="preserve">ステルヒト </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>関係者以外立入禁止
+Do Not Enter. Authorized Personnel Only.
+Không ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ậ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ự</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> mi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ễ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n vào
+无关人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不得入内</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤斜線|歩く人</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">アカシャセン </t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">アルクヒト </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">関係者以外進入禁止
+Wrong way
+Falscher Weg
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>진입금지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>错误</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的方法</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>車両進入禁止</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vi|zh|_multi</t>
+  </si>
+  <si>
+    <t>ja|zh|vi|_multi</t>
+  </si>
+  <si>
+    <t>zh|en|_multi</t>
+  </si>
+  <si>
+    <t>zh|zh|en|ja|_multi</t>
+  </si>
+  <si>
+    <t>ja|en|vi|zh|_multi</t>
+  </si>
+  <si>
+    <t>ja|en|de|ko|zh|_multi</t>
+  </si>
+  <si>
+    <t>ja|en|zh|ko|_multi</t>
+  </si>
+  <si>
+    <t>en|zh|zh|ko|_multi</t>
+  </si>
+  <si>
+    <t>ja|en|pt|_multi</t>
+  </si>
+  <si>
+    <t>ja|en|ru|_multi</t>
+  </si>
+  <si>
+    <t>ja|en|ru|ko|zh|_multi</t>
+  </si>
+  <si>
+    <r>
+      <t>飛込み危険
+Danger! No diving!
+危</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>险</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">！禁止跳水
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다이빙위험</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ja|en|zh|ko|_multi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>因</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>由</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>鹤桥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>商店推</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>进协</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>费</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>经营</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>所以除支付工会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>费</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的人外，禁止出售。
+如果您非法放置，您将被判</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>处</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>五年的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>监</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>禁或法律</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>规</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>定的最高1000万日元的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>罚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>款。
+高性能安全</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>摄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>像</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>头</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">安装
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>音24小</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">时
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一旦被</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>发现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，我会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>报</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>告。</t>
+    </r>
+    <rPh sb="36" eb="37">
+      <t>🔥</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>犯人録画中
+在刑事</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>音期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>间</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>zh</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ja|zh</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">自販機のゴミだけ捨ててくれてありがとう ♡♡ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>감사합니다</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ジハンキノ </t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t xml:space="preserve">ステテクレテ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ja|ko</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>柱|貼紙</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ハリガミ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自立|貼紙</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ハリガミ </t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">ハリガミ </t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">ジリツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">駐輪禁止
+NO PARKING
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주차</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">금지
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>禁止停</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+CÁM Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ỗ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> XE 2 BÁNH
+自転車は自転車駐車場（駐輪場）へ
+ありがとうございます。この道路は、皆様のご協力できれいに保たれています。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤丸斜線|自転車</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">アカマル </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">シャセン </t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t xml:space="preserve">ジテンシャ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ja|en|ko|zh|vi|_multi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>8:00~20:00
+위험</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+危険
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자전거</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주행금지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+自転車バイク走行禁止
+押して通行して下さい！</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>持ち運び</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">モチハコビ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ko|ja</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤丸斜線|自転車に乗る人</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">アカマルシャセン </t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">ジテンシャ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>安全帯使用
+Wear Safety Belt
+必</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>须</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>系安全</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">带
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ử</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ụ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NG DÂY ĐAI AN TOAN</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>安全帯を使用する人</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">アンゼンタイ </t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t xml:space="preserve">ヒト </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ja|en|zh|vi|_multi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>保護帽着用
+Wear Helmet
+必</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>须载</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>安全帽
+Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ộ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I MŨ ĐÀO H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ố</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>安全帽を着用する人</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">アンゼンボウヲ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">チャクヨウスル </t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t xml:space="preserve">ヒト </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>整理整頓
+Keep Tidy
+整理整</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>顿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+V SINH S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CH SE</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>箱を積み重ねる人</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ハコヲ </t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">ツミカサネルヒト </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>頭上注意
+Watch Your Head
+当心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>头顶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+CHÚ Ý TRÊN ĐÂU</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>足もと注意
+Watch Your Step
+CHÚ Ý D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I CHÂN</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>開口部注意
+Danger: Opening in Floor
+当心开口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>处</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+CHÚ Ý L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ờ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ờ</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>頭上の突起物|ぎざぎざ|見上げる人</t>
+    <rPh sb="0" eb="5">
+      <t xml:space="preserve">ズジョウトッキ </t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">ブツ </t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">ミアゲルヒト </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>段差|ぎざぎざ|走る人</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ダンサ </t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t xml:space="preserve">ハシル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>床の穴|ぎざぎざ|倒れる人</t>
+    <rPh sb="9" eb="10">
+      <t xml:space="preserve">タオレルヒト </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工事車両の迷惑駐車を禁止します。近隣に配慮した行動をお願いします。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">タワー入口
+Tower Entrance
+塔入口
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>타워입구</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>矢印</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヤジルシ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>精算機ではありません
+It's not a fare adjustment machine.
+這不是補票機</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ja|en|zh</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中央制御機|貼紙</t>
+    <rPh sb="0" eb="5">
+      <t xml:space="preserve">チュウオウセイギョキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>link</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://x.com/xiPJ/status/1653631255865610240</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>危険です
+すがらないでください</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://x.com/xiPJ/status/1655779222496092162</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>離合電車に注意しましょう！！
+左右の安全確認をしましょう！！</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">リゴウデンシャ </t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t xml:space="preserve">サユウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤丸斜線|赤い顔の車</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">アカマル </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">シャセン </t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">アカイ </t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t xml:space="preserve">カオノ </t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t xml:space="preserve">クルマ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クルマの人にゃ飲ますまぁでぇ
+飲んだら、乗るまぁ、乗らすまぁ
+やめよう！飲酒運転ひろしま
+お酒を飲んだら公共交通機関を利用しましょう
+広島市</t>
+    <rPh sb="15" eb="16">
+      <t xml:space="preserve">ノンダラ </t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t xml:space="preserve">ノル </t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t xml:space="preserve">ノラス </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毎月2・12・22日は マイカー 乗るまぁデー
+ノーマイカーデーひろしま実行委員会 広島市</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">マイツキ </t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t xml:space="preserve">ニチハ </t>
+    </rPh>
+    <rPh sb="36" eb="41">
+      <t xml:space="preserve">ジッコウイインカイ </t>
+    </rPh>
+    <rPh sb="42" eb="45">
+      <t xml:space="preserve">ヒロシマシ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電車に乗るクマ</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">デンシャ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://x.com/xiPJ/status/1653725863094136832</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハトに餌をあげないでください。
+公園管理者</t>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">エサヲ </t>
+    </rPh>
+    <rPh sb="16" eb="21">
+      <t xml:space="preserve">コウエンカンリシャ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ふりがな</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://x.com/xiPJ/status/1657318564649635845</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://x.com/xiPJ/status/1653723225455755264</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_0156.heic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たばこのむな</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガラス|貼り文字</t>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">ハリモジ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://x.com/xiPJ/status/1654164548285235211</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■ 黄色の点字ブロックの内側でお待ちください
+■ きけんです（高電圧）
+転落にご注意ください
+飛び降り行為は警察に通報します
+■ 下に物を落としたときは駅係員にご連絡ください</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://x.com/xiPJ/status/1654472446584684545</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1140,6 +4492,74 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1158,12 +4578,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1173,8 +4596,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1507,21 +4949,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0244D4E8-F443-D54E-A975-960F8853E327}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:H107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="106" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="106" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" customWidth="1"/>
+    <col min="3" max="3" width="70.140625" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="54.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8" ht="21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1531,7 +4975,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -1540,538 +4984,597 @@
       <c r="F1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="42">
+      <c r="G1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="147">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
+        <v>203</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>202</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="84">
+        <v>213</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="168">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" t="s">
-        <v>83</v>
+        <v>205</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>225</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="21">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="63">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F4" t="s">
+        <v>209</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="42">
+      <c r="A5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E5" t="s">
+        <v>227</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="42">
+      <c r="A6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E6" t="s">
+        <v>227</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" ht="42">
+      <c r="A7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C7" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" ht="42">
+      <c r="A8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="42">
-      <c r="A5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="42">
-      <c r="A6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="42">
-      <c r="A7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7">
+      <c r="E8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" t="s">
+        <v>246</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="84">
+      <c r="A9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E9" t="s">
+        <v>228</v>
+      </c>
+      <c r="F9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="84">
+      <c r="A10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E10" t="s">
+        <v>229</v>
+      </c>
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="105">
+      <c r="A11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E11" t="s">
+        <v>230</v>
+      </c>
+      <c r="F11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="82">
+      <c r="A12" t="s">
+        <v>186</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="42">
-      <c r="A8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="42">
-      <c r="A9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="42">
-      <c r="A10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="42">
-      <c r="A11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" t="s">
-        <v>99</v>
-      </c>
-      <c r="E11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="168">
-      <c r="A12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>237</v>
+      </c>
+      <c r="F12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="105">
+      <c r="A13" t="s">
+        <v>187</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="42">
-      <c r="A13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13">
-        <v>11</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>240</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="21">
+        <v>39</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="42">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>187</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" t="s">
-        <v>107</v>
+        <v>239</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>241</v>
       </c>
       <c r="F14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="63">
+    <row r="15" spans="1:8" ht="21">
       <c r="A15" t="s">
-        <v>102</v>
+        <v>188</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D15" t="s">
-        <v>5</v>
+        <v>242</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>243</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>244</v>
       </c>
       <c r="F15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="84">
+        <v>245</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="147">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D16" t="s">
-        <v>108</v>
+        <v>247</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="E16" t="s">
-        <v>109</v>
+        <v>249</v>
       </c>
       <c r="F16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="63">
+        <v>39</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="124">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D17" t="s">
-        <v>5</v>
+      <c r="C17" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>253</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="126">
+        <v>252</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="84">
       <c r="A18" t="s">
-        <v>112</v>
+        <v>191</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D18" t="s">
-        <v>114</v>
+        <v>254</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>256</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="84">
+        <v>40</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="84">
       <c r="A19" t="s">
-        <v>112</v>
+        <v>191</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D19" t="s">
+        <v>257</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E19" t="s">
+        <v>256</v>
+      </c>
+      <c r="F19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" ht="84">
+      <c r="A20" t="s">
+        <v>191</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E20" t="s">
+        <v>256</v>
+      </c>
+      <c r="F20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" ht="84">
+      <c r="A21" t="s">
+        <v>191</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E21" t="s">
+        <v>256</v>
+      </c>
+      <c r="F21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" ht="63">
+      <c r="A22" t="s">
+        <v>191</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E22" t="s">
+        <v>256</v>
+      </c>
+      <c r="F22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" ht="84">
+      <c r="A23" t="s">
+        <v>191</v>
+      </c>
+      <c r="B23">
         <v>5</v>
       </c>
-      <c r="E19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="189">
-      <c r="A20" t="s">
-        <v>116</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D20" t="s">
-        <v>118</v>
-      </c>
-      <c r="E20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="105">
-      <c r="A21" t="s">
-        <v>119</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D21" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="84">
-      <c r="A22" t="s">
-        <v>122</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D22" t="s">
-        <v>123</v>
-      </c>
-      <c r="E22" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="21">
-      <c r="A23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
       <c r="C23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" t="s">
-        <v>35</v>
+        <v>263</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>256</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="84">
-      <c r="A24" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
+      </c>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" ht="21">
+      <c r="A24" t="s">
+        <v>191</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" t="s">
+        <v>267</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E24" t="s">
         <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="399">
-      <c r="A25" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
+      </c>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" ht="105">
+      <c r="A25" t="s">
+        <v>192</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" t="s">
+        <v>291</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E25" t="s">
         <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="63">
-      <c r="A26" s="2" t="s">
-        <v>27</v>
+        <v>49</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="21">
+      <c r="A26" t="s">
+        <v>287</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" t="s">
+        <v>288</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E26" t="s">
         <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="84">
+        <v>36</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="82">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>193</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" t="s">
-        <v>5</v>
+      <c r="C27" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>269</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>237</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="84">
+        <v>289</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="42">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>194</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" t="s">
+        <v>283</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E28" t="s">
@@ -2080,449 +5583,1671 @@
       <c r="F28" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="84">
+      <c r="G28" t="s">
+        <v>284</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="105">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>195</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" t="s">
-        <v>5</v>
+        <v>279</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>278</v>
       </c>
       <c r="E29" t="s">
         <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="105">
+        <v>158</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="42">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>196</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" t="s">
+        <v>277</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E30" t="s">
         <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="147">
+        <v>40</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="42">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>197</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
+        <v>275</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E31" t="s">
         <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="105">
+        <v>49</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="42">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>198</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" t="s">
-        <v>67</v>
+        <v>280</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>281</v>
       </c>
       <c r="E32" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="42">
+        <v>49</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="63">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>199</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" t="s">
-        <v>71</v>
+        <v>270</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E33" t="s">
-        <v>72</v>
+        <v>271</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="42">
+        <v>272</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="63">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>200</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D34" t="s">
-        <v>67</v>
+        <v>201</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="63">
+        <v>49</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="42">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D35" t="s">
-        <v>63</v>
+        <v>130</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E35" t="s">
         <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="126">
-      <c r="A36" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="84">
+      <c r="A36" t="s">
+        <v>122</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D36" t="s">
-        <v>44</v>
+        <v>131</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E36" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="21">
-      <c r="A37" s="2" t="s">
-        <v>15</v>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="168">
+      <c r="A37" t="s">
+        <v>123</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" t="s">
-        <v>17</v>
+        <v>135</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E37" t="s">
         <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="21">
-      <c r="A38" s="2" t="s">
-        <v>15</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="42">
+      <c r="A38" t="s">
+        <v>123</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" t="s">
-        <v>19</v>
+        <v>136</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E38" t="s">
         <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="42">
-      <c r="A39" s="2" t="s">
-        <v>15</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="63">
+      <c r="A39" t="s">
+        <v>123</v>
       </c>
       <c r="B39">
         <v>2</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D39" t="s">
-        <v>23</v>
+        <v>137</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E39" t="s">
         <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="21">
-      <c r="A40" s="2" t="s">
-        <v>15</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="84">
+      <c r="A40" t="s">
+        <v>123</v>
       </c>
       <c r="B40">
         <v>3</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D40" t="s">
-        <v>30</v>
+        <v>133</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="E40" t="s">
         <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="42">
-      <c r="A41" s="2" t="s">
-        <v>15</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="84">
+      <c r="A41" t="s">
+        <v>124</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>21</v>
+        <v>141</v>
       </c>
       <c r="E41" t="s">
         <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="21">
-      <c r="A42" s="2" t="s">
-        <v>15</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="42">
+      <c r="A42" t="s">
+        <v>124</v>
       </c>
       <c r="B42">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D42" t="s">
-        <v>22</v>
+        <v>138</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="E42" t="s">
         <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="21">
-      <c r="A43" s="2" t="s">
-        <v>15</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="84">
+      <c r="A43" t="s">
+        <v>125</v>
       </c>
       <c r="B43">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D43" t="s">
-        <v>24</v>
+        <v>143</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E43" t="s">
         <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="21">
-      <c r="A44" s="2" t="s">
-        <v>15</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="168">
+      <c r="A44" t="s">
+        <v>126</v>
       </c>
       <c r="B44">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D44" t="s">
-        <v>26</v>
+        <v>144</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="E44" t="s">
         <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="126">
-      <c r="A45" s="2" t="s">
-        <v>65</v>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="42">
+      <c r="A45" t="s">
+        <v>127</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D45" t="s">
-        <v>61</v>
+        <v>149</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E45" t="s">
         <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="63">
-      <c r="A46" s="2" t="s">
-        <v>58</v>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="105">
+      <c r="A46" t="s">
+        <v>128</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="C46" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E46" t="s">
         <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="42">
-      <c r="A47" s="2" t="s">
-        <v>56</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="42">
+      <c r="A47" t="s">
+        <v>128</v>
       </c>
       <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E47" t="s">
         <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="21">
-      <c r="A48" s="2" t="s">
-        <v>51</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="63">
+      <c r="A48" t="s">
+        <v>129</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D48" t="s">
+        <v>152</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E48" t="s">
         <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="84">
-      <c r="A49" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="21">
+      <c r="A49" t="s">
+        <v>78</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D49" t="s">
+        <v>79</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E49" t="s">
         <v>45</v>
       </c>
       <c r="F49" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="84">
+      <c r="A50" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E50" t="s">
+        <v>70</v>
+      </c>
+      <c r="F50" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="21">
+      <c r="A51" t="s">
+        <v>78</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" t="s">
+        <v>70</v>
+      </c>
+      <c r="F51" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="42">
+      <c r="A52" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E52" t="s">
+        <v>70</v>
+      </c>
+      <c r="F52" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="42">
+      <c r="A53" t="s">
+        <v>78</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F53" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="42">
+      <c r="A54" t="s">
+        <v>78</v>
+      </c>
+      <c r="B54">
+        <v>5</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E54" t="s">
+        <v>70</v>
+      </c>
+      <c r="F54" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="42">
+      <c r="A55" t="s">
+        <v>78</v>
+      </c>
+      <c r="B55">
+        <v>6</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" t="s">
+        <v>70</v>
+      </c>
+      <c r="F55" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="42">
+      <c r="A56" t="s">
+        <v>78</v>
+      </c>
+      <c r="B56">
+        <v>7</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E56" t="s">
+        <v>70</v>
+      </c>
+      <c r="F56" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="42">
+      <c r="A57" t="s">
+        <v>78</v>
+      </c>
+      <c r="B57">
+        <v>8</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F57" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="42">
+      <c r="A58" t="s">
+        <v>78</v>
+      </c>
+      <c r="B58">
+        <v>9</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E58" t="s">
+        <v>70</v>
+      </c>
+      <c r="F58" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="168">
+      <c r="A59" t="s">
+        <v>78</v>
+      </c>
+      <c r="B59">
+        <v>10</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" t="s">
+        <v>45</v>
+      </c>
+      <c r="F59" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="42">
+      <c r="A60" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60">
+        <v>11</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F60" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="42">
+      <c r="A61" t="s">
+        <v>99</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E61" t="s">
+        <v>45</v>
+      </c>
+      <c r="F61" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="42">
+      <c r="A62" t="s">
+        <v>100</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" t="s">
+        <v>45</v>
+      </c>
+      <c r="F62" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="84">
+      <c r="A63" t="s">
+        <v>103</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E63" t="s">
+        <v>231</v>
+      </c>
+      <c r="F63" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="63">
+      <c r="A64" t="s">
+        <v>107</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" t="s">
+        <v>45</v>
+      </c>
+      <c r="F64" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="126">
+      <c r="A65" t="s">
+        <v>109</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E65" t="s">
+        <v>45</v>
+      </c>
+      <c r="F65" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="42">
+      <c r="A66" t="s">
+        <v>109</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" t="s">
+        <v>45</v>
+      </c>
+      <c r="F66" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="147">
+      <c r="A67" t="s">
+        <v>113</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E67" t="s">
+        <v>45</v>
+      </c>
+      <c r="F67" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="105">
+      <c r="A68" t="s">
+        <v>116</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E68" t="s">
+        <v>45</v>
+      </c>
+      <c r="F68" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="63">
+      <c r="A69" t="s">
+        <v>119</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E69" t="s">
+        <v>45</v>
+      </c>
+      <c r="F69" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="105">
+      <c r="A70" t="s">
+        <v>210</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70" t="s">
+        <v>232</v>
+      </c>
+      <c r="F70" t="s">
+        <v>207</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="21">
+      <c r="A71" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E71" t="s">
+        <v>45</v>
+      </c>
+      <c r="F71" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="84">
+      <c r="A72" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" t="s">
+        <v>45</v>
+      </c>
+      <c r="F72" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="336">
+      <c r="A73" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73" t="s">
+        <v>45</v>
+      </c>
+      <c r="F73" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="63">
+      <c r="A74" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E74" t="s">
+        <v>45</v>
+      </c>
+      <c r="F74" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="63">
+      <c r="A75" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E75" t="s">
+        <v>45</v>
+      </c>
+      <c r="F75" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="63">
+      <c r="A76" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" t="s">
+        <v>45</v>
+      </c>
+      <c r="F76" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="63">
+      <c r="A77" t="s">
+        <v>11</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E77" t="s">
+        <v>45</v>
+      </c>
+      <c r="F77" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="84">
+      <c r="A78" t="s">
+        <v>177</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E78" t="s">
+        <v>179</v>
+      </c>
+      <c r="F78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="63">
+      <c r="A79" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E79" t="s">
+        <v>45</v>
+      </c>
+      <c r="F79" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="105">
+      <c r="A80" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E80" t="s">
+        <v>45</v>
+      </c>
+      <c r="F80" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="105">
+      <c r="A81" t="s">
+        <v>71</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E81" t="s">
+        <v>70</v>
+      </c>
+      <c r="F81" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="42">
+      <c r="A82" t="s">
+        <v>67</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" t="s">
+        <v>70</v>
+      </c>
+      <c r="F82" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="84">
+      <c r="A83" t="s">
+        <v>175</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="42">
+      <c r="A84" t="s">
+        <v>64</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E84" t="s">
+        <v>45</v>
+      </c>
+      <c r="F84" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="63">
+      <c r="A85" t="s">
+        <v>62</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E85" t="s">
+        <v>45</v>
+      </c>
+      <c r="F85" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="126">
+      <c r="A86" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E86" t="s">
+        <v>231</v>
+      </c>
+      <c r="F86" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="21">
+      <c r="A87" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E87" t="s">
+        <v>45</v>
+      </c>
+      <c r="F87" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="21">
+      <c r="A88" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E88" t="s">
+        <v>45</v>
+      </c>
+      <c r="F88" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="42">
+      <c r="A89" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E89" t="s">
+        <v>45</v>
+      </c>
+      <c r="F89" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="21">
+      <c r="A90" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B90">
+        <v>3</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E90" t="s">
+        <v>45</v>
+      </c>
+      <c r="F90" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="42">
+      <c r="A91" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B91">
+        <v>4</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E91" t="s">
+        <v>45</v>
+      </c>
+      <c r="F91" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="21">
+      <c r="A92" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B92">
+        <v>5</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E92" t="s">
+        <v>45</v>
+      </c>
+      <c r="F92" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="21">
+      <c r="A93" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B93">
+        <v>6</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E93" t="s">
+        <v>45</v>
+      </c>
+      <c r="F93" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="21">
+      <c r="A94" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B94">
+        <v>7</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E94" t="s">
+        <v>45</v>
+      </c>
+      <c r="F94" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="21">
+      <c r="A95" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E95" t="s">
+        <v>45</v>
+      </c>
+      <c r="F95" t="s">
+        <v>36</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="409.6">
+      <c r="A96" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E96" t="s">
+        <v>233</v>
+      </c>
+      <c r="F96" t="s">
+        <v>36</v>
+      </c>
+      <c r="H96" s="4"/>
+    </row>
+    <row r="97" spans="1:8" ht="105">
+      <c r="A97" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E97" t="s">
+        <v>45</v>
+      </c>
+      <c r="F97" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="63">
+      <c r="A98" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E98" t="s">
+        <v>45</v>
+      </c>
+      <c r="F98" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="42">
+      <c r="A99" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E99" t="s">
+        <v>45</v>
+      </c>
+      <c r="F99" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="42">
-      <c r="A50" s="2" t="s">
+    <row r="100" spans="1:8" ht="21">
+      <c r="A100" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" t="s">
+        <v>45</v>
+      </c>
+      <c r="F100" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="84">
+      <c r="A101" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E101" t="s">
+        <v>45</v>
+      </c>
+      <c r="F101" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="42">
+      <c r="A102" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B50">
+      <c r="B102">
         <v>0</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D50" t="s">
-        <v>60</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="D102" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E102" t="s">
         <v>45</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F102" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="42">
+      <c r="A103" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E103" t="s">
+        <v>169</v>
+      </c>
+      <c r="F103" t="s">
+        <v>170</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="126">
+      <c r="A104" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E104" t="s">
+        <v>234</v>
+      </c>
+      <c r="F104" t="s">
+        <v>158</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="105">
+      <c r="A105" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E105" t="s">
+        <v>235</v>
+      </c>
+      <c r="F105" t="s">
+        <v>158</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="42">
+      <c r="A106" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E106" t="s">
+        <v>70</v>
+      </c>
+      <c r="F106" t="s">
+        <v>158</v>
+      </c>
+      <c r="H106" s="4"/>
+    </row>
+    <row r="107" spans="1:8" ht="42">
+      <c r="A107" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E107" t="s">
+        <v>155</v>
+      </c>
+      <c r="F107" t="s">
+        <v>40</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="H107" r:id="rId1" xr:uid="{81642C6C-B155-384F-AAC7-449D3395E8A1}"/>
+    <hyperlink ref="H105" r:id="rId2" xr:uid="{BF840327-7DE3-494E-9852-F70E198FA83F}"/>
+    <hyperlink ref="H104" r:id="rId3" xr:uid="{C1032CAE-FCD8-1242-B6C3-B70B988BC2CA}"/>
+    <hyperlink ref="H103" r:id="rId4" xr:uid="{F8DE77CC-7236-5740-A008-5EFF79B59035}"/>
+    <hyperlink ref="H95" r:id="rId5" xr:uid="{09EF007C-85D3-5F45-B203-6FE0424E5C99}"/>
+    <hyperlink ref="H83" r:id="rId6" xr:uid="{CA79A61E-3453-F748-8421-4D89662469BF}"/>
+    <hyperlink ref="H78" r:id="rId7" xr:uid="{DF2D3758-0BC9-D246-BED3-26AF94D5F9D8}"/>
+    <hyperlink ref="H34" r:id="rId8" xr:uid="{CCDC15F7-E252-0348-B02C-905084BD776E}"/>
+    <hyperlink ref="H2" r:id="rId9" xr:uid="{B4649428-221F-674F-BA70-A2780E5E269C}"/>
+    <hyperlink ref="H70" r:id="rId10" xr:uid="{E8486F26-D2AA-3540-A8B3-73E08A241E3A}"/>
+    <hyperlink ref="H4" r:id="rId11" xr:uid="{DF9E283C-C630-6141-B84A-D4DC20067D3A}"/>
+    <hyperlink ref="H5" r:id="rId12" xr:uid="{AA765222-2C31-E444-93E0-6241B574BBDA}"/>
+    <hyperlink ref="H8" r:id="rId13" xr:uid="{7424A509-2E7F-534F-A182-16DD568A0E14}"/>
+    <hyperlink ref="H10" r:id="rId14" xr:uid="{B81B5BB0-A4D2-CE48-976B-41038463380C}"/>
+    <hyperlink ref="H11" r:id="rId15" xr:uid="{51731D61-79A9-C248-A29C-7F455B171752}"/>
+    <hyperlink ref="H12" r:id="rId16" xr:uid="{DF071ACD-52CF-F248-82F5-DCBA80F5ED7C}"/>
+    <hyperlink ref="H13" r:id="rId17" xr:uid="{A3CDB931-1A52-EE43-BE32-2575167D2188}"/>
+    <hyperlink ref="H15" r:id="rId18" xr:uid="{217C257E-AC48-D240-A20A-4B4B59D80A75}"/>
+    <hyperlink ref="H16" r:id="rId19" xr:uid="{7DD8D092-ADED-CC44-8C91-A6B96A4E7F8B}"/>
+    <hyperlink ref="H17" r:id="rId20" xr:uid="{FF12F444-682A-3040-A650-0D77B1F409BF}"/>
+    <hyperlink ref="H18" r:id="rId21" xr:uid="{1128B72D-52B8-8F47-9418-E2DF8EDBE41D}"/>
+    <hyperlink ref="H27" r:id="rId22" xr:uid="{497C3D62-66B1-B349-919C-BB1436BCE7EA}"/>
+    <hyperlink ref="H33" r:id="rId23" xr:uid="{AA737391-1EFB-A246-BB33-46BEF9DF59DA}"/>
+    <hyperlink ref="H31" r:id="rId24" xr:uid="{12373DBC-12D0-EF44-94D1-6BE389EE8541}"/>
+    <hyperlink ref="H30" r:id="rId25" xr:uid="{0D1FF725-B522-814B-944C-9DE55388698D}"/>
+    <hyperlink ref="H32" r:id="rId26" xr:uid="{B196E238-6A79-1D4C-BE62-208D54322587}"/>
+    <hyperlink ref="H28" r:id="rId27" xr:uid="{C086B470-F6CB-A541-BF4F-D4066F6C3477}"/>
+    <hyperlink ref="H29" r:id="rId28" xr:uid="{6C629B57-C1F3-4545-97A0-DAE1AEC86284}"/>
+    <hyperlink ref="H26" r:id="rId29" xr:uid="{B29892C6-C28D-A544-98D7-253097387448}"/>
+    <hyperlink ref="H25" r:id="rId30" xr:uid="{CB97C88D-610F-9244-AD06-BA36E3E1A20C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/data_excel/tags.xlsx
+++ b/data_excel/tags.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay/xidev/kanban/data_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{EA6035FF-C1C4-B942-894D-84E4E009AC65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{C4603199-B969-CA47-8B7D-0BF76049C706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13660" yWindow="660" windowWidth="24580" windowHeight="17120" xr2:uid="{1951D371-7A8D-D346-B651-736256765602}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="323">
   <si>
     <t>img</t>
     <phoneticPr fontId="1"/>
@@ -1420,13 +1420,6 @@
   </si>
   <si>
     <t>IMG_5008.JPG</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ガラス|貼紙</t>
-    <rPh sb="4" eb="6">
-      <t xml:space="preserve">ハリガミ </t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3107,37 +3100,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>vi|zh|_multi</t>
-  </si>
-  <si>
-    <t>ja|zh|vi|_multi</t>
-  </si>
-  <si>
-    <t>zh|en|_multi</t>
-  </si>
-  <si>
-    <t>zh|zh|en|ja|_multi</t>
-  </si>
-  <si>
-    <t>ja|en|vi|zh|_multi</t>
-  </si>
-  <si>
-    <t>ja|en|de|ko|zh|_multi</t>
-  </si>
-  <si>
     <t>ja|en|zh|ko|_multi</t>
   </si>
   <si>
-    <t>en|zh|zh|ko|_multi</t>
-  </si>
-  <si>
     <t>ja|en|pt|_multi</t>
   </si>
   <si>
     <t>ja|en|ru|_multi</t>
-  </si>
-  <si>
-    <t>ja|en|ru|ko|zh|_multi</t>
   </si>
   <si>
     <r>
@@ -3180,10 +3149,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ja|en|zh|ko|_multi</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <t>因</t>
     </r>
@@ -3589,14 +3554,6 @@
       </rPr>
       <t>间</t>
     </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>zh</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ja|zh</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3759,10 +3716,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ja|en|ko|zh|vi|_multi</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -3955,10 +3908,6 @@
     <rPh sb="8" eb="9">
       <t xml:space="preserve">ヒト </t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ja|en|zh|vi|_multi</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4290,10 +4239,6 @@
     <t>精算機ではありません
 It's not a fare adjustment machine.
 這不是補票機</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ja|en|zh</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4427,13 +4372,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ガラス|貼り文字</t>
-    <rPh sb="4" eb="5">
-      <t xml:space="preserve">ハリモジ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>https://x.com/xiPJ/status/1654164548285235211</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -4447,6 +4385,429 @@
   </si>
   <si>
     <t>https://x.com/xiPJ/status/1654472446584684545</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_4137.HEIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>CHÚ Ý
+B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ậ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ử</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A XE
+CAUTION</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>段差|転ぶ人</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ダンサ </t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">コロビソウナヒト </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vi|en</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>扉|ステッカー</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">トビラ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CAUTION
+WET FLOOR
+CHÚ Ý
+SÀN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_4149.HEIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黄三角|滑る人</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">キ </t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t xml:space="preserve">サンカク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>en|vi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_5093.HEIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>警告
+請勿強行拉開車門！
+為保障閣下生命安全及避免列車突然停頓，在没有車務人員的指示下，請勿強行拉開車門。
+CAUTION
+DO NOT OPEN!
+ANY ATTEMPT TO OPEN THE DOOR WILL CAUSE SERIOUS INJURY AND SUDDEN STOPPAGE OF THE VEHICLE. PLEASE DO NOT OPEN THE DOOR OTHERWISE INSTRUCTED.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_2082.HEIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">厨房重地
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>闲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>人免</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>进</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+NO ADMITTANCE TO KITCHEN</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>小心突然开门
+CAUTION DOOR SWINGS OUTWARD</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>丸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>斜線|歩く人</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>⭕️</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t xml:space="preserve">シャセン </t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">アルクヒト </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドアを開ける人|矢印|驚く人</t>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">アケルヒト </t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">ヤジルシ </t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t xml:space="preserve">オドロクヒト </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>zh-Hans</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>zh-Hans|en</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>en|zh-Hant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>彈指神功，水滴入盆
+Please leave the basin clean and tidy.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_2737.HEIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>zh-Hant|en</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壁|ステッカー</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カベ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>扉|貼紙</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">トビラ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">ハリガミ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壁|貼り文字</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カベ </t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">ハリモジ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>窓|貼紙</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">マド </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">ハリガミ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vi|zh-Hans|_multi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ja|zh-Hans|vi|_multi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>zh-Hans|en|_multi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>zh-Hans|zh-Hant|en|ja|_multi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ja|en|de|ko|zh-Hans|_multi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ja|en|ko|zh-Hans|vi|_multi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ja|en|zh-Hans|vi|_multi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ja|en|vi|_multi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ja|en|zh-Hans|ko|_multi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>en|zh-Hans|zh-Hant|ko|_multi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ja|zh|en|ko|_multi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ja|en|ru|ko|zh-Hant|_multi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ja|en|vi|zh-Hans|_multi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ja|en|zh-Hant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ja|zh-Hans</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_2683.HEIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>請小心
+路面不平 濕滑</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>zh-Hant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>円|滑る人</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">エン </t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">スベルヒト </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>床|ステッカー</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ユカ </t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4949,10 +5310,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0244D4E8-F443-D54E-A975-960F8853E327}">
-  <dimension ref="A1:H107"/>
+  <dimension ref="A1:H114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="106" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="106" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4985,643 +5346,628 @@
         <v>41</v>
       </c>
       <c r="G1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H1" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="147">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="E2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="168">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>286</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>205</v>
+        <v>287</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>225</v>
+        <v>295</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="63">
+        <v>281</v>
+      </c>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" ht="84">
       <c r="A4" t="s">
-        <v>181</v>
+        <v>283</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>208</v>
+        <v>282</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>5</v>
+        <v>284</v>
       </c>
       <c r="E4" t="s">
-        <v>226</v>
+        <v>285</v>
       </c>
       <c r="F4" t="s">
-        <v>209</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="42">
+        <v>66</v>
+      </c>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" ht="63">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>277</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>211</v>
+        <v>278</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>212</v>
+        <v>279</v>
       </c>
       <c r="E5" t="s">
-        <v>227</v>
+        <v>280</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="42">
+        <v>281</v>
+      </c>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" ht="168">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>214</v>
+      <c r="C6" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>215</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>227</v>
+        <v>303</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" ht="42">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="63">
       <c r="A7" t="s">
-        <v>182</v>
+        <v>288</v>
       </c>
       <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>216</v>
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>289</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>217</v>
+        <v>291</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>294</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="4"/>
+        <v>281</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="42">
       <c r="A8" t="s">
-        <v>183</v>
+        <v>288</v>
       </c>
       <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E8" t="s">
+        <v>294</v>
+      </c>
+      <c r="F8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="63">
+      <c r="A9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B9">
         <v>0</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" t="s">
-        <v>246</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="84">
-      <c r="A9" t="s">
-        <v>183</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>220</v>
-      </c>
       <c r="E9" t="s">
-        <v>228</v>
+        <v>304</v>
       </c>
       <c r="F9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="84">
+        <v>208</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="42">
       <c r="A10" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="E10" t="s">
-        <v>229</v>
+        <v>305</v>
       </c>
       <c r="F10" t="s">
         <v>49</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="105">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="42">
       <c r="A11" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>223</v>
+        <v>1</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>213</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="E11" t="s">
-        <v>230</v>
+        <v>305</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="82">
+        <v>49</v>
+      </c>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" ht="42">
       <c r="A12" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>236</v>
+        <v>2</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>215</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>5</v>
+        <v>216</v>
       </c>
       <c r="E12" t="s">
-        <v>237</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="105">
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" ht="42">
       <c r="A13" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>240</v>
+        <v>70</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>234</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="42">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="84">
       <c r="A14" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>239</v>
+      <c r="C14" s="7" t="s">
+        <v>218</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="E14" t="s">
-        <v>241</v>
+        <v>306</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="21">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="84">
       <c r="A15" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E15" t="s">
-        <v>244</v>
+        <v>315</v>
       </c>
       <c r="F15" t="s">
-        <v>245</v>
+        <v>49</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="147">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="105">
       <c r="A16" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="E16" t="s">
-        <v>249</v>
+        <v>307</v>
       </c>
       <c r="F16" t="s">
         <v>39</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="124">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="82">
       <c r="A17" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>250</v>
+      <c r="C17" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>253</v>
+        <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>252</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>251</v>
+        <v>311</v>
+      </c>
+      <c r="F17" t="s">
+        <v>49</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="84">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="105">
       <c r="A18" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>255</v>
+        <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>256</v>
+        <v>293</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="84">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="42">
       <c r="A19" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>258</v>
+        <v>19</v>
       </c>
       <c r="E19" t="s">
-        <v>256</v>
+        <v>317</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="1:8" ht="84">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="21">
       <c r="A20" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="E20" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" ht="84">
+        <v>233</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="147">
       <c r="A21" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="E21" t="s">
-        <v>256</v>
+        <v>308</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
-      </c>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:8" ht="63">
+        <v>39</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="124">
       <c r="A22" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B22">
-        <v>4</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>262</v>
+        <v>0</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>237</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="E22" t="s">
-        <v>256</v>
-      </c>
-      <c r="F22" t="s">
-        <v>40</v>
-      </c>
-      <c r="H22" s="4"/>
+        <v>239</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="23" spans="1:8" ht="84">
       <c r="A23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="E23" t="s">
-        <v>256</v>
+        <v>309</v>
       </c>
       <c r="F23" t="s">
         <v>40</v>
       </c>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="1:8" ht="21">
+      <c r="H23" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="84">
       <c r="A24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B24">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>5</v>
+        <v>244</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>309</v>
       </c>
       <c r="F24" t="s">
         <v>40</v>
       </c>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" ht="105">
+    <row r="25" spans="1:8" ht="84">
       <c r="A25" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>291</v>
+        <v>245</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E25" t="s">
+        <v>309</v>
+      </c>
+      <c r="F25" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" ht="84">
+      <c r="A26" t="s">
+        <v>190</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E26" t="s">
+        <v>309</v>
+      </c>
+      <c r="F26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" ht="63">
+      <c r="A27" t="s">
+        <v>190</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E27" t="s">
+        <v>310</v>
+      </c>
+      <c r="F27" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" ht="84">
+      <c r="A28" t="s">
+        <v>190</v>
+      </c>
+      <c r="B28">
         <v>5</v>
       </c>
-      <c r="E25" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" t="s">
-        <v>49</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="21">
-      <c r="A26" t="s">
-        <v>287</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="C28" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E28" t="s">
+        <v>309</v>
+      </c>
+      <c r="F28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" ht="21">
+      <c r="A29" t="s">
+        <v>190</v>
+      </c>
+      <c r="B29">
+        <v>6</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E26" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" t="s">
-        <v>36</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="82">
-      <c r="A27" t="s">
-        <v>193</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="E27" t="s">
-        <v>237</v>
-      </c>
-      <c r="F27" t="s">
-        <v>289</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="42">
-      <c r="A28" t="s">
-        <v>194</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" t="s">
-        <v>284</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="105">
-      <c r="A29" t="s">
-        <v>195</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="E29" t="s">
         <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>158</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="42">
+        <v>40</v>
+      </c>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:8" ht="105">
       <c r="A30" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>5</v>
@@ -5630,21 +5976,21 @@
         <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="42">
+    <row r="31" spans="1:8" ht="21">
       <c r="A31" t="s">
-        <v>197</v>
+        <v>272</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>5</v>
@@ -5653,90 +5999,93 @@
         <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="42">
+    <row r="32" spans="1:8" ht="82">
       <c r="A32" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>280</v>
+      <c r="C32" s="3" t="s">
+        <v>254</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>313</v>
       </c>
       <c r="F32" t="s">
-        <v>49</v>
+        <v>301</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="63">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="42">
       <c r="A33" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E33" t="s">
-        <v>271</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>272</v>
+        <v>39</v>
+      </c>
+      <c r="G33" t="s">
+        <v>269</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="63">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="105">
       <c r="A34" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>201</v>
+        <v>264</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>5</v>
+        <v>263</v>
       </c>
       <c r="E34" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>49</v>
+        <v>302</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>163</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="42">
       <c r="A35" t="s">
-        <v>121</v>
+        <v>195</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>130</v>
+        <v>262</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>5</v>
@@ -5745,18 +6094,21 @@
         <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="84">
+        <v>40</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="42">
       <c r="A36" t="s">
-        <v>122</v>
+        <v>196</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>131</v>
+        <v>260</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>5</v>
@@ -5765,138 +6117,150 @@
         <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="168">
+        <v>49</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="42">
       <c r="A37" t="s">
-        <v>123</v>
+        <v>197</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>135</v>
+        <v>265</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>5</v>
+        <v>266</v>
       </c>
       <c r="E37" t="s">
         <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="42">
+        <v>49</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="63">
       <c r="A38" t="s">
-        <v>123</v>
+        <v>198</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>136</v>
+        <v>256</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>316</v>
       </c>
       <c r="F38" t="s">
-        <v>39</v>
+        <v>257</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="63">
       <c r="A39" t="s">
-        <v>123</v>
+        <v>199</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>137</v>
+        <v>200</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="F39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="84">
+        <v>49</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="42">
       <c r="A40" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="E40" t="s">
         <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="84">
       <c r="A41" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>141</v>
+        <v>5</v>
       </c>
       <c r="E41" t="s">
         <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="42">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="168">
       <c r="A42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>142</v>
+        <v>5</v>
       </c>
       <c r="E42" t="s">
         <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="84">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="42">
       <c r="A43" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>5</v>
@@ -5905,98 +6269,98 @@
         <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="168">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="63">
       <c r="A44" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>145</v>
+        <v>5</v>
       </c>
       <c r="E44" t="s">
         <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="42">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="84">
       <c r="A45" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>5</v>
+        <v>134</v>
       </c>
       <c r="E45" t="s">
         <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="105">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="84">
       <c r="A46" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>150</v>
+      <c r="C46" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E46" t="s">
         <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="42">
       <c r="A47" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>151</v>
+      <c r="C47" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>5</v>
+        <v>142</v>
       </c>
       <c r="E47" t="s">
         <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="63">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="84">
       <c r="A48" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>5</v>
@@ -6005,64 +6369,64 @@
         <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="21">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="168">
       <c r="A49" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>5</v>
+        <v>145</v>
       </c>
       <c r="E49" t="s">
         <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="84">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="42">
       <c r="A50" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="E50" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="21">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="105">
       <c r="A51" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="B51">
-        <v>2</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>82</v>
+        <v>0</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E51" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
         <v>36</v>
@@ -6070,76 +6434,76 @@
     </row>
     <row r="52" spans="1:6" ht="42">
       <c r="A52" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="B52">
-        <v>3</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>83</v>
+        <v>1</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="E52" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="42">
+    <row r="53" spans="1:6" ht="63">
       <c r="A53" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="B53">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>84</v>
+        <v>152</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="E53" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="42">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="21">
       <c r="A54" t="s">
         <v>78</v>
       </c>
       <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="E54" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="42">
+    <row r="55" spans="1:6" ht="84">
       <c r="A55" t="s">
         <v>78</v>
       </c>
       <c r="B55">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="E55" t="s">
         <v>70</v>
@@ -6148,18 +6512,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="42">
+    <row r="56" spans="1:6" ht="21">
       <c r="A56" t="s">
         <v>78</v>
       </c>
       <c r="B56">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="E56" t="s">
         <v>70</v>
@@ -6173,13 +6537,13 @@
         <v>78</v>
       </c>
       <c r="B57">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E57" t="s">
         <v>70</v>
@@ -6193,13 +6557,13 @@
         <v>78</v>
       </c>
       <c r="B58">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E58" t="s">
         <v>70</v>
@@ -6208,21 +6572,21 @@
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="168">
+    <row r="59" spans="1:6" ht="42">
       <c r="A59" t="s">
         <v>78</v>
       </c>
       <c r="B59">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="E59" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="F59" t="s">
         <v>36</v>
@@ -6233,13 +6597,13 @@
         <v>78</v>
       </c>
       <c r="B60">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="E60" t="s">
         <v>70</v>
@@ -6250,73 +6614,73 @@
     </row>
     <row r="61" spans="1:6" ht="42">
       <c r="A61" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="E61" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="F61" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="42">
       <c r="A62" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="E62" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="F62" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="84">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="42">
       <c r="A63" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="E63" t="s">
-        <v>231</v>
+        <v>70</v>
       </c>
       <c r="F63" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="63">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="168">
       <c r="A64" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>5</v>
@@ -6325,181 +6689,178 @@
         <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="126">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="42">
       <c r="A65" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>111</v>
+        <v>5</v>
       </c>
       <c r="E65" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="F65" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="42">
       <c r="A66" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="E66" t="s">
         <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="147">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="42">
       <c r="A67" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>115</v>
+        <v>5</v>
       </c>
       <c r="E67" t="s">
         <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="105">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="84">
       <c r="A68" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="E68" t="s">
-        <v>45</v>
+        <v>311</v>
       </c>
       <c r="F68" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="63">
       <c r="A69" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="E69" t="s">
         <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="105">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="126">
       <c r="A70" t="s">
-        <v>210</v>
+        <v>109</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>206</v>
+        <v>110</v>
       </c>
       <c r="D70" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E70" t="s">
+        <v>45</v>
+      </c>
+      <c r="F70" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="42">
+      <c r="A71" t="s">
+        <v>109</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E70" t="s">
-        <v>232</v>
-      </c>
-      <c r="F70" t="s">
-        <v>207</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="21">
-      <c r="A71" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B71">
-        <v>0</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E71" t="s">
         <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="84">
-      <c r="A72" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="147">
+      <c r="A72" t="s">
+        <v>113</v>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>5</v>
+        <v>115</v>
       </c>
       <c r="E72" t="s">
         <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="336">
-      <c r="A73" s="2" t="s">
-        <v>27</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="105">
+      <c r="A73" t="s">
+        <v>116</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>5</v>
@@ -6508,121 +6869,121 @@
         <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="63">
-      <c r="A74" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="42">
+      <c r="A74" t="s">
+        <v>297</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E74" t="s">
-        <v>45</v>
+        <v>298</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="63">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="42">
       <c r="A75" t="s">
-        <v>12</v>
+        <v>318</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>13</v>
+        <v>319</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>5</v>
+        <v>321</v>
       </c>
       <c r="E75" t="s">
-        <v>45</v>
+        <v>320</v>
       </c>
       <c r="F75" t="s">
-        <v>39</v>
+        <v>322</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="63">
       <c r="A76" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="E76" t="s">
         <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="63">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="105">
       <c r="A77" t="s">
-        <v>11</v>
+        <v>209</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>10</v>
+        <v>205</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E77" t="s">
-        <v>45</v>
+        <v>312</v>
       </c>
       <c r="F77" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="84">
-      <c r="A78" t="s">
-        <v>177</v>
+        <v>206</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="21">
+      <c r="A78" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>178</v>
+        <v>33</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E78" t="s">
-        <v>179</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>46</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="63">
-      <c r="A79" t="s">
-        <v>7</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="84">
+      <c r="A79" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>5</v>
@@ -6631,18 +6992,18 @@
         <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="105">
-      <c r="A80" t="s">
-        <v>6</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="336">
+      <c r="A80" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>5</v>
@@ -6651,270 +7012,273 @@
         <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="105">
-      <c r="A81" t="s">
-        <v>71</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="63">
+      <c r="A81" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="E81" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="42">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="63">
       <c r="A82" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="E82" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="84">
+    <row r="83" spans="1:8" ht="63">
       <c r="A83" t="s">
-        <v>175</v>
+        <v>12</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="F83" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="H83" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="42">
+        <v>14</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" t="s">
+        <v>45</v>
+      </c>
+      <c r="F83" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="63">
       <c r="A84" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="E84" t="s">
         <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="63">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="84">
       <c r="A85" t="s">
-        <v>62</v>
+        <v>176</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>60</v>
+        <v>177</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="E85" t="s">
-        <v>45</v>
+        <v>178</v>
       </c>
       <c r="F85" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="126">
-      <c r="A86" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="63">
+      <c r="A86" t="s">
+        <v>7</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="E86" t="s">
-        <v>231</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="21">
-      <c r="A87" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="105">
+      <c r="A87" t="s">
+        <v>6</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E87" t="s">
         <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="21">
-      <c r="A88" s="2" t="s">
-        <v>15</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="105">
+      <c r="A88" t="s">
+        <v>71</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="E88" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="42">
-      <c r="A89" s="2" t="s">
-        <v>15</v>
+      <c r="A89" t="s">
+        <v>67</v>
       </c>
       <c r="B89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="E89" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="F89" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="21">
-      <c r="A90" s="2" t="s">
-        <v>15</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="84">
+      <c r="A90" t="s">
+        <v>174</v>
       </c>
       <c r="B90">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E90" t="s">
-        <v>45</v>
-      </c>
-      <c r="F90" t="s">
-        <v>36</v>
+        <v>175</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="42">
-      <c r="A91" s="2" t="s">
-        <v>15</v>
+      <c r="A91" t="s">
+        <v>64</v>
       </c>
       <c r="B91">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="E91" t="s">
         <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="21">
-      <c r="A92" s="2" t="s">
-        <v>15</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="63">
+      <c r="A92" t="s">
+        <v>62</v>
       </c>
       <c r="B92">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="E92" t="s">
         <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="21">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="126">
       <c r="A93" s="2" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B93">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="E93" t="s">
-        <v>45</v>
+        <v>224</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="21">
@@ -6922,13 +7286,13 @@
         <v>15</v>
       </c>
       <c r="B94">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E94" t="s">
         <v>45</v>
@@ -6939,16 +7303,16 @@
     </row>
     <row r="95" spans="1:8" ht="21">
       <c r="A95" s="2" t="s">
-        <v>171</v>
+        <v>15</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>172</v>
+        <v>18</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E95" t="s">
         <v>45</v>
@@ -6956,297 +7320,437 @@
       <c r="F95" t="s">
         <v>36</v>
       </c>
-      <c r="H95" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="409.6">
+    </row>
+    <row r="96" spans="1:8" ht="42">
       <c r="A96" s="2" t="s">
-        <v>171</v>
+        <v>15</v>
       </c>
       <c r="B96">
-        <v>1</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>173</v>
+        <v>2</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E96" t="s">
-        <v>233</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
         <v>36</v>
       </c>
-      <c r="H96" s="4"/>
-    </row>
-    <row r="97" spans="1:8" ht="105">
+    </row>
+    <row r="97" spans="1:8" ht="21">
       <c r="A97" s="2" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>161</v>
+        <v>30</v>
       </c>
       <c r="E97" t="s">
         <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="63">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="42">
       <c r="A98" s="2" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E98" t="s">
         <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="42">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="21">
       <c r="A99" s="2" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E99" t="s">
         <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="21">
       <c r="A100" s="2" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E100" t="s">
         <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="84">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="21">
       <c r="A101" s="2" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="E101" t="s">
         <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="42">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="21">
       <c r="A102" s="2" t="s">
-        <v>47</v>
+        <v>170</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>48</v>
+        <v>171</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>162</v>
+        <v>5</v>
       </c>
       <c r="E102" t="s">
         <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="42">
+        <v>36</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="409.6">
       <c r="A103" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B103">
-        <v>0</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>166</v>
+        <v>1</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>168</v>
+        <v>5</v>
       </c>
       <c r="E103" t="s">
-        <v>169</v>
+        <v>225</v>
       </c>
       <c r="F103" t="s">
-        <v>170</v>
-      </c>
-      <c r="H103" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="126">
+        <v>36</v>
+      </c>
+      <c r="H103" s="4"/>
+    </row>
+    <row r="104" spans="1:8" ht="105">
       <c r="A104" s="2" t="s">
-        <v>164</v>
+        <v>63</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>165</v>
+        <v>59</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="E104" t="s">
-        <v>234</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>158</v>
-      </c>
-      <c r="H104" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="105">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="63">
       <c r="A105" s="2" t="s">
-        <v>157</v>
+        <v>58</v>
       </c>
       <c r="B105">
         <v>0</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>156</v>
+        <v>57</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E105" t="s">
-        <v>235</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>158</v>
-      </c>
-      <c r="H105" s="4" t="s">
-        <v>163</v>
+        <v>39</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="42">
       <c r="A106" s="2" t="s">
-        <v>157</v>
+        <v>56</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>159</v>
+        <v>55</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>160</v>
+        <v>5</v>
       </c>
       <c r="E106" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>158</v>
-      </c>
-      <c r="H106" s="4"/>
-    </row>
-    <row r="107" spans="1:8" ht="42">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="21">
       <c r="A107" s="2" t="s">
-        <v>153</v>
+        <v>51</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>154</v>
+        <v>50</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E107" t="s">
+        <v>45</v>
+      </c>
+      <c r="F107" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="84">
+      <c r="A108" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E108" t="s">
+        <v>45</v>
+      </c>
+      <c r="F108" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="42">
+      <c r="A109" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E109" t="s">
+        <v>45</v>
+      </c>
+      <c r="F109" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="42">
+      <c r="A110" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E110" t="s">
+        <v>168</v>
+      </c>
+      <c r="F110" t="s">
+        <v>169</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="126">
+      <c r="A111" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E111" t="s">
+        <v>226</v>
+      </c>
+      <c r="F111" t="s">
+        <v>300</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="105">
+      <c r="A112" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E112" t="s">
+        <v>314</v>
+      </c>
+      <c r="F112" t="s">
+        <v>300</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="42">
+      <c r="A113" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E113" t="s">
+        <v>70</v>
+      </c>
+      <c r="F113" t="s">
+        <v>300</v>
+      </c>
+      <c r="H113" s="4"/>
+    </row>
+    <row r="114" spans="1:8" ht="42">
+      <c r="A114" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E114" t="s">
         <v>155</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F114" t="s">
         <v>40</v>
       </c>
-      <c r="H107" s="4" t="s">
-        <v>163</v>
+      <c r="H114" s="4" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="H107" r:id="rId1" xr:uid="{81642C6C-B155-384F-AAC7-449D3395E8A1}"/>
-    <hyperlink ref="H105" r:id="rId2" xr:uid="{BF840327-7DE3-494E-9852-F70E198FA83F}"/>
-    <hyperlink ref="H104" r:id="rId3" xr:uid="{C1032CAE-FCD8-1242-B6C3-B70B988BC2CA}"/>
-    <hyperlink ref="H103" r:id="rId4" xr:uid="{F8DE77CC-7236-5740-A008-5EFF79B59035}"/>
-    <hyperlink ref="H95" r:id="rId5" xr:uid="{09EF007C-85D3-5F45-B203-6FE0424E5C99}"/>
-    <hyperlink ref="H83" r:id="rId6" xr:uid="{CA79A61E-3453-F748-8421-4D89662469BF}"/>
-    <hyperlink ref="H78" r:id="rId7" xr:uid="{DF2D3758-0BC9-D246-BED3-26AF94D5F9D8}"/>
-    <hyperlink ref="H34" r:id="rId8" xr:uid="{CCDC15F7-E252-0348-B02C-905084BD776E}"/>
+    <hyperlink ref="H114" r:id="rId1" xr:uid="{81642C6C-B155-384F-AAC7-449D3395E8A1}"/>
+    <hyperlink ref="H112" r:id="rId2" xr:uid="{BF840327-7DE3-494E-9852-F70E198FA83F}"/>
+    <hyperlink ref="H111" r:id="rId3" xr:uid="{C1032CAE-FCD8-1242-B6C3-B70B988BC2CA}"/>
+    <hyperlink ref="H110" r:id="rId4" xr:uid="{F8DE77CC-7236-5740-A008-5EFF79B59035}"/>
+    <hyperlink ref="H102" r:id="rId5" xr:uid="{09EF007C-85D3-5F45-B203-6FE0424E5C99}"/>
+    <hyperlink ref="H90" r:id="rId6" xr:uid="{CA79A61E-3453-F748-8421-4D89662469BF}"/>
+    <hyperlink ref="H85" r:id="rId7" xr:uid="{DF2D3758-0BC9-D246-BED3-26AF94D5F9D8}"/>
+    <hyperlink ref="H39" r:id="rId8" xr:uid="{CCDC15F7-E252-0348-B02C-905084BD776E}"/>
     <hyperlink ref="H2" r:id="rId9" xr:uid="{B4649428-221F-674F-BA70-A2780E5E269C}"/>
-    <hyperlink ref="H70" r:id="rId10" xr:uid="{E8486F26-D2AA-3540-A8B3-73E08A241E3A}"/>
-    <hyperlink ref="H4" r:id="rId11" xr:uid="{DF9E283C-C630-6141-B84A-D4DC20067D3A}"/>
-    <hyperlink ref="H5" r:id="rId12" xr:uid="{AA765222-2C31-E444-93E0-6241B574BBDA}"/>
-    <hyperlink ref="H8" r:id="rId13" xr:uid="{7424A509-2E7F-534F-A182-16DD568A0E14}"/>
-    <hyperlink ref="H10" r:id="rId14" xr:uid="{B81B5BB0-A4D2-CE48-976B-41038463380C}"/>
-    <hyperlink ref="H11" r:id="rId15" xr:uid="{51731D61-79A9-C248-A29C-7F455B171752}"/>
-    <hyperlink ref="H12" r:id="rId16" xr:uid="{DF071ACD-52CF-F248-82F5-DCBA80F5ED7C}"/>
-    <hyperlink ref="H13" r:id="rId17" xr:uid="{A3CDB931-1A52-EE43-BE32-2575167D2188}"/>
-    <hyperlink ref="H15" r:id="rId18" xr:uid="{217C257E-AC48-D240-A20A-4B4B59D80A75}"/>
-    <hyperlink ref="H16" r:id="rId19" xr:uid="{7DD8D092-ADED-CC44-8C91-A6B96A4E7F8B}"/>
-    <hyperlink ref="H17" r:id="rId20" xr:uid="{FF12F444-682A-3040-A650-0D77B1F409BF}"/>
-    <hyperlink ref="H18" r:id="rId21" xr:uid="{1128B72D-52B8-8F47-9418-E2DF8EDBE41D}"/>
-    <hyperlink ref="H27" r:id="rId22" xr:uid="{497C3D62-66B1-B349-919C-BB1436BCE7EA}"/>
-    <hyperlink ref="H33" r:id="rId23" xr:uid="{AA737391-1EFB-A246-BB33-46BEF9DF59DA}"/>
-    <hyperlink ref="H31" r:id="rId24" xr:uid="{12373DBC-12D0-EF44-94D1-6BE389EE8541}"/>
-    <hyperlink ref="H30" r:id="rId25" xr:uid="{0D1FF725-B522-814B-944C-9DE55388698D}"/>
-    <hyperlink ref="H32" r:id="rId26" xr:uid="{B196E238-6A79-1D4C-BE62-208D54322587}"/>
-    <hyperlink ref="H28" r:id="rId27" xr:uid="{C086B470-F6CB-A541-BF4F-D4066F6C3477}"/>
-    <hyperlink ref="H29" r:id="rId28" xr:uid="{6C629B57-C1F3-4545-97A0-DAE1AEC86284}"/>
-    <hyperlink ref="H26" r:id="rId29" xr:uid="{B29892C6-C28D-A544-98D7-253097387448}"/>
-    <hyperlink ref="H25" r:id="rId30" xr:uid="{CB97C88D-610F-9244-AD06-BA36E3E1A20C}"/>
+    <hyperlink ref="H77" r:id="rId10" xr:uid="{E8486F26-D2AA-3540-A8B3-73E08A241E3A}"/>
+    <hyperlink ref="H9" r:id="rId11" xr:uid="{DF9E283C-C630-6141-B84A-D4DC20067D3A}"/>
+    <hyperlink ref="H10" r:id="rId12" xr:uid="{AA765222-2C31-E444-93E0-6241B574BBDA}"/>
+    <hyperlink ref="H13" r:id="rId13" xr:uid="{7424A509-2E7F-534F-A182-16DD568A0E14}"/>
+    <hyperlink ref="H15" r:id="rId14" xr:uid="{B81B5BB0-A4D2-CE48-976B-41038463380C}"/>
+    <hyperlink ref="H16" r:id="rId15" xr:uid="{51731D61-79A9-C248-A29C-7F455B171752}"/>
+    <hyperlink ref="H17" r:id="rId16" xr:uid="{DF071ACD-52CF-F248-82F5-DCBA80F5ED7C}"/>
+    <hyperlink ref="H18" r:id="rId17" xr:uid="{A3CDB931-1A52-EE43-BE32-2575167D2188}"/>
+    <hyperlink ref="H20" r:id="rId18" xr:uid="{217C257E-AC48-D240-A20A-4B4B59D80A75}"/>
+    <hyperlink ref="H21" r:id="rId19" xr:uid="{7DD8D092-ADED-CC44-8C91-A6B96A4E7F8B}"/>
+    <hyperlink ref="H22" r:id="rId20" xr:uid="{FF12F444-682A-3040-A650-0D77B1F409BF}"/>
+    <hyperlink ref="H23" r:id="rId21" xr:uid="{1128B72D-52B8-8F47-9418-E2DF8EDBE41D}"/>
+    <hyperlink ref="H32" r:id="rId22" xr:uid="{497C3D62-66B1-B349-919C-BB1436BCE7EA}"/>
+    <hyperlink ref="H38" r:id="rId23" xr:uid="{AA737391-1EFB-A246-BB33-46BEF9DF59DA}"/>
+    <hyperlink ref="H36" r:id="rId24" xr:uid="{12373DBC-12D0-EF44-94D1-6BE389EE8541}"/>
+    <hyperlink ref="H35" r:id="rId25" xr:uid="{0D1FF725-B522-814B-944C-9DE55388698D}"/>
+    <hyperlink ref="H37" r:id="rId26" xr:uid="{B196E238-6A79-1D4C-BE62-208D54322587}"/>
+    <hyperlink ref="H33" r:id="rId27" xr:uid="{C086B470-F6CB-A541-BF4F-D4066F6C3477}"/>
+    <hyperlink ref="H34" r:id="rId28" xr:uid="{6C629B57-C1F3-4545-97A0-DAE1AEC86284}"/>
+    <hyperlink ref="H31" r:id="rId29" xr:uid="{B29892C6-C28D-A544-98D7-253097387448}"/>
+    <hyperlink ref="H30" r:id="rId30" xr:uid="{CB97C88D-610F-9244-AD06-BA36E3E1A20C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/data_excel/tags.xlsx
+++ b/data_excel/tags.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay/xidev/kanban/data_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{C4603199-B969-CA47-8B7D-0BF76049C706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{32869826-2EF1-1B43-99DC-BC61E5C48369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13660" yWindow="660" windowWidth="24580" windowHeight="17120" xr2:uid="{1951D371-7A8D-D346-B651-736256765602}"/>
+    <workbookView xWindow="16940" yWindow="660" windowWidth="21300" windowHeight="17120" xr2:uid="{1951D371-7A8D-D346-B651-736256765602}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="370">
   <si>
     <t>img</t>
     <phoneticPr fontId="1"/>
@@ -4463,46 +4463,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">CAUTION
-WET FLOOR
-CHÚ Ý
-SÀN </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>Ư</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>Ớ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>T</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>IMG_4149.HEIC</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -4810,12 +4770,1012 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>禁帶寵物入内</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>營業時</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>閰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+下午04:00~凌晨03:00
+禁帶外食</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_2677.HEIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤丸斜線|犬</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">アカマル </t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t xml:space="preserve">マル </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">シャセン </t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">イヌ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>扉|文字</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">トビラ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">モジ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_1719.HEIC</t>
+  </si>
+  <si>
+    <t>IMG_1717.heic</t>
+  </si>
+  <si>
+    <t>IMG_1698.heic</t>
+  </si>
+  <si>
+    <t>IMG_1697.HEIC</t>
+  </si>
+  <si>
+    <r>
+      <t>To board this train. a Limited Express ticket is required in addition to a basic fare ticket.
+乘坐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>该</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>需要另外</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>购买</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">特快券
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>열차에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>승차하려면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>별도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>특급권이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>필요합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+この列車に乗るには別途特急券が必要です
+Basic fare
+普通票价
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보통운임</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+普通運賃
++
+Ltd. Exp. fare
+特快票价
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>특급요금</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+特急料金</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>矢印|⚠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>️</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|特急電車の写真</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヤジルシ </t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t xml:space="preserve">トッキュウデンシャ </t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">シャシン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>en|zh-Hans|ko|ja|_multi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地面</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ジメン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">この付近は大変混雑します。
+立ち止まらないでください。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不要在此停留。請不要止步。
+Do not stop in this area.</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤丸斜線|人々</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">アカマル </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">シャセン </t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">ヒトビト </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ja|ko|zh-Hans|en|_multi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地面</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ジメン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二条城敷地内では、無人航空機（ドローン）の飛行は禁止しています。
+発見した場合、管察に通報する場合があります。
+Unmanned aerial vehicles (drones) are prohibited on the Nijo-jo Castle grounds.
+If found, the police may be notified
+ドローン使用禁止
+Drone ban</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤丸斜線|ドローン|コントローラ</t>
+    <rPh sb="0" eb="4">
+      <t>アカマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>⚠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>️</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_1694.HEIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>危険
+Danger
+危</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">险
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">危險
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>위험</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Danger
+Peligro</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">禁煙
+No smoking
+禁烟
+禁煙
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>금연</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Défense de fumer
+Prohibido fumar</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤丸斜線|タバコ</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">アカマル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ja|en|zh-Hans|zh-Hant|ko|fr|es|_multi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_1663.HEIC</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">芝生内に入らないでください
+Please do not walk on the lawn.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>勿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>进</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">入草坪内
+請勿進入草坪
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>잔디에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>들어가지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Prière de ne pas marcher sur la pelouse
+Se ruega no pisar el césped</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CAUTION WET FLOOR
+CHÚ Ý SÀN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">階段に登らないで下さい
+Please do not climb the stairs
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>勿攀爬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>楼梯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+弟請勿攀登樓梯
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>계단여 올라가지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Prière de ne pas monter sur l'escalier
+Se ruega no subir por las escaleras</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤丸斜線|階段|人</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">アカマル </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">シャセン </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">カイダン </t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t xml:space="preserve">ヒト </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤丸斜線|鉛筆</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">アカマル </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">シャセン </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">エンピツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロープ|看板</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">カンバン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>落書き禁止
+No Graffiti
+禁止涂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>鸦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+禁止塗鴉
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>낙서금지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Graffitis interdits
+Prohibido hacer pintadas</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二条城</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ニジョウジョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>近鉄丹波橋</t>
+    <rPh sb="0" eb="1">
+      <t>キンテツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>祇園四条</t>
+    <rPh sb="0" eb="4">
+      <t>ギオンシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>千里中央</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">センリチュウオウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_1591.HEIC</t>
+  </si>
+  <si>
+    <t>IMG_1590.HEIC</t>
+  </si>
+  <si>
+    <t>IMG_1588.HEIC</t>
+  </si>
+  <si>
+    <t>鉄道用地内において駅長の許可なく次のことを行うことを禁じます。
+●旅客、公衆に対して寄付をもとめること、
+●旅客、公衆に対して物品の販買をすること、
+● 旅客、公衆に対して物品の配布をすること、
+● 演説勧誘等を行うこと、
+その他みだりに鉄道用地に立入ることを禁じます。
+駅長</t>
+    <rPh sb="36" eb="38">
+      <t xml:space="preserve">コウシュウ </t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t xml:space="preserve">ハイフ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浜松町</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ハママツチョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>駐輪禁止
+出入り口付近には駐輪しないでください
+駅長</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤四角斜線</t>
+    <rPh sb="0" eb="3">
+      <t>アカシ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">シャセン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>落滴注意</t>
+    <rPh sb="1" eb="2">
+      <t xml:space="preserve">スイテキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カラーコーン|貼紙</t>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">ハリガミ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_1669.HEIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_1663.HEIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4861,6 +5821,12 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Apple Color Emoji"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -4963,16 +5929,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5310,10 +6276,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0244D4E8-F443-D54E-A975-960F8853E327}">
-  <dimension ref="A1:H114"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="106" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="106" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -5352,855 +6318,854 @@
         <v>258</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="147">
+    <row r="2" spans="1:8" ht="273">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>327</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>202</v>
+        <v>331</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>203</v>
+        <v>332</v>
       </c>
       <c r="E2" t="s">
-        <v>201</v>
+        <v>333</v>
       </c>
       <c r="F2" t="s">
-        <v>212</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="168">
+        <v>334</v>
+      </c>
+      <c r="G2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="84">
       <c r="A3" t="s">
-        <v>286</v>
+        <v>328</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>287</v>
+        <v>335</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>336</v>
       </c>
       <c r="E3" t="s">
-        <v>295</v>
+        <v>337</v>
       </c>
       <c r="F3" t="s">
-        <v>281</v>
-      </c>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" ht="84">
+        <v>338</v>
+      </c>
+      <c r="G3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="126">
       <c r="A4" t="s">
-        <v>283</v>
+        <v>329</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>282</v>
+        <v>339</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>284</v>
+        <v>340</v>
       </c>
       <c r="E4" t="s">
-        <v>285</v>
+        <v>70</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" ht="63">
+        <v>46</v>
+      </c>
+      <c r="G4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="147">
       <c r="A5" t="s">
-        <v>277</v>
+        <v>330</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>278</v>
+        <v>343</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>279</v>
+        <v>341</v>
       </c>
       <c r="E5" t="s">
-        <v>280</v>
+        <v>346</v>
       </c>
       <c r="F5" t="s">
-        <v>281</v>
-      </c>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" ht="168">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="147">
       <c r="A6" t="s">
-        <v>179</v>
+        <v>342</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>204</v>
+        <v>344</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>5</v>
+        <v>345</v>
       </c>
       <c r="E6" t="s">
-        <v>303</v>
+        <v>346</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="63">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="147">
       <c r="A7" t="s">
-        <v>288</v>
+        <v>347</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>289</v>
+        <v>348</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>291</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>294</v>
+        <v>346</v>
       </c>
       <c r="F7" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="42">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="147">
       <c r="A8" t="s">
-        <v>288</v>
+        <v>368</v>
       </c>
       <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>290</v>
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>350</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>292</v>
+        <v>351</v>
       </c>
       <c r="E8" t="s">
-        <v>294</v>
+        <v>346</v>
       </c>
       <c r="F8" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="63">
+        <v>40</v>
+      </c>
+      <c r="G8" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="147">
       <c r="A9" t="s">
-        <v>180</v>
+        <v>369</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>207</v>
+        <v>354</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>5</v>
+        <v>352</v>
       </c>
       <c r="E9" t="s">
-        <v>304</v>
+        <v>346</v>
       </c>
       <c r="F9" t="s">
-        <v>208</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="42">
+        <v>353</v>
+      </c>
+      <c r="G9" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="147">
       <c r="A10" t="s">
-        <v>181</v>
+        <v>359</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>210</v>
+        <v>362</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>211</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>305</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="42">
+        <v>36</v>
+      </c>
+      <c r="G10" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="63">
       <c r="A11" t="s">
-        <v>181</v>
+        <v>360</v>
       </c>
       <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>213</v>
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>364</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>214</v>
+        <v>365</v>
       </c>
       <c r="E11" t="s">
-        <v>305</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" ht="42">
+        <v>299</v>
+      </c>
+      <c r="G11" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="21">
       <c r="A12" t="s">
-        <v>181</v>
+        <v>361</v>
       </c>
       <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>215</v>
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>366</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>216</v>
+        <v>5</v>
       </c>
       <c r="E12" t="s">
         <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" ht="42">
+        <v>367</v>
+      </c>
+      <c r="G12" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="147">
       <c r="A13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>5</v>
+        <v>203</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>201</v>
       </c>
       <c r="F13" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="84">
+    <row r="14" spans="1:8" ht="168">
       <c r="A14" t="s">
-        <v>182</v>
+        <v>285</v>
       </c>
       <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>218</v>
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>286</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>219</v>
+        <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="F14" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="84">
+        <v>281</v>
+      </c>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" ht="42">
       <c r="A15" t="s">
-        <v>183</v>
+        <v>282</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>220</v>
+        <v>349</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>221</v>
+        <v>283</v>
       </c>
       <c r="E15" t="s">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="F15" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="105">
+        <v>66</v>
+      </c>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" ht="63">
       <c r="A16" t="s">
-        <v>184</v>
+        <v>277</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>222</v>
+        <v>278</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>223</v>
+        <v>279</v>
       </c>
       <c r="E16" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="82">
+        <v>281</v>
+      </c>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" ht="168">
       <c r="A17" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="F17" t="s">
-        <v>49</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="105">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="63">
       <c r="A18" t="s">
-        <v>186</v>
+        <v>287</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>228</v>
+        <v>288</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>5</v>
+        <v>290</v>
       </c>
       <c r="E18" t="s">
         <v>293</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>162</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="42">
       <c r="A19" t="s">
-        <v>186</v>
+        <v>287</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>229</v>
+      <c r="C19" s="7" t="s">
+        <v>289</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>19</v>
+        <v>291</v>
       </c>
       <c r="E19" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="F19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="21">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="63">
       <c r="A20" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>231</v>
+        <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>232</v>
+        <v>303</v>
       </c>
       <c r="F20" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="147">
+    <row r="21" spans="1:8" ht="42">
       <c r="A21" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="E21" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="124">
+    <row r="22" spans="1:8" ht="42">
       <c r="A22" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E22" t="s">
+        <v>304</v>
+      </c>
+      <c r="F22" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" ht="42">
+      <c r="A23" t="s">
+        <v>181</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" t="s">
+        <v>49</v>
+      </c>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" ht="42">
+      <c r="A24" t="s">
+        <v>182</v>
+      </c>
+      <c r="B24">
         <v>0</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E22" t="s">
-        <v>239</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="H22" s="4" t="s">
+      <c r="C24" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" t="s">
+        <v>234</v>
+      </c>
+      <c r="H24" s="4" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="84">
-      <c r="A23" t="s">
-        <v>190</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E23" t="s">
-        <v>309</v>
-      </c>
-      <c r="F23" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="84">
-      <c r="A24" t="s">
-        <v>190</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E24" t="s">
-        <v>309</v>
-      </c>
-      <c r="F24" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" ht="84">
       <c r="A25" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>245</v>
+        <v>1</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>218</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="E25" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
-      </c>
-      <c r="H25" s="4"/>
+        <v>234</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="84">
       <c r="A26" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="E26" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
-      </c>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="1:8" ht="63">
+        <v>49</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="105">
       <c r="A27" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="E27" t="s">
+        <v>306</v>
+      </c>
+      <c r="F27" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="82">
+      <c r="A28" t="s">
+        <v>185</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" t="s">
         <v>310</v>
       </c>
-      <c r="F27" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="1:8" ht="84">
-      <c r="A28" t="s">
-        <v>190</v>
-      </c>
-      <c r="B28">
-        <v>5</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E28" t="s">
-        <v>309</v>
-      </c>
       <c r="F28" t="s">
-        <v>40</v>
-      </c>
-      <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="1:8" ht="21">
+        <v>49</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="105">
       <c r="A29" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B29">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>292</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
-      </c>
-      <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="1:8" ht="105">
+        <v>39</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="42">
       <c r="A30" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>275</v>
+        <v>229</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>316</v>
       </c>
       <c r="F30" t="s">
-        <v>49</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>276</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="21">
       <c r="A31" t="s">
-        <v>272</v>
+        <v>187</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>273</v>
+        <v>230</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>5</v>
+        <v>231</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>232</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>233</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="82">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="147">
       <c r="A32" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>254</v>
+      <c r="C32" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="E32" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F32" t="s">
-        <v>301</v>
+        <v>39</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="42">
+    <row r="33" spans="1:8" ht="124">
       <c r="A33" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>268</v>
+      <c r="C33" s="8" t="s">
+        <v>237</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>5</v>
+        <v>240</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
-      </c>
-      <c r="F33" t="s">
-        <v>39</v>
-      </c>
-      <c r="G33" t="s">
-        <v>269</v>
+        <v>239</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>238</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="105">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="84">
       <c r="A34" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>308</v>
       </c>
       <c r="F34" t="s">
-        <v>302</v>
+        <v>40</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="42">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="84">
       <c r="A35" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>5</v>
+        <v>244</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>308</v>
       </c>
       <c r="F35" t="s">
         <v>40</v>
       </c>
-      <c r="H35" s="4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="42">
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="1:8" ht="84">
       <c r="A36" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>5</v>
+        <v>246</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>308</v>
       </c>
       <c r="F36" t="s">
-        <v>49</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="42">
+        <v>40</v>
+      </c>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="1:8" ht="84">
       <c r="A37" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>308</v>
       </c>
       <c r="F37" t="s">
-        <v>49</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>267</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:8" ht="63">
       <c r="A38" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D38" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E38" t="s">
+        <v>309</v>
+      </c>
+      <c r="F38" t="s">
+        <v>40</v>
+      </c>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="1:8" ht="84">
+      <c r="A39" t="s">
+        <v>190</v>
+      </c>
+      <c r="B39">
         <v>5</v>
       </c>
-      <c r="E38" t="s">
-        <v>316</v>
-      </c>
-      <c r="F38" t="s">
-        <v>257</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="63">
-      <c r="A39" t="s">
-        <v>199</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
       <c r="C39" s="1" t="s">
-        <v>200</v>
+        <v>249</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>5</v>
+        <v>252</v>
       </c>
       <c r="E39" t="s">
-        <v>70</v>
+        <v>308</v>
       </c>
       <c r="F39" t="s">
-        <v>49</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="42">
+        <v>40</v>
+      </c>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="1:8" ht="21">
       <c r="A40" t="s">
-        <v>121</v>
+        <v>190</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>130</v>
+        <v>253</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>5</v>
@@ -6209,18 +7174,19 @@
         <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="84">
+        <v>40</v>
+      </c>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="1:8" ht="105">
       <c r="A41" t="s">
-        <v>122</v>
+        <v>191</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>131</v>
+        <v>275</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>5</v>
@@ -6229,18 +7195,21 @@
         <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="168">
+        <v>49</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="21">
       <c r="A42" t="s">
-        <v>123</v>
+        <v>272</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>135</v>
+        <v>273</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>5</v>
@@ -6249,38 +7218,44 @@
         <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="42">
+        <v>36</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="82">
       <c r="A43" t="s">
-        <v>123</v>
+        <v>192</v>
       </c>
       <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>136</v>
+        <v>0</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>254</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>312</v>
       </c>
       <c r="F43" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="63">
+        <v>300</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="42">
       <c r="A44" t="s">
-        <v>123</v>
+        <v>193</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>137</v>
+        <v>268</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>5</v>
@@ -6291,39 +7266,48 @@
       <c r="F44" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" ht="84">
+      <c r="G44" t="s">
+        <v>269</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="105">
       <c r="A45" t="s">
-        <v>123</v>
+        <v>194</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>133</v>
+        <v>264</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>134</v>
+        <v>263</v>
       </c>
       <c r="E45" t="s">
         <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="84">
+        <v>301</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="42">
       <c r="A46" t="s">
-        <v>124</v>
+        <v>195</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>139</v>
+        <v>262</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>141</v>
+        <v>5</v>
       </c>
       <c r="E46" t="s">
         <v>45</v>
@@ -6331,96 +7315,111 @@
       <c r="F46" t="s">
         <v>40</v>
       </c>
+      <c r="H46" s="4" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="47" spans="1:8" ht="42">
       <c r="A47" t="s">
-        <v>124</v>
+        <v>196</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>138</v>
+        <v>260</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>142</v>
+        <v>5</v>
       </c>
       <c r="E47" t="s">
         <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="84">
+        <v>49</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="42">
       <c r="A48" t="s">
-        <v>125</v>
+        <v>197</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>143</v>
+        <v>265</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>5</v>
+        <v>266</v>
       </c>
       <c r="E48" t="s">
         <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="168">
+        <v>49</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="63">
       <c r="A49" t="s">
-        <v>126</v>
+        <v>198</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>144</v>
+        <v>256</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>145</v>
+        <v>5</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>315</v>
       </c>
       <c r="F49" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="42">
+        <v>257</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="63">
       <c r="A50" t="s">
-        <v>127</v>
+        <v>199</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="F50" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="105">
+        <v>49</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="42">
       <c r="A51" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>150</v>
+      <c r="C51" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>5</v>
@@ -6432,15 +7431,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="42">
+    <row r="52" spans="1:8" ht="84">
       <c r="A52" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>151</v>
+        <v>0</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>5</v>
@@ -6449,18 +7448,18 @@
         <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="63">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="168">
       <c r="A53" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>5</v>
@@ -6472,15 +7471,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="21">
+    <row r="54" spans="1:8" ht="42">
       <c r="A54" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>5</v>
@@ -6489,198 +7488,198 @@
         <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="84">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="63">
       <c r="A55" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55" t="s">
+        <v>45</v>
+      </c>
+      <c r="F55" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="84">
+      <c r="A56" t="s">
+        <v>123</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E56" t="s">
+        <v>45</v>
+      </c>
+      <c r="F56" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="84">
+      <c r="A57" t="s">
+        <v>124</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E57" t="s">
+        <v>45</v>
+      </c>
+      <c r="F57" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="42">
+      <c r="A58" t="s">
+        <v>124</v>
+      </c>
+      <c r="B58">
         <v>1</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E55" t="s">
-        <v>70</v>
-      </c>
-      <c r="F55" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="21">
-      <c r="A56" t="s">
-        <v>78</v>
-      </c>
-      <c r="B56">
-        <v>2</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D56" s="1" t="s">
+      <c r="C58" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E58" t="s">
+        <v>45</v>
+      </c>
+      <c r="F58" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="84">
+      <c r="A59" t="s">
+        <v>125</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E56" t="s">
-        <v>70</v>
-      </c>
-      <c r="F56" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="42">
-      <c r="A57" t="s">
-        <v>78</v>
-      </c>
-      <c r="B57">
-        <v>3</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E57" t="s">
-        <v>70</v>
-      </c>
-      <c r="F57" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="42">
-      <c r="A58" t="s">
-        <v>78</v>
-      </c>
-      <c r="B58">
-        <v>4</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E58" t="s">
-        <v>70</v>
-      </c>
-      <c r="F58" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="42">
-      <c r="A59" t="s">
-        <v>78</v>
-      </c>
-      <c r="B59">
+      <c r="E59" t="s">
+        <v>45</v>
+      </c>
+      <c r="F59" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="168">
+      <c r="A60" t="s">
+        <v>126</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E60" t="s">
+        <v>45</v>
+      </c>
+      <c r="F60" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="42">
+      <c r="A61" t="s">
+        <v>127</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E59" t="s">
-        <v>70</v>
-      </c>
-      <c r="F59" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="42">
-      <c r="A60" t="s">
-        <v>78</v>
-      </c>
-      <c r="B60">
-        <v>6</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E60" t="s">
-        <v>70</v>
-      </c>
-      <c r="F60" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="42">
-      <c r="A61" t="s">
-        <v>78</v>
-      </c>
-      <c r="B61">
-        <v>7</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="E61" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="42">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="105">
       <c r="A62" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="B62">
-        <v>8</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>88</v>
+        <v>0</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>96</v>
+        <v>5</v>
       </c>
       <c r="E62" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="42">
+    <row r="63" spans="1:8" ht="42">
       <c r="A63" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="B63">
-        <v>9</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>89</v>
+        <v>1</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>97</v>
+        <v>5</v>
       </c>
       <c r="E63" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="168">
+    <row r="64" spans="1:8" ht="63">
       <c r="A64" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="B64">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>90</v>
+        <v>152</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>5</v>
@@ -6689,321 +7688,318 @@
         <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="42">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="21">
       <c r="A65" t="s">
         <v>78</v>
       </c>
       <c r="B65">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E65" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="42">
+    <row r="66" spans="1:6" ht="84">
       <c r="A66" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="E66" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="F66" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="42">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="21">
       <c r="A67" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E67" t="s">
+        <v>70</v>
+      </c>
+      <c r="F67" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="42">
+      <c r="A68" t="s">
+        <v>78</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E68" t="s">
+        <v>70</v>
+      </c>
+      <c r="F68" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="42">
+      <c r="A69" t="s">
+        <v>78</v>
+      </c>
+      <c r="B69">
+        <v>4</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E69" t="s">
+        <v>70</v>
+      </c>
+      <c r="F69" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="42">
+      <c r="A70" t="s">
+        <v>78</v>
+      </c>
+      <c r="B70">
+        <v>5</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E70" t="s">
+        <v>70</v>
+      </c>
+      <c r="F70" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="42">
+      <c r="A71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B71">
+        <v>6</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E71" t="s">
+        <v>70</v>
+      </c>
+      <c r="F71" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="42">
+      <c r="A72" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72">
+        <v>7</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E72" t="s">
+        <v>70</v>
+      </c>
+      <c r="F72" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="42">
+      <c r="A73" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73">
+        <v>8</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E73" t="s">
+        <v>70</v>
+      </c>
+      <c r="F73" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="42">
+      <c r="A74" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74">
+        <v>9</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E74" t="s">
+        <v>70</v>
+      </c>
+      <c r="F74" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="168">
+      <c r="A75" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75">
+        <v>10</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E75" t="s">
         <v>45</v>
       </c>
-      <c r="F67" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="84">
-      <c r="A68" t="s">
-        <v>103</v>
-      </c>
-      <c r="B68">
-        <v>0</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E68" t="s">
-        <v>311</v>
-      </c>
-      <c r="F68" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="63">
-      <c r="A69" t="s">
-        <v>107</v>
-      </c>
-      <c r="B69">
-        <v>0</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D69" s="1" t="s">
+      <c r="F75" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="42">
+      <c r="A76" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76">
+        <v>11</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E69" t="s">
-        <v>45</v>
-      </c>
-      <c r="F69" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="126">
-      <c r="A70" t="s">
-        <v>109</v>
-      </c>
-      <c r="B70">
-        <v>0</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E70" t="s">
-        <v>45</v>
-      </c>
-      <c r="F70" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="42">
-      <c r="A71" t="s">
-        <v>109</v>
-      </c>
-      <c r="B71">
-        <v>1</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E71" t="s">
-        <v>45</v>
-      </c>
-      <c r="F71" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="147">
-      <c r="A72" t="s">
-        <v>113</v>
-      </c>
-      <c r="B72">
-        <v>0</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E72" t="s">
-        <v>45</v>
-      </c>
-      <c r="F72" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="105">
-      <c r="A73" t="s">
-        <v>116</v>
-      </c>
-      <c r="B73">
-        <v>0</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E73" t="s">
-        <v>45</v>
-      </c>
-      <c r="F73" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="42">
-      <c r="A74" t="s">
-        <v>297</v>
-      </c>
-      <c r="B74">
-        <v>0</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E74" t="s">
-        <v>298</v>
-      </c>
-      <c r="F74" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="42">
-      <c r="A75" t="s">
-        <v>318</v>
-      </c>
-      <c r="B75">
-        <v>0</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="E75" t="s">
-        <v>320</v>
-      </c>
-      <c r="F75" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="63">
-      <c r="A76" t="s">
-        <v>119</v>
-      </c>
-      <c r="B76">
-        <v>0</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="E76" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="F76" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="105">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="42">
       <c r="A77" t="s">
-        <v>209</v>
+        <v>99</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>205</v>
+        <v>98</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="E77" t="s">
-        <v>312</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>206</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="21">
-      <c r="A78" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="42">
+      <c r="A78" t="s">
+        <v>100</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E78" t="s">
         <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="84">
-      <c r="A79" s="2" t="s">
-        <v>31</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="84">
+      <c r="A79" t="s">
+        <v>103</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="E79" t="s">
-        <v>45</v>
+        <v>310</v>
       </c>
       <c r="F79" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="336">
-      <c r="A80" s="2" t="s">
-        <v>27</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="63">
+      <c r="A80" t="s">
+        <v>107</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>5</v>
@@ -7012,38 +8008,38 @@
         <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="63">
-      <c r="A81" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="126">
+      <c r="A81" t="s">
+        <v>109</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="E81" t="s">
         <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="63">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="42">
       <c r="A82" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>5</v>
@@ -7052,38 +8048,38 @@
         <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="63">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="147">
       <c r="A83" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>5</v>
+        <v>115</v>
       </c>
       <c r="E83" t="s">
         <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="63">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="105">
       <c r="A84" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>5</v>
@@ -7095,428 +8091,424 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="84">
+    <row r="85" spans="1:8" ht="42">
       <c r="A85" t="s">
-        <v>176</v>
+        <v>296</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>177</v>
+        <v>295</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E85" t="s">
-        <v>178</v>
+        <v>297</v>
       </c>
       <c r="F85" t="s">
-        <v>46</v>
-      </c>
-      <c r="H85" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="63">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="42">
       <c r="A86" t="s">
-        <v>7</v>
+        <v>317</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>8</v>
+        <v>318</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>5</v>
+        <v>320</v>
       </c>
       <c r="E86" t="s">
-        <v>45</v>
+        <v>319</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="105">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="21">
       <c r="A87" t="s">
-        <v>6</v>
+        <v>324</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>4</v>
+        <v>322</v>
       </c>
       <c r="D87" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E87" t="s">
+        <v>319</v>
+      </c>
+      <c r="F87" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="63">
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E87" t="s">
-        <v>45</v>
-      </c>
-      <c r="F87" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="105">
-      <c r="A88" t="s">
-        <v>71</v>
-      </c>
-      <c r="B88">
-        <v>0</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="E88" t="s">
-        <v>70</v>
+        <v>319</v>
       </c>
       <c r="F88" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="42">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="63">
       <c r="A89" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="E89" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="84">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="105">
       <c r="A90" t="s">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E90" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E90" t="s">
         <v>311</v>
       </c>
-      <c r="F90" s="6" t="s">
-        <v>146</v>
+      <c r="F90" t="s">
+        <v>206</v>
       </c>
       <c r="H90" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="42">
-      <c r="A91" t="s">
-        <v>64</v>
+    <row r="91" spans="1:8" ht="21">
+      <c r="A91" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="E91" t="s">
         <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="63">
-      <c r="A92" t="s">
-        <v>62</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="84">
+      <c r="A92" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="E92" t="s">
         <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="126">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="336">
       <c r="A93" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="E93" t="s">
-        <v>224</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="21">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="63">
       <c r="A94" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E94" t="s">
         <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="21">
-      <c r="A95" s="2" t="s">
-        <v>15</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="63">
+      <c r="A95" t="s">
+        <v>12</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E95" t="s">
         <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="42">
-      <c r="A96" s="2" t="s">
-        <v>15</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="63">
+      <c r="A96" t="s">
+        <v>12</v>
       </c>
       <c r="B96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="E96" t="s">
         <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="21">
-      <c r="A97" s="2" t="s">
-        <v>15</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="63">
+      <c r="A97" t="s">
+        <v>11</v>
       </c>
       <c r="B97">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E97" t="s">
         <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="42">
-      <c r="A98" s="2" t="s">
-        <v>15</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="84">
+      <c r="A98" t="s">
+        <v>176</v>
       </c>
       <c r="B98">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>73</v>
+        <v>177</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E98" t="s">
-        <v>45</v>
+        <v>178</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="21">
-      <c r="A99" s="2" t="s">
-        <v>15</v>
+        <v>46</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="63">
+      <c r="A99" t="s">
+        <v>7</v>
       </c>
       <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="E99" t="s">
         <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="21">
-      <c r="A100" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="105">
+      <c r="A100" t="s">
+        <v>6</v>
       </c>
       <c r="B100">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E100" t="s">
         <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="21">
-      <c r="A101" s="2" t="s">
-        <v>15</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="105">
+      <c r="A101" t="s">
+        <v>71</v>
       </c>
       <c r="B101">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="E101" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="F101" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="21">
-      <c r="A102" s="2" t="s">
-        <v>170</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="42">
+      <c r="A102" t="s">
+        <v>67</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>171</v>
+        <v>68</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="E102" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="F102" t="s">
-        <v>36</v>
-      </c>
-      <c r="H102" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="84">
+      <c r="A103" t="s">
+        <v>174</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="H103" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="409.6">
-      <c r="A103" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B103">
-        <v>1</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E103" t="s">
-        <v>225</v>
-      </c>
-      <c r="F103" t="s">
-        <v>36</v>
-      </c>
-      <c r="H103" s="4"/>
-    </row>
-    <row r="104" spans="1:8" ht="105">
-      <c r="A104" s="2" t="s">
-        <v>63</v>
+    <row r="104" spans="1:8" ht="42">
+      <c r="A104" t="s">
+        <v>64</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="E104" t="s">
         <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="63">
-      <c r="A105" s="2" t="s">
-        <v>58</v>
+      <c r="A105" t="s">
+        <v>62</v>
       </c>
       <c r="B105">
         <v>0</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="E105" t="s">
         <v>45</v>
@@ -7525,232 +8517,499 @@
         <v>39</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="42">
+    <row r="106" spans="1:8" ht="126">
       <c r="A106" s="2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B106">
         <v>0</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="E106" t="s">
-        <v>45</v>
+        <v>224</v>
       </c>
       <c r="F106" t="s">
-        <v>52</v>
+        <v>46</v>
+      </c>
+      <c r="G106" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="21">
       <c r="A107" s="2" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E107" t="s">
         <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="84">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="21">
       <c r="A108" s="2" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="B108">
         <v>1</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E108" t="s">
         <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="42">
       <c r="A109" s="2" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="B109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>161</v>
+        <v>23</v>
       </c>
       <c r="E109" t="s">
         <v>45</v>
       </c>
       <c r="F109" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="21">
+      <c r="A110" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B110">
+        <v>3</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E110" t="s">
+        <v>45</v>
+      </c>
+      <c r="F110" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="42">
+      <c r="A111" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B111">
+        <v>4</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E111" t="s">
+        <v>45</v>
+      </c>
+      <c r="F111" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="21">
+      <c r="A112" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B112">
+        <v>5</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E112" t="s">
+        <v>45</v>
+      </c>
+      <c r="F112" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="21">
+      <c r="A113" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B113">
+        <v>6</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E113" t="s">
+        <v>45</v>
+      </c>
+      <c r="F113" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="21">
+      <c r="A114" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B114">
+        <v>7</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E114" t="s">
+        <v>45</v>
+      </c>
+      <c r="F114" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="21">
+      <c r="A115" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E115" t="s">
+        <v>45</v>
+      </c>
+      <c r="F115" t="s">
+        <v>36</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="409.6">
+      <c r="A116" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E116" t="s">
+        <v>225</v>
+      </c>
+      <c r="F116" t="s">
+        <v>36</v>
+      </c>
+      <c r="H116" s="4"/>
+    </row>
+    <row r="117" spans="1:8" ht="105">
+      <c r="A117" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E117" t="s">
+        <v>45</v>
+      </c>
+      <c r="F117" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="63">
+      <c r="A118" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E118" t="s">
+        <v>45</v>
+      </c>
+      <c r="F118" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="42">
+      <c r="A119" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E119" t="s">
+        <v>45</v>
+      </c>
+      <c r="F119" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="21">
+      <c r="A120" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E120" t="s">
+        <v>45</v>
+      </c>
+      <c r="F120" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="84">
+      <c r="A121" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E121" t="s">
+        <v>45</v>
+      </c>
+      <c r="F121" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="42">
+      <c r="A122" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E122" t="s">
+        <v>45</v>
+      </c>
+      <c r="F122" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="42">
-      <c r="A110" s="2" t="s">
+    <row r="123" spans="1:8" ht="42">
+      <c r="A123" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B110">
+      <c r="B123">
         <v>0</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C123" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="D123" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E123" t="s">
         <v>168</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F123" t="s">
         <v>169</v>
       </c>
-      <c r="H110" s="4" t="s">
+      <c r="H123" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="126">
-      <c r="A111" s="2" t="s">
+    <row r="124" spans="1:8" ht="126">
+      <c r="A124" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B111">
+      <c r="B124">
         <v>0</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C124" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="D124" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E124" t="s">
         <v>226</v>
       </c>
-      <c r="F111" t="s">
-        <v>300</v>
-      </c>
-      <c r="H111" s="4" t="s">
+      <c r="F124" t="s">
+        <v>299</v>
+      </c>
+      <c r="H124" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="105">
-      <c r="A112" s="2" t="s">
+    <row r="125" spans="1:8" ht="105">
+      <c r="A125" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B112">
+      <c r="B125">
         <v>0</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C125" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="D125" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E112" t="s">
-        <v>314</v>
-      </c>
-      <c r="F112" t="s">
-        <v>300</v>
-      </c>
-      <c r="H112" s="4" t="s">
+      <c r="E125" t="s">
+        <v>313</v>
+      </c>
+      <c r="F125" t="s">
+        <v>299</v>
+      </c>
+      <c r="H125" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="42">
-      <c r="A113" s="2" t="s">
+    <row r="126" spans="1:8" ht="42">
+      <c r="A126" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B113">
+      <c r="B126">
         <v>1</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C126" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="D126" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E126" t="s">
         <v>70</v>
       </c>
-      <c r="F113" t="s">
-        <v>300</v>
-      </c>
-      <c r="H113" s="4"/>
-    </row>
-    <row r="114" spans="1:8" ht="42">
-      <c r="A114" s="2" t="s">
+      <c r="F126" t="s">
+        <v>299</v>
+      </c>
+      <c r="H126" s="4"/>
+    </row>
+    <row r="127" spans="1:8" ht="42">
+      <c r="A127" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B114">
+      <c r="B127">
         <v>0</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C127" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="D127" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E127" t="s">
         <v>155</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F127" t="s">
         <v>40</v>
       </c>
-      <c r="H114" s="4" t="s">
+      <c r="H127" s="4" t="s">
         <v>162</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="H114" r:id="rId1" xr:uid="{81642C6C-B155-384F-AAC7-449D3395E8A1}"/>
-    <hyperlink ref="H112" r:id="rId2" xr:uid="{BF840327-7DE3-494E-9852-F70E198FA83F}"/>
-    <hyperlink ref="H111" r:id="rId3" xr:uid="{C1032CAE-FCD8-1242-B6C3-B70B988BC2CA}"/>
-    <hyperlink ref="H110" r:id="rId4" xr:uid="{F8DE77CC-7236-5740-A008-5EFF79B59035}"/>
-    <hyperlink ref="H102" r:id="rId5" xr:uid="{09EF007C-85D3-5F45-B203-6FE0424E5C99}"/>
-    <hyperlink ref="H90" r:id="rId6" xr:uid="{CA79A61E-3453-F748-8421-4D89662469BF}"/>
-    <hyperlink ref="H85" r:id="rId7" xr:uid="{DF2D3758-0BC9-D246-BED3-26AF94D5F9D8}"/>
-    <hyperlink ref="H39" r:id="rId8" xr:uid="{CCDC15F7-E252-0348-B02C-905084BD776E}"/>
-    <hyperlink ref="H2" r:id="rId9" xr:uid="{B4649428-221F-674F-BA70-A2780E5E269C}"/>
-    <hyperlink ref="H77" r:id="rId10" xr:uid="{E8486F26-D2AA-3540-A8B3-73E08A241E3A}"/>
-    <hyperlink ref="H9" r:id="rId11" xr:uid="{DF9E283C-C630-6141-B84A-D4DC20067D3A}"/>
-    <hyperlink ref="H10" r:id="rId12" xr:uid="{AA765222-2C31-E444-93E0-6241B574BBDA}"/>
-    <hyperlink ref="H13" r:id="rId13" xr:uid="{7424A509-2E7F-534F-A182-16DD568A0E14}"/>
-    <hyperlink ref="H15" r:id="rId14" xr:uid="{B81B5BB0-A4D2-CE48-976B-41038463380C}"/>
-    <hyperlink ref="H16" r:id="rId15" xr:uid="{51731D61-79A9-C248-A29C-7F455B171752}"/>
-    <hyperlink ref="H17" r:id="rId16" xr:uid="{DF071ACD-52CF-F248-82F5-DCBA80F5ED7C}"/>
-    <hyperlink ref="H18" r:id="rId17" xr:uid="{A3CDB931-1A52-EE43-BE32-2575167D2188}"/>
-    <hyperlink ref="H20" r:id="rId18" xr:uid="{217C257E-AC48-D240-A20A-4B4B59D80A75}"/>
-    <hyperlink ref="H21" r:id="rId19" xr:uid="{7DD8D092-ADED-CC44-8C91-A6B96A4E7F8B}"/>
-    <hyperlink ref="H22" r:id="rId20" xr:uid="{FF12F444-682A-3040-A650-0D77B1F409BF}"/>
-    <hyperlink ref="H23" r:id="rId21" xr:uid="{1128B72D-52B8-8F47-9418-E2DF8EDBE41D}"/>
-    <hyperlink ref="H32" r:id="rId22" xr:uid="{497C3D62-66B1-B349-919C-BB1436BCE7EA}"/>
-    <hyperlink ref="H38" r:id="rId23" xr:uid="{AA737391-1EFB-A246-BB33-46BEF9DF59DA}"/>
-    <hyperlink ref="H36" r:id="rId24" xr:uid="{12373DBC-12D0-EF44-94D1-6BE389EE8541}"/>
-    <hyperlink ref="H35" r:id="rId25" xr:uid="{0D1FF725-B522-814B-944C-9DE55388698D}"/>
-    <hyperlink ref="H37" r:id="rId26" xr:uid="{B196E238-6A79-1D4C-BE62-208D54322587}"/>
-    <hyperlink ref="H33" r:id="rId27" xr:uid="{C086B470-F6CB-A541-BF4F-D4066F6C3477}"/>
-    <hyperlink ref="H34" r:id="rId28" xr:uid="{6C629B57-C1F3-4545-97A0-DAE1AEC86284}"/>
-    <hyperlink ref="H31" r:id="rId29" xr:uid="{B29892C6-C28D-A544-98D7-253097387448}"/>
-    <hyperlink ref="H30" r:id="rId30" xr:uid="{CB97C88D-610F-9244-AD06-BA36E3E1A20C}"/>
+    <hyperlink ref="H127" r:id="rId1" xr:uid="{81642C6C-B155-384F-AAC7-449D3395E8A1}"/>
+    <hyperlink ref="H125" r:id="rId2" xr:uid="{BF840327-7DE3-494E-9852-F70E198FA83F}"/>
+    <hyperlink ref="H124" r:id="rId3" xr:uid="{C1032CAE-FCD8-1242-B6C3-B70B988BC2CA}"/>
+    <hyperlink ref="H123" r:id="rId4" xr:uid="{F8DE77CC-7236-5740-A008-5EFF79B59035}"/>
+    <hyperlink ref="H115" r:id="rId5" xr:uid="{09EF007C-85D3-5F45-B203-6FE0424E5C99}"/>
+    <hyperlink ref="H103" r:id="rId6" xr:uid="{CA79A61E-3453-F748-8421-4D89662469BF}"/>
+    <hyperlink ref="H98" r:id="rId7" xr:uid="{DF2D3758-0BC9-D246-BED3-26AF94D5F9D8}"/>
+    <hyperlink ref="H50" r:id="rId8" xr:uid="{CCDC15F7-E252-0348-B02C-905084BD776E}"/>
+    <hyperlink ref="H13" r:id="rId9" xr:uid="{B4649428-221F-674F-BA70-A2780E5E269C}"/>
+    <hyperlink ref="H90" r:id="rId10" xr:uid="{E8486F26-D2AA-3540-A8B3-73E08A241E3A}"/>
+    <hyperlink ref="H20" r:id="rId11" xr:uid="{DF9E283C-C630-6141-B84A-D4DC20067D3A}"/>
+    <hyperlink ref="H21" r:id="rId12" xr:uid="{AA765222-2C31-E444-93E0-6241B574BBDA}"/>
+    <hyperlink ref="H24" r:id="rId13" xr:uid="{7424A509-2E7F-534F-A182-16DD568A0E14}"/>
+    <hyperlink ref="H26" r:id="rId14" xr:uid="{B81B5BB0-A4D2-CE48-976B-41038463380C}"/>
+    <hyperlink ref="H27" r:id="rId15" xr:uid="{51731D61-79A9-C248-A29C-7F455B171752}"/>
+    <hyperlink ref="H28" r:id="rId16" xr:uid="{DF071ACD-52CF-F248-82F5-DCBA80F5ED7C}"/>
+    <hyperlink ref="H29" r:id="rId17" xr:uid="{A3CDB931-1A52-EE43-BE32-2575167D2188}"/>
+    <hyperlink ref="H31" r:id="rId18" xr:uid="{217C257E-AC48-D240-A20A-4B4B59D80A75}"/>
+    <hyperlink ref="H32" r:id="rId19" xr:uid="{7DD8D092-ADED-CC44-8C91-A6B96A4E7F8B}"/>
+    <hyperlink ref="H33" r:id="rId20" xr:uid="{FF12F444-682A-3040-A650-0D77B1F409BF}"/>
+    <hyperlink ref="H34" r:id="rId21" xr:uid="{1128B72D-52B8-8F47-9418-E2DF8EDBE41D}"/>
+    <hyperlink ref="H43" r:id="rId22" xr:uid="{497C3D62-66B1-B349-919C-BB1436BCE7EA}"/>
+    <hyperlink ref="H49" r:id="rId23" xr:uid="{AA737391-1EFB-A246-BB33-46BEF9DF59DA}"/>
+    <hyperlink ref="H47" r:id="rId24" xr:uid="{12373DBC-12D0-EF44-94D1-6BE389EE8541}"/>
+    <hyperlink ref="H46" r:id="rId25" xr:uid="{0D1FF725-B522-814B-944C-9DE55388698D}"/>
+    <hyperlink ref="H48" r:id="rId26" xr:uid="{B196E238-6A79-1D4C-BE62-208D54322587}"/>
+    <hyperlink ref="H44" r:id="rId27" xr:uid="{C086B470-F6CB-A541-BF4F-D4066F6C3477}"/>
+    <hyperlink ref="H45" r:id="rId28" xr:uid="{6C629B57-C1F3-4545-97A0-DAE1AEC86284}"/>
+    <hyperlink ref="H42" r:id="rId29" xr:uid="{B29892C6-C28D-A544-98D7-253097387448}"/>
+    <hyperlink ref="H41" r:id="rId30" xr:uid="{CB97C88D-610F-9244-AD06-BA36E3E1A20C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/data_excel/tags.xlsx
+++ b/data_excel/tags.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay/xidev/kanban/data_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{32869826-2EF1-1B43-99DC-BC61E5C48369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{65083B93-1A1A-7D4F-966A-166A6837CE95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16940" yWindow="660" windowWidth="21300" windowHeight="17120" xr2:uid="{1951D371-7A8D-D346-B651-736256765602}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="407">
   <si>
     <t>img</t>
     <phoneticPr fontId="1"/>
@@ -816,109 +816,6 @@
   </si>
   <si>
     <t>IMG_4856.HEIC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>危院！！立入禁止
-Danger!! Off-limits
-危</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>险</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>！！</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>别</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>进</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">入
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>위험하다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">!! </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>출입금지</t>
-    </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -5768,6 +5665,529 @@
   </si>
   <si>
     <t>IMG_1663.HEIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>危険！！立入禁止
+Danger!! Off-limits
+危</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>险</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>！！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>别</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>进</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">入
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>위험하다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">!! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출입금지</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">キケン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大和西大寺</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヤマト </t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t xml:space="preserve">サイダイジ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_1525.HEIC</t>
+  </si>
+  <si>
+    <t>IMG_1405.HEIC</t>
+  </si>
+  <si>
+    <t>IMG_1395.HEIC</t>
+  </si>
+  <si>
+    <t>IMG_1217.heic</t>
+  </si>
+  <si>
+    <t>IMG_1208.HEIC</t>
+  </si>
+  <si>
+    <t>IMG_1179.heic</t>
+  </si>
+  <si>
+    <t>IMG_1177.HEIC</t>
+  </si>
+  <si>
+    <t>IMG_1176.HEIC</t>
+  </si>
+  <si>
+    <t>自転車・バイク
+駐輪禁止</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤丸斜線|自転車|バイク</t>
+    <rPh sb="0" eb="4">
+      <t>🔴</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t xml:space="preserve">ジテンシャ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">線路内立ち入り禁止
+Do not enter the tracks
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>严</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>禁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>进</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>铁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">路内
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출입금지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+線路へ物を落とされたときは係員にお知らせください
+If you drop something on the tracks, please contact station staff.</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤丸斜線|電車|線路|走る人</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">アカマル </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">デンシャ </t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">センロ </t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t xml:space="preserve">ハシルヒト </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新大宮</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">シンオオミヤ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲み水ではありません。
+Do not drink.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤丸斜線|蛇口|コップに水</t>
+    <rPh sb="0" eb="1">
+      <t>🔴</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">ジャグチ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新幹線のぞみ</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">シンカンセン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NO FOOD NO DRINK
+飲食はご遠慮ください</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤丸斜線|カップ飲料|串</t>
+    <rPh sb="0" eb="4">
+      <t>アカマ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">インリョウ </t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>🪮</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://x.com/xiPJ/status/2004831692180410394</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤丸斜線|自転車</t>
+    <rPh sb="0" eb="4">
+      <t>🔴</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t xml:space="preserve">ジテンシャ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自転車通行は 終日通行禁止
+《三条寺町～河原町）
+中京警察署
+三条商店街(振)
+駐輪・駐車禁止</t>
+    <rPh sb="8" eb="9">
+      <t xml:space="preserve">ニチ </t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t xml:space="preserve">チュウリン </t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t xml:space="preserve">チュウシャ </t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t xml:space="preserve">キンシ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここはゴミ箱ではありません
+ごみを捨てないでください
+Don't throw trash here</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自立|看板</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ジリツカンバン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤丸斜線|手|丸めた紙</t>
+    <rPh sb="0" eb="4">
+      <t>🔴</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>☚</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t xml:space="preserve">マルメタカミ </t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>🪮</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>矢印|エスカレーターに乗る人|上矢印</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヤジルシ </t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t xml:space="preserve">ウエヤジルシ </t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t xml:space="preserve">ヒトビト </t>
+    </rPh>
+    <rPh sb="31" eb="35">
+      <t xml:space="preserve">ジョウゲヤジルシ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>矢印|エレベーターに乗る人々|上下矢印</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヤジルシ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤丸斜線|タバコ</t>
+    <rPh sb="0" eb="4">
+      <t>🔴</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>斜線|タバコ</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シャセン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>斜線|犬</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">シャセン </t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">イヌ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>斜線|カップ飲料|ハンバーガー</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シャセン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>斜線|カメラ</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シャセン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当店ではお車でご来店のお客様への酒類の販売をお断りしております。</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">トウテンデハ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">サケルイ </t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t xml:space="preserve">ハンバイヲ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤丸斜線|徳利とお猪口|車</t>
+    <rPh sb="0" eb="4">
+      <t>🔴</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">トックリトオチョコ </t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t xml:space="preserve">クルマ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>柱|看板</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ハシラ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">カンバン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_1161.jpg</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6276,10 +6696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0244D4E8-F443-D54E-A975-960F8853E327}">
-  <dimension ref="A1:H127"/>
+  <dimension ref="A1:H144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="106" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="106" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -6312,70 +6732,70 @@
         <v>41</v>
       </c>
       <c r="G1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="273">
       <c r="A2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" t="s">
         <v>332</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>333</v>
       </c>
-      <c r="F2" t="s">
-        <v>334</v>
-      </c>
       <c r="G2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="84">
       <c r="A3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" t="s">
         <v>336</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>337</v>
       </c>
-      <c r="F3" t="s">
-        <v>338</v>
-      </c>
       <c r="G3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="126">
       <c r="A4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="E4" t="s">
         <v>70</v>
@@ -6384,133 +6804,133 @@
         <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="147">
       <c r="A5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F5" t="s">
         <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="147">
       <c r="A6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" t="s">
         <v>345</v>
-      </c>
-      <c r="E6" t="s">
-        <v>346</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="147">
       <c r="A7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F7" t="s">
         <v>39</v>
       </c>
       <c r="G7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="147">
       <c r="A8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>351</v>
-      </c>
       <c r="E8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F8" t="s">
         <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="147">
       <c r="A9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E9" t="s">
+        <v>345</v>
+      </c>
+      <c r="F9" t="s">
+        <v>352</v>
+      </c>
+      <c r="G9" t="s">
         <v>354</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E9" t="s">
-        <v>346</v>
-      </c>
-      <c r="F9" t="s">
-        <v>353</v>
-      </c>
-      <c r="G9" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="147">
       <c r="A10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>5</v>
@@ -6522,41 +6942,41 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="63">
       <c r="A11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>365</v>
       </c>
       <c r="E11" t="s">
         <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="21">
       <c r="A12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>5</v>
@@ -6565,984 +6985,959 @@
         <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G12" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="147">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="42">
       <c r="A13" t="s">
-        <v>179</v>
+        <v>371</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>202</v>
+        <v>379</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>203</v>
+        <v>380</v>
       </c>
       <c r="E13" t="s">
-        <v>201</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>212</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="168">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="126">
       <c r="A14" t="s">
-        <v>285</v>
+        <v>372</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>286</v>
+        <v>381</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>5</v>
+        <v>382</v>
       </c>
       <c r="E14" t="s">
-        <v>294</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>281</v>
-      </c>
-      <c r="H14" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="G14" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="42">
       <c r="A15" t="s">
-        <v>282</v>
+        <v>373</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>283</v>
+        <v>385</v>
       </c>
       <c r="E15" t="s">
-        <v>284</v>
+        <v>70</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" ht="63">
+        <v>36</v>
+      </c>
+      <c r="G15" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="42">
       <c r="A16" t="s">
-        <v>277</v>
+        <v>374</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>278</v>
+        <v>387</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>279</v>
+        <v>388</v>
       </c>
       <c r="E16" t="s">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="F16" t="s">
-        <v>281</v>
-      </c>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" ht="168">
+        <v>39</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="105">
       <c r="A17" t="s">
-        <v>179</v>
+        <v>375</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>204</v>
+        <v>391</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>5</v>
+        <v>390</v>
       </c>
       <c r="E17" t="s">
-        <v>302</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="63">
       <c r="A18" t="s">
-        <v>287</v>
+        <v>376</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>288</v>
+        <v>392</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>290</v>
+        <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>293</v>
+        <v>70</v>
       </c>
       <c r="F18" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="42">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="21">
       <c r="A19" t="s">
-        <v>287</v>
+        <v>377</v>
       </c>
       <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="E19" t="s">
+        <v>393</v>
+      </c>
+      <c r="F19" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="21">
+      <c r="A20" t="s">
+        <v>377</v>
+      </c>
+      <c r="B20">
         <v>1</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="E19" t="s">
-        <v>293</v>
-      </c>
-      <c r="F19" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="63">
-      <c r="A20" t="s">
-        <v>180</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>207</v>
+        <v>393</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>5</v>
+        <v>397</v>
       </c>
       <c r="E20" t="s">
-        <v>303</v>
+        <v>393</v>
       </c>
       <c r="F20" t="s">
-        <v>208</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="42">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="21">
       <c r="A21" t="s">
-        <v>181</v>
+        <v>377</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>210</v>
+        <v>393</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>211</v>
+        <v>395</v>
       </c>
       <c r="E21" t="s">
-        <v>304</v>
+        <v>393</v>
       </c>
       <c r="F21" t="s">
-        <v>49</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="42">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="21">
       <c r="A22" t="s">
-        <v>181</v>
+        <v>377</v>
       </c>
       <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>213</v>
+        <v>3</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>214</v>
+        <v>398</v>
       </c>
       <c r="E22" t="s">
-        <v>304</v>
+        <v>393</v>
       </c>
       <c r="F22" t="s">
-        <v>49</v>
-      </c>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="1:8" ht="42">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="21">
       <c r="A23" t="s">
-        <v>181</v>
+        <v>377</v>
       </c>
       <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>215</v>
+        <v>4</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>216</v>
+        <v>390</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>393</v>
       </c>
       <c r="F23" t="s">
-        <v>49</v>
-      </c>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="1:8" ht="42">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="21">
       <c r="A24" t="s">
-        <v>182</v>
+        <v>378</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>217</v>
+        <v>393</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>5</v>
+        <v>399</v>
       </c>
       <c r="E24" t="s">
-        <v>70</v>
+        <v>393</v>
       </c>
       <c r="F24" t="s">
-        <v>234</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="84">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="21">
       <c r="A25" t="s">
-        <v>182</v>
+        <v>378</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>218</v>
+      <c r="C25" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>219</v>
+        <v>400</v>
       </c>
       <c r="E25" t="s">
-        <v>305</v>
+        <v>393</v>
       </c>
       <c r="F25" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="84">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="21">
       <c r="A26" t="s">
-        <v>183</v>
+        <v>378</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>220</v>
+        <v>393</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>221</v>
+        <v>401</v>
       </c>
       <c r="E26" t="s">
-        <v>314</v>
+        <v>393</v>
       </c>
       <c r="F26" t="s">
-        <v>49</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="105">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="21">
       <c r="A27" t="s">
-        <v>184</v>
+        <v>378</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>222</v>
+        <v>393</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>223</v>
+        <v>402</v>
       </c>
       <c r="E27" t="s">
-        <v>306</v>
+        <v>393</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="82">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="21">
       <c r="A28" t="s">
-        <v>185</v>
+        <v>406</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>227</v>
+        <v>393</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>5</v>
+        <v>398</v>
       </c>
       <c r="E28" t="s">
-        <v>310</v>
+        <v>393</v>
       </c>
       <c r="F28" t="s">
-        <v>49</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="105">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="21">
       <c r="A29" t="s">
-        <v>186</v>
+        <v>406</v>
       </c>
       <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E29" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="147">
+      <c r="A30" t="s">
+        <v>178</v>
+      </c>
+      <c r="B30">
         <v>0</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" t="s">
-        <v>292</v>
-      </c>
-      <c r="F29" t="s">
-        <v>39</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="42">
-      <c r="A30" t="s">
-        <v>186</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
       <c r="C30" s="1" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>19</v>
+        <v>202</v>
       </c>
       <c r="E30" t="s">
-        <v>316</v>
+        <v>200</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="21">
+        <v>211</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="168">
       <c r="A31" t="s">
-        <v>187</v>
+        <v>284</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>230</v>
+        <v>285</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>231</v>
+        <v>5</v>
       </c>
       <c r="E31" t="s">
-        <v>232</v>
+        <v>293</v>
       </c>
       <c r="F31" t="s">
-        <v>233</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="147">
+        <v>280</v>
+      </c>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:8" ht="42">
       <c r="A32" t="s">
-        <v>188</v>
+        <v>281</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>235</v>
+        <v>348</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>236</v>
+        <v>282</v>
       </c>
       <c r="E32" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="124">
+        <v>66</v>
+      </c>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:8" ht="63">
       <c r="A33" t="s">
-        <v>189</v>
+        <v>276</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>237</v>
+      <c r="C33" s="1" t="s">
+        <v>277</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>240</v>
+        <v>278</v>
       </c>
       <c r="E33" t="s">
-        <v>239</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="84">
+        <v>279</v>
+      </c>
+      <c r="F33" t="s">
+        <v>280</v>
+      </c>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:8" ht="168">
       <c r="A34" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" t="s">
+        <v>301</v>
+      </c>
+      <c r="F34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="63">
+      <c r="A35" t="s">
+        <v>286</v>
+      </c>
+      <c r="B35">
         <v>0</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E34" t="s">
-        <v>308</v>
-      </c>
-      <c r="F34" t="s">
-        <v>40</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="84">
-      <c r="A35" t="s">
-        <v>190</v>
-      </c>
-      <c r="B35">
+      <c r="C35" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E35" t="s">
+        <v>292</v>
+      </c>
+      <c r="F35" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="42">
+      <c r="A36" t="s">
+        <v>286</v>
+      </c>
+      <c r="B36">
         <v>1</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E35" t="s">
-        <v>308</v>
-      </c>
-      <c r="F35" t="s">
-        <v>40</v>
-      </c>
-      <c r="H35" s="4"/>
-    </row>
-    <row r="36" spans="1:8" ht="84">
-      <c r="A36" t="s">
-        <v>190</v>
-      </c>
-      <c r="B36">
+      <c r="C36" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E36" t="s">
+        <v>292</v>
+      </c>
+      <c r="F36" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="63">
+      <c r="A37" t="s">
+        <v>179</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" t="s">
+        <v>302</v>
+      </c>
+      <c r="F37" t="s">
+        <v>207</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="42">
+      <c r="A38" t="s">
+        <v>180</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E38" t="s">
+        <v>303</v>
+      </c>
+      <c r="F38" t="s">
+        <v>49</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="42">
+      <c r="A39" t="s">
+        <v>180</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E39" t="s">
+        <v>303</v>
+      </c>
+      <c r="F39" t="s">
+        <v>49</v>
+      </c>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="1:8" ht="42">
+      <c r="A40" t="s">
+        <v>180</v>
+      </c>
+      <c r="B40">
         <v>2</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="E36" t="s">
-        <v>308</v>
-      </c>
-      <c r="F36" t="s">
-        <v>40</v>
-      </c>
-      <c r="H36" s="4"/>
-    </row>
-    <row r="37" spans="1:8" ht="84">
-      <c r="A37" t="s">
-        <v>190</v>
-      </c>
-      <c r="B37">
-        <v>3</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E37" t="s">
-        <v>308</v>
-      </c>
-      <c r="F37" t="s">
-        <v>40</v>
-      </c>
-      <c r="H37" s="4"/>
-    </row>
-    <row r="38" spans="1:8" ht="63">
-      <c r="A38" t="s">
-        <v>190</v>
-      </c>
-      <c r="B38">
-        <v>4</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E38" t="s">
-        <v>309</v>
-      </c>
-      <c r="F38" t="s">
-        <v>40</v>
-      </c>
-      <c r="H38" s="4"/>
-    </row>
-    <row r="39" spans="1:8" ht="84">
-      <c r="A39" t="s">
-        <v>190</v>
-      </c>
-      <c r="B39">
-        <v>5</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E39" t="s">
-        <v>308</v>
-      </c>
-      <c r="F39" t="s">
-        <v>40</v>
-      </c>
-      <c r="H39" s="4"/>
-    </row>
-    <row r="40" spans="1:8" ht="21">
-      <c r="A40" t="s">
-        <v>190</v>
-      </c>
-      <c r="B40">
-        <v>6</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>253</v>
+      <c r="C40" s="7" t="s">
+        <v>214</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>5</v>
+        <v>215</v>
       </c>
       <c r="E40" t="s">
         <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="1:8" ht="105">
+    <row r="41" spans="1:8" ht="42">
       <c r="A41" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>275</v>
+        <v>216</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="F41" t="s">
-        <v>49</v>
+        <v>233</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="21">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="84">
       <c r="A42" t="s">
-        <v>272</v>
+        <v>181</v>
       </c>
       <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>273</v>
+        <v>1</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>217</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>5</v>
+        <v>218</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>304</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="82">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="84">
       <c r="A43" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>254</v>
+      <c r="C43" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="E43" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F43" t="s">
-        <v>300</v>
+        <v>49</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="42">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="105">
       <c r="A44" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>268</v>
+        <v>221</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>5</v>
+        <v>222</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>305</v>
       </c>
       <c r="F44" t="s">
         <v>39</v>
       </c>
-      <c r="G44" t="s">
-        <v>269</v>
-      </c>
       <c r="H44" s="4" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="105">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="82">
       <c r="A45" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>263</v>
+        <v>5</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>309</v>
       </c>
       <c r="F45" t="s">
-        <v>301</v>
+        <v>49</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="42">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="105">
       <c r="A46" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>291</v>
       </c>
       <c r="F46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>261</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="42">
       <c r="A47" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>315</v>
       </c>
       <c r="F47" t="s">
-        <v>49</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="42">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="21">
       <c r="A48" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>231</v>
       </c>
       <c r="F48" t="s">
-        <v>49</v>
+        <v>232</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="63">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="147">
       <c r="A49" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>5</v>
+        <v>235</v>
       </c>
       <c r="E49" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="F49" t="s">
-        <v>257</v>
+        <v>39</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="63">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="124">
       <c r="A50" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>200</v>
+      <c r="C50" s="8" t="s">
+        <v>236</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>5</v>
+        <v>239</v>
       </c>
       <c r="E50" t="s">
-        <v>70</v>
-      </c>
-      <c r="F50" t="s">
-        <v>49</v>
+        <v>238</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="42">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="84">
       <c r="A51" t="s">
-        <v>121</v>
+        <v>189</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>130</v>
+        <v>240</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>5</v>
+        <v>241</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>307</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="84">
       <c r="A52" t="s">
-        <v>122</v>
+        <v>189</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>131</v>
+        <v>242</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>5</v>
+        <v>243</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>307</v>
       </c>
       <c r="F52" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="168">
+        <v>40</v>
+      </c>
+      <c r="H52" s="4"/>
+    </row>
+    <row r="53" spans="1:8" ht="84">
       <c r="A53" t="s">
-        <v>123</v>
+        <v>189</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>135</v>
+        <v>244</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>5</v>
+        <v>245</v>
       </c>
       <c r="E53" t="s">
-        <v>45</v>
+        <v>307</v>
       </c>
       <c r="F53" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="42">
+        <v>40</v>
+      </c>
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" spans="1:8" ht="84">
       <c r="A54" t="s">
-        <v>123</v>
+        <v>189</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>136</v>
+        <v>246</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>5</v>
+        <v>249</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>307</v>
       </c>
       <c r="F54" t="s">
-        <v>39</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="H54" s="4"/>
     </row>
     <row r="55" spans="1:8" ht="63">
       <c r="A55" t="s">
-        <v>123</v>
+        <v>189</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>137</v>
+        <v>247</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>5</v>
+        <v>250</v>
       </c>
       <c r="E55" t="s">
-        <v>45</v>
+        <v>308</v>
       </c>
       <c r="F55" t="s">
-        <v>39</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="H55" s="4"/>
     </row>
     <row r="56" spans="1:8" ht="84">
       <c r="A56" t="s">
-        <v>123</v>
+        <v>189</v>
       </c>
       <c r="B56">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>133</v>
+        <v>248</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>134</v>
+        <v>251</v>
       </c>
       <c r="E56" t="s">
-        <v>45</v>
+        <v>307</v>
       </c>
       <c r="F56" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="84">
+        <v>40</v>
+      </c>
+      <c r="H56" s="4"/>
+    </row>
+    <row r="57" spans="1:8" ht="21">
       <c r="A57" t="s">
-        <v>124</v>
+        <v>189</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>139</v>
+        <v>252</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>141</v>
+        <v>5</v>
       </c>
       <c r="E57" t="s">
         <v>45</v>
@@ -7550,36 +7945,40 @@
       <c r="F57" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" ht="42">
+      <c r="H57" s="4"/>
+    </row>
+    <row r="58" spans="1:8" ht="105">
       <c r="A58" t="s">
-        <v>124</v>
+        <v>190</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>138</v>
+        <v>274</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>142</v>
+        <v>5</v>
       </c>
       <c r="E58" t="s">
         <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="84">
+        <v>49</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="21">
       <c r="A59" t="s">
-        <v>125</v>
+        <v>271</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>143</v>
+        <v>272</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>5</v>
@@ -7588,38 +7987,44 @@
         <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="168">
+        <v>36</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="82">
       <c r="A60" t="s">
-        <v>126</v>
+        <v>191</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>144</v>
+      <c r="C60" s="3" t="s">
+        <v>253</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>145</v>
+        <v>254</v>
       </c>
       <c r="E60" t="s">
-        <v>45</v>
+        <v>311</v>
       </c>
       <c r="F60" t="s">
-        <v>147</v>
+        <v>299</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="42">
       <c r="A61" t="s">
-        <v>127</v>
+        <v>192</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>149</v>
+        <v>267</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>5</v>
@@ -7628,38 +8033,47 @@
         <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>148</v>
+        <v>39</v>
+      </c>
+      <c r="G61" t="s">
+        <v>268</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="105">
       <c r="A62" t="s">
-        <v>128</v>
+        <v>193</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>150</v>
+      <c r="C62" s="1" t="s">
+        <v>263</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>5</v>
+        <v>262</v>
       </c>
       <c r="E62" t="s">
         <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>36</v>
+        <v>300</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="42">
       <c r="A63" t="s">
-        <v>128</v>
+        <v>194</v>
       </c>
       <c r="B63">
-        <v>1</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>151</v>
+        <v>0</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>261</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>5</v>
@@ -7668,18 +8082,21 @@
         <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="63">
+        <v>40</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="42">
       <c r="A64" t="s">
-        <v>129</v>
+        <v>195</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>152</v>
+        <v>259</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>5</v>
@@ -7688,58 +8105,67 @@
         <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="21">
+        <v>49</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="42">
       <c r="A65" t="s">
-        <v>78</v>
+        <v>196</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>5</v>
+        <v>265</v>
       </c>
       <c r="E65" t="s">
         <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="84">
+        <v>49</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="63">
       <c r="A66" t="s">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="E66" t="s">
-        <v>70</v>
+        <v>314</v>
       </c>
       <c r="F66" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="21">
+        <v>256</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="63">
       <c r="A67" t="s">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>82</v>
+        <v>199</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>5</v>
@@ -7748,218 +8174,221 @@
         <v>70</v>
       </c>
       <c r="F67" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="42">
+        <v>49</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="42">
       <c r="A68" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="E68" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="42">
+    <row r="69" spans="1:8" ht="84">
       <c r="A69" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="B69">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="E69" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="42">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="168">
       <c r="A70" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="E70" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="42">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="42">
       <c r="A71" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="B71">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>86</v>
+        <v>135</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="E71" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="42">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="63">
       <c r="A72" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="B72">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>87</v>
+        <v>136</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="E72" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="42">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="84">
       <c r="A73" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="B73">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="E73" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="42">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="84">
       <c r="A74" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="B74">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>89</v>
+        <v>138</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="E74" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="168">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="42">
       <c r="A75" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="B75">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E75" t="s">
         <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="84">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="B76">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E76" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="168">
       <c r="A77" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="E77" t="s">
         <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="42">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="42">
       <c r="A78" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>5</v>
@@ -7968,38 +8397,38 @@
         <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="84">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="105">
       <c r="A79" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>104</v>
+      <c r="C79" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="E79" t="s">
-        <v>310</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="63">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="42">
       <c r="A80" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B80">
-        <v>0</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>108</v>
+        <v>1</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>5</v>
@@ -8008,38 +8437,38 @@
         <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="126">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="63">
       <c r="A81" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>111</v>
+        <v>5</v>
       </c>
       <c r="E81" t="s">
         <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="42">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="21">
       <c r="A82" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>5</v>
@@ -8048,198 +8477,201 @@
         <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="147">
+        <v>36</v>
+      </c>
+      <c r="G82" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="84">
       <c r="A83" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="E83" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="F83" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="105">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="21">
       <c r="A84" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E84" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="F84" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="42">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="42">
       <c r="A85" t="s">
-        <v>296</v>
+        <v>78</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>295</v>
+        <v>83</v>
       </c>
       <c r="D85" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E85" t="s">
+        <v>70</v>
+      </c>
+      <c r="F85" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="42">
+      <c r="A86" t="s">
+        <v>78</v>
+      </c>
+      <c r="B86">
+        <v>4</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E86" t="s">
+        <v>70</v>
+      </c>
+      <c r="F86" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="42">
+      <c r="A87" t="s">
+        <v>78</v>
+      </c>
+      <c r="B87">
         <v>5</v>
       </c>
-      <c r="E85" t="s">
-        <v>297</v>
-      </c>
-      <c r="F85" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="42">
-      <c r="A86" t="s">
-        <v>317</v>
-      </c>
-      <c r="B86">
-        <v>0</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="E86" t="s">
-        <v>319</v>
-      </c>
-      <c r="F86" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="21">
-      <c r="A87" t="s">
-        <v>324</v>
-      </c>
-      <c r="B87">
-        <v>0</v>
-      </c>
       <c r="C87" s="1" t="s">
-        <v>322</v>
+        <v>85</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>325</v>
+        <v>94</v>
       </c>
       <c r="E87" t="s">
-        <v>319</v>
+        <v>70</v>
       </c>
       <c r="F87" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="63">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="42">
+      <c r="A88" t="s">
+        <v>78</v>
+      </c>
       <c r="B88">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>323</v>
+        <v>86</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="E88" t="s">
-        <v>319</v>
+        <v>70</v>
       </c>
       <c r="F88" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="63">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="42">
       <c r="A89" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="E89" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="F89" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="105">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="42">
       <c r="A90" t="s">
-        <v>209</v>
+        <v>78</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>205</v>
+        <v>88</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="E90" t="s">
-        <v>311</v>
+        <v>70</v>
       </c>
       <c r="F90" t="s">
-        <v>206</v>
-      </c>
-      <c r="H90" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="21">
-      <c r="A91" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="42">
+      <c r="A91" t="s">
+        <v>78</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="E91" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="F91" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="84">
-      <c r="A92" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="168">
+      <c r="A92" t="s">
+        <v>78</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>5</v>
@@ -8248,41 +8680,41 @@
         <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="336">
-      <c r="A93" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="42">
+      <c r="A93" t="s">
+        <v>78</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E93" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="F93" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="63">
-      <c r="A94" s="2" t="s">
-        <v>27</v>
+    <row r="94" spans="1:7" ht="42">
+      <c r="A94" t="s">
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="E94" t="s">
         <v>45</v>
@@ -8291,15 +8723,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="63">
+    <row r="95" spans="1:7" ht="42">
       <c r="A95" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="B95">
         <v>0</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>5</v>
@@ -8308,38 +8740,38 @@
         <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="63">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="84">
       <c r="A96" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>14</v>
+        <v>369</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="E96" t="s">
-        <v>45</v>
+        <v>309</v>
       </c>
       <c r="F96" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="63">
       <c r="A97" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>5</v>
@@ -8351,38 +8783,35 @@
         <v>39</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="84">
+    <row r="98" spans="1:8" ht="126">
       <c r="A98" t="s">
-        <v>176</v>
+        <v>108</v>
       </c>
       <c r="B98">
         <v>0</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>177</v>
+        <v>109</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="E98" t="s">
-        <v>178</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
         <v>46</v>
       </c>
-      <c r="H98" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="63">
+    </row>
+    <row r="99" spans="1:8" ht="42">
       <c r="A99" t="s">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>5</v>
@@ -8391,227 +8820,221 @@
         <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="105">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="147">
       <c r="A100" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>4</v>
+        <v>113</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>5</v>
+        <v>114</v>
       </c>
       <c r="E100" t="s">
         <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="105">
       <c r="A101" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="B101">
         <v>0</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="E101" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="42">
       <c r="A102" t="s">
-        <v>67</v>
+        <v>295</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>68</v>
+        <v>294</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="E102" t="s">
-        <v>70</v>
+        <v>296</v>
       </c>
       <c r="F102" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="84">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="42">
       <c r="A103" t="s">
-        <v>174</v>
+        <v>316</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E103" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="F103" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="H103" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="42">
+        <v>317</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E103" t="s">
+        <v>318</v>
+      </c>
+      <c r="F103" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="21">
       <c r="A104" t="s">
-        <v>64</v>
+        <v>323</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>77</v>
+        <v>321</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>65</v>
+        <v>324</v>
       </c>
       <c r="E104" t="s">
-        <v>45</v>
+        <v>318</v>
       </c>
       <c r="F104" t="s">
-        <v>66</v>
+        <v>280</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="63">
-      <c r="A105" t="s">
-        <v>62</v>
-      </c>
       <c r="B105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>60</v>
+        <v>322</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="E105" t="s">
-        <v>45</v>
+        <v>318</v>
       </c>
       <c r="F105" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="126">
-      <c r="A106" s="2" t="s">
-        <v>42</v>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="63">
+      <c r="A106" t="s">
+        <v>118</v>
       </c>
       <c r="B106">
         <v>0</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="E106" t="s">
-        <v>224</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
         <v>46</v>
       </c>
-      <c r="G106" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="21">
-      <c r="A107" s="2" t="s">
-        <v>15</v>
+    </row>
+    <row r="107" spans="1:8" ht="105">
+      <c r="A107" t="s">
+        <v>208</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>16</v>
+        <v>204</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E107" t="s">
-        <v>45</v>
+        <v>310</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>205</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="21">
       <c r="A108" s="2" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E108" t="s">
         <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="42">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="84">
       <c r="A109" s="2" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="E109" t="s">
         <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="21">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="336">
       <c r="A110" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B110">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E110" t="s">
         <v>45</v>
@@ -8620,396 +9043,746 @@
         <v>36</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="42">
+    <row r="111" spans="1:8" ht="63">
       <c r="A111" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B111">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E111" t="s">
         <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="21">
-      <c r="A112" s="2" t="s">
-        <v>15</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="63">
+      <c r="A112" t="s">
+        <v>12</v>
       </c>
       <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D112" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="E112" t="s">
         <v>45</v>
       </c>
       <c r="F112" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="21">
-      <c r="A113" s="2" t="s">
-        <v>15</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="63">
+      <c r="A113" t="s">
+        <v>12</v>
       </c>
       <c r="B113">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E113" t="s">
         <v>45</v>
       </c>
       <c r="F113" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="21">
-      <c r="A114" s="2" t="s">
-        <v>15</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="63">
+      <c r="A114" t="s">
+        <v>11</v>
       </c>
       <c r="B114">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="E114" t="s">
         <v>45</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="21">
-      <c r="A115" s="2" t="s">
-        <v>170</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="84">
+      <c r="A115" t="s">
+        <v>175</v>
       </c>
       <c r="B115">
         <v>0</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E115" t="s">
-        <v>45</v>
+        <v>177</v>
       </c>
       <c r="F115" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="409.6">
-      <c r="A116" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="63">
+      <c r="A116" t="s">
+        <v>7</v>
       </c>
       <c r="B116">
-        <v>1</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>172</v>
+        <v>0</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E116" t="s">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="F116" t="s">
-        <v>36</v>
-      </c>
-      <c r="H116" s="4"/>
+        <v>37</v>
+      </c>
     </row>
     <row r="117" spans="1:8" ht="105">
-      <c r="A117" s="2" t="s">
-        <v>63</v>
+      <c r="A117" t="s">
+        <v>6</v>
       </c>
       <c r="B117">
         <v>0</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>160</v>
+        <v>5</v>
       </c>
       <c r="E117" t="s">
         <v>45</v>
       </c>
       <c r="F117" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="63">
-      <c r="A118" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="105">
+      <c r="A118" t="s">
+        <v>71</v>
       </c>
       <c r="B118">
         <v>0</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="E118" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="F118" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="42">
-      <c r="A119" s="2" t="s">
-        <v>56</v>
+      <c r="A119" t="s">
+        <v>67</v>
       </c>
       <c r="B119">
         <v>0</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="E119" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="F119" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="21">
-      <c r="A120" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="84">
+      <c r="A120" t="s">
+        <v>173</v>
       </c>
       <c r="B120">
         <v>0</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E120" t="s">
-        <v>45</v>
-      </c>
-      <c r="F120" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="84">
-      <c r="A121" s="2" t="s">
-        <v>51</v>
+        <v>174</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="42">
+      <c r="A121" t="s">
+        <v>64</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="E121" t="s">
         <v>45</v>
       </c>
       <c r="F121" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="42">
-      <c r="A122" s="2" t="s">
-        <v>47</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="63">
+      <c r="A122" t="s">
+        <v>62</v>
       </c>
       <c r="B122">
         <v>0</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>161</v>
+        <v>61</v>
       </c>
       <c r="E122" t="s">
         <v>45</v>
       </c>
       <c r="F122" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="42">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="126">
       <c r="A123" s="2" t="s">
-        <v>166</v>
+        <v>42</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>165</v>
+        <v>43</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>167</v>
+        <v>44</v>
       </c>
       <c r="E123" t="s">
-        <v>168</v>
+        <v>223</v>
       </c>
       <c r="F123" t="s">
-        <v>169</v>
-      </c>
-      <c r="H123" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="126">
+        <v>46</v>
+      </c>
+      <c r="G123" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="21">
       <c r="A124" s="2" t="s">
-        <v>163</v>
+        <v>15</v>
       </c>
       <c r="B124">
         <v>0</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>164</v>
+        <v>16</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E124" t="s">
-        <v>226</v>
+        <v>45</v>
       </c>
       <c r="F124" t="s">
-        <v>299</v>
-      </c>
-      <c r="H124" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="105">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="21">
       <c r="A125" s="2" t="s">
-        <v>157</v>
+        <v>15</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E125" t="s">
-        <v>313</v>
+        <v>45</v>
       </c>
       <c r="F125" t="s">
-        <v>299</v>
-      </c>
-      <c r="H125" s="4" t="s">
-        <v>162</v>
+        <v>36</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="42">
       <c r="A126" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B126">
+        <v>2</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E126" t="s">
+        <v>45</v>
+      </c>
+      <c r="F126" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="21">
+      <c r="A127" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B127">
+        <v>3</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E127" t="s">
+        <v>45</v>
+      </c>
+      <c r="F127" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="42">
+      <c r="A128" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B128">
+        <v>4</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E128" t="s">
+        <v>45</v>
+      </c>
+      <c r="F128" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="21">
+      <c r="A129" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B129">
+        <v>5</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E129" t="s">
+        <v>45</v>
+      </c>
+      <c r="F129" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="21">
+      <c r="A130" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B130">
+        <v>6</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E130" t="s">
+        <v>45</v>
+      </c>
+      <c r="F130" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="21">
+      <c r="A131" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B131">
+        <v>7</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E131" t="s">
+        <v>45</v>
+      </c>
+      <c r="F131" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="21">
+      <c r="A132" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E132" t="s">
+        <v>45</v>
+      </c>
+      <c r="F132" t="s">
+        <v>36</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="409.6">
+      <c r="A133" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E133" t="s">
+        <v>224</v>
+      </c>
+      <c r="F133" t="s">
+        <v>36</v>
+      </c>
+      <c r="H133" s="4"/>
+    </row>
+    <row r="134" spans="1:8" ht="105">
+      <c r="A134" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E134" t="s">
+        <v>45</v>
+      </c>
+      <c r="F134" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="63">
+      <c r="A135" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E135" t="s">
+        <v>45</v>
+      </c>
+      <c r="F135" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="42">
+      <c r="A136" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E136" t="s">
+        <v>45</v>
+      </c>
+      <c r="F136" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="21">
+      <c r="A137" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E137" t="s">
+        <v>45</v>
+      </c>
+      <c r="F137" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="84">
+      <c r="A138" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E138" t="s">
+        <v>45</v>
+      </c>
+      <c r="F138" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="42">
+      <c r="A139" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E139" t="s">
+        <v>45</v>
+      </c>
+      <c r="F139" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="42">
+      <c r="A140" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E140" t="s">
+        <v>167</v>
+      </c>
+      <c r="F140" t="s">
+        <v>168</v>
+      </c>
+      <c r="H140" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="126">
+      <c r="A141" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E141" t="s">
+        <v>225</v>
+      </c>
+      <c r="F141" t="s">
+        <v>298</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="105">
+      <c r="A142" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E142" t="s">
+        <v>312</v>
+      </c>
+      <c r="F142" t="s">
+        <v>298</v>
+      </c>
+      <c r="H142" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="42">
+      <c r="A143" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B126">
-        <v>1</v>
-      </c>
-      <c r="C126" s="1" t="s">
+      <c r="D143" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D126" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E126" t="s">
+      <c r="E143" t="s">
         <v>70</v>
       </c>
-      <c r="F126" t="s">
-        <v>299</v>
-      </c>
-      <c r="H126" s="4"/>
-    </row>
-    <row r="127" spans="1:8" ht="42">
-      <c r="A127" s="2" t="s">
+      <c r="F143" t="s">
+        <v>298</v>
+      </c>
+      <c r="H143" s="4"/>
+    </row>
+    <row r="144" spans="1:8" ht="42">
+      <c r="A144" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B127">
-        <v>0</v>
-      </c>
-      <c r="C127" s="1" t="s">
+      <c r="D144" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E144" t="s">
         <v>154</v>
       </c>
-      <c r="D127" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E127" t="s">
-        <v>155</v>
-      </c>
-      <c r="F127" t="s">
+      <c r="F144" t="s">
         <v>40</v>
       </c>
-      <c r="H127" s="4" t="s">
-        <v>162</v>
+      <c r="H144" s="4" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="H127" r:id="rId1" xr:uid="{81642C6C-B155-384F-AAC7-449D3395E8A1}"/>
-    <hyperlink ref="H125" r:id="rId2" xr:uid="{BF840327-7DE3-494E-9852-F70E198FA83F}"/>
-    <hyperlink ref="H124" r:id="rId3" xr:uid="{C1032CAE-FCD8-1242-B6C3-B70B988BC2CA}"/>
-    <hyperlink ref="H123" r:id="rId4" xr:uid="{F8DE77CC-7236-5740-A008-5EFF79B59035}"/>
-    <hyperlink ref="H115" r:id="rId5" xr:uid="{09EF007C-85D3-5F45-B203-6FE0424E5C99}"/>
-    <hyperlink ref="H103" r:id="rId6" xr:uid="{CA79A61E-3453-F748-8421-4D89662469BF}"/>
-    <hyperlink ref="H98" r:id="rId7" xr:uid="{DF2D3758-0BC9-D246-BED3-26AF94D5F9D8}"/>
-    <hyperlink ref="H50" r:id="rId8" xr:uid="{CCDC15F7-E252-0348-B02C-905084BD776E}"/>
-    <hyperlink ref="H13" r:id="rId9" xr:uid="{B4649428-221F-674F-BA70-A2780E5E269C}"/>
-    <hyperlink ref="H90" r:id="rId10" xr:uid="{E8486F26-D2AA-3540-A8B3-73E08A241E3A}"/>
-    <hyperlink ref="H20" r:id="rId11" xr:uid="{DF9E283C-C630-6141-B84A-D4DC20067D3A}"/>
-    <hyperlink ref="H21" r:id="rId12" xr:uid="{AA765222-2C31-E444-93E0-6241B574BBDA}"/>
-    <hyperlink ref="H24" r:id="rId13" xr:uid="{7424A509-2E7F-534F-A182-16DD568A0E14}"/>
-    <hyperlink ref="H26" r:id="rId14" xr:uid="{B81B5BB0-A4D2-CE48-976B-41038463380C}"/>
-    <hyperlink ref="H27" r:id="rId15" xr:uid="{51731D61-79A9-C248-A29C-7F455B171752}"/>
-    <hyperlink ref="H28" r:id="rId16" xr:uid="{DF071ACD-52CF-F248-82F5-DCBA80F5ED7C}"/>
-    <hyperlink ref="H29" r:id="rId17" xr:uid="{A3CDB931-1A52-EE43-BE32-2575167D2188}"/>
-    <hyperlink ref="H31" r:id="rId18" xr:uid="{217C257E-AC48-D240-A20A-4B4B59D80A75}"/>
-    <hyperlink ref="H32" r:id="rId19" xr:uid="{7DD8D092-ADED-CC44-8C91-A6B96A4E7F8B}"/>
-    <hyperlink ref="H33" r:id="rId20" xr:uid="{FF12F444-682A-3040-A650-0D77B1F409BF}"/>
-    <hyperlink ref="H34" r:id="rId21" xr:uid="{1128B72D-52B8-8F47-9418-E2DF8EDBE41D}"/>
-    <hyperlink ref="H43" r:id="rId22" xr:uid="{497C3D62-66B1-B349-919C-BB1436BCE7EA}"/>
-    <hyperlink ref="H49" r:id="rId23" xr:uid="{AA737391-1EFB-A246-BB33-46BEF9DF59DA}"/>
-    <hyperlink ref="H47" r:id="rId24" xr:uid="{12373DBC-12D0-EF44-94D1-6BE389EE8541}"/>
-    <hyperlink ref="H46" r:id="rId25" xr:uid="{0D1FF725-B522-814B-944C-9DE55388698D}"/>
-    <hyperlink ref="H48" r:id="rId26" xr:uid="{B196E238-6A79-1D4C-BE62-208D54322587}"/>
-    <hyperlink ref="H44" r:id="rId27" xr:uid="{C086B470-F6CB-A541-BF4F-D4066F6C3477}"/>
-    <hyperlink ref="H45" r:id="rId28" xr:uid="{6C629B57-C1F3-4545-97A0-DAE1AEC86284}"/>
-    <hyperlink ref="H42" r:id="rId29" xr:uid="{B29892C6-C28D-A544-98D7-253097387448}"/>
-    <hyperlink ref="H41" r:id="rId30" xr:uid="{CB97C88D-610F-9244-AD06-BA36E3E1A20C}"/>
+    <hyperlink ref="H144" r:id="rId1" xr:uid="{81642C6C-B155-384F-AAC7-449D3395E8A1}"/>
+    <hyperlink ref="H142" r:id="rId2" xr:uid="{BF840327-7DE3-494E-9852-F70E198FA83F}"/>
+    <hyperlink ref="H141" r:id="rId3" xr:uid="{C1032CAE-FCD8-1242-B6C3-B70B988BC2CA}"/>
+    <hyperlink ref="H140" r:id="rId4" xr:uid="{F8DE77CC-7236-5740-A008-5EFF79B59035}"/>
+    <hyperlink ref="H132" r:id="rId5" xr:uid="{09EF007C-85D3-5F45-B203-6FE0424E5C99}"/>
+    <hyperlink ref="H120" r:id="rId6" xr:uid="{CA79A61E-3453-F748-8421-4D89662469BF}"/>
+    <hyperlink ref="H115" r:id="rId7" xr:uid="{DF2D3758-0BC9-D246-BED3-26AF94D5F9D8}"/>
+    <hyperlink ref="H67" r:id="rId8" xr:uid="{CCDC15F7-E252-0348-B02C-905084BD776E}"/>
+    <hyperlink ref="H30" r:id="rId9" xr:uid="{B4649428-221F-674F-BA70-A2780E5E269C}"/>
+    <hyperlink ref="H107" r:id="rId10" xr:uid="{E8486F26-D2AA-3540-A8B3-73E08A241E3A}"/>
+    <hyperlink ref="H37" r:id="rId11" xr:uid="{DF9E283C-C630-6141-B84A-D4DC20067D3A}"/>
+    <hyperlink ref="H38" r:id="rId12" xr:uid="{AA765222-2C31-E444-93E0-6241B574BBDA}"/>
+    <hyperlink ref="H41" r:id="rId13" xr:uid="{7424A509-2E7F-534F-A182-16DD568A0E14}"/>
+    <hyperlink ref="H43" r:id="rId14" xr:uid="{B81B5BB0-A4D2-CE48-976B-41038463380C}"/>
+    <hyperlink ref="H44" r:id="rId15" xr:uid="{51731D61-79A9-C248-A29C-7F455B171752}"/>
+    <hyperlink ref="H45" r:id="rId16" xr:uid="{DF071ACD-52CF-F248-82F5-DCBA80F5ED7C}"/>
+    <hyperlink ref="H46" r:id="rId17" xr:uid="{A3CDB931-1A52-EE43-BE32-2575167D2188}"/>
+    <hyperlink ref="H48" r:id="rId18" xr:uid="{217C257E-AC48-D240-A20A-4B4B59D80A75}"/>
+    <hyperlink ref="H49" r:id="rId19" xr:uid="{7DD8D092-ADED-CC44-8C91-A6B96A4E7F8B}"/>
+    <hyperlink ref="H50" r:id="rId20" xr:uid="{FF12F444-682A-3040-A650-0D77B1F409BF}"/>
+    <hyperlink ref="H51" r:id="rId21" xr:uid="{1128B72D-52B8-8F47-9418-E2DF8EDBE41D}"/>
+    <hyperlink ref="H60" r:id="rId22" xr:uid="{497C3D62-66B1-B349-919C-BB1436BCE7EA}"/>
+    <hyperlink ref="H66" r:id="rId23" xr:uid="{AA737391-1EFB-A246-BB33-46BEF9DF59DA}"/>
+    <hyperlink ref="H64" r:id="rId24" xr:uid="{12373DBC-12D0-EF44-94D1-6BE389EE8541}"/>
+    <hyperlink ref="H63" r:id="rId25" xr:uid="{0D1FF725-B522-814B-944C-9DE55388698D}"/>
+    <hyperlink ref="H65" r:id="rId26" xr:uid="{B196E238-6A79-1D4C-BE62-208D54322587}"/>
+    <hyperlink ref="H61" r:id="rId27" xr:uid="{C086B470-F6CB-A541-BF4F-D4066F6C3477}"/>
+    <hyperlink ref="H62" r:id="rId28" xr:uid="{6C629B57-C1F3-4545-97A0-DAE1AEC86284}"/>
+    <hyperlink ref="H59" r:id="rId29" xr:uid="{B29892C6-C28D-A544-98D7-253097387448}"/>
+    <hyperlink ref="H58" r:id="rId30" xr:uid="{CB97C88D-610F-9244-AD06-BA36E3E1A20C}"/>
+    <hyperlink ref="H16" r:id="rId31" xr:uid="{E92164C8-75EB-FE45-8332-C3A91BA4451A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/data_excel/tags.xlsx
+++ b/data_excel/tags.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay/xidev/kanban/data_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{65083B93-1A1A-7D4F-966A-166A6837CE95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{3F49C4DB-6B55-CC46-861A-C6ABCDBDD7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16940" yWindow="660" windowWidth="21300" windowHeight="17120" xr2:uid="{1951D371-7A8D-D346-B651-736256765602}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="408">
   <si>
     <t>img</t>
     <phoneticPr fontId="1"/>
@@ -5225,9 +5225,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>IMG_1663.HEIC</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">芝生内に入らないでください
 Please do not walk on the lawn.
@@ -6188,6 +6185,17 @@
   </si>
   <si>
     <t>IMG_1161.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大和西大寺</t>
+    <rPh sb="0" eb="1">
+      <t>ヤマトサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_1671.HEIC</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6698,8 +6706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0244D4E8-F443-D54E-A975-960F8853E327}">
   <dimension ref="A1:H144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="106" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="106" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -6758,7 +6766,7 @@
         <v>333</v>
       </c>
       <c r="G2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="84">
@@ -6781,7 +6789,7 @@
         <v>337</v>
       </c>
       <c r="G3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="126">
@@ -6804,7 +6812,7 @@
         <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="147">
@@ -6827,7 +6835,7 @@
         <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="147">
@@ -6850,18 +6858,18 @@
         <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="147">
       <c r="A7" t="s">
-        <v>346</v>
+        <v>407</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>5</v>
@@ -6873,21 +6881,21 @@
         <v>39</v>
       </c>
       <c r="G7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="147">
       <c r="A8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>350</v>
       </c>
       <c r="E8" t="s">
         <v>345</v>
@@ -6896,41 +6904,41 @@
         <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="147">
       <c r="A9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E9" t="s">
         <v>345</v>
       </c>
       <c r="F9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="147">
       <c r="A10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>5</v>
@@ -6942,21 +6950,21 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="63">
       <c r="A11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>364</v>
       </c>
       <c r="E11" t="s">
         <v>45</v>
@@ -6965,18 +6973,18 @@
         <v>298</v>
       </c>
       <c r="G11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="21">
       <c r="A12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>5</v>
@@ -6985,24 +6993,24 @@
         <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="42">
       <c r="A13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>380</v>
       </c>
       <c r="E13" t="s">
         <v>45</v>
@@ -7013,16 +7021,16 @@
     </row>
     <row r="14" spans="1:8" ht="126">
       <c r="A14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="E14" t="s">
         <v>45</v>
@@ -7031,21 +7039,21 @@
         <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="42">
       <c r="A15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>385</v>
       </c>
       <c r="E15" t="s">
         <v>70</v>
@@ -7054,21 +7062,21 @@
         <v>36</v>
       </c>
       <c r="G15" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="42">
       <c r="A16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>388</v>
       </c>
       <c r="E16" t="s">
         <v>200</v>
@@ -7077,21 +7085,21 @@
         <v>39</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="105">
       <c r="A17" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E17" t="s">
         <v>45</v>
@@ -7102,13 +7110,13 @@
     </row>
     <row r="18" spans="1:8" ht="63">
       <c r="A18" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>5</v>
@@ -7122,119 +7130,122 @@
     </row>
     <row r="19" spans="1:8" ht="21">
       <c r="A19" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E19" t="s">
+        <v>392</v>
+      </c>
+      <c r="F19" t="s">
         <v>393</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="E19" t="s">
-        <v>393</v>
-      </c>
-      <c r="F19" t="s">
-        <v>394</v>
+      <c r="G19" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="21">
       <c r="A20" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="E20" t="s">
+        <v>392</v>
+      </c>
+      <c r="F20" t="s">
         <v>393</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="E20" t="s">
-        <v>393</v>
-      </c>
-      <c r="F20" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="21">
       <c r="A21" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E21" t="s">
+        <v>392</v>
+      </c>
+      <c r="F21" t="s">
         <v>393</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="E21" t="s">
-        <v>393</v>
-      </c>
-      <c r="F21" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="21">
       <c r="A22" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E22" t="s">
+        <v>392</v>
+      </c>
+      <c r="F22" t="s">
         <v>393</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="E22" t="s">
-        <v>393</v>
-      </c>
-      <c r="F22" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="21">
       <c r="A23" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B23">
         <v>4</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E23" t="s">
+        <v>392</v>
+      </c>
+      <c r="F23" t="s">
         <v>393</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="E23" t="s">
-        <v>393</v>
-      </c>
-      <c r="F23" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="21">
       <c r="A24" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E24" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F24" t="s">
         <v>280</v>
@@ -7242,19 +7253,19 @@
     </row>
     <row r="25" spans="1:8" ht="21">
       <c r="A25" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E25" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F25" t="s">
         <v>280</v>
@@ -7262,19 +7273,19 @@
     </row>
     <row r="26" spans="1:8" ht="21">
       <c r="A26" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B26">
         <v>2</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E26" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F26" t="s">
         <v>280</v>
@@ -7282,19 +7293,19 @@
     </row>
     <row r="27" spans="1:8" ht="21">
       <c r="A27" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B27">
         <v>3</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E27" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F27" t="s">
         <v>280</v>
@@ -7302,42 +7313,42 @@
     </row>
     <row r="28" spans="1:8" ht="21">
       <c r="A28" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E28" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F28" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="21">
       <c r="A29" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>404</v>
       </c>
       <c r="E29" t="s">
         <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="147">
@@ -7392,7 +7403,7 @@
         <v>0</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>282</v>
@@ -8480,7 +8491,7 @@
         <v>36</v>
       </c>
       <c r="G82" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="84">
@@ -8751,7 +8762,7 @@
         <v>0</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>105</v>
@@ -9309,7 +9320,7 @@
         <v>46</v>
       </c>
       <c r="G123" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="21">

--- a/data_excel/tags.xlsx
+++ b/data_excel/tags.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay/xidev/kanban/data_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{3F49C4DB-6B55-CC46-861A-C6ABCDBDD7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{4B94E8BE-4042-DA41-8446-80895E738B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16940" yWindow="660" windowWidth="21300" windowHeight="17120" xr2:uid="{1951D371-7A8D-D346-B651-736256765602}"/>
+    <workbookView xWindow="20040" yWindow="640" windowWidth="18180" windowHeight="17120" xr2:uid="{1951D371-7A8D-D346-B651-736256765602}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="553">
   <si>
     <t>img</t>
     <phoneticPr fontId="1"/>
@@ -734,16 +735,6 @@
   <si>
     <t>防犯カメラ作動中
 Security Cameras in Operation</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>赤丸斜線|倒れる人|衝突|自転車に乗る人</t>
-    <rPh sb="10" eb="12">
-      <t xml:space="preserve">ショウトツ </t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t xml:space="preserve">ジテンシャン </t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2645,6 +2636,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>ja|zh|vi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>鎖|貼紙</t>
     <rPh sb="0" eb="1">
       <t xml:space="preserve">クサリ </t>
@@ -2990,10 +2985,6 @@
       </rPr>
       <t>的方法</t>
     </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>車両進入禁止</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4530,10 +4521,6 @@
   <si>
     <t>彈指神功，水滴入盆
 Please leave the basin clean and tidy.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IMG_2737.HEIC</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -6196,6 +6183,2054 @@
   </si>
   <si>
     <t>IMG_1671.HEIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_3975.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10M→</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シャワー|車</t>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">クルマ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>街灯|看板</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ガイトウ </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">カンバン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>автомойка (洗車場)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_4989.HEIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>XIN V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ứ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T GI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Y VÀO THÙNG RÁC VÀ
+X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C SAU KHI S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ử</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ụ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NG</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>DANGER
+NGUY HI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M
+KHU V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ự</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C KH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ổ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NG CÓ C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ứ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ộ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ắ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M BI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N
+No lifeguard on duty, do not swim</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_4798.HEIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤丸斜線|泳ぐ人</t>
+    <rPh sb="0" eb="4">
+      <t>🔴</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">オヨグヒト </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_4766.HEIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>KHU V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ự</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C
+VĨA HÈ VÀ BÃI BI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N
+Sidewalk and Beach area</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>CAM ĂN U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NG, XÃ RÁC
+No Picnic and Littering</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M CÁC LO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I XE
+No Vehicles</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M BÁN HÀNG RONG
+No Vendor</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤丸斜線|人|四角い物</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">アカマルシャセン </t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">ヒト </t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>🪏</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤丸斜線|手|四角い物|トイレ</t>
+    <rPh sb="0" eb="4">
+      <t>🔴</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>☚</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">シカク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤丸斜線|バイクに乗る人</t>
+    <rPh sb="0" eb="4">
+      <t>🔴</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤丸斜線|天秤棒を担ぐ人</t>
+    <rPh sb="0" eb="4">
+      <t>🔴</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://isomocha.hatenablog.com/entry/2025/12/22/223000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_5124.HEIC</t>
+  </si>
+  <si>
+    <t>IMG_5117.HEIC</t>
+  </si>
+  <si>
+    <t>IMG_5116.HEIC</t>
+  </si>
+  <si>
+    <t>IMG_5103.HEIC</t>
+  </si>
+  <si>
+    <t>IMG_5095.HEIC</t>
+  </si>
+  <si>
+    <t>IMG_5130.HEIC</t>
+  </si>
+  <si>
+    <t>推
+Push</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緊握扶手
+Hold the handrail</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>禁止吸煙
+No smoking
+最高罰款
+Maximum penalty
+HK$5000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壁|看板</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カベ </t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">カンバン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小心地滑
+Beware of slippery floor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤三角|滑る人</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">アカサンカク </t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>‣</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">スベルヒト </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Beware of Slippery Floor
+小心地滑</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>只可用作 緊急出口
+Emergency exit only</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小心門邊夾手
+KEEP HANDS CLEAR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進入禁止</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手|バツ</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">テ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>香港國際機場</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>上海浦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>东</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>国</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>际</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>场</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_1569.heic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">扉挟まれ注意
+Please be careful of the doors.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>小心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">门
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>문</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조심</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_8315.JPG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_8311.JPG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>嚴禁吸菸
+No smoking
+最高罰款
+Maximum penalty
+NT $10,000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤四角斜線|タバコ</t>
+    <rPh sb="0" eb="3">
+      <t>アカシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">シャセン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>沖水鈕請持續 按壓超過3秒
+Push flush button for more than 3 seconds</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>衛生紙請丟馬桶 勿丟棄其他異物
+No garbage into the toilet except toilet paper</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>請小心 保管財物
+Keep your valuables in view</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>請家長留意小孩的手勿靠在門上避免夾傷。
+To avoid injury, keep children's hands clear of the doors.
+小心夾手
+Mind your hands!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>泣いている顔|ぎざぎざ|手</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ナイテイルカオ </t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>☚</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>臺灣桃園國際機場</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_9388.HEIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>事故多く
+通り抜けしないで下さい
+NO SHORT CUT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壁|貼紙|手書き</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カベ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">ハリガミ </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">テガキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>警戒中 窃盗犯横行中
+小心防盗
+C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nh báo t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ộ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ộ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ắ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p trong</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ケイカイチュウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_5484.HEIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>棚|貼紙</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">タナ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">ハリガミ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_5446.heic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NO DRONE AREA
+施設上空及び周辺での小型無人機等の飛行は法令により禁止されています
+施設管理者</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤丸斜線|ドローン</t>
+    <rPh sb="0" eb="4">
+      <t>アカマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>舞鶴造修補給所の敷地内上空及び同敷地外柵から概ね300m地域上空において、ドローン等小型無人機を許可又は了承なく飛行させることは法令で禁止されています。
+許可・了承なくドローン等小型無人機を飛行させた場合、必要な措置を実施する他、「1年以下の懲役又は50万円以下の罰金」が科せられる場合があります。
+海上自衛隊 舞鶴造修補給所</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_2975.HEIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_2577.HEIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせ
+私有地に捨てられている自転車です
+ご自由に乗り捨ててください
+カギはかかっていますが 捨てられております</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここは道路です
+物品の出店を禁止します
+和光市役所
+朝霞警察署</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_0424.HEIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無許可でのチラシ配り・勧誘禁止
+腕章を付けていない方から、該当の行為を受けた場合は管備センター(06-6871-8927)までご一報ください。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>四角斜線|人|チラシを渡す人</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">シカクシャセン </t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">ヒト </t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t xml:space="preserve">ワタスヒト </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_1136.HEIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここに荷物を置かないでね
+荷物を置かれてる場合は強制的に撤去いたします。
+If you have any luggage left, we will forcibly remove it.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>怒った表情の雪だるま</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オコッテイル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキー場</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_8501.HEIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自転車は押して通行して下さい
+御協力お願いします
+J-MALL
+十三本町商店街振興組合
+淀川警察署</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤丸斜線|ぎざぎざ|倒れる人|自転車に乗る人</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">アカマルシャセン </t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t xml:space="preserve">タオレルヒト </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤丸斜線|倒れる人|ぎざぎざ|自転車に乗る人</t>
+    <rPh sb="15" eb="18">
+      <t xml:space="preserve">ジテンシャン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_2738.heic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_6884.HEIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_6477.HEIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>監視カメラ作動中
+防犯と安全のため、常に監視・録画をしています。
+ご理解とご協力をお願いいたします。おのみちバス株式会社
+VIDEO SURVEILLANCE
+THANK YOU FOR YOUR COOPERATION.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>落下物で生じた、損害は「落とし主の責任」になります。
+危険ですので窓から手や顔・カメラやスマートフォン等を出さないでください。
+ロープウェイ運行中の落下物において発生した破損事故・怪我などについて、運送約款に基づき、管理者は一切の責任を負いません。おのみちバス株式会社
+According to the clauses, the owner of the object is to bear the dameges due to fallen objects from a ropeway gondola.
+Please refrain from put your hands, head, cameras, devices out of the windows of gondolas. Ropeway Operator shall have no duty to the any damages caused by fallen objects during the ropeway gondolas in motion.
+由</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>坠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>落物</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>产</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>生的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>损</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>害将是失主的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>责</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>任。
+因</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>很危</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>险</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，所以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不要将手，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>睑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，相机或手机等伸出窗外。
+在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>缆车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>运行中由</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>坠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>落物</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>生的破</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>损</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>事故•受</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>伤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>等都不由管理者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>负责</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <rPh sb="85" eb="87">
+      <t xml:space="preserve">ハソン </t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t xml:space="preserve">ケガ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ja|en|zh-Hans</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>搬器内での飲食はご遠慮ください。
+Do not eat or drink here</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤丸斜線|カップ飲料|ハンバーガー|ソフトクリーム</t>
+    <rPh sb="0" eb="4">
+      <t>🔴</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">カップインリョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NO SKATEBOARDING
+交通の頻繁な道路においてスケートボードで走行することは道路交通法で禁止されています。
+道路とは、歩道や商店街のアーケード内も含みます。
+広島金座街商店街振興組合
+広島中央警察署</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤丸斜線|スケートボードに乗る人</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">アカマルシャセン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_2146.heic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>ゴミは持ち帰りましょう
+Please take your trashi home
+把垃圾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>带</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">回家
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쓰레기는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>반드시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>집에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가져</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>갑시다</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤丸斜線</t>
+    <rPh sb="0" eb="4">
+      <t>🔴</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>typo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_1593.HEIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここはあなたの駐車場ではありません。
+車は駐車場へ
+あしびヶ丘自治会</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_9878.HEIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>道路に置かないで駐輪場に入れて下さい。
+宇部警察署
+宇部市
+交通安全協会西宇部分会</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宇部市自転車駐車場利用上の注意
+1. 利用される方は整理整頓して下さい。
+2. 長時間または場外に放置された時は、撤去することがあります。
+3. 必ず施錠して下さい。
+4. 盗難・損傷については一切責任を負いません。
+宇部市</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_6570.HEIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最寄りの駐輪場に停めて、歩いて戻ってきても5分しかかかりません！！
+地下駐輪場は120分、路上駐輪場は90分無料！
+駐輪場を利用してください</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地図</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">チズ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>歩行者専用道路
+商店街内では自転車は押して通行いただきますようお願い致します
+おみぞ筋商店街</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤バツ|自転車に乗る人</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">アカ </t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t xml:space="preserve">ジテンシャ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_6530.HEIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_2529.HEIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注意
+足元注意
+接触禁止</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">チュウイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>⚠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>️</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|足元構造物|ぎざぎざ|倒れる人</t>
+    </r>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">アシモト </t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t xml:space="preserve">コウゾウブツ </t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t xml:space="preserve">タオレルヒト </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自立|看板</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ジリツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>車止め|ステッカー</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">クルマドメ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コインパーキングの車止め</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_5200.HEIC</t>
+  </si>
+  <si>
+    <t>IMG_4935.HEIC</t>
+  </si>
+  <si>
+    <t>IMG_4660.HEIC</t>
+  </si>
+  <si>
+    <t>IMG_4362.HEIC</t>
+  </si>
+  <si>
+    <t>IMG_4321.HEIC</t>
+  </si>
+  <si>
+    <t>2月23日に
+(10:00～18:00)
+自転車走行が禁止になりました
+せんば心斎橋筋(協)</t>
+    <rPh sb="39" eb="42">
+      <t xml:space="preserve">シンサイバシ </t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t xml:space="preserve">スジ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注意！
+ここは公園ですので駐輪はご遠慮下さい
+奈良市</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤バツ|自転車</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">アカ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電柱|看板</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">デンチュウ </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">カンバン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吸殻のポイ捨てやめて
+きれいな栄町</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私有地につき
+駐輪お断り
+近畿日本鉄道株式会社 西大寺総合事務所</t>
+    <rPh sb="9" eb="10">
+      <t xml:space="preserve">コトワリ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">テツドウ </t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t xml:space="preserve">カブシキガイシャ </t>
+    </rPh>
+    <rPh sb="26" eb="31">
+      <t xml:space="preserve">ソウゴウジムショ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有料駐輪場 1回24時間 2000円</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>柱|ステッカー</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ハシラ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SKビル 関係者以外
+駐輪禁止</t>
+    <rPh sb="5" eb="8">
+      <t xml:space="preserve">カンケイシャ </t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">イガイ </t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>チュウリンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_4321.HEIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無許可車輌は、金1万円徴収します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_4363.HEIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有料駐輪場
+ビルの関係者・契約者以外の無断駐輪は処分又は一日金2千円を請求します。
+（無断駐輪の場合チェーンでロックします。）
+カジノバビル TEL341-0123</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_2389.HEIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_5934.heic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケボー禁止！！
+駐車場を含む敷地内でのスケートボードの使用を禁止しています</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関係者以外
+立入禁止</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤丸斜線|人</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">アカマル </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">シャセン </t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">ヒト </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_0590.HEIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>臨時 離合退避所</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">リンジ </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">リゴウ </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">タイヒ </t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t xml:space="preserve">ショ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_8517.HEIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シャツターが故障します
+自転車ぶつけないで！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シャッター|貼紙</t>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">ハリガミ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シャッターに自転車ぶつけないでください</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>警告
+不法投棄は犯罪
+ここは有料のゴミ置き場です。
+関係者以外ゴミを捨てないで下さい。
+不法投棄を発見次第、普察に通報します。
+十三元今里商店街</t>
+    <rPh sb="64" eb="66">
+      <t xml:space="preserve">ジュウソウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_2988.HEIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この道路には自転車は置けません</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_6755.HEIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_5490.HEIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まもりましょう ゴミ出しルール！！
+ゴミはあみの中
+カラス大変です
+お願いします。</t>
+    <rPh sb="24" eb="25">
+      <t xml:space="preserve">ナカ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カラスさんへ
+生ゴミつつかないで
+オネガイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>💦</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手書き</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">テガキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>信号が変れば車が出ます
+ご注意下さい</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シンゴウガ </t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カワレバ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">クルマガ </t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t xml:space="preserve">デマス </t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t xml:space="preserve">クダサイ </t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6341,7 +8376,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6367,6 +8402,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6704,10 +8742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0244D4E8-F443-D54E-A975-960F8853E327}">
-  <dimension ref="A1:H144"/>
+  <dimension ref="A1:H194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="106" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="88" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -6740,70 +8778,70 @@
         <v>41</v>
       </c>
       <c r="G1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="273">
       <c r="A2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E2" t="s">
         <v>330</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" t="s">
         <v>331</v>
       </c>
-      <c r="E2" t="s">
-        <v>332</v>
-      </c>
-      <c r="F2" t="s">
-        <v>333</v>
-      </c>
       <c r="G2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="84">
       <c r="A3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E3" t="s">
         <v>334</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" t="s">
         <v>335</v>
       </c>
-      <c r="E3" t="s">
-        <v>336</v>
-      </c>
-      <c r="F3" t="s">
-        <v>337</v>
-      </c>
       <c r="G3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="126">
       <c r="A4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E4" t="s">
         <v>70</v>
@@ -6812,133 +8850,133 @@
         <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="147">
       <c r="A5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F5" t="s">
         <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="147">
       <c r="A6" t="s">
+        <v>339</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E6" t="s">
         <v>343</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="E6" t="s">
-        <v>345</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="147">
       <c r="A7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F7" t="s">
         <v>39</v>
       </c>
       <c r="G7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="147">
       <c r="A8" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E8" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F8" t="s">
         <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="147">
       <c r="A9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F9" t="s">
+        <v>349</v>
+      </c>
+      <c r="G9" t="s">
         <v>351</v>
-      </c>
-      <c r="G9" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="147">
       <c r="A10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>5</v>
@@ -6950,41 +8988,41 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="63">
       <c r="A11" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E11" t="s">
         <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G11" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="21">
       <c r="A12" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>5</v>
@@ -6993,24 +9031,24 @@
         <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G12" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="42">
       <c r="A13" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E13" t="s">
         <v>45</v>
@@ -7021,16 +9059,16 @@
     </row>
     <row r="14" spans="1:8" ht="126">
       <c r="A14" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>5484</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E14" t="s">
         <v>45</v>
@@ -7039,21 +9077,21 @@
         <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="42">
       <c r="A15" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E15" t="s">
         <v>70</v>
@@ -7062,44 +9100,44 @@
         <v>36</v>
       </c>
       <c r="G15" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="42">
       <c r="A16" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F16" t="s">
         <v>39</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="105">
       <c r="A17" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E17" t="s">
         <v>45</v>
@@ -7110,13 +9148,13 @@
     </row>
     <row r="18" spans="1:8" ht="63">
       <c r="A18" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>5</v>
@@ -7130,822 +9168,828 @@
     </row>
     <row r="19" spans="1:8" ht="21">
       <c r="A19" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E19" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F19" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G19" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="21">
       <c r="A20" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E20" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F20" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="21">
       <c r="A21" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>394</v>
-      </c>
       <c r="E21" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F21" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="21">
       <c r="A22" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E22" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F22" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="21">
       <c r="A23" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B23">
         <v>4</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E23" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F23" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="21">
       <c r="A24" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E24" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F24" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="21">
       <c r="A25" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E25" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F25" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="21">
       <c r="A26" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B26">
         <v>2</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E26" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F26" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="21">
       <c r="A27" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B27">
         <v>3</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E27" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F27" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="21">
       <c r="A28" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E28" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F28" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="21">
       <c r="A29" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E29" t="s">
         <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="147">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="63">
       <c r="A30" t="s">
-        <v>178</v>
+        <v>472</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="E30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="147">
+      <c r="A31" t="s">
+        <v>177</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E30" t="s">
-        <v>200</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="E31" t="s">
+        <v>199</v>
+      </c>
+      <c r="F31" t="s">
         <v>211</v>
       </c>
-      <c r="H30" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="168">
-      <c r="A31" t="s">
-        <v>284</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" t="s">
-        <v>293</v>
-      </c>
-      <c r="F31" t="s">
-        <v>280</v>
-      </c>
-      <c r="H31" s="4"/>
-    </row>
-    <row r="32" spans="1:8" ht="42">
+      <c r="H31" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="63">
       <c r="A32" t="s">
-        <v>281</v>
+        <v>475</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>347</v>
+        <v>476</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>282</v>
+        <v>477</v>
       </c>
       <c r="E32" t="s">
-        <v>283</v>
+        <v>70</v>
       </c>
       <c r="F32" t="s">
-        <v>66</v>
+        <v>46</v>
+      </c>
+      <c r="G32" t="s">
+        <v>478</v>
       </c>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:8" ht="63">
+    <row r="33" spans="1:8" ht="84">
       <c r="A33" t="s">
-        <v>276</v>
+        <v>546</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>278</v>
+        <v>548</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>550</v>
       </c>
       <c r="E33" t="s">
-        <v>279</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>280</v>
+        <v>551</v>
       </c>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:8" ht="168">
+    <row r="34" spans="1:8" ht="63">
       <c r="A34" t="s">
-        <v>178</v>
+        <v>546</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>203</v>
+        <v>549</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E34" t="s">
-        <v>301</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="63">
+        <v>551</v>
+      </c>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="1:8" ht="42">
       <c r="A35" t="s">
-        <v>286</v>
+        <v>547</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>287</v>
+        <v>552</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>289</v>
+        <v>5</v>
       </c>
       <c r="E35" t="s">
-        <v>292</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="42">
+        <v>40</v>
+      </c>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="1:8" ht="63">
       <c r="A36" t="s">
-        <v>286</v>
+        <v>462</v>
       </c>
       <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>288</v>
+        <v>0</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>461</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>290</v>
+        <v>5</v>
       </c>
       <c r="E36" t="s">
-        <v>292</v>
+        <v>206</v>
       </c>
       <c r="F36" t="s">
-        <v>280</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="H36" s="4"/>
     </row>
     <row r="37" spans="1:8" ht="63">
       <c r="A37" t="s">
-        <v>179</v>
+        <v>464</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>206</v>
+        <v>465</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" t="s">
+        <v>40</v>
+      </c>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="1:8" ht="105">
+      <c r="A38" t="s">
+        <v>464</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E37" t="s">
-        <v>302</v>
-      </c>
-      <c r="F37" t="s">
-        <v>207</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="42">
-      <c r="A38" t="s">
-        <v>180</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="E38" t="s">
-        <v>303</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>49</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>161</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="H38" s="4"/>
     </row>
     <row r="39" spans="1:8" ht="42">
       <c r="A39" t="s">
-        <v>180</v>
+        <v>432</v>
       </c>
       <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>212</v>
+        <v>0</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>433</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>213</v>
+        <v>5</v>
       </c>
       <c r="E39" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="F39" t="s">
-        <v>49</v>
+        <v>279</v>
+      </c>
+      <c r="G39" t="s">
+        <v>444</v>
       </c>
       <c r="H39" s="4"/>
     </row>
     <row r="40" spans="1:8" ht="42">
       <c r="A40" t="s">
-        <v>180</v>
+        <v>427</v>
       </c>
       <c r="B40">
-        <v>2</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>214</v>
+        <v>0</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>434</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>215</v>
+        <v>5</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>294</v>
       </c>
       <c r="F40" t="s">
-        <v>49</v>
+        <v>318</v>
+      </c>
+      <c r="G40" t="s">
+        <v>444</v>
       </c>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="1:8" ht="42">
+    <row r="41" spans="1:8" ht="105">
       <c r="A41" t="s">
-        <v>181</v>
+        <v>428</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>216</v>
+        <v>435</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>5</v>
+        <v>395</v>
       </c>
       <c r="E41" t="s">
-        <v>70</v>
+        <v>294</v>
       </c>
       <c r="F41" t="s">
-        <v>233</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="84">
+        <v>436</v>
+      </c>
+      <c r="G41" t="s">
+        <v>444</v>
+      </c>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="1:8" ht="42">
       <c r="A42" t="s">
-        <v>181</v>
+        <v>429</v>
       </c>
       <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E42" t="s">
+        <v>294</v>
+      </c>
+      <c r="F42" t="s">
+        <v>436</v>
+      </c>
+      <c r="G42" t="s">
+        <v>444</v>
+      </c>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="1:8" ht="42">
+      <c r="A43" t="s">
+        <v>430</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E43" t="s">
+        <v>294</v>
+      </c>
+      <c r="F43" t="s">
+        <v>236</v>
+      </c>
+      <c r="G43" t="s">
+        <v>444</v>
+      </c>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="1:8" ht="42">
+      <c r="A44" t="s">
+        <v>431</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E44" t="s">
+        <v>294</v>
+      </c>
+      <c r="F44" t="s">
+        <v>279</v>
+      </c>
+      <c r="G44" t="s">
+        <v>444</v>
+      </c>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="1:8" ht="42">
+      <c r="A45" t="s">
+        <v>431</v>
+      </c>
+      <c r="B45">
         <v>1</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E42" t="s">
-        <v>304</v>
-      </c>
-      <c r="F42" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="84">
-      <c r="A43" t="s">
-        <v>182</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E43" t="s">
-        <v>313</v>
-      </c>
-      <c r="F43" t="s">
-        <v>49</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="105">
-      <c r="A44" t="s">
-        <v>183</v>
-      </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E44" t="s">
-        <v>305</v>
-      </c>
-      <c r="F44" t="s">
-        <v>39</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="82">
-      <c r="A45" t="s">
-        <v>184</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
       <c r="C45" s="1" t="s">
-        <v>226</v>
+        <v>441</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>5</v>
+        <v>443</v>
       </c>
       <c r="E45" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F45" t="s">
-        <v>49</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="105">
+        <v>279</v>
+      </c>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="1:8" ht="168">
       <c r="A46" t="s">
-        <v>185</v>
+        <v>283</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>227</v>
+        <v>284</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E46" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F46" t="s">
-        <v>39</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>161</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="G46" t="s">
+        <v>444</v>
+      </c>
+      <c r="H46" s="4"/>
     </row>
     <row r="47" spans="1:8" ht="42">
       <c r="A47" t="s">
-        <v>185</v>
+        <v>411</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>228</v>
+        <v>412</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>19</v>
+        <v>423</v>
       </c>
       <c r="E47" t="s">
-        <v>315</v>
+        <v>413</v>
       </c>
       <c r="F47" t="s">
+        <v>295</v>
+      </c>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="1:8" ht="105">
+      <c r="A48" t="s">
+        <v>415</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E48" t="s">
+        <v>278</v>
+      </c>
+      <c r="F48" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" ht="21">
-      <c r="A48" t="s">
-        <v>186</v>
-      </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E48" t="s">
-        <v>231</v>
-      </c>
-      <c r="F48" t="s">
-        <v>232</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="147">
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="1:8" ht="63">
       <c r="A49" t="s">
-        <v>187</v>
+        <v>417</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>234</v>
+        <v>418</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>235</v>
+        <v>5</v>
       </c>
       <c r="E49" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="F49" t="s">
         <v>39</v>
       </c>
-      <c r="H49" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="124">
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="1:8" ht="42">
       <c r="A50" t="s">
-        <v>188</v>
+        <v>417</v>
       </c>
       <c r="B50">
-        <v>0</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>236</v>
+        <v>1</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>419</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>239</v>
+        <v>422</v>
       </c>
       <c r="E50" t="s">
-        <v>238</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="84">
+        <v>278</v>
+      </c>
+      <c r="F50" t="s">
+        <v>39</v>
+      </c>
+      <c r="H50" s="4"/>
+    </row>
+    <row r="51" spans="1:8" ht="42">
       <c r="A51" t="s">
-        <v>189</v>
+        <v>417</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>240</v>
+        <v>420</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>241</v>
+        <v>424</v>
       </c>
       <c r="E51" t="s">
-        <v>307</v>
+        <v>278</v>
       </c>
       <c r="F51" t="s">
-        <v>40</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="84">
+        <v>39</v>
+      </c>
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52" spans="1:8" ht="42">
       <c r="A52" t="s">
-        <v>189</v>
+        <v>417</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>242</v>
+        <v>421</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>243</v>
+        <v>425</v>
       </c>
       <c r="E52" t="s">
-        <v>307</v>
+        <v>278</v>
       </c>
       <c r="F52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H52" s="4"/>
     </row>
-    <row r="53" spans="1:8" ht="84">
+    <row r="53" spans="1:8" ht="42">
       <c r="A53" t="s">
-        <v>189</v>
+        <v>280</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>244</v>
+        <v>345</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="E53" t="s">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="F53" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="1:8" ht="84">
+    <row r="54" spans="1:8" ht="63">
       <c r="A54" t="s">
-        <v>189</v>
+        <v>275</v>
       </c>
       <c r="B54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="E54" t="s">
-        <v>307</v>
+        <v>278</v>
       </c>
       <c r="F54" t="s">
-        <v>40</v>
+        <v>279</v>
       </c>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="1:8" ht="63">
+    <row r="55" spans="1:8" ht="21">
       <c r="A55" t="s">
-        <v>189</v>
+        <v>544</v>
       </c>
       <c r="B55">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>247</v>
+        <v>545</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>250</v>
+        <v>5</v>
       </c>
       <c r="E55" t="s">
-        <v>308</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H55" s="4"/>
     </row>
     <row r="56" spans="1:8" ht="84">
       <c r="A56" t="s">
-        <v>189</v>
+        <v>468</v>
       </c>
       <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>251</v>
-      </c>
       <c r="E56" t="s">
-        <v>307</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H56" s="4"/>
     </row>
-    <row r="57" spans="1:8" ht="21">
+    <row r="57" spans="1:8" ht="84">
       <c r="A57" t="s">
-        <v>189</v>
+        <v>469</v>
       </c>
       <c r="B57">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>252</v>
+        <v>471</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>5</v>
@@ -7954,137 +9998,122 @@
         <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H57" s="4"/>
     </row>
-    <row r="58" spans="1:8" ht="105">
+    <row r="58" spans="1:8" ht="168">
       <c r="A58" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>274</v>
+        <v>202</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E58" t="s">
-        <v>45</v>
+        <v>299</v>
       </c>
       <c r="F58" t="s">
-        <v>49</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="21">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="63">
       <c r="A59" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>5</v>
+        <v>288</v>
       </c>
       <c r="E59" t="s">
-        <v>45</v>
+        <v>291</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="82">
+        <v>279</v>
+      </c>
+      <c r="G59" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="42">
       <c r="A60" t="s">
-        <v>191</v>
+        <v>285</v>
       </c>
       <c r="B60">
-        <v>0</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>253</v>
+        <v>1</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>287</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="E60" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="F60" t="s">
-        <v>299</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="42">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="84">
       <c r="A61" t="s">
-        <v>192</v>
+        <v>446</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>267</v>
+      <c r="C61" s="7" t="s">
+        <v>447</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E61" t="s">
-        <v>45</v>
+        <v>307</v>
       </c>
       <c r="F61" t="s">
-        <v>39</v>
-      </c>
-      <c r="G61" t="s">
-        <v>268</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="105">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="21">
       <c r="A62" t="s">
-        <v>193</v>
+        <v>537</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>263</v>
+      <c r="C62" s="7" t="s">
+        <v>538</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>262</v>
+        <v>5</v>
       </c>
       <c r="E62" t="s">
         <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>300</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>270</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="42">
       <c r="A63" t="s">
-        <v>194</v>
+        <v>539</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>261</v>
+      <c r="C63" s="7" t="s">
+        <v>540</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>5</v>
@@ -8093,21 +10122,18 @@
         <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>40</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="42">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="21">
       <c r="A64" t="s">
-        <v>195</v>
+        <v>539</v>
       </c>
       <c r="B64">
-        <v>0</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>259</v>
+        <v>1</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>5</v>
@@ -8116,633 +10142,671 @@
         <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>49</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="42">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="126">
       <c r="A65" t="s">
-        <v>196</v>
+        <v>539</v>
       </c>
       <c r="B65">
-        <v>0</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>264</v>
+        <v>2</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>543</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>265</v>
+        <v>5</v>
       </c>
       <c r="E65" t="s">
         <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>49</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>266</v>
+        <v>541</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="63">
       <c r="A66" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>255</v>
+        <v>205</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E66" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="F66" t="s">
-        <v>256</v>
+        <v>207</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="63">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="105">
       <c r="A67" t="s">
-        <v>198</v>
+        <v>479</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>199</v>
+        <v>480</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E67" t="s">
-        <v>70</v>
+        <v>481</v>
       </c>
       <c r="F67" t="s">
-        <v>49</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>161</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="H67" s="4"/>
     </row>
     <row r="68" spans="1:8" ht="42">
       <c r="A68" t="s">
-        <v>120</v>
+        <v>179</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>129</v>
+        <v>209</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="E68" t="s">
-        <v>45</v>
+        <v>301</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="84">
+        <v>49</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="42">
       <c r="A69" t="s">
-        <v>121</v>
+        <v>179</v>
       </c>
       <c r="B69">
-        <v>0</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>130</v>
+        <v>1</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>212</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>5</v>
+        <v>213</v>
       </c>
       <c r="E69" t="s">
-        <v>45</v>
+        <v>301</v>
       </c>
       <c r="F69" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="168">
+        <v>49</v>
+      </c>
+      <c r="H69" s="4"/>
+    </row>
+    <row r="70" spans="1:8" ht="42">
       <c r="A70" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>134</v>
+        <v>2</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>214</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>5</v>
+        <v>215</v>
       </c>
       <c r="E70" t="s">
         <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>39</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="H70" s="4"/>
     </row>
     <row r="71" spans="1:8" ht="42">
       <c r="A71" t="s">
-        <v>122</v>
+        <v>180</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>135</v>
+        <v>216</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E71" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="F71" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="63">
+        <v>232</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="105">
       <c r="A72" t="s">
-        <v>122</v>
+        <v>484</v>
       </c>
       <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72" t="s">
+        <v>70</v>
+      </c>
+      <c r="F72" t="s">
+        <v>295</v>
+      </c>
+      <c r="H72" s="4"/>
+    </row>
+    <row r="73" spans="1:8" ht="252">
+      <c r="A73" t="s">
+        <v>484</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73" t="s">
+        <v>488</v>
+      </c>
+      <c r="F73" t="s">
+        <v>295</v>
+      </c>
+      <c r="H73" s="4"/>
+    </row>
+    <row r="74" spans="1:8" ht="42">
+      <c r="A74" t="s">
+        <v>484</v>
+      </c>
+      <c r="B74">
         <v>2</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72" t="s">
-        <v>45</v>
-      </c>
-      <c r="F72" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="84">
-      <c r="A73" t="s">
-        <v>122</v>
-      </c>
-      <c r="B73">
-        <v>3</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E73" t="s">
-        <v>45</v>
-      </c>
-      <c r="F73" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="84">
-      <c r="A74" t="s">
-        <v>123</v>
-      </c>
-      <c r="B74">
-        <v>0</v>
-      </c>
       <c r="C74" s="1" t="s">
-        <v>138</v>
+        <v>489</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>140</v>
+        <v>490</v>
       </c>
       <c r="E74" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="F74" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="42">
+        <v>295</v>
+      </c>
+      <c r="H74" s="4"/>
+    </row>
+    <row r="75" spans="1:8" ht="126">
       <c r="A75" t="s">
-        <v>123</v>
+        <v>485</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>137</v>
+        <v>491</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>141</v>
+        <v>492</v>
       </c>
       <c r="E75" t="s">
-        <v>45</v>
+        <v>199</v>
       </c>
       <c r="F75" t="s">
-        <v>40</v>
+        <v>402</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="84">
       <c r="A76" t="s">
-        <v>124</v>
+        <v>180</v>
       </c>
       <c r="B76">
-        <v>0</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>142</v>
+        <v>1</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>217</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>5</v>
+        <v>218</v>
       </c>
       <c r="E76" t="s">
-        <v>45</v>
+        <v>302</v>
       </c>
       <c r="F76" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="168">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="84">
       <c r="A77" t="s">
-        <v>125</v>
+        <v>181</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>143</v>
+        <v>219</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>144</v>
+        <v>220</v>
       </c>
       <c r="E77" t="s">
-        <v>45</v>
+        <v>311</v>
       </c>
       <c r="F77" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="42">
+        <v>49</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="105">
       <c r="A78" t="s">
-        <v>126</v>
+        <v>182</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>148</v>
+        <v>221</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>5</v>
+        <v>442</v>
       </c>
       <c r="E78" t="s">
-        <v>45</v>
+        <v>303</v>
       </c>
       <c r="F78" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="105">
+        <v>39</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="82">
       <c r="A79" t="s">
-        <v>127</v>
+        <v>183</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>149</v>
+      <c r="C79" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E79" t="s">
-        <v>45</v>
+        <v>307</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="42">
+        <v>49</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="105">
       <c r="A80" t="s">
-        <v>127</v>
+        <v>184</v>
       </c>
       <c r="B80">
-        <v>1</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>150</v>
+        <v>0</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E80" t="s">
-        <v>45</v>
+        <v>290</v>
       </c>
       <c r="F80" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="63">
+        <v>39</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="42">
       <c r="A81" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>151</v>
+        <v>227</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E81" t="s">
-        <v>45</v>
+        <v>313</v>
       </c>
       <c r="F81" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="21">
+    <row r="82" spans="1:8" ht="21">
       <c r="A82" t="s">
-        <v>78</v>
+        <v>185</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="D82" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E82" t="s">
+        <v>230</v>
+      </c>
+      <c r="F82" t="s">
+        <v>231</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="147">
+      <c r="A83" t="s">
+        <v>186</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E83" t="s">
+        <v>304</v>
+      </c>
+      <c r="F83" t="s">
+        <v>39</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="124">
+      <c r="A84" t="s">
+        <v>187</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E84" t="s">
+        <v>237</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="84">
+      <c r="A85" t="s">
+        <v>188</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E85" t="s">
+        <v>305</v>
+      </c>
+      <c r="F85" t="s">
+        <v>40</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="84">
+      <c r="A86" t="s">
+        <v>188</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E86" t="s">
+        <v>305</v>
+      </c>
+      <c r="F86" t="s">
+        <v>40</v>
+      </c>
+      <c r="H86" s="4"/>
+    </row>
+    <row r="87" spans="1:8" ht="84">
+      <c r="A87" t="s">
+        <v>188</v>
+      </c>
+      <c r="B87">
+        <v>2</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E87" t="s">
+        <v>305</v>
+      </c>
+      <c r="F87" t="s">
+        <v>40</v>
+      </c>
+      <c r="H87" s="4"/>
+    </row>
+    <row r="88" spans="1:8" ht="84">
+      <c r="A88" t="s">
+        <v>188</v>
+      </c>
+      <c r="B88">
+        <v>3</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E88" t="s">
+        <v>305</v>
+      </c>
+      <c r="F88" t="s">
+        <v>40</v>
+      </c>
+      <c r="H88" s="4"/>
+    </row>
+    <row r="89" spans="1:8" ht="63">
+      <c r="A89" t="s">
+        <v>188</v>
+      </c>
+      <c r="B89">
+        <v>4</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E89" t="s">
+        <v>306</v>
+      </c>
+      <c r="F89" t="s">
+        <v>40</v>
+      </c>
+      <c r="H89" s="4"/>
+    </row>
+    <row r="90" spans="1:8" ht="84">
+      <c r="A90" t="s">
+        <v>188</v>
+      </c>
+      <c r="B90">
         <v>5</v>
       </c>
-      <c r="E82" t="s">
+      <c r="C90" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E90" t="s">
+        <v>305</v>
+      </c>
+      <c r="F90" t="s">
+        <v>40</v>
+      </c>
+      <c r="H90" s="4"/>
+    </row>
+    <row r="91" spans="1:8" ht="21">
+      <c r="A91" t="s">
+        <v>188</v>
+      </c>
+      <c r="B91">
+        <v>6</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E91" t="s">
         <v>45</v>
       </c>
-      <c r="F82" t="s">
-        <v>36</v>
-      </c>
-      <c r="G82" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="84">
-      <c r="A83" t="s">
-        <v>78</v>
-      </c>
-      <c r="B83">
-        <v>1</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E83" t="s">
-        <v>70</v>
-      </c>
-      <c r="F83" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="21">
-      <c r="A84" t="s">
-        <v>78</v>
-      </c>
-      <c r="B84">
-        <v>2</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E84" t="s">
-        <v>70</v>
-      </c>
-      <c r="F84" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="42">
-      <c r="A85" t="s">
-        <v>78</v>
-      </c>
-      <c r="B85">
-        <v>3</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E85" t="s">
-        <v>70</v>
-      </c>
-      <c r="F85" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="42">
-      <c r="A86" t="s">
-        <v>78</v>
-      </c>
-      <c r="B86">
-        <v>4</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E86" t="s">
-        <v>70</v>
-      </c>
-      <c r="F86" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="42">
-      <c r="A87" t="s">
-        <v>78</v>
-      </c>
-      <c r="B87">
-        <v>5</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E87" t="s">
-        <v>70</v>
-      </c>
-      <c r="F87" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="42">
-      <c r="A88" t="s">
-        <v>78</v>
-      </c>
-      <c r="B88">
-        <v>6</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E88" t="s">
-        <v>70</v>
-      </c>
-      <c r="F88" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="42">
-      <c r="A89" t="s">
-        <v>78</v>
-      </c>
-      <c r="B89">
-        <v>7</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E89" t="s">
-        <v>70</v>
-      </c>
-      <c r="F89" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="42">
-      <c r="A90" t="s">
-        <v>78</v>
-      </c>
-      <c r="B90">
-        <v>8</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E90" t="s">
-        <v>70</v>
-      </c>
-      <c r="F90" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="42">
-      <c r="A91" t="s">
-        <v>78</v>
-      </c>
-      <c r="B91">
-        <v>9</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E91" t="s">
-        <v>70</v>
-      </c>
       <c r="F91" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="168">
+        <v>40</v>
+      </c>
+      <c r="H91" s="4"/>
+    </row>
+    <row r="92" spans="1:8" ht="84">
       <c r="A92" t="s">
-        <v>78</v>
+        <v>493</v>
       </c>
       <c r="B92">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>90</v>
+        <v>494</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>5</v>
+        <v>495</v>
       </c>
       <c r="E92" t="s">
-        <v>45</v>
+        <v>307</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="42">
-      <c r="A93" t="s">
-        <v>78</v>
+        <v>49</v>
+      </c>
+      <c r="G92" t="s">
+        <v>496</v>
+      </c>
+      <c r="H92" s="4"/>
+    </row>
+    <row r="93" spans="1:8" ht="63">
+      <c r="A93" s="2" t="s">
+        <v>497</v>
       </c>
       <c r="B93">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>91</v>
+        <v>498</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E93" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="42">
+        <v>39</v>
+      </c>
+      <c r="H93" s="4"/>
+    </row>
+    <row r="94" spans="1:8" ht="105">
       <c r="A94" t="s">
-        <v>99</v>
+        <v>189</v>
       </c>
       <c r="B94">
         <v>0</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>98</v>
+        <v>273</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>104</v>
+        <v>5</v>
       </c>
       <c r="E94" t="s">
         <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="42">
+        <v>49</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="21">
       <c r="A95" t="s">
-        <v>100</v>
+        <v>270</v>
       </c>
       <c r="B95">
         <v>0</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>101</v>
+        <v>271</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>5</v>
@@ -8751,38 +10815,44 @@
         <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="84">
+        <v>36</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="82">
       <c r="A96" t="s">
-        <v>103</v>
+        <v>190</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>368</v>
+      <c r="C96" s="3" t="s">
+        <v>252</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>105</v>
+        <v>253</v>
       </c>
       <c r="E96" t="s">
         <v>309</v>
       </c>
       <c r="F96" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="63">
+        <v>297</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="42">
       <c r="A97" t="s">
-        <v>106</v>
+        <v>191</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>107</v>
+        <v>266</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>5</v>
@@ -8793,36 +10863,43 @@
       <c r="F97" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" ht="126">
+      <c r="G97" t="s">
+        <v>267</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="84">
       <c r="A98" t="s">
-        <v>108</v>
+        <v>499</v>
       </c>
       <c r="B98">
         <v>0</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>109</v>
+        <v>500</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="E98" t="s">
         <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="42">
+        <v>40</v>
+      </c>
+      <c r="H98" s="4"/>
+    </row>
+    <row r="99" spans="1:8" ht="126">
       <c r="A99" t="s">
-        <v>108</v>
+        <v>499</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>111</v>
+        <v>501</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>5</v>
@@ -8831,38 +10908,42 @@
         <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="147">
+        <v>40</v>
+      </c>
+      <c r="H99" s="4"/>
+    </row>
+    <row r="100" spans="1:8" ht="105">
       <c r="A100" t="s">
-        <v>112</v>
+        <v>192</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>113</v>
+        <v>262</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>114</v>
+        <v>261</v>
       </c>
       <c r="E100" t="s">
         <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="105">
+        <v>298</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="42">
       <c r="A101" t="s">
-        <v>115</v>
+        <v>193</v>
       </c>
       <c r="B101">
         <v>0</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>116</v>
+        <v>260</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>5</v>
@@ -8871,218 +10952,244 @@
         <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="42">
       <c r="A102" t="s">
-        <v>295</v>
+        <v>194</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>294</v>
+        <v>258</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E102" t="s">
-        <v>296</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>297</v>
+        <v>49</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="42">
       <c r="A103" t="s">
-        <v>316</v>
+        <v>195</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>317</v>
+        <v>263</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>319</v>
+        <v>264</v>
       </c>
       <c r="E103" t="s">
-        <v>318</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="21">
+        <v>49</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="63">
       <c r="A104" t="s">
-        <v>323</v>
+        <v>458</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>321</v>
+        <v>459</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>324</v>
+        <v>5</v>
       </c>
       <c r="E104" t="s">
-        <v>318</v>
+        <v>70</v>
       </c>
       <c r="F104" t="s">
-        <v>280</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="H104" s="4"/>
     </row>
     <row r="105" spans="1:8" ht="63">
+      <c r="A105" t="s">
+        <v>196</v>
+      </c>
       <c r="B105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>322</v>
+        <v>254</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E105" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="F105" t="s">
-        <v>325</v>
+        <v>255</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="63">
       <c r="A106" t="s">
-        <v>118</v>
+        <v>502</v>
       </c>
       <c r="B106">
         <v>0</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>117</v>
+        <v>503</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>119</v>
+        <v>504</v>
       </c>
       <c r="E106" t="s">
         <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="105">
+        <v>101</v>
+      </c>
+      <c r="H106" s="4"/>
+    </row>
+    <row r="107" spans="1:8" ht="63">
       <c r="A107" t="s">
-        <v>208</v>
+        <v>507</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>204</v>
+        <v>505</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>5</v>
+        <v>506</v>
       </c>
       <c r="E107" t="s">
-        <v>310</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>205</v>
-      </c>
-      <c r="H107" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="21">
-      <c r="A108" s="2" t="s">
-        <v>34</v>
+        <v>511</v>
+      </c>
+      <c r="H107" s="4"/>
+    </row>
+    <row r="108" spans="1:8" ht="63">
+      <c r="A108" t="s">
+        <v>508</v>
       </c>
       <c r="B108">
         <v>0</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>33</v>
+        <v>509</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>35</v>
+        <v>510</v>
       </c>
       <c r="E108" t="s">
         <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="84">
-      <c r="A109" s="2" t="s">
-        <v>31</v>
+        <v>512</v>
+      </c>
+      <c r="G108" t="s">
+        <v>513</v>
+      </c>
+      <c r="H108" s="4"/>
+    </row>
+    <row r="109" spans="1:8" ht="42">
+      <c r="A109" t="s">
+        <v>532</v>
       </c>
       <c r="B109">
         <v>0</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>32</v>
+        <v>534</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>5</v>
+        <v>492</v>
       </c>
       <c r="E109" t="s">
         <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="336">
-      <c r="A110" s="2" t="s">
-        <v>27</v>
+        <v>46</v>
+      </c>
+      <c r="H109" s="4"/>
+    </row>
+    <row r="110" spans="1:8" ht="42">
+      <c r="A110" t="s">
+        <v>533</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>28</v>
+        <v>535</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>5</v>
+        <v>536</v>
       </c>
       <c r="E110" t="s">
         <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="63">
-      <c r="A111" s="2" t="s">
-        <v>27</v>
+      <c r="A111" t="s">
+        <v>197</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>29</v>
+        <v>198</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E111" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="F111" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="63">
+        <v>49</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="84">
       <c r="A112" t="s">
-        <v>12</v>
+        <v>514</v>
       </c>
       <c r="B112">
         <v>0</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>13</v>
+        <v>519</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>5</v>
@@ -9093,36 +11200,38 @@
       <c r="F112" t="s">
         <v>39</v>
       </c>
+      <c r="H112" s="4"/>
     </row>
     <row r="113" spans="1:8" ht="63">
       <c r="A113" t="s">
-        <v>12</v>
+        <v>515</v>
       </c>
       <c r="B113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>14</v>
+        <v>520</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>5</v>
+        <v>521</v>
       </c>
       <c r="E113" t="s">
         <v>45</v>
       </c>
       <c r="F113" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="63">
+        <v>522</v>
+      </c>
+      <c r="H113" s="4"/>
+    </row>
+    <row r="114" spans="1:8" ht="42">
       <c r="A114" t="s">
-        <v>11</v>
+        <v>516</v>
       </c>
       <c r="B114">
         <v>0</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>10</v>
+        <v>523</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>5</v>
@@ -9131,61 +11240,61 @@
         <v>45</v>
       </c>
       <c r="F114" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="84">
+        <v>40</v>
+      </c>
+      <c r="H114" s="4"/>
+    </row>
+    <row r="115" spans="1:8" ht="63">
       <c r="A115" t="s">
-        <v>175</v>
+        <v>516</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>176</v>
+        <v>524</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>5</v>
+        <v>387</v>
       </c>
       <c r="E115" t="s">
-        <v>177</v>
+        <v>45</v>
       </c>
       <c r="F115" t="s">
-        <v>46</v>
-      </c>
-      <c r="H115" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="63">
+        <v>40</v>
+      </c>
+      <c r="H115" s="4"/>
+    </row>
+    <row r="116" spans="1:8" ht="84">
       <c r="A116" t="s">
-        <v>7</v>
+        <v>530</v>
       </c>
       <c r="B116">
         <v>0</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>8</v>
+        <v>531</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E116" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="F116" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="105">
+        <v>40</v>
+      </c>
+      <c r="H116" s="4"/>
+    </row>
+    <row r="117" spans="1:8" ht="21">
       <c r="A117" t="s">
-        <v>6</v>
+        <v>517</v>
       </c>
       <c r="B117">
         <v>0</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>4</v>
+        <v>525</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>5</v>
@@ -9194,104 +11303,104 @@
         <v>45</v>
       </c>
       <c r="F117" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="105">
+        <v>526</v>
+      </c>
+      <c r="H117" s="4"/>
+    </row>
+    <row r="118" spans="1:8" ht="42">
       <c r="A118" t="s">
-        <v>71</v>
+        <v>528</v>
       </c>
       <c r="B118">
         <v>0</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>72</v>
+        <v>527</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="E118" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="F118" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="42">
+        <v>36</v>
+      </c>
+      <c r="H118" s="4"/>
+    </row>
+    <row r="119" spans="1:8" ht="21">
       <c r="A119" t="s">
-        <v>67</v>
+        <v>518</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>68</v>
+        <v>529</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="E119" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="F119" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="84">
+        <v>36</v>
+      </c>
+      <c r="H119" s="4"/>
+    </row>
+    <row r="120" spans="1:8" ht="42">
       <c r="A120" t="s">
-        <v>173</v>
+        <v>119</v>
       </c>
       <c r="B120">
         <v>0</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D120" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E120" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="F120" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="H120" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="42">
+        <v>128</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E120" t="s">
+        <v>45</v>
+      </c>
+      <c r="F120" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="84">
       <c r="A121" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="B121">
         <v>0</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="E121" t="s">
         <v>45</v>
       </c>
       <c r="F121" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="63">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="168">
       <c r="A122" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="B122">
         <v>0</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="E122" t="s">
         <v>45</v>
@@ -9300,181 +11409,181 @@
         <v>39</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="126">
-      <c r="A123" s="2" t="s">
-        <v>42</v>
+    <row r="123" spans="1:8" ht="42">
+      <c r="A123" t="s">
+        <v>121</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>43</v>
+        <v>134</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="E123" t="s">
-        <v>223</v>
+        <v>45</v>
       </c>
       <c r="F123" t="s">
-        <v>46</v>
-      </c>
-      <c r="G123" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="21">
-      <c r="A124" s="2" t="s">
-        <v>15</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="63">
+      <c r="A124" t="s">
+        <v>121</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E124" t="s">
         <v>45</v>
       </c>
       <c r="F124" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="21">
-      <c r="A125" s="2" t="s">
-        <v>15</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="84">
+      <c r="A125" t="s">
+        <v>121</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>19</v>
+        <v>132</v>
       </c>
       <c r="E125" t="s">
         <v>45</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="42">
-      <c r="A126" s="2" t="s">
-        <v>15</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="84">
+      <c r="A126" t="s">
+        <v>122</v>
       </c>
       <c r="B126">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>23</v>
+        <v>139</v>
       </c>
       <c r="E126" t="s">
         <v>45</v>
       </c>
       <c r="F126" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="21">
-      <c r="A127" s="2" t="s">
-        <v>15</v>
+        <v>40</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="42">
+      <c r="A127" t="s">
+        <v>122</v>
       </c>
       <c r="B127">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="E127" t="s">
         <v>45</v>
       </c>
       <c r="F127" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="42">
-      <c r="A128" s="2" t="s">
-        <v>15</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="84">
+      <c r="A128" t="s">
+        <v>123</v>
       </c>
       <c r="B128">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E128" t="s">
         <v>45</v>
       </c>
       <c r="F128" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="21">
-      <c r="A129" s="2" t="s">
-        <v>15</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="168">
+      <c r="A129" t="s">
+        <v>124</v>
       </c>
       <c r="B129">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="E129" t="s">
         <v>45</v>
       </c>
       <c r="F129" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="21">
-      <c r="A130" s="2" t="s">
-        <v>15</v>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="42">
+      <c r="A130" t="s">
+        <v>125</v>
       </c>
       <c r="B130">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E130" t="s">
         <v>45</v>
       </c>
       <c r="F130" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" ht="21">
-      <c r="A131" s="2" t="s">
-        <v>15</v>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="105">
+      <c r="A131" t="s">
+        <v>126</v>
       </c>
       <c r="B131">
-        <v>7</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="E131" t="s">
         <v>45</v>
@@ -9483,15 +11592,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="21">
-      <c r="A132" s="2" t="s">
-        <v>169</v>
+    <row r="132" spans="1:7" ht="42">
+      <c r="A132" t="s">
+        <v>126</v>
       </c>
       <c r="B132">
-        <v>0</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>170</v>
+        <v>1</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>5</v>
@@ -9502,300 +11611,1502 @@
       <c r="F132" t="s">
         <v>36</v>
       </c>
-      <c r="H132" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="409.6">
-      <c r="A133" s="2" t="s">
-        <v>169</v>
+    </row>
+    <row r="133" spans="1:7" ht="63">
+      <c r="A133" t="s">
+        <v>127</v>
       </c>
       <c r="B133">
-        <v>1</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>171</v>
+        <v>0</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E133" t="s">
-        <v>224</v>
+        <v>45</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
-      </c>
-      <c r="H133" s="4"/>
-    </row>
-    <row r="134" spans="1:8" ht="105">
-      <c r="A134" s="2" t="s">
-        <v>63</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="21">
+      <c r="A134" t="s">
+        <v>78</v>
       </c>
       <c r="B134">
         <v>0</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>159</v>
+        <v>5</v>
       </c>
       <c r="E134" t="s">
         <v>45</v>
       </c>
       <c r="F134" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="63">
-      <c r="A135" s="2" t="s">
-        <v>58</v>
+        <v>36</v>
+      </c>
+      <c r="G134" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="84">
+      <c r="A135" t="s">
+        <v>78</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="E135" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="F135" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" ht="42">
-      <c r="A136" s="2" t="s">
-        <v>56</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="21">
+      <c r="A136" t="s">
+        <v>78</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E136" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="F136" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" ht="21">
-      <c r="A137" s="2" t="s">
-        <v>51</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="42">
+      <c r="A137" t="s">
+        <v>78</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="D137" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="E137" t="s">
+        <v>70</v>
+      </c>
+      <c r="F137" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="42">
+      <c r="A138" t="s">
+        <v>78</v>
+      </c>
+      <c r="B138">
+        <v>4</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E138" t="s">
+        <v>70</v>
+      </c>
+      <c r="F138" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="42">
+      <c r="A139" t="s">
+        <v>78</v>
+      </c>
+      <c r="B139">
         <v>5</v>
       </c>
-      <c r="E137" t="s">
-        <v>45</v>
-      </c>
-      <c r="F137" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" ht="84">
-      <c r="A138" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B138">
-        <v>1</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E138" t="s">
-        <v>45</v>
-      </c>
-      <c r="F138" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" ht="42">
-      <c r="A139" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B139">
-        <v>0</v>
-      </c>
       <c r="C139" s="1" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>160</v>
+        <v>93</v>
       </c>
       <c r="E139" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="F139" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" ht="42">
-      <c r="A140" s="2" t="s">
-        <v>165</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="42">
+      <c r="A140" t="s">
+        <v>78</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>164</v>
+        <v>86</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>166</v>
+        <v>26</v>
       </c>
       <c r="E140" t="s">
-        <v>167</v>
+        <v>70</v>
       </c>
       <c r="F140" t="s">
-        <v>168</v>
-      </c>
-      <c r="H140" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" ht="126">
-      <c r="A141" s="2" t="s">
-        <v>162</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="42">
+      <c r="A141" t="s">
+        <v>78</v>
       </c>
       <c r="B141">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>163</v>
+        <v>87</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="E141" t="s">
-        <v>225</v>
+        <v>70</v>
       </c>
       <c r="F141" t="s">
-        <v>298</v>
-      </c>
-      <c r="H141" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="105">
-      <c r="A142" s="2" t="s">
-        <v>156</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="42">
+      <c r="A142" t="s">
+        <v>78</v>
       </c>
       <c r="B142">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>155</v>
+        <v>88</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="E142" t="s">
-        <v>312</v>
+        <v>70</v>
       </c>
       <c r="F142" t="s">
-        <v>298</v>
-      </c>
-      <c r="H142" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" ht="42">
-      <c r="A143" s="2" t="s">
-        <v>156</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="42">
+      <c r="A143" t="s">
+        <v>78</v>
       </c>
       <c r="B143">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>157</v>
+        <v>89</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c r="E143" t="s">
         <v>70</v>
       </c>
       <c r="F143" t="s">
-        <v>298</v>
-      </c>
-      <c r="H143" s="4"/>
-    </row>
-    <row r="144" spans="1:8" ht="42">
-      <c r="A144" s="2" t="s">
-        <v>152</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="168">
+      <c r="A144" t="s">
+        <v>78</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>153</v>
+        <v>90</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E144" t="s">
+        <v>45</v>
+      </c>
+      <c r="F144" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="42">
+      <c r="A145" t="s">
+        <v>78</v>
+      </c>
+      <c r="B145">
+        <v>11</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E145" t="s">
+        <v>70</v>
+      </c>
+      <c r="F145" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="42">
+      <c r="A146" t="s">
+        <v>98</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E146" t="s">
+        <v>45</v>
+      </c>
+      <c r="F146" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="42">
+      <c r="A147" t="s">
+        <v>99</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E147" t="s">
+        <v>45</v>
+      </c>
+      <c r="F147" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="84">
+      <c r="A148" t="s">
+        <v>102</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E148" t="s">
+        <v>307</v>
+      </c>
+      <c r="F148" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="63">
+      <c r="A149" t="s">
+        <v>105</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E149" t="s">
+        <v>45</v>
+      </c>
+      <c r="F149" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="126">
+      <c r="A150" t="s">
+        <v>107</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E150" t="s">
+        <v>45</v>
+      </c>
+      <c r="F150" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="42">
+      <c r="A151" t="s">
+        <v>107</v>
+      </c>
+      <c r="B151">
+        <v>1</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E151" t="s">
+        <v>45</v>
+      </c>
+      <c r="F151" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="147">
+      <c r="A152" t="s">
+        <v>111</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E152" t="s">
+        <v>45</v>
+      </c>
+      <c r="F152" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="105">
+      <c r="A153" t="s">
+        <v>114</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E153" t="s">
+        <v>45</v>
+      </c>
+      <c r="F153" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="42">
+      <c r="A154" t="s">
+        <v>483</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E154" t="s">
+        <v>294</v>
+      </c>
+      <c r="F154" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="42">
+      <c r="A155" t="s">
+        <v>314</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E155" t="s">
+        <v>316</v>
+      </c>
+      <c r="F155" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="21">
+      <c r="A156" t="s">
+        <v>321</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E156" t="s">
+        <v>316</v>
+      </c>
+      <c r="F156" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="63">
+      <c r="B157">
+        <v>1</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E157" t="s">
+        <v>316</v>
+      </c>
+      <c r="F157" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="63">
+      <c r="A158" t="s">
+        <v>117</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E158" t="s">
+        <v>45</v>
+      </c>
+      <c r="F158" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="105">
+      <c r="A159" t="s">
+        <v>208</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E159" t="s">
+        <v>308</v>
+      </c>
+      <c r="F159" t="s">
+        <v>204</v>
+      </c>
+      <c r="H159" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="21">
+      <c r="A160" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E160" t="s">
+        <v>45</v>
+      </c>
+      <c r="F160" t="s">
+        <v>37</v>
+      </c>
+      <c r="H160" s="4" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="84">
+      <c r="A161" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E161" t="s">
+        <v>45</v>
+      </c>
+      <c r="F161" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="336">
+      <c r="A162" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E162" t="s">
+        <v>45</v>
+      </c>
+      <c r="F162" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="63">
+      <c r="A163" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B163">
+        <v>1</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E163" t="s">
+        <v>45</v>
+      </c>
+      <c r="F163" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="63">
+      <c r="A164" t="s">
+        <v>12</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E164" t="s">
+        <v>45</v>
+      </c>
+      <c r="F164" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="63">
+      <c r="A165" t="s">
+        <v>12</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E165" t="s">
+        <v>45</v>
+      </c>
+      <c r="F165" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="63">
+      <c r="A166" t="s">
+        <v>11</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E166" t="s">
+        <v>45</v>
+      </c>
+      <c r="F166" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="84">
+      <c r="A167" t="s">
+        <v>174</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E167" t="s">
+        <v>176</v>
+      </c>
+      <c r="F167" t="s">
+        <v>46</v>
+      </c>
+      <c r="H167" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="63">
+      <c r="A168" t="s">
+        <v>7</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E168" t="s">
+        <v>45</v>
+      </c>
+      <c r="F168" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="105">
+      <c r="A169" t="s">
+        <v>6</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E169" t="s">
+        <v>45</v>
+      </c>
+      <c r="F169" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="105">
+      <c r="A170" t="s">
+        <v>71</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E170" t="s">
+        <v>70</v>
+      </c>
+      <c r="F170" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="42">
+      <c r="A171" t="s">
+        <v>67</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E171" t="s">
+        <v>70</v>
+      </c>
+      <c r="F171" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="84">
+      <c r="A172" t="s">
+        <v>172</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E172" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="F172" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H172" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="42">
+      <c r="A173" t="s">
+        <v>64</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E173" t="s">
+        <v>45</v>
+      </c>
+      <c r="F173" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="63">
+      <c r="A174" t="s">
+        <v>62</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E174" t="s">
+        <v>45</v>
+      </c>
+      <c r="F174" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="84">
+      <c r="A175" t="s">
+        <v>448</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E175" t="s">
+        <v>294</v>
+      </c>
+      <c r="F175" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="105">
+      <c r="A176" t="s">
+        <v>449</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="E176" t="s">
+        <v>294</v>
+      </c>
+      <c r="F176" t="s">
+        <v>295</v>
+      </c>
+      <c r="G176" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="42">
+      <c r="A177" t="s">
+        <v>449</v>
+      </c>
+      <c r="B177">
+        <v>1</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E177" t="s">
+        <v>294</v>
+      </c>
+      <c r="F177" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="42">
+      <c r="A178" t="s">
+        <v>449</v>
+      </c>
+      <c r="B178">
+        <v>2</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E178" t="s">
+        <v>294</v>
+      </c>
+      <c r="F178" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="42">
+      <c r="A179" t="s">
+        <v>449</v>
+      </c>
+      <c r="B179">
+        <v>3</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E179" t="s">
+        <v>294</v>
+      </c>
+      <c r="F179" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" ht="126">
+      <c r="A180" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B180">
+        <v>0</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E180" t="s">
+        <v>222</v>
+      </c>
+      <c r="F180" t="s">
+        <v>46</v>
+      </c>
+      <c r="G180" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" ht="21">
+      <c r="A181" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E181" t="s">
+        <v>45</v>
+      </c>
+      <c r="F181" t="s">
+        <v>36</v>
+      </c>
+      <c r="H181" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="409.6">
+      <c r="A182" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E182" t="s">
+        <v>223</v>
+      </c>
+      <c r="F182" t="s">
+        <v>36</v>
+      </c>
+      <c r="H182" s="4"/>
+    </row>
+    <row r="183" spans="1:8" ht="105">
+      <c r="A183" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E183" t="s">
+        <v>45</v>
+      </c>
+      <c r="F183" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="63">
+      <c r="A184" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E184" t="s">
+        <v>45</v>
+      </c>
+      <c r="F184" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" ht="42">
+      <c r="A185" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E185" t="s">
+        <v>45</v>
+      </c>
+      <c r="F185" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="21">
+      <c r="A186" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E186" t="s">
+        <v>45</v>
+      </c>
+      <c r="F186" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="84">
+      <c r="A187" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B187">
+        <v>1</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E187" t="s">
+        <v>45</v>
+      </c>
+      <c r="F187" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="42">
+      <c r="A188" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B188">
+        <v>0</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E188" t="s">
+        <v>45</v>
+      </c>
+      <c r="F188" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" ht="42">
+      <c r="A189" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E189" t="s">
+        <v>166</v>
+      </c>
+      <c r="F189" t="s">
+        <v>167</v>
+      </c>
+      <c r="H189" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="126">
+      <c r="A190" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E190" t="s">
+        <v>224</v>
+      </c>
+      <c r="F190" t="s">
+        <v>296</v>
+      </c>
+      <c r="H190" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" ht="105">
+      <c r="A191" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
+      <c r="C191" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F144" t="s">
+      <c r="D191" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E191" t="s">
+        <v>310</v>
+      </c>
+      <c r="F191" t="s">
+        <v>296</v>
+      </c>
+      <c r="H191" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="42">
+      <c r="A192" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B192">
+        <v>1</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E192" t="s">
+        <v>70</v>
+      </c>
+      <c r="F192" t="s">
+        <v>296</v>
+      </c>
+      <c r="H192" s="4"/>
+    </row>
+    <row r="193" spans="1:8" ht="21">
+      <c r="A193" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B193">
+        <v>0</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="E193" t="s">
+        <v>390</v>
+      </c>
+      <c r="F193" t="s">
+        <v>409</v>
+      </c>
+      <c r="G193" t="s">
+        <v>410</v>
+      </c>
+      <c r="H193" s="4"/>
+    </row>
+    <row r="194" spans="1:8" ht="42">
+      <c r="A194" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E194" t="s">
+        <v>153</v>
+      </c>
+      <c r="F194" t="s">
         <v>40</v>
       </c>
-      <c r="H144" s="4" t="s">
-        <v>161</v>
+      <c r="H194" s="4" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="H144" r:id="rId1" xr:uid="{81642C6C-B155-384F-AAC7-449D3395E8A1}"/>
-    <hyperlink ref="H142" r:id="rId2" xr:uid="{BF840327-7DE3-494E-9852-F70E198FA83F}"/>
-    <hyperlink ref="H141" r:id="rId3" xr:uid="{C1032CAE-FCD8-1242-B6C3-B70B988BC2CA}"/>
-    <hyperlink ref="H140" r:id="rId4" xr:uid="{F8DE77CC-7236-5740-A008-5EFF79B59035}"/>
-    <hyperlink ref="H132" r:id="rId5" xr:uid="{09EF007C-85D3-5F45-B203-6FE0424E5C99}"/>
-    <hyperlink ref="H120" r:id="rId6" xr:uid="{CA79A61E-3453-F748-8421-4D89662469BF}"/>
-    <hyperlink ref="H115" r:id="rId7" xr:uid="{DF2D3758-0BC9-D246-BED3-26AF94D5F9D8}"/>
-    <hyperlink ref="H67" r:id="rId8" xr:uid="{CCDC15F7-E252-0348-B02C-905084BD776E}"/>
-    <hyperlink ref="H30" r:id="rId9" xr:uid="{B4649428-221F-674F-BA70-A2780E5E269C}"/>
-    <hyperlink ref="H107" r:id="rId10" xr:uid="{E8486F26-D2AA-3540-A8B3-73E08A241E3A}"/>
-    <hyperlink ref="H37" r:id="rId11" xr:uid="{DF9E283C-C630-6141-B84A-D4DC20067D3A}"/>
-    <hyperlink ref="H38" r:id="rId12" xr:uid="{AA765222-2C31-E444-93E0-6241B574BBDA}"/>
-    <hyperlink ref="H41" r:id="rId13" xr:uid="{7424A509-2E7F-534F-A182-16DD568A0E14}"/>
-    <hyperlink ref="H43" r:id="rId14" xr:uid="{B81B5BB0-A4D2-CE48-976B-41038463380C}"/>
-    <hyperlink ref="H44" r:id="rId15" xr:uid="{51731D61-79A9-C248-A29C-7F455B171752}"/>
-    <hyperlink ref="H45" r:id="rId16" xr:uid="{DF071ACD-52CF-F248-82F5-DCBA80F5ED7C}"/>
-    <hyperlink ref="H46" r:id="rId17" xr:uid="{A3CDB931-1A52-EE43-BE32-2575167D2188}"/>
-    <hyperlink ref="H48" r:id="rId18" xr:uid="{217C257E-AC48-D240-A20A-4B4B59D80A75}"/>
-    <hyperlink ref="H49" r:id="rId19" xr:uid="{7DD8D092-ADED-CC44-8C91-A6B96A4E7F8B}"/>
-    <hyperlink ref="H50" r:id="rId20" xr:uid="{FF12F444-682A-3040-A650-0D77B1F409BF}"/>
-    <hyperlink ref="H51" r:id="rId21" xr:uid="{1128B72D-52B8-8F47-9418-E2DF8EDBE41D}"/>
-    <hyperlink ref="H60" r:id="rId22" xr:uid="{497C3D62-66B1-B349-919C-BB1436BCE7EA}"/>
-    <hyperlink ref="H66" r:id="rId23" xr:uid="{AA737391-1EFB-A246-BB33-46BEF9DF59DA}"/>
-    <hyperlink ref="H64" r:id="rId24" xr:uid="{12373DBC-12D0-EF44-94D1-6BE389EE8541}"/>
-    <hyperlink ref="H63" r:id="rId25" xr:uid="{0D1FF725-B522-814B-944C-9DE55388698D}"/>
-    <hyperlink ref="H65" r:id="rId26" xr:uid="{B196E238-6A79-1D4C-BE62-208D54322587}"/>
-    <hyperlink ref="H61" r:id="rId27" xr:uid="{C086B470-F6CB-A541-BF4F-D4066F6C3477}"/>
-    <hyperlink ref="H62" r:id="rId28" xr:uid="{6C629B57-C1F3-4545-97A0-DAE1AEC86284}"/>
-    <hyperlink ref="H59" r:id="rId29" xr:uid="{B29892C6-C28D-A544-98D7-253097387448}"/>
-    <hyperlink ref="H58" r:id="rId30" xr:uid="{CB97C88D-610F-9244-AD06-BA36E3E1A20C}"/>
+    <hyperlink ref="H194" r:id="rId1" xr:uid="{81642C6C-B155-384F-AAC7-449D3395E8A1}"/>
+    <hyperlink ref="H191" r:id="rId2" xr:uid="{BF840327-7DE3-494E-9852-F70E198FA83F}"/>
+    <hyperlink ref="H190" r:id="rId3" xr:uid="{C1032CAE-FCD8-1242-B6C3-B70B988BC2CA}"/>
+    <hyperlink ref="H189" r:id="rId4" xr:uid="{F8DE77CC-7236-5740-A008-5EFF79B59035}"/>
+    <hyperlink ref="H181" r:id="rId5" xr:uid="{09EF007C-85D3-5F45-B203-6FE0424E5C99}"/>
+    <hyperlink ref="H172" r:id="rId6" xr:uid="{CA79A61E-3453-F748-8421-4D89662469BF}"/>
+    <hyperlink ref="H167" r:id="rId7" xr:uid="{DF2D3758-0BC9-D246-BED3-26AF94D5F9D8}"/>
+    <hyperlink ref="H111" r:id="rId8" xr:uid="{CCDC15F7-E252-0348-B02C-905084BD776E}"/>
+    <hyperlink ref="H31" r:id="rId9" xr:uid="{B4649428-221F-674F-BA70-A2780E5E269C}"/>
+    <hyperlink ref="H159" r:id="rId10" xr:uid="{E8486F26-D2AA-3540-A8B3-73E08A241E3A}"/>
+    <hyperlink ref="H66" r:id="rId11" xr:uid="{DF9E283C-C630-6141-B84A-D4DC20067D3A}"/>
+    <hyperlink ref="H68" r:id="rId12" xr:uid="{AA765222-2C31-E444-93E0-6241B574BBDA}"/>
+    <hyperlink ref="H71" r:id="rId13" xr:uid="{7424A509-2E7F-534F-A182-16DD568A0E14}"/>
+    <hyperlink ref="H77" r:id="rId14" xr:uid="{B81B5BB0-A4D2-CE48-976B-41038463380C}"/>
+    <hyperlink ref="H78" r:id="rId15" xr:uid="{51731D61-79A9-C248-A29C-7F455B171752}"/>
+    <hyperlink ref="H79" r:id="rId16" xr:uid="{DF071ACD-52CF-F248-82F5-DCBA80F5ED7C}"/>
+    <hyperlink ref="H80" r:id="rId17" xr:uid="{A3CDB931-1A52-EE43-BE32-2575167D2188}"/>
+    <hyperlink ref="H82" r:id="rId18" xr:uid="{217C257E-AC48-D240-A20A-4B4B59D80A75}"/>
+    <hyperlink ref="H83" r:id="rId19" xr:uid="{7DD8D092-ADED-CC44-8C91-A6B96A4E7F8B}"/>
+    <hyperlink ref="H84" r:id="rId20" xr:uid="{FF12F444-682A-3040-A650-0D77B1F409BF}"/>
+    <hyperlink ref="H85" r:id="rId21" xr:uid="{1128B72D-52B8-8F47-9418-E2DF8EDBE41D}"/>
+    <hyperlink ref="H96" r:id="rId22" xr:uid="{497C3D62-66B1-B349-919C-BB1436BCE7EA}"/>
+    <hyperlink ref="H105" r:id="rId23" xr:uid="{AA737391-1EFB-A246-BB33-46BEF9DF59DA}"/>
+    <hyperlink ref="H102" r:id="rId24" xr:uid="{12373DBC-12D0-EF44-94D1-6BE389EE8541}"/>
+    <hyperlink ref="H101" r:id="rId25" xr:uid="{0D1FF725-B522-814B-944C-9DE55388698D}"/>
+    <hyperlink ref="H103" r:id="rId26" xr:uid="{B196E238-6A79-1D4C-BE62-208D54322587}"/>
+    <hyperlink ref="H97" r:id="rId27" xr:uid="{C086B470-F6CB-A541-BF4F-D4066F6C3477}"/>
+    <hyperlink ref="H100" r:id="rId28" xr:uid="{6C629B57-C1F3-4545-97A0-DAE1AEC86284}"/>
+    <hyperlink ref="H95" r:id="rId29" xr:uid="{B29892C6-C28D-A544-98D7-253097387448}"/>
+    <hyperlink ref="H94" r:id="rId30" xr:uid="{CB97C88D-610F-9244-AD06-BA36E3E1A20C}"/>
     <hyperlink ref="H16" r:id="rId31" xr:uid="{E92164C8-75EB-FE45-8332-C3A91BA4451A}"/>
+    <hyperlink ref="H126" r:id="rId32" xr:uid="{1C083029-B686-E448-9351-4D317921CFD1}"/>
+    <hyperlink ref="H160" r:id="rId33" xr:uid="{BD83387D-9020-714F-BA3A-41424AE632FD}"/>
+    <hyperlink ref="H75" r:id="rId34" xr:uid="{4BE75394-77C5-1B40-BE04-9A747380D885}"/>
+    <hyperlink ref="H110" r:id="rId35" xr:uid="{4FBCA80C-79E1-B745-8F51-D46C4D3F8601}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0164341-393F-DB43-9951-65B14484492A}">
+  <dimension ref="A2:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="2" spans="1:6" ht="21">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="21">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="42">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="21">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="42">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="21">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="21">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="21">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data_excel/tags.xlsx
+++ b/data_excel/tags.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay/xidev/kanban/data_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{4B94E8BE-4042-DA41-8446-80895E738B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{9C1D32E9-8B34-1743-BA14-F6A48EE4D341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20040" yWindow="640" windowWidth="18180" windowHeight="17120" xr2:uid="{1951D371-7A8D-D346-B651-736256765602}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="609">
   <si>
     <t>img</t>
     <phoneticPr fontId="1"/>
@@ -1233,12 +1233,6 @@
   <si>
     <t>（曲り角に付）
 駐輪禁止</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ここは公団住宅居住者の玄関入口です
-該場所に放置自転車等を置くことは禁止します
-UR都市住宅機構</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -8231,6 +8225,664 @@
     <rPh sb="15" eb="16">
       <t xml:space="preserve">クダサイ </t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここは公団住宅居住者の玄関入口です
+当該場所に放置自転車等を置くことは禁止します
+UR都市住宅機構</t>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">トウガイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_6805.HEIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここへはゴミを捨てるな
+ここへはゴミを捨てるな
+ここへはゴミを捨てるな
+ここへはゴミを捨てるな</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここにこみを捨てるな
+ここにこみを捨てるな
+ここにこみを捨てるな
+ここにこみを捨てるな</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物|貼紙</t>
+    <rPh sb="0" eb="1">
+      <t>🪏</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">ハリガミ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_7807.HEIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>警告
+するな！不法投棄
+あなたの行為は犯罪です
+南部まち美化事務所
+(電話) 681-0456</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ケイコク </t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t xml:space="preserve">フホウトウキ </t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t xml:space="preserve">ハンザイ </t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t xml:space="preserve">ナンブマチ </t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">ビカ </t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t xml:space="preserve">ジムショ </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">デンワ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_8901.HEIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>警告
+するな！！不法投棄
+あなたの行為は犯罪です
+山科警察署
+山科まち美化事務所</t>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">ヤマシナ </t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t xml:space="preserve">ケイサツショ </t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t xml:space="preserve">ヤマシナ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不法投棄監視中
+見てますよ あなたの違法行為を！
+不法投棄をした者は、廃棄物処理法により5年以下の懲役若しくは、1,000万円以下の罰金に処せられます。
+山科まち美化事務所
+山科警察署</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">フホウトウキ </t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t xml:space="preserve">カンシチュウ </t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t xml:space="preserve">ミテマスヨ </t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t xml:space="preserve">イホウコウイ </t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>フホウトウk</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t xml:space="preserve">モノハ </t>
+    </rPh>
+    <rPh sb="35" eb="40">
+      <t>ハイキブ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t xml:space="preserve">ホウ </t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t xml:space="preserve">ネン </t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t xml:space="preserve">イカノ </t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t xml:space="preserve">チョウエキ </t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t xml:space="preserve">モシクハ </t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t xml:space="preserve">マンエン </t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t xml:space="preserve">イカノ </t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t xml:space="preserve">バッキン </t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t xml:space="preserve">ショセラレマス </t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t xml:space="preserve">ヤマシナ </t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t xml:space="preserve">ビカ </t>
+    </rPh>
+    <rPh sb="83" eb="86">
+      <t xml:space="preserve">ジムショ </t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t xml:space="preserve">ヤマシナ </t>
+    </rPh>
+    <rPh sb="89" eb="92">
+      <t xml:space="preserve">ケイサツショ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>資源ごみ収集場所
+平成23年から缶・びん・ペットボトルを無断で持ち去る行為は条例で禁止です。
+収集日の朝8時までにお出しください。
+缶・びん・ペットボトル　毎週水曜日　山階　26
+プラスチック製容器包装　毎週金曜日
+金属類 小型 スプレー缶　毎月第2水曜日
+雑がみ　毎月第2,4水曜日
+缶・びん・ペットボトルとプラスチック製容器包装は資源ごみ用指定袋で、別々にお出しください。収集日が重なる場合は少し離してお出しください。
+山科まち美化事務所 (TEL 537-2457)</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シゲンゴミ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">シュウシュウ </t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">バショ </t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">ヘイセイ </t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t xml:space="preserve">ネンカラ </t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>🥫</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">ムダン </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">コウイハ </t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t xml:space="preserve">ジョウレイ </t>
+    </rPh>
+    <rPh sb="47" eb="50">
+      <t xml:space="preserve">シュウシュウビノ </t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t xml:space="preserve">アサ </t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t xml:space="preserve">ジマデニ </t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t xml:space="preserve">カン </t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t xml:space="preserve">マイシュウ </t>
+    </rPh>
+    <rPh sb="80" eb="83">
+      <t xml:space="preserve">スイヨウビ </t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t xml:space="preserve">ヤマ </t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t xml:space="preserve">セイ </t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t xml:space="preserve">ヨウキ </t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t xml:space="preserve">ホウソウ </t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t xml:space="preserve">マイシュウ </t>
+    </rPh>
+    <rPh sb="104" eb="107">
+      <t xml:space="preserve">キンヨウビ </t>
+    </rPh>
+    <rPh sb="108" eb="111">
+      <t xml:space="preserve">キンゾクルイ </t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t xml:space="preserve">コガタ </t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t xml:space="preserve">マイツキ </t>
+    </rPh>
+    <rPh sb="125" eb="128">
+      <t xml:space="preserve">スイヨウビ </t>
+    </rPh>
+    <rPh sb="129" eb="130">
+      <t xml:space="preserve">ザツ </t>
+    </rPh>
+    <rPh sb="133" eb="135">
+      <t xml:space="preserve">マイツキ </t>
+    </rPh>
+    <rPh sb="135" eb="136">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="139" eb="142">
+      <t xml:space="preserve">スイヨウビ </t>
+    </rPh>
+    <rPh sb="161" eb="162">
+      <t xml:space="preserve">セイ </t>
+    </rPh>
+    <rPh sb="162" eb="166">
+      <t xml:space="preserve">ヨウキホウソウ </t>
+    </rPh>
+    <rPh sb="167" eb="169">
+      <t xml:space="preserve">シゲンゴミ </t>
+    </rPh>
+    <rPh sb="171" eb="172">
+      <t xml:space="preserve">ヨウ </t>
+    </rPh>
+    <rPh sb="172" eb="175">
+      <t xml:space="preserve">シテイブクロ </t>
+    </rPh>
+    <rPh sb="177" eb="178">
+      <t xml:space="preserve">ベツベツニ </t>
+    </rPh>
+    <rPh sb="188" eb="191">
+      <t xml:space="preserve">シュウシュウビガ </t>
+    </rPh>
+    <rPh sb="192" eb="193">
+      <t xml:space="preserve">カサナル </t>
+    </rPh>
+    <rPh sb="195" eb="197">
+      <t xml:space="preserve">バアイ </t>
+    </rPh>
+    <rPh sb="198" eb="199">
+      <t xml:space="preserve">スコシハナシテ </t>
+    </rPh>
+    <rPh sb="212" eb="214">
+      <t xml:space="preserve">ヤマシナ </t>
+    </rPh>
+    <rPh sb="216" eb="218">
+      <t xml:space="preserve">ビカ </t>
+    </rPh>
+    <rPh sb="218" eb="221">
+      <t xml:space="preserve">ジムショ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_1206.HEIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>駐輪禁止
+NO PARKING
+anue 京都三条</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">チュウリンキンシ </t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t xml:space="preserve">キョウト </t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t xml:space="preserve">サンジョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カラーコーン|ステッカー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_5174.HEIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この扉は火災の時に火や煙を防ぐ大切なものです。
+扉の前に商品や物品などを置かないようにお願いします。
+空港管理者</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関西国際空港</t>
+    <rPh sb="0" eb="6">
+      <t xml:space="preserve">カンサイクウコウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_2563.HEIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>立入禁止
+ダメ！
+東京都第六建設事務所</t>
+    <rPh sb="0" eb="4">
+      <t>タチイリ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t xml:space="preserve">トウキョウト </t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">ダイロク </t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">ケンセツ </t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t xml:space="preserve">ジムショ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>四角斜線|両手のひら</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">シカク </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">リョウテ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カラーコーン|看板</t>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">カンバン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>立入禁止
+東京都第六建設事務所</t>
+    <rPh sb="0" eb="1">
+      <t>タチイリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>上野</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>アメ横 70m
+Ueno Ameyoko
+上野恩賜公園 100m
+Ueno Park</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ウエノ </t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t/>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t xml:space="preserve">ウエノ </t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t xml:space="preserve">オンシコウエン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>矢印|木|ベンチ</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヤジルシ </t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>🌲</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_2190.HEIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トイレットペーパーの盗難が多発しています。
+盗難は犯罪です。
+持ち帰らないようお願いします。
+駅長</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>禁煙
+No smoking</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_2187.HEIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No admittance
+立入禁止
+この先関係者以外の立入り禁止</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤丸斜線|人</t>
+    <rPh sb="0" eb="4">
+      <t>🔴</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>防犯カメラ作動中
+24時間監視中</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>床|貼紙</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ユカ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">ハリガミ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_5758.HEIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_5645.JPG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通行の妨げになり危険です
+車椅子も通れません
+京阪三条北ビル 管理者</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>座席のシート切りは犯罪です！
+座席を切る行為は、刑法第261条等により罰せられます。目撃したり、発見した場合は係員にお知らせ下さい。
+ご協力をお願いします。
+警視庁鉄道警察隊
+埼玉県警察鉄道警察隊
+西武鉄道</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東京都練馬区（列車内）</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">トウキョウト </t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t xml:space="preserve">ネリマク </t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t xml:space="preserve">レッシャナイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消火器
+Fire extinguisher</t>
+    <rPh sb="0" eb="3">
+      <t>🧯</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消火器|矢印</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ショウカキ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">ヤジルシ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_1135.HEIC</t>
+  </si>
+  <si>
+    <t>IMG_1087.HEIC</t>
+  </si>
+  <si>
+    <t>IMG_1072.HEIC</t>
+  </si>
+  <si>
+    <t>IMG_1061.HEIC</t>
+  </si>
+  <si>
+    <t>IMG_1051.HEIC</t>
+  </si>
+  <si>
+    <t>IMG_1040.HEIC</t>
+  </si>
+  <si>
+    <t>IMG_1311.HEIC</t>
+  </si>
+  <si>
+    <t>警告
+最近当ビル敷地内および出入口の前に不法駐輪がされていますが防災上避難の防げとなり消防署より強く指摘を受けました。
+今後、当敷地内および出入口付近の不法駐輪は発見次第撤去処分致しますのでご了承ください。
+京都吉本ビル（パッサージオ）</t>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">サイキン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不法投棄監視中
+見てますよ、あなたを
+一人ひとりが力を合わせ、美しい京都を次の世代へ引き継いでいきましょう
+不法投棄をした者は、廃棄物処理法により、5年以下の懲役若しくは1,000万円以下の罰金に処せられます。
+万ーこの場所で不法投棄を目撃されたら110番通報をお願いします。
+市民の皆様のご協力をお願いします
+北部まち美化事務所　(電話) 724-8881
+北エコまちステーション　(電話) 366-0155
+北部土木事務所　(電話) 492-3111
+北警察署　(電話) 493-0110</t>
+    <rPh sb="167" eb="169">
+      <t xml:space="preserve">デンワ </t>
+    </rPh>
+    <rPh sb="193" eb="195">
+      <t xml:space="preserve">デンワ </t>
+    </rPh>
+    <rPh sb="215" eb="217">
+      <t xml:space="preserve">デンワ </t>
+    </rPh>
+    <rPh sb="234" eb="236">
+      <t xml:space="preserve">デンワ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>資源ごみ収集場所
+平成23年から缶・びん・ペットボトルを無断で持ち去る行為は条例で禁止です。
+収集日の朝8時までにお出しください。
+缶・びん・ペットボトル　毎週金曜日　元町 02
+プラスチック製容器包装　毎週水曜日
+金属類 小型 スプレー缶　毎月第1水曜日
+雑がみ　毎月第1,3水曜日
+缶・びん・ペットボトルとプラスチック製容器包装は資源ごみ用指定袋で、別々にお出しください。収集日が重なる場合は少し離してお出しください。
+東部まち美化事務所 (TEL 722-4345)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>可燃ごみ
+Combustible waste</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カネン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロゴ|キャラクター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物|貼紙</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">モノ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">ハリガミ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>駐輪はご遠慮ください</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">チュウリンハ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>柵|書き文字</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">サク </t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">カキモジ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>竹</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">タケ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大文字ビル</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ダイモンジ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カラーコーン</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -8742,10 +9394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0244D4E8-F443-D54E-A975-960F8853E327}">
-  <dimension ref="A1:H194"/>
+  <dimension ref="A1:H223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="88" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -8778,70 +9430,70 @@
         <v>41</v>
       </c>
       <c r="G1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="273">
       <c r="A2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" t="s">
         <v>329</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>330</v>
       </c>
-      <c r="F2" t="s">
-        <v>331</v>
-      </c>
       <c r="G2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="84">
       <c r="A3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" t="s">
         <v>333</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>334</v>
       </c>
-      <c r="F3" t="s">
-        <v>335</v>
-      </c>
       <c r="G3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="126">
       <c r="A4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>337</v>
       </c>
       <c r="E4" t="s">
         <v>70</v>
@@ -8850,133 +9502,133 @@
         <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="147">
       <c r="A5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F5" t="s">
         <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="147">
       <c r="A6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" t="s">
         <v>342</v>
-      </c>
-      <c r="E6" t="s">
-        <v>343</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="147">
       <c r="A7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F7" t="s">
         <v>39</v>
       </c>
       <c r="G7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="147">
       <c r="A8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>347</v>
-      </c>
       <c r="E8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F8" t="s">
         <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="147">
       <c r="A9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E9" t="s">
+        <v>342</v>
+      </c>
+      <c r="F9" t="s">
+        <v>348</v>
+      </c>
+      <c r="G9" t="s">
         <v>350</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="E9" t="s">
-        <v>343</v>
-      </c>
-      <c r="F9" t="s">
-        <v>349</v>
-      </c>
-      <c r="G9" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="147">
       <c r="A10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>5</v>
@@ -8988,41 +9640,41 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="63">
       <c r="A11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>361</v>
       </c>
       <c r="E11" t="s">
         <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="21">
       <c r="A12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>5</v>
@@ -9031,24 +9683,24 @@
         <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="42">
       <c r="A13" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>377</v>
       </c>
       <c r="E13" t="s">
         <v>45</v>
@@ -9059,16 +9711,16 @@
     </row>
     <row r="14" spans="1:8" ht="126">
       <c r="A14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B14">
         <v>5484</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>379</v>
       </c>
       <c r="E14" t="s">
         <v>45</v>
@@ -9077,21 +9729,21 @@
         <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="42">
       <c r="A15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="E15" t="s">
         <v>70</v>
@@ -9100,44 +9752,44 @@
         <v>36</v>
       </c>
       <c r="G15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="42">
       <c r="A16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>385</v>
-      </c>
       <c r="E16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F16" t="s">
         <v>39</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="105">
       <c r="A17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E17" t="s">
         <v>45</v>
@@ -9148,365 +9800,364 @@
     </row>
     <row r="18" spans="1:8" ht="63">
       <c r="A18" t="s">
-        <v>373</v>
+        <v>563</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>389</v>
+        <v>564</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>5</v>
+        <v>386</v>
       </c>
       <c r="E18" t="s">
         <v>70</v>
       </c>
       <c r="F18" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="63">
+      <c r="A19" t="s">
+        <v>372</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="21">
-      <c r="A19" t="s">
-        <v>374</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="E19" t="s">
-        <v>390</v>
-      </c>
-      <c r="F19" t="s">
-        <v>391</v>
-      </c>
-      <c r="G19" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="21">
       <c r="A20" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="E20" t="s">
+        <v>389</v>
+      </c>
+      <c r="F20" t="s">
         <v>390</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="E20" t="s">
-        <v>390</v>
-      </c>
-      <c r="F20" t="s">
-        <v>391</v>
+      <c r="G20" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="21">
       <c r="A21" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E21" t="s">
+        <v>389</v>
+      </c>
+      <c r="F21" t="s">
         <v>390</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="E21" t="s">
-        <v>390</v>
-      </c>
-      <c r="F21" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="21">
       <c r="A22" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="E22" t="s">
+        <v>389</v>
+      </c>
+      <c r="F22" t="s">
         <v>390</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="E22" t="s">
-        <v>390</v>
-      </c>
-      <c r="F22" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="21">
       <c r="A23" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E23" t="s">
+        <v>389</v>
+      </c>
+      <c r="F23" t="s">
         <v>390</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="E23" t="s">
-        <v>390</v>
-      </c>
-      <c r="F23" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="21">
       <c r="A24" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E24" t="s">
+        <v>389</v>
+      </c>
+      <c r="F24" t="s">
         <v>390</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="E24" t="s">
-        <v>390</v>
-      </c>
-      <c r="F24" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="21">
       <c r="A25" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E25" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F25" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="21">
       <c r="A26" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E26" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F26" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="21">
       <c r="A27" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E27" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="21">
       <c r="A28" t="s">
-        <v>403</v>
+        <v>374</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="E28" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F28" t="s">
-        <v>402</v>
+        <v>278</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="21">
       <c r="A29" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E29" t="s">
+        <v>389</v>
+      </c>
+      <c r="F29" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="21">
+      <c r="A30" t="s">
+        <v>402</v>
+      </c>
+      <c r="B30">
         <v>1</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C30" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>400</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="E29" t="s">
-        <v>45</v>
-      </c>
-      <c r="F29" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="63">
-      <c r="A30" t="s">
-        <v>472</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>474</v>
       </c>
       <c r="E30" t="s">
         <v>45</v>
       </c>
       <c r="F30" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="63">
+      <c r="A31" t="s">
+        <v>471</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="147">
-      <c r="A31" t="s">
-        <v>177</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31" s="1" t="s">
+    <row r="32" spans="1:8" ht="147">
+      <c r="A32" t="s">
+        <v>176</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E31" t="s">
-        <v>199</v>
-      </c>
-      <c r="F31" t="s">
-        <v>211</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="63">
-      <c r="A32" t="s">
+      <c r="E32" t="s">
+        <v>198</v>
+      </c>
+      <c r="F32" t="s">
+        <v>210</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="63">
+      <c r="A33" t="s">
+        <v>474</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E33" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" t="s">
         <v>477</v>
       </c>
-      <c r="E32" t="s">
-        <v>70</v>
-      </c>
-      <c r="F32" t="s">
-        <v>46</v>
-      </c>
-      <c r="G32" t="s">
-        <v>478</v>
-      </c>
-      <c r="H32" s="4"/>
-    </row>
-    <row r="33" spans="1:8" ht="84">
-      <c r="A33" t="s">
-        <v>546</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>550</v>
-      </c>
-      <c r="E33" t="s">
-        <v>45</v>
-      </c>
-      <c r="F33" t="s">
-        <v>551</v>
-      </c>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:8" ht="63">
+    <row r="34" spans="1:8" ht="84">
       <c r="A34" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>549</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="E34" t="s">
         <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="1:8" ht="42">
+    <row r="35" spans="1:8" ht="63">
       <c r="A35" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>5</v>
@@ -9515,361 +10166,364 @@
         <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>40</v>
+        <v>550</v>
       </c>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:8" ht="63">
+    <row r="36" spans="1:8" ht="42">
       <c r="A36" t="s">
-        <v>462</v>
+        <v>546</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>461</v>
+        <v>551</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E36" t="s">
-        <v>206</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>463</v>
+        <v>40</v>
       </c>
       <c r="H36" s="4"/>
     </row>
     <row r="37" spans="1:8" ht="63">
       <c r="A37" t="s">
+        <v>461</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" t="s">
+        <v>205</v>
+      </c>
+      <c r="F37" t="s">
+        <v>462</v>
+      </c>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="1:8" ht="63">
+      <c r="A38" t="s">
+        <v>463</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="E38" t="s">
         <v>70</v>
-      </c>
-      <c r="F37" t="s">
-        <v>40</v>
-      </c>
-      <c r="H37" s="4"/>
-    </row>
-    <row r="38" spans="1:8" ht="105">
-      <c r="A38" t="s">
-        <v>464</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E38" t="s">
-        <v>45</v>
       </c>
       <c r="F38" t="s">
         <v>40</v>
       </c>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:8" ht="42">
+    <row r="39" spans="1:8" ht="105">
       <c r="A39" t="s">
-        <v>432</v>
+        <v>463</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>433</v>
+        <v>466</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E39" t="s">
-        <v>294</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>279</v>
-      </c>
-      <c r="G39" t="s">
-        <v>444</v>
+        <v>40</v>
       </c>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="1:8" ht="42">
+    <row r="40" spans="1:8" ht="63">
       <c r="A40" t="s">
-        <v>427</v>
+        <v>566</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>434</v>
+        <v>567</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E40" t="s">
-        <v>294</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>318</v>
+        <v>278</v>
       </c>
       <c r="G40" t="s">
-        <v>444</v>
+        <v>568</v>
       </c>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="1:8" ht="105">
+    <row r="41" spans="1:8" ht="42">
       <c r="A41" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>395</v>
+        <v>5</v>
       </c>
       <c r="E41" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F41" t="s">
-        <v>436</v>
+        <v>278</v>
       </c>
       <c r="G41" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H41" s="4"/>
     </row>
     <row r="42" spans="1:8" ht="42">
       <c r="A42" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>438</v>
+        <v>5</v>
       </c>
       <c r="E42" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F42" t="s">
-        <v>436</v>
+        <v>317</v>
       </c>
       <c r="G42" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="1:8" ht="42">
+    <row r="43" spans="1:8" ht="105">
       <c r="A43" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>438</v>
+        <v>394</v>
       </c>
       <c r="E43" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F43" t="s">
-        <v>236</v>
+        <v>435</v>
       </c>
       <c r="G43" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H43" s="4"/>
     </row>
     <row r="44" spans="1:8" ht="42">
       <c r="A44" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="E44" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F44" t="s">
-        <v>279</v>
+        <v>435</v>
       </c>
       <c r="G44" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H44" s="4"/>
     </row>
     <row r="45" spans="1:8" ht="42">
       <c r="A45" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E45" t="s">
+        <v>293</v>
+      </c>
+      <c r="F45" t="s">
+        <v>235</v>
+      </c>
+      <c r="G45" t="s">
+        <v>443</v>
+      </c>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="1:8" ht="42">
+      <c r="A46" t="s">
+        <v>430</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="E46" t="s">
+        <v>293</v>
+      </c>
+      <c r="F46" t="s">
+        <v>278</v>
+      </c>
+      <c r="G46" t="s">
         <v>443</v>
-      </c>
-      <c r="E45" t="s">
-        <v>294</v>
-      </c>
-      <c r="F45" t="s">
-        <v>279</v>
-      </c>
-      <c r="H45" s="4"/>
-    </row>
-    <row r="46" spans="1:8" ht="168">
-      <c r="A46" t="s">
-        <v>283</v>
-      </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" t="s">
-        <v>292</v>
-      </c>
-      <c r="F46" t="s">
-        <v>279</v>
-      </c>
-      <c r="G46" t="s">
-        <v>444</v>
       </c>
       <c r="H46" s="4"/>
     </row>
     <row r="47" spans="1:8" ht="42">
       <c r="A47" t="s">
+        <v>430</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E47" t="s">
+        <v>293</v>
+      </c>
+      <c r="F47" t="s">
+        <v>278</v>
+      </c>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="1:8" ht="168">
+      <c r="A48" t="s">
+        <v>282</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" t="s">
+        <v>291</v>
+      </c>
+      <c r="F48" t="s">
+        <v>278</v>
+      </c>
+      <c r="G48" t="s">
+        <v>443</v>
+      </c>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="1:8" ht="42">
+      <c r="A49" t="s">
+        <v>410</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47" s="1" t="s">
+      <c r="D49" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="E49" t="s">
         <v>412</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="F49" t="s">
+        <v>294</v>
+      </c>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="1:8" ht="105">
+      <c r="A50" t="s">
+        <v>414</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="F47" t="s">
-        <v>295</v>
-      </c>
-      <c r="H47" s="4"/>
-    </row>
-    <row r="48" spans="1:8" ht="105">
-      <c r="A48" t="s">
+      <c r="D50" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="E48" t="s">
-        <v>278</v>
-      </c>
-      <c r="F48" t="s">
-        <v>39</v>
-      </c>
-      <c r="H48" s="4"/>
-    </row>
-    <row r="49" spans="1:8" ht="63">
-      <c r="A49" t="s">
-        <v>417</v>
-      </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" t="s">
-        <v>278</v>
-      </c>
-      <c r="F49" t="s">
-        <v>39</v>
-      </c>
-      <c r="H49" s="4"/>
-    </row>
-    <row r="50" spans="1:8" ht="42">
-      <c r="A50" t="s">
-        <v>417</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>422</v>
-      </c>
       <c r="E50" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F50" t="s">
         <v>39</v>
       </c>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="1:8" ht="42">
+    <row r="51" spans="1:8" ht="63">
       <c r="A51" t="s">
+        <v>416</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B51">
-        <v>2</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>420</v>
-      </c>
       <c r="D51" s="1" t="s">
-        <v>424</v>
+        <v>5</v>
       </c>
       <c r="E51" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F51" t="s">
         <v>39</v>
@@ -9878,19 +10532,19 @@
     </row>
     <row r="52" spans="1:8" ht="42">
       <c r="A52" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>425</v>
-      </c>
       <c r="E52" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F52" t="s">
         <v>39</v>
@@ -9899,97 +10553,97 @@
     </row>
     <row r="53" spans="1:8" ht="42">
       <c r="A53" t="s">
+        <v>416</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="E53" t="s">
+        <v>277</v>
+      </c>
+      <c r="F53" t="s">
+        <v>39</v>
+      </c>
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" spans="1:8" ht="42">
+      <c r="A54" t="s">
+        <v>416</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E54" t="s">
+        <v>277</v>
+      </c>
+      <c r="F54" t="s">
+        <v>39</v>
+      </c>
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55" spans="1:8" ht="42">
+      <c r="A55" t="s">
+        <v>279</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="D53" s="1" t="s">
+      <c r="E55" t="s">
         <v>281</v>
       </c>
-      <c r="E53" t="s">
-        <v>282</v>
-      </c>
-      <c r="F53" t="s">
+      <c r="F55" t="s">
         <v>66</v>
       </c>
-      <c r="H53" s="4"/>
-    </row>
-    <row r="54" spans="1:8" ht="63">
-      <c r="A54" t="s">
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" spans="1:8" ht="63">
+      <c r="A56" t="s">
+        <v>274</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
-      <c r="C54" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="E56" t="s">
         <v>277</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F56" t="s">
         <v>278</v>
       </c>
-      <c r="F54" t="s">
-        <v>279</v>
-      </c>
-      <c r="H54" s="4"/>
-    </row>
-    <row r="55" spans="1:8" ht="21">
-      <c r="A55" t="s">
+      <c r="H56" s="4"/>
+    </row>
+    <row r="57" spans="1:8" ht="21">
+      <c r="A57" t="s">
+        <v>543</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>544</v>
-      </c>
-      <c r="B55">
-        <v>0</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E55" t="s">
-        <v>45</v>
-      </c>
-      <c r="F55" t="s">
-        <v>39</v>
-      </c>
-      <c r="H55" s="4"/>
-    </row>
-    <row r="56" spans="1:8" ht="84">
-      <c r="A56" t="s">
-        <v>468</v>
-      </c>
-      <c r="B56">
-        <v>0</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E56" t="s">
-        <v>45</v>
-      </c>
-      <c r="F56" t="s">
-        <v>39</v>
-      </c>
-      <c r="H56" s="4"/>
-    </row>
-    <row r="57" spans="1:8" ht="84">
-      <c r="A57" t="s">
-        <v>469</v>
-      </c>
-      <c r="B57">
-        <v>0</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>471</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>5</v>
@@ -10002,118 +10656,120 @@
       </c>
       <c r="H57" s="4"/>
     </row>
-    <row r="58" spans="1:8" ht="168">
+    <row r="58" spans="1:8" ht="84">
       <c r="A58" t="s">
-        <v>177</v>
+        <v>467</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>202</v>
+        <v>469</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E58" t="s">
-        <v>299</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="63">
+        <v>39</v>
+      </c>
+      <c r="H58" s="4"/>
+    </row>
+    <row r="59" spans="1:8" ht="84">
       <c r="A59" t="s">
-        <v>285</v>
+        <v>468</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>286</v>
+        <v>470</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>288</v>
+        <v>5</v>
       </c>
       <c r="E59" t="s">
-        <v>291</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>279</v>
-      </c>
-      <c r="G59" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="42">
+        <v>39</v>
+      </c>
+      <c r="H59" s="4"/>
+    </row>
+    <row r="60" spans="1:8" ht="63">
       <c r="A60" t="s">
-        <v>285</v>
+        <v>569</v>
       </c>
       <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="E60" t="s">
+        <v>45</v>
+      </c>
+      <c r="F60" t="s">
+        <v>572</v>
+      </c>
+      <c r="H60" s="4"/>
+    </row>
+    <row r="61" spans="1:8" ht="42">
+      <c r="A61" t="s">
+        <v>569</v>
+      </c>
+      <c r="B61">
         <v>1</v>
       </c>
-      <c r="C60" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="E60" t="s">
-        <v>291</v>
-      </c>
-      <c r="F60" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="84">
-      <c r="A61" t="s">
-        <v>446</v>
-      </c>
-      <c r="B61">
-        <v>0</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>447</v>
+      <c r="C61" s="1" t="s">
+        <v>573</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>5</v>
+        <v>441</v>
       </c>
       <c r="E61" t="s">
-        <v>307</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="21">
+        <v>572</v>
+      </c>
+      <c r="H61" s="4"/>
+    </row>
+    <row r="62" spans="1:8" ht="84">
       <c r="A62" t="s">
-        <v>537</v>
+        <v>569</v>
       </c>
       <c r="B62">
-        <v>0</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>538</v>
+        <v>2</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>574</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>5</v>
+        <v>575</v>
       </c>
       <c r="E62" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="F62" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="42">
+        <v>39</v>
+      </c>
+      <c r="H62" s="4"/>
+    </row>
+    <row r="63" spans="1:8" ht="84">
       <c r="A63" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
-      <c r="C63" s="7" t="s">
-        <v>540</v>
+      <c r="C63" s="1" t="s">
+        <v>577</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>5</v>
@@ -10122,1179 +10778,1157 @@
         <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="21">
+        <v>46</v>
+      </c>
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="1:8" ht="42">
       <c r="A64" t="s">
-        <v>539</v>
+        <v>579</v>
       </c>
       <c r="B64">
-        <v>1</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>542</v>
+        <v>0</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>578</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>5</v>
+        <v>394</v>
       </c>
       <c r="E64" t="s">
         <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="126">
+        <v>39</v>
+      </c>
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="1:8" ht="63">
       <c r="A65" t="s">
-        <v>539</v>
+        <v>579</v>
       </c>
       <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="E65" t="s">
+        <v>198</v>
+      </c>
+      <c r="F65" t="s">
+        <v>362</v>
+      </c>
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="1:8" ht="42">
+      <c r="A66" t="s">
+        <v>579</v>
+      </c>
+      <c r="B66">
         <v>2</v>
       </c>
-      <c r="C65" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="D65" s="1" t="s">
+      <c r="C66" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" t="s">
+        <v>45</v>
+      </c>
+      <c r="F66" t="s">
+        <v>583</v>
+      </c>
+      <c r="H66" s="4"/>
+    </row>
+    <row r="67" spans="1:8" ht="168">
+      <c r="A67" t="s">
+        <v>176</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E65" t="s">
-        <v>45</v>
-      </c>
-      <c r="F65" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="63">
-      <c r="A66" t="s">
-        <v>178</v>
-      </c>
-      <c r="B66">
-        <v>0</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E66" t="s">
-        <v>300</v>
-      </c>
-      <c r="F66" t="s">
-        <v>207</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="105">
-      <c r="A67" t="s">
-        <v>479</v>
-      </c>
-      <c r="B67">
-        <v>0</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>481</v>
+      <c r="E67" t="s">
+        <v>298</v>
       </c>
       <c r="F67" t="s">
-        <v>39</v>
-      </c>
-      <c r="H67" s="4"/>
-    </row>
-    <row r="68" spans="1:8" ht="42">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="63">
       <c r="A68" t="s">
-        <v>179</v>
+        <v>284</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>209</v>
+        <v>285</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>210</v>
+        <v>287</v>
       </c>
       <c r="E68" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="F68" t="s">
-        <v>49</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>160</v>
+        <v>278</v>
+      </c>
+      <c r="G68" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="42">
       <c r="A69" t="s">
-        <v>179</v>
+        <v>284</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>212</v>
+        <v>286</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>213</v>
+        <v>288</v>
       </c>
       <c r="E69" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="F69" t="s">
-        <v>49</v>
-      </c>
-      <c r="H69" s="4"/>
-    </row>
-    <row r="70" spans="1:8" ht="42">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="84">
       <c r="A70" t="s">
-        <v>179</v>
+        <v>445</v>
       </c>
       <c r="B70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>214</v>
+        <v>446</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>215</v>
+        <v>5</v>
       </c>
       <c r="E70" t="s">
-        <v>45</v>
+        <v>306</v>
       </c>
       <c r="F70" t="s">
-        <v>49</v>
-      </c>
-      <c r="H70" s="4"/>
-    </row>
-    <row r="71" spans="1:8" ht="42">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="21">
       <c r="A71" t="s">
-        <v>180</v>
+        <v>536</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>216</v>
+      <c r="C71" s="7" t="s">
+        <v>537</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E71" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>232</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="105">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="42">
       <c r="A72" t="s">
-        <v>484</v>
+        <v>538</v>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>486</v>
+      <c r="C72" s="7" t="s">
+        <v>539</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E72" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>295</v>
-      </c>
-      <c r="H72" s="4"/>
-    </row>
-    <row r="73" spans="1:8" ht="252">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="21">
       <c r="A73" t="s">
-        <v>484</v>
+        <v>538</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>487</v>
+      <c r="C73" s="7" t="s">
+        <v>541</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E73" t="s">
-        <v>488</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>295</v>
-      </c>
-      <c r="H73" s="4"/>
-    </row>
-    <row r="74" spans="1:8" ht="42">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="126">
       <c r="A74" t="s">
-        <v>484</v>
+        <v>538</v>
       </c>
       <c r="B74">
         <v>2</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>489</v>
+      <c r="C74" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>490</v>
+        <v>5</v>
       </c>
       <c r="E74" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>295</v>
-      </c>
-      <c r="H74" s="4"/>
-    </row>
-    <row r="75" spans="1:8" ht="126">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="63">
       <c r="A75" t="s">
-        <v>485</v>
+        <v>177</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>491</v>
+        <v>204</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>492</v>
+        <v>5</v>
       </c>
       <c r="E75" t="s">
-        <v>199</v>
+        <v>299</v>
       </c>
       <c r="F75" t="s">
-        <v>402</v>
+        <v>206</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="84">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="105">
       <c r="A76" t="s">
-        <v>180</v>
+        <v>478</v>
       </c>
       <c r="B76">
-        <v>1</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>217</v>
+        <v>0</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>479</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E76" t="s">
-        <v>302</v>
+        <v>480</v>
       </c>
       <c r="F76" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="84">
+        <v>39</v>
+      </c>
+      <c r="H76" s="4"/>
+    </row>
+    <row r="77" spans="1:8" ht="42">
       <c r="A77" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="E77" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="F77" t="s">
         <v>49</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="105">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="42">
       <c r="A78" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B78">
-        <v>0</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>221</v>
+        <v>1</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>442</v>
+        <v>212</v>
       </c>
       <c r="E78" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F78" t="s">
-        <v>39</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="82">
+        <v>49</v>
+      </c>
+      <c r="H78" s="4"/>
+    </row>
+    <row r="79" spans="1:8" ht="42">
       <c r="A79" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B79">
-        <v>0</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>225</v>
+        <v>2</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>213</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>5</v>
+        <v>214</v>
       </c>
       <c r="E79" t="s">
-        <v>307</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
         <v>49</v>
       </c>
-      <c r="H79" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="105">
+      <c r="H79" s="4"/>
+    </row>
+    <row r="80" spans="1:8" ht="42">
       <c r="A80" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E80" t="s">
-        <v>290</v>
+        <v>70</v>
       </c>
       <c r="F80" t="s">
-        <v>39</v>
+        <v>231</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="42">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="105">
       <c r="A81" t="s">
-        <v>184</v>
+        <v>483</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>227</v>
+        <v>485</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E81" t="s">
-        <v>313</v>
+        <v>70</v>
       </c>
       <c r="F81" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="21">
+        <v>294</v>
+      </c>
+      <c r="H81" s="4"/>
+    </row>
+    <row r="82" spans="1:8" ht="252">
       <c r="A82" t="s">
-        <v>185</v>
+        <v>483</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>228</v>
+        <v>486</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>229</v>
+        <v>5</v>
       </c>
       <c r="E82" t="s">
-        <v>230</v>
+        <v>487</v>
       </c>
       <c r="F82" t="s">
-        <v>231</v>
-      </c>
-      <c r="H82" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="147">
+        <v>294</v>
+      </c>
+      <c r="H82" s="4"/>
+    </row>
+    <row r="83" spans="1:8" ht="42">
       <c r="A83" t="s">
-        <v>186</v>
+        <v>483</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>233</v>
+        <v>488</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>234</v>
+        <v>489</v>
       </c>
       <c r="E83" t="s">
-        <v>304</v>
+        <v>70</v>
       </c>
       <c r="F83" t="s">
-        <v>39</v>
-      </c>
-      <c r="H83" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="124">
+        <v>294</v>
+      </c>
+      <c r="H83" s="4"/>
+    </row>
+    <row r="84" spans="1:8" ht="126">
       <c r="A84" t="s">
-        <v>187</v>
+        <v>484</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
-      <c r="C84" s="8" t="s">
-        <v>235</v>
+      <c r="C84" s="1" t="s">
+        <v>490</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>238</v>
+        <v>491</v>
       </c>
       <c r="E84" t="s">
-        <v>237</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>236</v>
+        <v>198</v>
+      </c>
+      <c r="F84" t="s">
+        <v>401</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="84">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="63">
       <c r="A85" t="s">
-        <v>188</v>
+        <v>584</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>239</v>
+        <v>586</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>240</v>
+        <v>386</v>
       </c>
       <c r="E85" t="s">
-        <v>305</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>40</v>
-      </c>
-      <c r="H85" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="84">
+        <v>46</v>
+      </c>
+      <c r="H85" s="4"/>
+    </row>
+    <row r="86" spans="1:8" ht="147">
       <c r="A86" t="s">
-        <v>188</v>
+        <v>585</v>
       </c>
       <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E86" t="s">
+        <v>45</v>
+      </c>
+      <c r="F86" t="s">
+        <v>294</v>
+      </c>
+      <c r="G86" t="s">
+        <v>588</v>
+      </c>
+      <c r="H86" s="4"/>
+    </row>
+    <row r="87" spans="1:8" ht="42">
+      <c r="A87" t="s">
+        <v>585</v>
+      </c>
+      <c r="B87">
         <v>1</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E86" t="s">
-        <v>305</v>
-      </c>
-      <c r="F86" t="s">
-        <v>40</v>
-      </c>
-      <c r="H86" s="4"/>
-    </row>
-    <row r="87" spans="1:8" ht="84">
-      <c r="A87" t="s">
-        <v>188</v>
-      </c>
-      <c r="B87">
-        <v>2</v>
-      </c>
       <c r="C87" s="1" t="s">
-        <v>243</v>
+        <v>589</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>244</v>
+        <v>590</v>
       </c>
       <c r="E87" t="s">
-        <v>305</v>
+        <v>70</v>
       </c>
       <c r="F87" t="s">
-        <v>40</v>
+        <v>294</v>
       </c>
       <c r="H87" s="4"/>
     </row>
     <row r="88" spans="1:8" ht="84">
       <c r="A88" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B88">
-        <v>3</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>245</v>
+        <v>1</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>216</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="E88" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F88" t="s">
-        <v>40</v>
-      </c>
-      <c r="H88" s="4"/>
-    </row>
-    <row r="89" spans="1:8" ht="63">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="84">
       <c r="A89" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B89">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="E89" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F89" t="s">
-        <v>40</v>
-      </c>
-      <c r="H89" s="4"/>
-    </row>
-    <row r="90" spans="1:8" ht="84">
+        <v>49</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="105">
       <c r="A90" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B90">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>250</v>
+        <v>441</v>
       </c>
       <c r="E90" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F90" t="s">
-        <v>40</v>
-      </c>
-      <c r="H90" s="4"/>
-    </row>
-    <row r="91" spans="1:8" ht="21">
+        <v>39</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="82">
       <c r="A91" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B91">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E91" t="s">
-        <v>45</v>
+        <v>306</v>
       </c>
       <c r="F91" t="s">
-        <v>40</v>
-      </c>
-      <c r="H91" s="4"/>
-    </row>
-    <row r="92" spans="1:8" ht="84">
+        <v>49</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="105">
       <c r="A92" t="s">
-        <v>493</v>
+        <v>183</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>494</v>
+        <v>225</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>495</v>
+        <v>5</v>
       </c>
       <c r="E92" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="F92" t="s">
-        <v>49</v>
-      </c>
-      <c r="G92" t="s">
-        <v>496</v>
-      </c>
-      <c r="H92" s="4"/>
-    </row>
-    <row r="93" spans="1:8" ht="63">
-      <c r="A93" s="2" t="s">
-        <v>497</v>
+        <v>39</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="42">
+      <c r="A93" t="s">
+        <v>183</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>498</v>
+        <v>226</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E93" t="s">
-        <v>45</v>
+        <v>312</v>
       </c>
       <c r="F93" t="s">
         <v>39</v>
       </c>
-      <c r="H93" s="4"/>
-    </row>
-    <row r="94" spans="1:8" ht="105">
+    </row>
+    <row r="94" spans="1:8" ht="21">
       <c r="A94" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B94">
         <v>0</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>273</v>
+        <v>227</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>5</v>
+        <v>228</v>
       </c>
       <c r="E94" t="s">
-        <v>45</v>
+        <v>229</v>
       </c>
       <c r="F94" t="s">
-        <v>49</v>
+        <v>230</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="21">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="147">
       <c r="A95" t="s">
-        <v>270</v>
+        <v>185</v>
       </c>
       <c r="B95">
         <v>0</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E95" t="s">
-        <v>45</v>
+        <v>303</v>
       </c>
       <c r="F95" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="82">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="124">
       <c r="A96" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-      <c r="C96" s="3" t="s">
-        <v>252</v>
+      <c r="C96" s="8" t="s">
+        <v>234</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="E96" t="s">
-        <v>309</v>
-      </c>
-      <c r="F96" t="s">
-        <v>297</v>
+        <v>236</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="42">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="84">
       <c r="A97" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>5</v>
+        <v>239</v>
       </c>
       <c r="E97" t="s">
-        <v>45</v>
+        <v>304</v>
       </c>
       <c r="F97" t="s">
-        <v>39</v>
-      </c>
-      <c r="G97" t="s">
-        <v>267</v>
+        <v>40</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>268</v>
+        <v>159</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="84">
       <c r="A98" t="s">
-        <v>499</v>
+        <v>187</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>5</v>
+        <v>241</v>
       </c>
       <c r="E98" t="s">
-        <v>45</v>
+        <v>304</v>
       </c>
       <c r="F98" t="s">
         <v>40</v>
       </c>
       <c r="H98" s="4"/>
     </row>
-    <row r="99" spans="1:8" ht="126">
+    <row r="99" spans="1:8" ht="84">
       <c r="A99" t="s">
-        <v>499</v>
+        <v>187</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>501</v>
+        <v>242</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>5</v>
+        <v>243</v>
       </c>
       <c r="E99" t="s">
-        <v>45</v>
+        <v>304</v>
       </c>
       <c r="F99" t="s">
         <v>40</v>
       </c>
       <c r="H99" s="4"/>
     </row>
-    <row r="100" spans="1:8" ht="105">
+    <row r="100" spans="1:8" ht="84">
       <c r="A100" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="E100" t="s">
-        <v>45</v>
+        <v>304</v>
       </c>
       <c r="F100" t="s">
-        <v>298</v>
-      </c>
-      <c r="H100" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="42">
+        <v>40</v>
+      </c>
+      <c r="H100" s="4"/>
+    </row>
+    <row r="101" spans="1:8" ht="63">
       <c r="A101" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>5</v>
+        <v>248</v>
       </c>
       <c r="E101" t="s">
-        <v>45</v>
+        <v>305</v>
       </c>
       <c r="F101" t="s">
         <v>40</v>
       </c>
-      <c r="H101" s="4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="42">
+      <c r="H101" s="4"/>
+    </row>
+    <row r="102" spans="1:8" ht="84">
       <c r="A102" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="D102" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E102" t="s">
+        <v>304</v>
+      </c>
+      <c r="F102" t="s">
+        <v>40</v>
+      </c>
+      <c r="H102" s="4"/>
+    </row>
+    <row r="103" spans="1:8" ht="21">
+      <c r="A103" t="s">
+        <v>187</v>
+      </c>
+      <c r="B103">
+        <v>6</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D103" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E102" t="s">
-        <v>45</v>
-      </c>
-      <c r="F102" t="s">
-        <v>49</v>
-      </c>
-      <c r="H102" s="4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="42">
-      <c r="A103" t="s">
-        <v>195</v>
-      </c>
-      <c r="B103">
-        <v>0</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="E103" t="s">
         <v>45</v>
       </c>
       <c r="F103" t="s">
+        <v>40</v>
+      </c>
+      <c r="H103" s="4"/>
+    </row>
+    <row r="104" spans="1:8" ht="84">
+      <c r="A104" t="s">
+        <v>492</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E104" t="s">
+        <v>306</v>
+      </c>
+      <c r="F104" t="s">
         <v>49</v>
       </c>
-      <c r="H103" s="4" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="63">
-      <c r="A104" t="s">
-        <v>458</v>
-      </c>
-      <c r="B104">
-        <v>0</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E104" t="s">
-        <v>70</v>
-      </c>
-      <c r="F104" t="s">
-        <v>460</v>
+      <c r="G104" t="s">
+        <v>495</v>
       </c>
       <c r="H104" s="4"/>
     </row>
     <row r="105" spans="1:8" ht="63">
-      <c r="A105" t="s">
-        <v>196</v>
+      <c r="A105" s="2" t="s">
+        <v>496</v>
       </c>
       <c r="B105">
         <v>0</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>254</v>
+        <v>497</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E105" t="s">
-        <v>312</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>255</v>
-      </c>
-      <c r="H105" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="63">
-      <c r="A106" t="s">
-        <v>502</v>
+        <v>39</v>
+      </c>
+      <c r="H105" s="4"/>
+    </row>
+    <row r="106" spans="1:8" ht="126">
+      <c r="A106" s="2" t="s">
+        <v>597</v>
       </c>
       <c r="B106">
         <v>0</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>503</v>
+        <v>598</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>504</v>
+        <v>5</v>
       </c>
       <c r="E106" t="s">
         <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>101</v>
+        <v>230</v>
+      </c>
+      <c r="G106" t="s">
+        <v>495</v>
       </c>
       <c r="H106" s="4"/>
     </row>
-    <row r="107" spans="1:8" ht="63">
-      <c r="A107" t="s">
-        <v>507</v>
+    <row r="107" spans="1:8" ht="231">
+      <c r="A107" s="2" t="s">
+        <v>591</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>505</v>
+        <v>599</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>506</v>
+        <v>5</v>
       </c>
       <c r="E107" t="s">
         <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>511</v>
+        <v>39</v>
       </c>
       <c r="H107" s="4"/>
     </row>
-    <row r="108" spans="1:8" ht="63">
-      <c r="A108" t="s">
-        <v>508</v>
+    <row r="108" spans="1:8" ht="210">
+      <c r="A108" s="2" t="s">
+        <v>591</v>
       </c>
       <c r="B108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>509</v>
+        <v>600</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>510</v>
+        <v>5</v>
       </c>
       <c r="E108" t="s">
         <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>512</v>
-      </c>
-      <c r="G108" t="s">
-        <v>513</v>
+        <v>401</v>
       </c>
       <c r="H108" s="4"/>
     </row>
     <row r="109" spans="1:8" ht="42">
-      <c r="A109" t="s">
-        <v>532</v>
+      <c r="A109" s="2" t="s">
+        <v>592</v>
       </c>
       <c r="B109">
         <v>0</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>534</v>
+        <v>601</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>492</v>
+        <v>602</v>
       </c>
       <c r="E109" t="s">
         <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>46</v>
+        <v>603</v>
       </c>
       <c r="H109" s="4"/>
     </row>
-    <row r="110" spans="1:8" ht="42">
-      <c r="A110" t="s">
-        <v>533</v>
+    <row r="110" spans="1:8" ht="21">
+      <c r="A110" s="2" t="s">
+        <v>592</v>
       </c>
       <c r="B110">
         <v>1</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>535</v>
+        <v>389</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>536</v>
+        <v>5</v>
       </c>
       <c r="E110" t="s">
-        <v>45</v>
+        <v>389</v>
       </c>
       <c r="F110" t="s">
-        <v>39</v>
-      </c>
-      <c r="H110" s="4" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="63">
-      <c r="A111" t="s">
-        <v>197</v>
+        <v>606</v>
+      </c>
+      <c r="H110" s="4"/>
+    </row>
+    <row r="111" spans="1:8" ht="21">
+      <c r="A111" s="2" t="s">
+        <v>593</v>
       </c>
       <c r="B111">
         <v>0</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>198</v>
+        <v>604</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E111" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>49</v>
-      </c>
-      <c r="H111" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="84">
-      <c r="A112" t="s">
-        <v>514</v>
+        <v>605</v>
+      </c>
+      <c r="H111" s="4"/>
+    </row>
+    <row r="112" spans="1:8" ht="21">
+      <c r="A112" s="2" t="s">
+        <v>593</v>
       </c>
       <c r="B112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>519</v>
+        <v>389</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E112" t="s">
-        <v>45</v>
+        <v>389</v>
       </c>
       <c r="F112" t="s">
-        <v>39</v>
+        <v>606</v>
       </c>
       <c r="H112" s="4"/>
     </row>
-    <row r="113" spans="1:8" ht="63">
-      <c r="A113" t="s">
-        <v>515</v>
+    <row r="113" spans="1:8" ht="21">
+      <c r="A113" s="2" t="s">
+        <v>594</v>
       </c>
       <c r="B113">
         <v>0</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>520</v>
+        <v>389</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>521</v>
+        <v>5</v>
       </c>
       <c r="E113" t="s">
-        <v>45</v>
+        <v>389</v>
       </c>
       <c r="F113" t="s">
-        <v>522</v>
+        <v>606</v>
       </c>
       <c r="H113" s="4"/>
     </row>
-    <row r="114" spans="1:8" ht="42">
-      <c r="A114" t="s">
-        <v>516</v>
+    <row r="114" spans="1:8" ht="21">
+      <c r="A114" s="2" t="s">
+        <v>595</v>
       </c>
       <c r="B114">
         <v>0</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>523</v>
+        <v>389</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E114" t="s">
-        <v>45</v>
+        <v>389</v>
       </c>
       <c r="F114" t="s">
-        <v>40</v>
+        <v>606</v>
       </c>
       <c r="H114" s="4"/>
     </row>
-    <row r="115" spans="1:8" ht="63">
-      <c r="A115" t="s">
-        <v>516</v>
+    <row r="115" spans="1:8" ht="21">
+      <c r="A115" s="2" t="s">
+        <v>596</v>
       </c>
       <c r="B115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>524</v>
+        <v>607</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>387</v>
+        <v>5</v>
       </c>
       <c r="E115" t="s">
         <v>45</v>
       </c>
       <c r="F115" t="s">
-        <v>40</v>
+        <v>608</v>
       </c>
       <c r="H115" s="4"/>
     </row>
-    <row r="116" spans="1:8" ht="84">
+    <row r="116" spans="1:8" ht="105">
       <c r="A116" t="s">
-        <v>530</v>
+        <v>188</v>
       </c>
       <c r="B116">
         <v>0</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>531</v>
+        <v>272</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E116" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="F116" t="s">
-        <v>40</v>
-      </c>
-      <c r="H116" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="117" spans="1:8" ht="21">
       <c r="A117" t="s">
-        <v>517</v>
+        <v>269</v>
       </c>
       <c r="B117">
         <v>0</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>525</v>
+        <v>270</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>5</v>
@@ -11303,40 +11937,44 @@
         <v>45</v>
       </c>
       <c r="F117" t="s">
-        <v>526</v>
-      </c>
-      <c r="H117" s="4"/>
-    </row>
-    <row r="118" spans="1:8" ht="42">
+        <v>36</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="82">
       <c r="A118" t="s">
-        <v>528</v>
+        <v>189</v>
       </c>
       <c r="B118">
         <v>0</v>
       </c>
-      <c r="C118" s="1" t="s">
-        <v>527</v>
+      <c r="C118" s="3" t="s">
+        <v>251</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>5</v>
+        <v>252</v>
       </c>
       <c r="E118" t="s">
-        <v>45</v>
+        <v>308</v>
       </c>
       <c r="F118" t="s">
-        <v>36</v>
-      </c>
-      <c r="H118" s="4"/>
-    </row>
-    <row r="119" spans="1:8" ht="21">
+        <v>296</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="42">
       <c r="A119" t="s">
-        <v>518</v>
+        <v>190</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>529</v>
+        <v>265</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>5</v>
@@ -11345,19 +11983,24 @@
         <v>45</v>
       </c>
       <c r="F119" t="s">
-        <v>36</v>
-      </c>
-      <c r="H119" s="4"/>
-    </row>
-    <row r="120" spans="1:8" ht="42">
+        <v>39</v>
+      </c>
+      <c r="G119" t="s">
+        <v>266</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="84">
       <c r="A120" t="s">
-        <v>119</v>
+        <v>498</v>
       </c>
       <c r="B120">
         <v>0</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>128</v>
+        <v>499</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>5</v>
@@ -11366,18 +12009,19 @@
         <v>45</v>
       </c>
       <c r="F120" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="84">
+        <v>40</v>
+      </c>
+      <c r="H120" s="4"/>
+    </row>
+    <row r="121" spans="1:8" ht="126">
       <c r="A121" t="s">
-        <v>120</v>
+        <v>498</v>
       </c>
       <c r="B121">
         <v>0</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>129</v>
+        <v>500</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>5</v>
@@ -11386,38 +12030,42 @@
         <v>45</v>
       </c>
       <c r="F121" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="168">
+        <v>40</v>
+      </c>
+      <c r="H121" s="4"/>
+    </row>
+    <row r="122" spans="1:8" ht="105">
       <c r="A122" t="s">
-        <v>121</v>
+        <v>191</v>
       </c>
       <c r="B122">
         <v>0</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>133</v>
+        <v>261</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>5</v>
+        <v>260</v>
       </c>
       <c r="E122" t="s">
         <v>45</v>
       </c>
       <c r="F122" t="s">
-        <v>39</v>
+        <v>297</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="42">
       <c r="A123" t="s">
-        <v>121</v>
+        <v>192</v>
       </c>
       <c r="B123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>134</v>
+        <v>259</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>5</v>
@@ -11426,18 +12074,21 @@
         <v>45</v>
       </c>
       <c r="F123" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="63">
+        <v>40</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="42">
       <c r="A124" t="s">
-        <v>121</v>
+        <v>193</v>
       </c>
       <c r="B124">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>135</v>
+        <v>257</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>5</v>
@@ -11446,81 +12097,86 @@
         <v>45</v>
       </c>
       <c r="F124" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="84">
+        <v>49</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="42">
       <c r="A125" t="s">
-        <v>121</v>
+        <v>194</v>
       </c>
       <c r="B125">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>131</v>
+        <v>262</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>132</v>
+        <v>263</v>
       </c>
       <c r="E125" t="s">
         <v>45</v>
       </c>
       <c r="F125" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="84">
+        <v>49</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="63">
       <c r="A126" t="s">
-        <v>122</v>
+        <v>457</v>
       </c>
       <c r="B126">
         <v>0</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>137</v>
+        <v>458</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>139</v>
+        <v>5</v>
       </c>
       <c r="E126" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="F126" t="s">
-        <v>40</v>
-      </c>
-      <c r="H126" s="4" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="42">
+        <v>459</v>
+      </c>
+      <c r="H126" s="4"/>
+    </row>
+    <row r="127" spans="1:8" ht="105">
       <c r="A127" t="s">
-        <v>122</v>
+        <v>559</v>
       </c>
       <c r="B127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>136</v>
+        <v>560</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>140</v>
+        <v>5</v>
       </c>
       <c r="E127" t="s">
         <v>45</v>
       </c>
       <c r="F127" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="84">
+        <v>49</v>
+      </c>
+      <c r="H127" s="4"/>
+    </row>
+    <row r="128" spans="1:8" ht="126">
       <c r="A128" t="s">
-        <v>123</v>
+        <v>559</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>141</v>
+        <v>561</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>5</v>
@@ -11531,56 +12187,61 @@
       <c r="F128" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" ht="168">
+      <c r="H128" s="4"/>
+    </row>
+    <row r="129" spans="1:8" ht="210">
       <c r="A129" t="s">
-        <v>124</v>
+        <v>559</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>142</v>
+        <v>562</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>143</v>
+        <v>5</v>
       </c>
       <c r="E129" t="s">
         <v>45</v>
       </c>
       <c r="F129" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" ht="42">
+        <v>40</v>
+      </c>
+      <c r="H129" s="4"/>
+    </row>
+    <row r="130" spans="1:8" ht="63">
       <c r="A130" t="s">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="B130">
         <v>0</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>147</v>
+        <v>253</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E130" t="s">
-        <v>45</v>
+        <v>311</v>
       </c>
       <c r="F130" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" ht="105">
+        <v>254</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="105">
       <c r="A131" t="s">
-        <v>126</v>
+        <v>557</v>
       </c>
       <c r="B131">
         <v>0</v>
       </c>
-      <c r="C131" s="3" t="s">
-        <v>148</v>
+      <c r="C131" s="1" t="s">
+        <v>558</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>5</v>
@@ -11589,18 +12250,19 @@
         <v>45</v>
       </c>
       <c r="F131" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" ht="42">
+        <v>401</v>
+      </c>
+      <c r="H131" s="4"/>
+    </row>
+    <row r="132" spans="1:8" ht="84">
       <c r="A132" t="s">
-        <v>126</v>
+        <v>553</v>
       </c>
       <c r="B132">
-        <v>1</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>149</v>
+        <v>0</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>554</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>5</v>
@@ -11609,18 +12271,19 @@
         <v>45</v>
       </c>
       <c r="F132" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" ht="63">
+        <v>46</v>
+      </c>
+      <c r="H132" s="4"/>
+    </row>
+    <row r="133" spans="1:8" ht="84">
       <c r="A133" t="s">
-        <v>127</v>
+        <v>553</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>150</v>
+        <v>555</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>5</v>
@@ -11629,18 +12292,19 @@
         <v>45</v>
       </c>
       <c r="F133" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" ht="21">
+        <v>556</v>
+      </c>
+      <c r="H133" s="4"/>
+    </row>
+    <row r="134" spans="1:8" ht="84">
       <c r="A134" t="s">
-        <v>78</v>
+        <v>553</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>79</v>
+        <v>555</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>5</v>
@@ -11649,221 +12313,236 @@
         <v>45</v>
       </c>
       <c r="F134" t="s">
-        <v>36</v>
-      </c>
-      <c r="G134" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" ht="84">
+        <v>556</v>
+      </c>
+      <c r="H134" s="4"/>
+    </row>
+    <row r="135" spans="1:8" ht="63">
       <c r="A135" t="s">
-        <v>78</v>
+        <v>501</v>
       </c>
       <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="E135" t="s">
+        <v>45</v>
+      </c>
+      <c r="F135" t="s">
+        <v>101</v>
+      </c>
+      <c r="H135" s="4"/>
+    </row>
+    <row r="136" spans="1:8" ht="63">
+      <c r="A136" t="s">
+        <v>506</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E136" t="s">
+        <v>45</v>
+      </c>
+      <c r="F136" t="s">
+        <v>510</v>
+      </c>
+      <c r="H136" s="4"/>
+    </row>
+    <row r="137" spans="1:8" ht="63">
+      <c r="A137" t="s">
+        <v>507</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="E137" t="s">
+        <v>45</v>
+      </c>
+      <c r="F137" t="s">
+        <v>511</v>
+      </c>
+      <c r="G137" t="s">
+        <v>512</v>
+      </c>
+      <c r="H137" s="4"/>
+    </row>
+    <row r="138" spans="1:8" ht="42">
+      <c r="A138" t="s">
+        <v>531</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="E138" t="s">
+        <v>45</v>
+      </c>
+      <c r="F138" t="s">
+        <v>46</v>
+      </c>
+      <c r="H138" s="4"/>
+    </row>
+    <row r="139" spans="1:8" ht="42">
+      <c r="A139" t="s">
+        <v>532</v>
+      </c>
+      <c r="B139">
         <v>1</v>
       </c>
-      <c r="C135" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E135" t="s">
-        <v>70</v>
-      </c>
-      <c r="F135" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" ht="21">
-      <c r="A136" t="s">
-        <v>78</v>
-      </c>
-      <c r="B136">
-        <v>2</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D136" s="1" t="s">
+      <c r="C139" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="E139" t="s">
+        <v>45</v>
+      </c>
+      <c r="F139" t="s">
+        <v>39</v>
+      </c>
+      <c r="H139" s="4" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="63">
+      <c r="A140" t="s">
+        <v>196</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D140" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E136" t="s">
-        <v>70</v>
-      </c>
-      <c r="F136" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" ht="42">
-      <c r="A137" t="s">
-        <v>78</v>
-      </c>
-      <c r="B137">
-        <v>3</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="E137" t="s">
-        <v>70</v>
-      </c>
-      <c r="F137" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" ht="42">
-      <c r="A138" t="s">
-        <v>78</v>
-      </c>
-      <c r="B138">
-        <v>4</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E138" t="s">
-        <v>70</v>
-      </c>
-      <c r="F138" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" ht="42">
-      <c r="A139" t="s">
-        <v>78</v>
-      </c>
-      <c r="B139">
-        <v>5</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E139" t="s">
-        <v>70</v>
-      </c>
-      <c r="F139" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" ht="42">
-      <c r="A140" t="s">
-        <v>78</v>
-      </c>
-      <c r="B140">
-        <v>6</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E140" t="s">
         <v>70</v>
       </c>
       <c r="F140" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" ht="42">
+        <v>49</v>
+      </c>
+      <c r="H140" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="84">
       <c r="A141" t="s">
-        <v>78</v>
+        <v>513</v>
       </c>
       <c r="B141">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>87</v>
+        <v>518</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="E141" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="F141" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" ht="42">
+        <v>39</v>
+      </c>
+      <c r="H141" s="4"/>
+    </row>
+    <row r="142" spans="1:8" ht="63">
       <c r="A142" t="s">
-        <v>78</v>
+        <v>514</v>
       </c>
       <c r="B142">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>88</v>
+        <v>519</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>95</v>
+        <v>520</v>
       </c>
       <c r="E142" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="F142" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" ht="42">
+        <v>521</v>
+      </c>
+      <c r="H142" s="4"/>
+    </row>
+    <row r="143" spans="1:8" ht="42">
       <c r="A143" t="s">
-        <v>78</v>
+        <v>515</v>
       </c>
       <c r="B143">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>89</v>
+        <v>522</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>96</v>
+        <v>5</v>
       </c>
       <c r="E143" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="F143" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" ht="168">
+        <v>40</v>
+      </c>
+      <c r="H143" s="4"/>
+    </row>
+    <row r="144" spans="1:8" ht="63">
       <c r="A144" t="s">
-        <v>78</v>
+        <v>515</v>
       </c>
       <c r="B144">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>90</v>
+        <v>523</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>5</v>
+        <v>386</v>
       </c>
       <c r="E144" t="s">
         <v>45</v>
       </c>
       <c r="F144" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" ht="42">
+        <v>40</v>
+      </c>
+      <c r="H144" s="4"/>
+    </row>
+    <row r="145" spans="1:8" ht="84">
       <c r="A145" t="s">
-        <v>78</v>
+        <v>529</v>
       </c>
       <c r="B145">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>91</v>
+        <v>530</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>5</v>
@@ -11872,38 +12551,40 @@
         <v>70</v>
       </c>
       <c r="F145" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" ht="42">
+        <v>40</v>
+      </c>
+      <c r="H145" s="4"/>
+    </row>
+    <row r="146" spans="1:8" ht="21">
       <c r="A146" t="s">
-        <v>98</v>
+        <v>516</v>
       </c>
       <c r="B146">
         <v>0</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>97</v>
+        <v>524</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="E146" t="s">
         <v>45</v>
       </c>
       <c r="F146" t="s">
-        <v>39</v>
-      </c>
+        <v>525</v>
+      </c>
+      <c r="H146" s="4"/>
     </row>
     <row r="147" spans="1:8" ht="42">
       <c r="A147" t="s">
-        <v>99</v>
+        <v>527</v>
       </c>
       <c r="B147">
         <v>0</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>100</v>
+        <v>526</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>5</v>
@@ -11912,38 +12593,40 @@
         <v>45</v>
       </c>
       <c r="F147" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" ht="84">
+        <v>36</v>
+      </c>
+      <c r="H147" s="4"/>
+    </row>
+    <row r="148" spans="1:8" ht="21">
       <c r="A148" t="s">
-        <v>102</v>
+        <v>517</v>
       </c>
       <c r="B148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>366</v>
+        <v>528</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>104</v>
+        <v>5</v>
       </c>
       <c r="E148" t="s">
-        <v>307</v>
+        <v>45</v>
       </c>
       <c r="F148" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" ht="63">
+        <v>36</v>
+      </c>
+      <c r="H148" s="4"/>
+    </row>
+    <row r="149" spans="1:8" ht="42">
       <c r="A149" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="B149">
         <v>0</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>5</v>
@@ -11952,38 +12635,38 @@
         <v>45</v>
       </c>
       <c r="F149" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" ht="126">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="84">
       <c r="A150" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="B150">
         <v>0</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>109</v>
+        <v>5</v>
       </c>
       <c r="E150" t="s">
         <v>45</v>
       </c>
       <c r="F150" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" ht="42">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="168">
       <c r="A151" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>5</v>
@@ -11992,38 +12675,38 @@
         <v>45</v>
       </c>
       <c r="F151" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" ht="147">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="42">
       <c r="A152" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>113</v>
+        <v>5</v>
       </c>
       <c r="E152" t="s">
         <v>45</v>
       </c>
       <c r="F152" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" ht="105">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="63">
       <c r="A153" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B153">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>5</v>
@@ -12035,158 +12718,158 @@
         <v>39</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="42">
+    <row r="154" spans="1:8" ht="84">
       <c r="A154" t="s">
-        <v>483</v>
+        <v>121</v>
       </c>
       <c r="B154">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>293</v>
+        <v>131</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>5</v>
+        <v>132</v>
       </c>
       <c r="E154" t="s">
-        <v>294</v>
+        <v>45</v>
       </c>
       <c r="F154" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" ht="42">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="84">
       <c r="A155" t="s">
-        <v>314</v>
+        <v>122</v>
       </c>
       <c r="B155">
         <v>0</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>315</v>
+        <v>137</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>317</v>
+        <v>139</v>
       </c>
       <c r="E155" t="s">
-        <v>316</v>
+        <v>45</v>
       </c>
       <c r="F155" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" ht="21">
+        <v>40</v>
+      </c>
+      <c r="H155" s="4" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="42">
       <c r="A156" t="s">
-        <v>321</v>
+        <v>122</v>
       </c>
       <c r="B156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>319</v>
+        <v>136</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>322</v>
+        <v>140</v>
       </c>
       <c r="E156" t="s">
-        <v>316</v>
+        <v>45</v>
       </c>
       <c r="F156" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" ht="63">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="84">
+      <c r="A157" t="s">
+        <v>123</v>
+      </c>
       <c r="B157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>320</v>
+        <v>141</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E157" t="s">
-        <v>316</v>
+        <v>45</v>
       </c>
       <c r="F157" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" ht="63">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="168">
       <c r="A158" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B158">
         <v>0</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E158" t="s">
         <v>45</v>
       </c>
       <c r="F158" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" ht="105">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="42">
       <c r="A159" t="s">
-        <v>208</v>
+        <v>125</v>
       </c>
       <c r="B159">
         <v>0</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>203</v>
+        <v>147</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E159" t="s">
-        <v>308</v>
+        <v>45</v>
       </c>
       <c r="F159" t="s">
-        <v>204</v>
-      </c>
-      <c r="H159" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" ht="21">
-      <c r="A160" s="2" t="s">
-        <v>34</v>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="105">
+      <c r="A160" t="s">
+        <v>126</v>
       </c>
       <c r="B160">
         <v>0</v>
       </c>
-      <c r="C160" s="1" t="s">
-        <v>33</v>
+      <c r="C160" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E160" t="s">
         <v>45</v>
       </c>
       <c r="F160" t="s">
-        <v>37</v>
-      </c>
-      <c r="H160" s="4" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" ht="84">
-      <c r="A161" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="42">
+      <c r="A161" t="s">
+        <v>126</v>
       </c>
       <c r="B161">
-        <v>0</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>32</v>
+        <v>1</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>5</v>
@@ -12195,18 +12878,18 @@
         <v>45</v>
       </c>
       <c r="F161" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" ht="336">
-      <c r="A162" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="63">
+      <c r="A162" t="s">
+        <v>127</v>
       </c>
       <c r="B162">
         <v>0</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>28</v>
+        <v>552</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>5</v>
@@ -12215,18 +12898,18 @@
         <v>45</v>
       </c>
       <c r="F162" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" ht="63">
-      <c r="A163" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="21">
+      <c r="A163" t="s">
+        <v>78</v>
       </c>
       <c r="B163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>5</v>
@@ -12235,700 +12918,1286 @@
         <v>45</v>
       </c>
       <c r="F163" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" ht="63">
+        <v>36</v>
+      </c>
+      <c r="G163" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="84">
       <c r="A164" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="B164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="E164" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="F164" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" ht="63">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="21">
       <c r="A165" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="B165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E165" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="F165" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" ht="63">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="42">
       <c r="A166" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="B166">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="D166" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="E166" t="s">
+        <v>70</v>
+      </c>
+      <c r="F166" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="42">
+      <c r="A167" t="s">
+        <v>78</v>
+      </c>
+      <c r="B167">
+        <v>4</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E167" t="s">
+        <v>70</v>
+      </c>
+      <c r="F167" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="42">
+      <c r="A168" t="s">
+        <v>78</v>
+      </c>
+      <c r="B168">
         <v>5</v>
       </c>
-      <c r="E166" t="s">
-        <v>45</v>
-      </c>
-      <c r="F166" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" ht="84">
-      <c r="A167" t="s">
-        <v>174</v>
-      </c>
-      <c r="B167">
-        <v>0</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E167" t="s">
-        <v>176</v>
-      </c>
-      <c r="F167" t="s">
-        <v>46</v>
-      </c>
-      <c r="H167" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" ht="63">
-      <c r="A168" t="s">
+      <c r="C168" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E168" t="s">
+        <v>70</v>
+      </c>
+      <c r="F168" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="42">
+      <c r="A169" t="s">
+        <v>78</v>
+      </c>
+      <c r="B169">
+        <v>6</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E169" t="s">
+        <v>70</v>
+      </c>
+      <c r="F169" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="42">
+      <c r="A170" t="s">
+        <v>78</v>
+      </c>
+      <c r="B170">
         <v>7</v>
       </c>
-      <c r="B168">
-        <v>0</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E168" t="s">
-        <v>45</v>
-      </c>
-      <c r="F168" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" ht="105">
-      <c r="A169" t="s">
-        <v>6</v>
-      </c>
-      <c r="B169">
-        <v>0</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E169" t="s">
-        <v>45</v>
-      </c>
-      <c r="F169" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" ht="105">
-      <c r="A170" t="s">
-        <v>71</v>
-      </c>
-      <c r="B170">
-        <v>0</v>
-      </c>
       <c r="C170" s="1" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="E170" t="s">
         <v>70</v>
       </c>
       <c r="F170" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" ht="42">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="42">
       <c r="A171" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B171">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="E171" t="s">
         <v>70</v>
       </c>
       <c r="F171" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" ht="84">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="42">
       <c r="A172" t="s">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="B172">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D172" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E172" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="F172" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="H172" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" ht="42">
+        <v>89</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E172" t="s">
+        <v>70</v>
+      </c>
+      <c r="F172" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="168">
       <c r="A173" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="B173">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="E173" t="s">
         <v>45</v>
       </c>
       <c r="F173" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" ht="63">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="42">
       <c r="A174" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="B174">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="E174" t="s">
+        <v>70</v>
+      </c>
+      <c r="F174" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="42">
+      <c r="A175" t="s">
+        <v>98</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E175" t="s">
         <v>45</v>
       </c>
-      <c r="F174" t="s">
+      <c r="F175" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="84">
-      <c r="A175" t="s">
-        <v>448</v>
-      </c>
-      <c r="B175">
-        <v>0</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="E175" t="s">
-        <v>294</v>
-      </c>
-      <c r="F175" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" ht="105">
+    <row r="176" spans="1:7" ht="42">
       <c r="A176" t="s">
-        <v>449</v>
+        <v>99</v>
       </c>
       <c r="B176">
         <v>0</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>451</v>
+        <v>5</v>
       </c>
       <c r="E176" t="s">
-        <v>294</v>
+        <v>45</v>
       </c>
       <c r="F176" t="s">
-        <v>295</v>
-      </c>
-      <c r="G176" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" ht="42">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="84">
       <c r="A177" t="s">
-        <v>449</v>
+        <v>102</v>
       </c>
       <c r="B177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>452</v>
+        <v>365</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="E177" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="F177" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" ht="42">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="63">
       <c r="A178" t="s">
-        <v>449</v>
+        <v>105</v>
       </c>
       <c r="B178">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>453</v>
+        <v>106</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E178" t="s">
-        <v>294</v>
+        <v>45</v>
       </c>
       <c r="F178" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" ht="42">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="126">
       <c r="A179" t="s">
-        <v>449</v>
+        <v>107</v>
       </c>
       <c r="B179">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>454</v>
+        <v>108</v>
       </c>
       <c r="D179" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E179" t="s">
+        <v>45</v>
+      </c>
+      <c r="F179" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" ht="42">
+      <c r="A180" t="s">
+        <v>107</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D180" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E179" t="s">
-        <v>294</v>
-      </c>
-      <c r="F179" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" ht="126">
-      <c r="A180" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B180">
-        <v>0</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="E180" t="s">
-        <v>222</v>
+        <v>45</v>
       </c>
       <c r="F180" t="s">
         <v>46</v>
       </c>
-      <c r="G180" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" ht="21">
-      <c r="A181" s="2" t="s">
-        <v>168</v>
+    </row>
+    <row r="181" spans="1:8" ht="147">
+      <c r="A181" t="s">
+        <v>111</v>
       </c>
       <c r="B181">
         <v>0</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>169</v>
+        <v>112</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>5</v>
+        <v>113</v>
       </c>
       <c r="E181" t="s">
         <v>45</v>
       </c>
       <c r="F181" t="s">
-        <v>36</v>
-      </c>
-      <c r="H181" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" ht="409.6">
-      <c r="A182" s="2" t="s">
-        <v>168</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="105">
+      <c r="A182" t="s">
+        <v>114</v>
       </c>
       <c r="B182">
-        <v>1</v>
-      </c>
-      <c r="C182" s="3" t="s">
-        <v>170</v>
+        <v>0</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E182" t="s">
-        <v>223</v>
+        <v>45</v>
       </c>
       <c r="F182" t="s">
-        <v>36</v>
-      </c>
-      <c r="H182" s="4"/>
-    </row>
-    <row r="183" spans="1:8" ht="105">
-      <c r="A183" s="2" t="s">
-        <v>63</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="42">
+      <c r="A183" t="s">
+        <v>482</v>
       </c>
       <c r="B183">
         <v>0</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>59</v>
+        <v>292</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>158</v>
+        <v>5</v>
       </c>
       <c r="E183" t="s">
-        <v>45</v>
+        <v>293</v>
       </c>
       <c r="F183" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" ht="63">
-      <c r="A184" s="2" t="s">
-        <v>58</v>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="42">
+      <c r="A184" t="s">
+        <v>313</v>
       </c>
       <c r="B184">
         <v>0</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>57</v>
+        <v>314</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>5</v>
+        <v>316</v>
       </c>
       <c r="E184" t="s">
-        <v>45</v>
+        <v>315</v>
       </c>
       <c r="F184" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" ht="42">
-      <c r="A185" s="2" t="s">
-        <v>56</v>
+        <v>317</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" ht="21">
+      <c r="A185" t="s">
+        <v>320</v>
       </c>
       <c r="B185">
         <v>0</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>55</v>
+        <v>318</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>5</v>
+        <v>321</v>
       </c>
       <c r="E185" t="s">
-        <v>45</v>
+        <v>315</v>
       </c>
       <c r="F185" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" ht="21">
-      <c r="A186" s="2" t="s">
-        <v>51</v>
-      </c>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="63">
       <c r="B186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>50</v>
+        <v>319</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E186" t="s">
-        <v>45</v>
+        <v>315</v>
       </c>
       <c r="F186" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" ht="84">
-      <c r="A187" s="2" t="s">
-        <v>51</v>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="63">
+      <c r="A187" t="s">
+        <v>117</v>
       </c>
       <c r="B187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>5</v>
+        <v>118</v>
       </c>
       <c r="E187" t="s">
         <v>45</v>
       </c>
       <c r="F187" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" ht="42">
-      <c r="A188" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="105">
+      <c r="A188" t="s">
+        <v>207</v>
       </c>
       <c r="B188">
         <v>0</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>48</v>
+        <v>202</v>
       </c>
       <c r="D188" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E188" t="s">
+        <v>307</v>
+      </c>
+      <c r="F188" t="s">
+        <v>203</v>
+      </c>
+      <c r="H188" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E188" t="s">
+    </row>
+    <row r="189" spans="1:8" ht="21">
+      <c r="A189" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E189" t="s">
         <v>45</v>
       </c>
-      <c r="F188" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" ht="42">
-      <c r="A189" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B189">
-        <v>0</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E189" t="s">
-        <v>166</v>
-      </c>
       <c r="F189" t="s">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c r="H189" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" ht="126">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="84">
       <c r="A190" s="2" t="s">
-        <v>161</v>
+        <v>31</v>
       </c>
       <c r="B190">
         <v>0</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>162</v>
+        <v>32</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="E190" t="s">
-        <v>224</v>
+        <v>45</v>
       </c>
       <c r="F190" t="s">
-        <v>296</v>
-      </c>
-      <c r="H190" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" ht="105">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" ht="336">
       <c r="A191" s="2" t="s">
-        <v>155</v>
+        <v>27</v>
       </c>
       <c r="B191">
         <v>0</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>154</v>
+        <v>28</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E191" t="s">
-        <v>310</v>
+        <v>45</v>
       </c>
       <c r="F191" t="s">
-        <v>296</v>
-      </c>
-      <c r="H191" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" ht="42">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="63">
       <c r="A192" s="2" t="s">
-        <v>155</v>
+        <v>27</v>
       </c>
       <c r="B192">
         <v>1</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>156</v>
+        <v>29</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>157</v>
+        <v>5</v>
       </c>
       <c r="E192" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="F192" t="s">
-        <v>296</v>
-      </c>
-      <c r="H192" s="4"/>
-    </row>
-    <row r="193" spans="1:8" ht="21">
-      <c r="A193" s="2" t="s">
-        <v>406</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" ht="63">
+      <c r="A193" t="s">
+        <v>12</v>
       </c>
       <c r="B193">
         <v>0</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>407</v>
+        <v>13</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>408</v>
+        <v>5</v>
       </c>
       <c r="E193" t="s">
-        <v>390</v>
+        <v>45</v>
       </c>
       <c r="F193" t="s">
-        <v>409</v>
-      </c>
-      <c r="G193" t="s">
-        <v>410</v>
-      </c>
-      <c r="H193" s="4"/>
-    </row>
-    <row r="194" spans="1:8" ht="42">
-      <c r="A194" s="2" t="s">
-        <v>151</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" ht="63">
+      <c r="A194" t="s">
+        <v>12</v>
       </c>
       <c r="B194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>152</v>
+        <v>14</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E194" t="s">
+        <v>45</v>
+      </c>
+      <c r="F194" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" ht="63">
+      <c r="A195" t="s">
+        <v>11</v>
+      </c>
+      <c r="B195">
+        <v>0</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E195" t="s">
+        <v>45</v>
+      </c>
+      <c r="F195" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" ht="84">
+      <c r="A196" t="s">
+        <v>173</v>
+      </c>
+      <c r="B196">
+        <v>0</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E196" t="s">
+        <v>175</v>
+      </c>
+      <c r="F196" t="s">
+        <v>46</v>
+      </c>
+      <c r="H196" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" ht="63">
+      <c r="A197" t="s">
+        <v>7</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E197" t="s">
+        <v>45</v>
+      </c>
+      <c r="F197" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" ht="105">
+      <c r="A198" t="s">
+        <v>6</v>
+      </c>
+      <c r="B198">
+        <v>0</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E198" t="s">
+        <v>45</v>
+      </c>
+      <c r="F198" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" ht="105">
+      <c r="A199" t="s">
+        <v>71</v>
+      </c>
+      <c r="B199">
+        <v>0</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E199" t="s">
+        <v>70</v>
+      </c>
+      <c r="F199" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" ht="42">
+      <c r="A200" t="s">
+        <v>67</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E200" t="s">
+        <v>70</v>
+      </c>
+      <c r="F200" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" ht="84">
+      <c r="A201" t="s">
+        <v>171</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D201" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E201" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="F201" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H201" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" ht="42">
+      <c r="A202" t="s">
+        <v>64</v>
+      </c>
+      <c r="B202">
+        <v>0</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E202" t="s">
+        <v>45</v>
+      </c>
+      <c r="F202" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" ht="63">
+      <c r="A203" t="s">
+        <v>62</v>
+      </c>
+      <c r="B203">
+        <v>0</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E203" t="s">
+        <v>45</v>
+      </c>
+      <c r="F203" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" ht="84">
+      <c r="A204" t="s">
+        <v>447</v>
+      </c>
+      <c r="B204">
+        <v>0</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E204" t="s">
+        <v>293</v>
+      </c>
+      <c r="F204" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" ht="105">
+      <c r="A205" t="s">
+        <v>448</v>
+      </c>
+      <c r="B205">
+        <v>0</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E205" t="s">
+        <v>293</v>
+      </c>
+      <c r="F205" t="s">
+        <v>294</v>
+      </c>
+      <c r="G205" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" ht="42">
+      <c r="A206" t="s">
+        <v>448</v>
+      </c>
+      <c r="B206">
+        <v>1</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E206" t="s">
+        <v>293</v>
+      </c>
+      <c r="F206" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" ht="42">
+      <c r="A207" t="s">
+        <v>448</v>
+      </c>
+      <c r="B207">
+        <v>2</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E207" t="s">
+        <v>293</v>
+      </c>
+      <c r="F207" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" ht="42">
+      <c r="A208" t="s">
+        <v>448</v>
+      </c>
+      <c r="B208">
+        <v>3</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E208" t="s">
+        <v>293</v>
+      </c>
+      <c r="F208" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" ht="126">
+      <c r="A209" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B209">
+        <v>0</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E209" t="s">
+        <v>221</v>
+      </c>
+      <c r="F209" t="s">
+        <v>46</v>
+      </c>
+      <c r="G209" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" ht="21">
+      <c r="A210" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B210">
+        <v>0</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E210" t="s">
+        <v>45</v>
+      </c>
+      <c r="F210" t="s">
+        <v>36</v>
+      </c>
+      <c r="H210" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" ht="409.6">
+      <c r="A211" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B211">
+        <v>1</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E211" t="s">
+        <v>222</v>
+      </c>
+      <c r="F211" t="s">
+        <v>36</v>
+      </c>
+      <c r="H211" s="4"/>
+    </row>
+    <row r="212" spans="1:8" ht="105">
+      <c r="A212" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B212">
+        <v>0</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E212" t="s">
+        <v>45</v>
+      </c>
+      <c r="F212" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" ht="63">
+      <c r="A213" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B213">
+        <v>0</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E213" t="s">
+        <v>45</v>
+      </c>
+      <c r="F213" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" ht="42">
+      <c r="A214" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B214">
+        <v>0</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E214" t="s">
+        <v>45</v>
+      </c>
+      <c r="F214" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" ht="21">
+      <c r="A215" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B215">
+        <v>0</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E215" t="s">
+        <v>45</v>
+      </c>
+      <c r="F215" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" ht="84">
+      <c r="A216" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B216">
+        <v>1</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E216" t="s">
+        <v>45</v>
+      </c>
+      <c r="F216" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" ht="42">
+      <c r="A217" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B217">
+        <v>0</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E217" t="s">
+        <v>45</v>
+      </c>
+      <c r="F217" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" ht="42">
+      <c r="A218" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B218">
+        <v>0</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E218" t="s">
+        <v>165</v>
+      </c>
+      <c r="F218" t="s">
+        <v>166</v>
+      </c>
+      <c r="H218" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" ht="126">
+      <c r="A219" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B219">
+        <v>0</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E219" t="s">
+        <v>223</v>
+      </c>
+      <c r="F219" t="s">
+        <v>295</v>
+      </c>
+      <c r="H219" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" ht="105">
+      <c r="A220" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B220">
+        <v>0</v>
+      </c>
+      <c r="C220" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F194" t="s">
+      <c r="D220" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E220" t="s">
+        <v>309</v>
+      </c>
+      <c r="F220" t="s">
+        <v>295</v>
+      </c>
+      <c r="H220" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" ht="42">
+      <c r="A221" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B221">
+        <v>1</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E221" t="s">
+        <v>70</v>
+      </c>
+      <c r="F221" t="s">
+        <v>295</v>
+      </c>
+      <c r="H221" s="4"/>
+    </row>
+    <row r="222" spans="1:8" ht="21">
+      <c r="A222" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="E222" t="s">
+        <v>389</v>
+      </c>
+      <c r="F222" t="s">
+        <v>408</v>
+      </c>
+      <c r="G222" t="s">
+        <v>409</v>
+      </c>
+      <c r="H222" s="4"/>
+    </row>
+    <row r="223" spans="1:8" ht="42">
+      <c r="A223" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E223" t="s">
+        <v>152</v>
+      </c>
+      <c r="F223" t="s">
         <v>40</v>
       </c>
-      <c r="H194" s="4" t="s">
-        <v>160</v>
+      <c r="H223" s="4" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="H194" r:id="rId1" xr:uid="{81642C6C-B155-384F-AAC7-449D3395E8A1}"/>
-    <hyperlink ref="H191" r:id="rId2" xr:uid="{BF840327-7DE3-494E-9852-F70E198FA83F}"/>
-    <hyperlink ref="H190" r:id="rId3" xr:uid="{C1032CAE-FCD8-1242-B6C3-B70B988BC2CA}"/>
-    <hyperlink ref="H189" r:id="rId4" xr:uid="{F8DE77CC-7236-5740-A008-5EFF79B59035}"/>
-    <hyperlink ref="H181" r:id="rId5" xr:uid="{09EF007C-85D3-5F45-B203-6FE0424E5C99}"/>
-    <hyperlink ref="H172" r:id="rId6" xr:uid="{CA79A61E-3453-F748-8421-4D89662469BF}"/>
-    <hyperlink ref="H167" r:id="rId7" xr:uid="{DF2D3758-0BC9-D246-BED3-26AF94D5F9D8}"/>
-    <hyperlink ref="H111" r:id="rId8" xr:uid="{CCDC15F7-E252-0348-B02C-905084BD776E}"/>
-    <hyperlink ref="H31" r:id="rId9" xr:uid="{B4649428-221F-674F-BA70-A2780E5E269C}"/>
-    <hyperlink ref="H159" r:id="rId10" xr:uid="{E8486F26-D2AA-3540-A8B3-73E08A241E3A}"/>
-    <hyperlink ref="H66" r:id="rId11" xr:uid="{DF9E283C-C630-6141-B84A-D4DC20067D3A}"/>
-    <hyperlink ref="H68" r:id="rId12" xr:uid="{AA765222-2C31-E444-93E0-6241B574BBDA}"/>
-    <hyperlink ref="H71" r:id="rId13" xr:uid="{7424A509-2E7F-534F-A182-16DD568A0E14}"/>
-    <hyperlink ref="H77" r:id="rId14" xr:uid="{B81B5BB0-A4D2-CE48-976B-41038463380C}"/>
-    <hyperlink ref="H78" r:id="rId15" xr:uid="{51731D61-79A9-C248-A29C-7F455B171752}"/>
-    <hyperlink ref="H79" r:id="rId16" xr:uid="{DF071ACD-52CF-F248-82F5-DCBA80F5ED7C}"/>
-    <hyperlink ref="H80" r:id="rId17" xr:uid="{A3CDB931-1A52-EE43-BE32-2575167D2188}"/>
-    <hyperlink ref="H82" r:id="rId18" xr:uid="{217C257E-AC48-D240-A20A-4B4B59D80A75}"/>
-    <hyperlink ref="H83" r:id="rId19" xr:uid="{7DD8D092-ADED-CC44-8C91-A6B96A4E7F8B}"/>
-    <hyperlink ref="H84" r:id="rId20" xr:uid="{FF12F444-682A-3040-A650-0D77B1F409BF}"/>
-    <hyperlink ref="H85" r:id="rId21" xr:uid="{1128B72D-52B8-8F47-9418-E2DF8EDBE41D}"/>
-    <hyperlink ref="H96" r:id="rId22" xr:uid="{497C3D62-66B1-B349-919C-BB1436BCE7EA}"/>
-    <hyperlink ref="H105" r:id="rId23" xr:uid="{AA737391-1EFB-A246-BB33-46BEF9DF59DA}"/>
-    <hyperlink ref="H102" r:id="rId24" xr:uid="{12373DBC-12D0-EF44-94D1-6BE389EE8541}"/>
-    <hyperlink ref="H101" r:id="rId25" xr:uid="{0D1FF725-B522-814B-944C-9DE55388698D}"/>
-    <hyperlink ref="H103" r:id="rId26" xr:uid="{B196E238-6A79-1D4C-BE62-208D54322587}"/>
-    <hyperlink ref="H97" r:id="rId27" xr:uid="{C086B470-F6CB-A541-BF4F-D4066F6C3477}"/>
-    <hyperlink ref="H100" r:id="rId28" xr:uid="{6C629B57-C1F3-4545-97A0-DAE1AEC86284}"/>
-    <hyperlink ref="H95" r:id="rId29" xr:uid="{B29892C6-C28D-A544-98D7-253097387448}"/>
-    <hyperlink ref="H94" r:id="rId30" xr:uid="{CB97C88D-610F-9244-AD06-BA36E3E1A20C}"/>
+    <hyperlink ref="H223" r:id="rId1" xr:uid="{81642C6C-B155-384F-AAC7-449D3395E8A1}"/>
+    <hyperlink ref="H220" r:id="rId2" xr:uid="{BF840327-7DE3-494E-9852-F70E198FA83F}"/>
+    <hyperlink ref="H219" r:id="rId3" xr:uid="{C1032CAE-FCD8-1242-B6C3-B70B988BC2CA}"/>
+    <hyperlink ref="H218" r:id="rId4" xr:uid="{F8DE77CC-7236-5740-A008-5EFF79B59035}"/>
+    <hyperlink ref="H210" r:id="rId5" xr:uid="{09EF007C-85D3-5F45-B203-6FE0424E5C99}"/>
+    <hyperlink ref="H201" r:id="rId6" xr:uid="{CA79A61E-3453-F748-8421-4D89662469BF}"/>
+    <hyperlink ref="H196" r:id="rId7" xr:uid="{DF2D3758-0BC9-D246-BED3-26AF94D5F9D8}"/>
+    <hyperlink ref="H140" r:id="rId8" xr:uid="{CCDC15F7-E252-0348-B02C-905084BD776E}"/>
+    <hyperlink ref="H32" r:id="rId9" xr:uid="{B4649428-221F-674F-BA70-A2780E5E269C}"/>
+    <hyperlink ref="H188" r:id="rId10" xr:uid="{E8486F26-D2AA-3540-A8B3-73E08A241E3A}"/>
+    <hyperlink ref="H75" r:id="rId11" xr:uid="{DF9E283C-C630-6141-B84A-D4DC20067D3A}"/>
+    <hyperlink ref="H77" r:id="rId12" xr:uid="{AA765222-2C31-E444-93E0-6241B574BBDA}"/>
+    <hyperlink ref="H80" r:id="rId13" xr:uid="{7424A509-2E7F-534F-A182-16DD568A0E14}"/>
+    <hyperlink ref="H89" r:id="rId14" xr:uid="{B81B5BB0-A4D2-CE48-976B-41038463380C}"/>
+    <hyperlink ref="H90" r:id="rId15" xr:uid="{51731D61-79A9-C248-A29C-7F455B171752}"/>
+    <hyperlink ref="H91" r:id="rId16" xr:uid="{DF071ACD-52CF-F248-82F5-DCBA80F5ED7C}"/>
+    <hyperlink ref="H92" r:id="rId17" xr:uid="{A3CDB931-1A52-EE43-BE32-2575167D2188}"/>
+    <hyperlink ref="H94" r:id="rId18" xr:uid="{217C257E-AC48-D240-A20A-4B4B59D80A75}"/>
+    <hyperlink ref="H95" r:id="rId19" xr:uid="{7DD8D092-ADED-CC44-8C91-A6B96A4E7F8B}"/>
+    <hyperlink ref="H96" r:id="rId20" xr:uid="{FF12F444-682A-3040-A650-0D77B1F409BF}"/>
+    <hyperlink ref="H97" r:id="rId21" xr:uid="{1128B72D-52B8-8F47-9418-E2DF8EDBE41D}"/>
+    <hyperlink ref="H118" r:id="rId22" xr:uid="{497C3D62-66B1-B349-919C-BB1436BCE7EA}"/>
+    <hyperlink ref="H130" r:id="rId23" xr:uid="{AA737391-1EFB-A246-BB33-46BEF9DF59DA}"/>
+    <hyperlink ref="H124" r:id="rId24" xr:uid="{12373DBC-12D0-EF44-94D1-6BE389EE8541}"/>
+    <hyperlink ref="H123" r:id="rId25" xr:uid="{0D1FF725-B522-814B-944C-9DE55388698D}"/>
+    <hyperlink ref="H125" r:id="rId26" xr:uid="{B196E238-6A79-1D4C-BE62-208D54322587}"/>
+    <hyperlink ref="H119" r:id="rId27" xr:uid="{C086B470-F6CB-A541-BF4F-D4066F6C3477}"/>
+    <hyperlink ref="H122" r:id="rId28" xr:uid="{6C629B57-C1F3-4545-97A0-DAE1AEC86284}"/>
+    <hyperlink ref="H117" r:id="rId29" xr:uid="{B29892C6-C28D-A544-98D7-253097387448}"/>
+    <hyperlink ref="H116" r:id="rId30" xr:uid="{CB97C88D-610F-9244-AD06-BA36E3E1A20C}"/>
     <hyperlink ref="H16" r:id="rId31" xr:uid="{E92164C8-75EB-FE45-8332-C3A91BA4451A}"/>
-    <hyperlink ref="H126" r:id="rId32" xr:uid="{1C083029-B686-E448-9351-4D317921CFD1}"/>
-    <hyperlink ref="H160" r:id="rId33" xr:uid="{BD83387D-9020-714F-BA3A-41424AE632FD}"/>
-    <hyperlink ref="H75" r:id="rId34" xr:uid="{4BE75394-77C5-1B40-BE04-9A747380D885}"/>
-    <hyperlink ref="H110" r:id="rId35" xr:uid="{4FBCA80C-79E1-B745-8F51-D46C4D3F8601}"/>
+    <hyperlink ref="H155" r:id="rId32" xr:uid="{1C083029-B686-E448-9351-4D317921CFD1}"/>
+    <hyperlink ref="H189" r:id="rId33" xr:uid="{BD83387D-9020-714F-BA3A-41424AE632FD}"/>
+    <hyperlink ref="H84" r:id="rId34" xr:uid="{4BE75394-77C5-1B40-BE04-9A747380D885}"/>
+    <hyperlink ref="H139" r:id="rId35" xr:uid="{4FBCA80C-79E1-B745-8F51-D46C4D3F8601}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/data_excel/tags.xlsx
+++ b/data_excel/tags.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay/xidev/kanban/data_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{9C1D32E9-8B34-1743-BA14-F6A48EE4D341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{7DCD61A6-3F47-114A-9866-776812BC4200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20040" yWindow="640" windowWidth="18180" windowHeight="17120" xr2:uid="{1951D371-7A8D-D346-B651-736256765602}"/>
+    <workbookView xWindow="10260" yWindow="640" windowWidth="27960" windowHeight="17120" xr2:uid="{1951D371-7A8D-D346-B651-736256765602}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <fileRecoveryPr repairLoad="1"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="616">
   <si>
     <t>img</t>
     <phoneticPr fontId="1"/>
@@ -8137,11 +8140,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>シャツターが故障します
-自転車ぶつけないで！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>シャッター|貼紙</t>
     <rPh sb="6" eb="8">
       <t xml:space="preserve">ハリガミ </t>
@@ -8245,13 +8243,6 @@
 ここへはゴミを捨てるな
 ここへはゴミを捨てるな
 ここへはゴミを捨てるな</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ここにこみを捨てるな
-ここにこみを捨てるな
-ここにこみを捨てるな
-ここにこみを捨てるな</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -8727,19 +8718,6 @@
 警視庁鉄道警察隊
 埼玉県警察鉄道警察隊
 西武鉄道</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>東京都練馬区（列車内）</t>
-    <rPh sb="0" eb="3">
-      <t xml:space="preserve">トウキョウト </t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t xml:space="preserve">ネリマク </t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t xml:space="preserve">レッシャナイ </t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -8883,6 +8861,129 @@
   </si>
   <si>
     <t>カラーコーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シャッターが故障します
+自転車ぶつけないで！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2024年1月 東京都練馬区（列車内）</t>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">ネン </t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">ガツ </t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t xml:space="preserve">トウキョウト </t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t xml:space="preserve">ネリマク </t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t xml:space="preserve">レッシャナイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここにごみを捨てるな
+ここにごみを捨てるな
+ここにごみを捨てるな
+ここにごみを捨てるな</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_1761.HEIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>SMOKING AREA
+喫煙所
+吸烟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>处</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+吸菸處
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>흡연소</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Área de fumadores
+Área para fumo</t>
+    </r>
+    <rPh sb="13" eb="16">
+      <t xml:space="preserve">キツエンジョ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タバコ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>en|ja|zh-Hans|zh-Hant|es|pt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_8417.HEIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自転車も乗れません
+寺町三条〜四条
+歩行者専用道路
+10:00〜24:00
+中京警察署長
+寺町京極商店街振興組合</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進入禁止|自転車</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">シンニュウキンシ </t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t xml:space="preserve">ジテンシャ </t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -9394,10 +9495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0244D4E8-F443-D54E-A975-960F8853E327}">
-  <dimension ref="A1:H223"/>
+  <dimension ref="A1:H225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -9800,13 +9901,13 @@
     </row>
     <row r="18" spans="1:8" ht="63">
       <c r="A18" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>386</v>
@@ -9815,7 +9916,7 @@
         <v>70</v>
       </c>
       <c r="F18" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="63">
@@ -10130,34 +10231,34 @@
     </row>
     <row r="34" spans="1:8" ht="84">
       <c r="A34" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E34" t="s">
         <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H34" s="4"/>
     </row>
     <row r="35" spans="1:8" ht="63">
       <c r="A35" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>5</v>
@@ -10166,19 +10267,19 @@
         <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H35" s="4"/>
     </row>
     <row r="36" spans="1:8" ht="42">
       <c r="A36" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>5</v>
@@ -10256,13 +10357,13 @@
     </row>
     <row r="40" spans="1:8" ht="63">
       <c r="A40" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>5</v>
@@ -10274,7 +10375,7 @@
         <v>278</v>
       </c>
       <c r="G40" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="H40" s="4"/>
     </row>
@@ -10637,13 +10738,13 @@
     </row>
     <row r="57" spans="1:8" ht="21">
       <c r="A57" t="s">
+        <v>542</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>543</v>
-      </c>
-      <c r="B57">
-        <v>0</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>544</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>5</v>
@@ -10700,34 +10801,34 @@
     </row>
     <row r="60" spans="1:8" ht="63">
       <c r="A60" t="s">
+        <v>567</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>569</v>
-      </c>
-      <c r="B60">
-        <v>0</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>571</v>
       </c>
       <c r="E60" t="s">
         <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H60" s="4"/>
     </row>
     <row r="61" spans="1:8" ht="42">
       <c r="A61" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>441</v>
@@ -10736,22 +10837,22 @@
         <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H61" s="4"/>
     </row>
     <row r="62" spans="1:8" ht="84">
       <c r="A62" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B62">
         <v>2</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E62" t="s">
         <v>70</v>
@@ -10763,13 +10864,13 @@
     </row>
     <row r="63" spans="1:8" ht="84">
       <c r="A63" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>5</v>
@@ -10784,13 +10885,13 @@
     </row>
     <row r="64" spans="1:8" ht="42">
       <c r="A64" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>394</v>
@@ -10805,16 +10906,16 @@
     </row>
     <row r="65" spans="1:8" ht="63">
       <c r="A65" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E65" t="s">
         <v>198</v>
@@ -10826,13 +10927,13 @@
     </row>
     <row r="66" spans="1:8" ht="42">
       <c r="A66" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B66">
         <v>2</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>19</v>
@@ -10841,7 +10942,7 @@
         <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H66" s="4"/>
     </row>
@@ -10888,75 +10989,75 @@
         <v>444</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="42">
+    <row r="69" spans="1:8" ht="147">
       <c r="A69" t="s">
+        <v>609</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="E69" t="s">
+        <v>612</v>
+      </c>
+      <c r="F69" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="42">
+      <c r="A70" t="s">
         <v>284</v>
       </c>
-      <c r="B69">
+      <c r="B70">
         <v>1</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C70" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E70" t="s">
         <v>290</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F70" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="84">
-      <c r="A70" t="s">
+    <row r="71" spans="1:8" ht="84">
+      <c r="A71" t="s">
         <v>445</v>
       </c>
-      <c r="B70">
-        <v>0</v>
-      </c>
-      <c r="C70" s="7" t="s">
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E70" t="s">
-        <v>306</v>
-      </c>
-      <c r="F70" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="21">
-      <c r="A71" t="s">
-        <v>536</v>
-      </c>
-      <c r="B71">
-        <v>0</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>537</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E71" t="s">
-        <v>45</v>
+        <v>306</v>
       </c>
       <c r="F71" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="42">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="21">
       <c r="A72" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>5</v>
@@ -10965,18 +11066,18 @@
         <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="21">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="42">
       <c r="A73" t="s">
         <v>538</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>541</v>
+        <v>606</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>5</v>
@@ -10985,18 +11086,18 @@
         <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="126">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="21">
       <c r="A74" t="s">
         <v>538</v>
       </c>
       <c r="B74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>5</v>
@@ -11005,91 +11106,91 @@
         <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="63">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="126">
       <c r="A75" t="s">
-        <v>177</v>
+        <v>538</v>
       </c>
       <c r="B75">
-        <v>0</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>204</v>
+        <v>2</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>541</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E75" t="s">
+        <v>45</v>
+      </c>
+      <c r="F75" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="63">
+      <c r="A76" t="s">
+        <v>177</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" t="s">
         <v>299</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F76" t="s">
         <v>206</v>
       </c>
-      <c r="H75" s="4" t="s">
+      <c r="H76" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="105">
-      <c r="A76" t="s">
+    <row r="77" spans="1:8" ht="105">
+      <c r="A77" t="s">
         <v>478</v>
       </c>
-      <c r="B76">
-        <v>0</v>
-      </c>
-      <c r="C76" s="1" t="s">
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="F76" t="s">
+      <c r="E77" t="s">
+        <v>45</v>
+      </c>
+      <c r="F77" t="s">
         <v>39</v>
       </c>
-      <c r="H76" s="4"/>
-    </row>
-    <row r="77" spans="1:8" ht="42">
-      <c r="A77" t="s">
-        <v>178</v>
-      </c>
-      <c r="B77">
-        <v>0</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E77" t="s">
-        <v>300</v>
-      </c>
-      <c r="F77" t="s">
-        <v>49</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="42">
+      <c r="H77" s="4"/>
+    </row>
+    <row r="78" spans="1:8" ht="126">
       <c r="A78" t="s">
-        <v>178</v>
+        <v>613</v>
       </c>
       <c r="B78">
-        <v>1</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>211</v>
+        <v>0</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>614</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>212</v>
+        <v>615</v>
       </c>
       <c r="E78" t="s">
-        <v>300</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H78" s="4"/>
     </row>
@@ -11098,99 +11199,101 @@
         <v>178</v>
       </c>
       <c r="B79">
-        <v>2</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>213</v>
+        <v>0</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E79" t="s">
-        <v>45</v>
+        <v>300</v>
       </c>
       <c r="F79" t="s">
         <v>49</v>
       </c>
-      <c r="H79" s="4"/>
+      <c r="H79" s="4" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="80" spans="1:8" ht="42">
       <c r="A80" t="s">
+        <v>178</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E80" t="s">
+        <v>300</v>
+      </c>
+      <c r="F80" t="s">
+        <v>49</v>
+      </c>
+      <c r="H80" s="4"/>
+    </row>
+    <row r="81" spans="1:8" ht="42">
+      <c r="A81" t="s">
+        <v>178</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E81" t="s">
+        <v>45</v>
+      </c>
+      <c r="F81" t="s">
+        <v>49</v>
+      </c>
+      <c r="H81" s="4"/>
+    </row>
+    <row r="82" spans="1:8" ht="42">
+      <c r="A82" t="s">
         <v>179</v>
       </c>
-      <c r="B80">
-        <v>0</v>
-      </c>
-      <c r="C80" s="1" t="s">
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E80" t="s">
-        <v>70</v>
-      </c>
-      <c r="F80" t="s">
-        <v>231</v>
-      </c>
-      <c r="H80" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="105">
-      <c r="A81" t="s">
-        <v>483</v>
-      </c>
-      <c r="B81">
-        <v>0</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E81" t="s">
-        <v>70</v>
-      </c>
-      <c r="F81" t="s">
-        <v>294</v>
-      </c>
-      <c r="H81" s="4"/>
-    </row>
-    <row r="82" spans="1:8" ht="252">
-      <c r="A82" t="s">
-        <v>483</v>
-      </c>
-      <c r="B82">
-        <v>1</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>486</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E82" t="s">
-        <v>487</v>
+        <v>70</v>
       </c>
       <c r="F82" t="s">
-        <v>294</v>
-      </c>
-      <c r="H82" s="4"/>
-    </row>
-    <row r="83" spans="1:8" ht="42">
+        <v>231</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="105">
       <c r="A83" t="s">
         <v>483</v>
       </c>
       <c r="B83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>489</v>
+        <v>19</v>
       </c>
       <c r="E83" t="s">
         <v>70</v>
@@ -11200,176 +11303,172 @@
       </c>
       <c r="H83" s="4"/>
     </row>
-    <row r="84" spans="1:8" ht="126">
+    <row r="84" spans="1:8" ht="252">
       <c r="A84" t="s">
+        <v>483</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E84" t="s">
+        <v>487</v>
+      </c>
+      <c r="F84" t="s">
+        <v>294</v>
+      </c>
+      <c r="H84" s="4"/>
+    </row>
+    <row r="85" spans="1:8" ht="42">
+      <c r="A85" t="s">
+        <v>483</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E85" t="s">
+        <v>70</v>
+      </c>
+      <c r="F85" t="s">
+        <v>294</v>
+      </c>
+      <c r="H85" s="4"/>
+    </row>
+    <row r="86" spans="1:8" ht="126">
+      <c r="A86" t="s">
         <v>484</v>
       </c>
-      <c r="B84">
-        <v>0</v>
-      </c>
-      <c r="C84" s="1" t="s">
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D86" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E86" t="s">
         <v>198</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F86" t="s">
         <v>401</v>
       </c>
-      <c r="H84" s="4" t="s">
+      <c r="H86" s="4" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="63">
-      <c r="A85" t="s">
+    <row r="87" spans="1:8" ht="63">
+      <c r="A87" t="s">
+        <v>582</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="B85">
-        <v>0</v>
-      </c>
-      <c r="C85" s="1" t="s">
+      <c r="D87" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E87" t="s">
+        <v>45</v>
+      </c>
+      <c r="F87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" s="4"/>
+    </row>
+    <row r="88" spans="1:8" ht="147">
+      <c r="A88" t="s">
+        <v>583</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E88" t="s">
+        <v>45</v>
+      </c>
+      <c r="F88" t="s">
+        <v>294</v>
+      </c>
+      <c r="G88" t="s">
+        <v>607</v>
+      </c>
+      <c r="H88" s="4"/>
+    </row>
+    <row r="89" spans="1:8" ht="42">
+      <c r="A89" t="s">
+        <v>583</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="E85" t="s">
-        <v>45</v>
-      </c>
-      <c r="F85" t="s">
-        <v>46</v>
-      </c>
-      <c r="H85" s="4"/>
-    </row>
-    <row r="86" spans="1:8" ht="147">
-      <c r="A86" t="s">
-        <v>585</v>
-      </c>
-      <c r="B86">
-        <v>0</v>
-      </c>
-      <c r="C86" s="1" t="s">
+      <c r="D89" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E86" t="s">
-        <v>45</v>
-      </c>
-      <c r="F86" t="s">
+      <c r="E89" t="s">
+        <v>70</v>
+      </c>
+      <c r="F89" t="s">
         <v>294</v>
       </c>
-      <c r="G86" t="s">
-        <v>588</v>
-      </c>
-      <c r="H86" s="4"/>
-    </row>
-    <row r="87" spans="1:8" ht="42">
-      <c r="A87" t="s">
-        <v>585</v>
-      </c>
-      <c r="B87">
+      <c r="H89" s="4"/>
+    </row>
+    <row r="90" spans="1:8" ht="84">
+      <c r="A90" t="s">
+        <v>179</v>
+      </c>
+      <c r="B90">
         <v>1</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="E87" t="s">
-        <v>70</v>
-      </c>
-      <c r="F87" t="s">
-        <v>294</v>
-      </c>
-      <c r="H87" s="4"/>
-    </row>
-    <row r="88" spans="1:8" ht="84">
-      <c r="A88" t="s">
-        <v>179</v>
-      </c>
-      <c r="B88">
-        <v>1</v>
-      </c>
-      <c r="C88" s="7" t="s">
+      <c r="C90" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D90" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E90" t="s">
         <v>301</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F90" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="84">
-      <c r="A89" t="s">
+    <row r="91" spans="1:8" ht="84">
+      <c r="A91" t="s">
         <v>180</v>
       </c>
-      <c r="B89">
-        <v>0</v>
-      </c>
-      <c r="C89" s="1" t="s">
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D91" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E91" t="s">
         <v>310</v>
-      </c>
-      <c r="F89" t="s">
-        <v>49</v>
-      </c>
-      <c r="H89" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="105">
-      <c r="A90" t="s">
-        <v>181</v>
-      </c>
-      <c r="B90">
-        <v>0</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="E90" t="s">
-        <v>302</v>
-      </c>
-      <c r="F90" t="s">
-        <v>39</v>
-      </c>
-      <c r="H90" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="82">
-      <c r="A91" t="s">
-        <v>182</v>
-      </c>
-      <c r="B91">
-        <v>0</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" t="s">
-        <v>306</v>
       </c>
       <c r="F91" t="s">
         <v>49</v>
@@ -11380,19 +11479,19 @@
     </row>
     <row r="92" spans="1:8" ht="105">
       <c r="A92" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>5</v>
+        <v>441</v>
       </c>
       <c r="E92" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="F92" t="s">
         <v>39</v>
@@ -11401,151 +11500,153 @@
         <v>159</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="42">
+    <row r="93" spans="1:8" ht="82">
       <c r="A93" t="s">
+        <v>182</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E93" t="s">
+        <v>306</v>
+      </c>
+      <c r="F93" t="s">
+        <v>49</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="105">
+      <c r="A94" t="s">
         <v>183</v>
       </c>
-      <c r="B93">
-        <v>1</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E93" t="s">
-        <v>312</v>
-      </c>
-      <c r="F93" t="s">
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" t="s">
+        <v>289</v>
+      </c>
+      <c r="F94" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="21">
-      <c r="A94" t="s">
-        <v>184</v>
-      </c>
-      <c r="B94">
-        <v>0</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E94" t="s">
-        <v>229</v>
-      </c>
-      <c r="F94" t="s">
-        <v>230</v>
       </c>
       <c r="H94" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="147">
+    <row r="95" spans="1:8" ht="42">
       <c r="A95" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>233</v>
+        <v>19</v>
       </c>
       <c r="E95" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="F95" t="s">
         <v>39</v>
       </c>
-      <c r="H95" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="124">
+    </row>
+    <row r="96" spans="1:8" ht="21">
       <c r="A96" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-      <c r="C96" s="8" t="s">
-        <v>234</v>
+      <c r="C96" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="E96" t="s">
-        <v>236</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
+      </c>
+      <c r="F96" t="s">
+        <v>230</v>
       </c>
       <c r="H96" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="84">
+    <row r="97" spans="1:8" ht="147">
       <c r="A97" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E97" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F97" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H97" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="84">
+    <row r="98" spans="1:8" ht="124">
       <c r="A98" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B98">
-        <v>1</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>240</v>
+        <v>0</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>234</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E98" t="s">
-        <v>304</v>
-      </c>
-      <c r="F98" t="s">
-        <v>40</v>
-      </c>
-      <c r="H98" s="4"/>
+        <v>236</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="99" spans="1:8" ht="84">
       <c r="A99" t="s">
         <v>187</v>
       </c>
       <c r="B99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E99" t="s">
         <v>304</v>
@@ -11553,20 +11654,22 @@
       <c r="F99" t="s">
         <v>40</v>
       </c>
-      <c r="H99" s="4"/>
+      <c r="H99" s="4" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="100" spans="1:8" ht="84">
       <c r="A100" t="s">
         <v>187</v>
       </c>
       <c r="B100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="E100" t="s">
         <v>304</v>
@@ -11576,21 +11679,21 @@
       </c>
       <c r="H100" s="4"/>
     </row>
-    <row r="101" spans="1:8" ht="63">
+    <row r="101" spans="1:8" ht="84">
       <c r="A101" t="s">
         <v>187</v>
       </c>
       <c r="B101">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E101" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F101" t="s">
         <v>40</v>
@@ -11602,13 +11705,13 @@
         <v>187</v>
       </c>
       <c r="B102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E102" t="s">
         <v>304</v>
@@ -11618,21 +11721,21 @@
       </c>
       <c r="H102" s="4"/>
     </row>
-    <row r="103" spans="1:8" ht="21">
+    <row r="103" spans="1:8" ht="63">
       <c r="A103" t="s">
         <v>187</v>
       </c>
       <c r="B103">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>5</v>
+        <v>248</v>
       </c>
       <c r="E103" t="s">
-        <v>45</v>
+        <v>305</v>
       </c>
       <c r="F103" t="s">
         <v>40</v>
@@ -11641,37 +11744,34 @@
     </row>
     <row r="104" spans="1:8" ht="84">
       <c r="A104" t="s">
-        <v>492</v>
+        <v>187</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>493</v>
+        <v>246</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>494</v>
+        <v>249</v>
       </c>
       <c r="E104" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F104" t="s">
-        <v>49</v>
-      </c>
-      <c r="G104" t="s">
-        <v>495</v>
+        <v>40</v>
       </c>
       <c r="H104" s="4"/>
     </row>
-    <row r="105" spans="1:8" ht="63">
-      <c r="A105" s="2" t="s">
-        <v>496</v>
+    <row r="105" spans="1:8" ht="21">
+      <c r="A105" t="s">
+        <v>187</v>
       </c>
       <c r="B105">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>497</v>
+        <v>250</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>5</v>
@@ -11680,43 +11780,43 @@
         <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H105" s="4"/>
     </row>
-    <row r="106" spans="1:8" ht="126">
-      <c r="A106" s="2" t="s">
-        <v>597</v>
+    <row r="106" spans="1:8" ht="84">
+      <c r="A106" t="s">
+        <v>492</v>
       </c>
       <c r="B106">
         <v>0</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>598</v>
+        <v>493</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>5</v>
+        <v>494</v>
       </c>
       <c r="E106" t="s">
-        <v>45</v>
+        <v>306</v>
       </c>
       <c r="F106" t="s">
-        <v>230</v>
+        <v>49</v>
       </c>
       <c r="G106" t="s">
         <v>495</v>
       </c>
       <c r="H106" s="4"/>
     </row>
-    <row r="107" spans="1:8" ht="231">
+    <row r="107" spans="1:8" ht="63">
       <c r="A107" s="2" t="s">
-        <v>591</v>
+        <v>496</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>599</v>
+        <v>497</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>5</v>
@@ -11729,15 +11829,15 @@
       </c>
       <c r="H107" s="4"/>
     </row>
-    <row r="108" spans="1:8" ht="210">
+    <row r="108" spans="1:8" ht="126">
       <c r="A108" s="2" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>5</v>
@@ -11746,76 +11846,79 @@
         <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>401</v>
+        <v>230</v>
+      </c>
+      <c r="G108" t="s">
+        <v>495</v>
       </c>
       <c r="H108" s="4"/>
     </row>
-    <row r="109" spans="1:8" ht="42">
+    <row r="109" spans="1:8" ht="231">
       <c r="A109" s="2" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B109">
         <v>0</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>602</v>
+        <v>5</v>
       </c>
       <c r="E109" t="s">
         <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>603</v>
+        <v>39</v>
       </c>
       <c r="H109" s="4"/>
     </row>
-    <row r="110" spans="1:8" ht="21">
+    <row r="110" spans="1:8" ht="210">
       <c r="A110" s="2" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B110">
         <v>1</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>389</v>
+        <v>597</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E110" t="s">
-        <v>389</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>606</v>
+        <v>401</v>
       </c>
       <c r="H110" s="4"/>
     </row>
-    <row r="111" spans="1:8" ht="21">
+    <row r="111" spans="1:8" ht="42">
       <c r="A111" s="2" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="B111">
         <v>0</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>5</v>
+        <v>599</v>
       </c>
       <c r="E111" t="s">
         <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="H111" s="4"/>
     </row>
     <row r="112" spans="1:8" ht="21">
       <c r="A112" s="2" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -11830,37 +11933,37 @@
         <v>389</v>
       </c>
       <c r="F112" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="H112" s="4"/>
     </row>
     <row r="113" spans="1:8" ht="21">
       <c r="A113" s="2" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B113">
         <v>0</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>389</v>
+        <v>601</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E113" t="s">
-        <v>389</v>
+        <v>45</v>
       </c>
       <c r="F113" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="H113" s="4"/>
     </row>
     <row r="114" spans="1:8" ht="21">
       <c r="A114" s="2" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="B114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>389</v>
@@ -11872,63 +11975,61 @@
         <v>389</v>
       </c>
       <c r="F114" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="H114" s="4"/>
     </row>
     <row r="115" spans="1:8" ht="21">
       <c r="A115" s="2" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="B115">
         <v>0</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>607</v>
+        <v>389</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E115" t="s">
-        <v>45</v>
+        <v>389</v>
       </c>
       <c r="F115" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="H115" s="4"/>
     </row>
-    <row r="116" spans="1:8" ht="105">
-      <c r="A116" t="s">
-        <v>188</v>
+    <row r="116" spans="1:8" ht="21">
+      <c r="A116" s="2" t="s">
+        <v>592</v>
       </c>
       <c r="B116">
         <v>0</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>272</v>
+        <v>389</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E116" t="s">
-        <v>45</v>
+        <v>389</v>
       </c>
       <c r="F116" t="s">
-        <v>49</v>
-      </c>
-      <c r="H116" s="4" t="s">
-        <v>273</v>
-      </c>
+        <v>603</v>
+      </c>
+      <c r="H116" s="4"/>
     </row>
     <row r="117" spans="1:8" ht="21">
-      <c r="A117" t="s">
-        <v>269</v>
+      <c r="A117" s="2" t="s">
+        <v>593</v>
       </c>
       <c r="B117">
         <v>0</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>270</v>
+        <v>604</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>5</v>
@@ -11937,44 +12038,40 @@
         <v>45</v>
       </c>
       <c r="F117" t="s">
-        <v>36</v>
-      </c>
-      <c r="H117" s="4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="82">
-      <c r="A118" t="s">
-        <v>189</v>
+        <v>605</v>
+      </c>
+      <c r="H117" s="4"/>
+    </row>
+    <row r="118" spans="1:8" ht="21">
+      <c r="A118" s="2" t="s">
+        <v>593</v>
       </c>
       <c r="B118">
-        <v>0</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>251</v>
+        <v>1</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>389</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>252</v>
+        <v>5</v>
       </c>
       <c r="E118" t="s">
-        <v>308</v>
+        <v>389</v>
       </c>
       <c r="F118" t="s">
-        <v>296</v>
-      </c>
-      <c r="H118" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="42">
+        <v>605</v>
+      </c>
+      <c r="H118" s="4"/>
+    </row>
+    <row r="119" spans="1:8" ht="105">
       <c r="A119" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B119">
         <v>0</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>5</v>
@@ -11983,24 +12080,21 @@
         <v>45</v>
       </c>
       <c r="F119" t="s">
-        <v>39</v>
-      </c>
-      <c r="G119" t="s">
-        <v>266</v>
+        <v>49</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="84">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="21">
       <c r="A120" t="s">
-        <v>498</v>
+        <v>269</v>
       </c>
       <c r="B120">
         <v>0</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>499</v>
+        <v>270</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>5</v>
@@ -12009,63 +12103,70 @@
         <v>45</v>
       </c>
       <c r="F120" t="s">
-        <v>40</v>
-      </c>
-      <c r="H120" s="4"/>
-    </row>
-    <row r="121" spans="1:8" ht="126">
+        <v>36</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="82">
       <c r="A121" t="s">
-        <v>498</v>
+        <v>189</v>
       </c>
       <c r="B121">
         <v>0</v>
       </c>
-      <c r="C121" s="1" t="s">
-        <v>500</v>
+      <c r="C121" s="3" t="s">
+        <v>251</v>
       </c>
       <c r="D121" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E121" t="s">
+        <v>308</v>
+      </c>
+      <c r="F121" t="s">
+        <v>296</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="42">
+      <c r="A122" t="s">
+        <v>190</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D122" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E121" t="s">
-        <v>45</v>
-      </c>
-      <c r="F121" t="s">
-        <v>40</v>
-      </c>
-      <c r="H121" s="4"/>
-    </row>
-    <row r="122" spans="1:8" ht="105">
-      <c r="A122" t="s">
-        <v>191</v>
-      </c>
-      <c r="B122">
-        <v>0</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="E122" t="s">
         <v>45</v>
       </c>
       <c r="F122" t="s">
-        <v>297</v>
+        <v>39</v>
+      </c>
+      <c r="G122" t="s">
+        <v>266</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="42">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="84">
       <c r="A123" t="s">
-        <v>192</v>
+        <v>498</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>259</v>
+        <v>499</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>5</v>
@@ -12076,19 +12177,17 @@
       <c r="F123" t="s">
         <v>40</v>
       </c>
-      <c r="H123" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="42">
+      <c r="H123" s="4"/>
+    </row>
+    <row r="124" spans="1:8" ht="126">
       <c r="A124" t="s">
-        <v>193</v>
+        <v>498</v>
       </c>
       <c r="B124">
         <v>0</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>257</v>
+        <v>500</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>5</v>
@@ -12097,65 +12196,65 @@
         <v>45</v>
       </c>
       <c r="F124" t="s">
-        <v>49</v>
-      </c>
-      <c r="H124" s="4" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="42">
+        <v>40</v>
+      </c>
+      <c r="H124" s="4"/>
+    </row>
+    <row r="125" spans="1:8" ht="105">
       <c r="A125" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B125">
         <v>0</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E125" t="s">
         <v>45</v>
       </c>
       <c r="F125" t="s">
-        <v>49</v>
+        <v>297</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="63">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="42">
       <c r="A126" t="s">
-        <v>457</v>
+        <v>192</v>
       </c>
       <c r="B126">
         <v>0</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>458</v>
+        <v>259</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E126" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="F126" t="s">
-        <v>459</v>
-      </c>
-      <c r="H126" s="4"/>
-    </row>
-    <row r="127" spans="1:8" ht="105">
+        <v>40</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="42">
       <c r="A127" t="s">
-        <v>559</v>
+        <v>193</v>
       </c>
       <c r="B127">
         <v>0</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>560</v>
+        <v>257</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>5</v>
@@ -12166,82 +12265,84 @@
       <c r="F127" t="s">
         <v>49</v>
       </c>
-      <c r="H127" s="4"/>
-    </row>
-    <row r="128" spans="1:8" ht="126">
+      <c r="H127" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="42">
       <c r="A128" t="s">
-        <v>559</v>
+        <v>194</v>
       </c>
       <c r="B128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>561</v>
+        <v>262</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>5</v>
+        <v>263</v>
       </c>
       <c r="E128" t="s">
         <v>45</v>
       </c>
       <c r="F128" t="s">
-        <v>40</v>
-      </c>
-      <c r="H128" s="4"/>
-    </row>
-    <row r="129" spans="1:8" ht="210">
+        <v>49</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="63">
       <c r="A129" t="s">
-        <v>559</v>
+        <v>457</v>
       </c>
       <c r="B129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>562</v>
+        <v>458</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E129" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="F129" t="s">
-        <v>40</v>
+        <v>459</v>
       </c>
       <c r="H129" s="4"/>
     </row>
-    <row r="130" spans="1:8" ht="63">
+    <row r="130" spans="1:8" ht="105">
       <c r="A130" t="s">
-        <v>195</v>
+        <v>557</v>
       </c>
       <c r="B130">
         <v>0</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>253</v>
+        <v>558</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E130" t="s">
-        <v>311</v>
+        <v>45</v>
       </c>
       <c r="F130" t="s">
-        <v>254</v>
-      </c>
-      <c r="H130" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" ht="105">
+        <v>49</v>
+      </c>
+      <c r="H130" s="4"/>
+    </row>
+    <row r="131" spans="1:8" ht="126">
       <c r="A131" t="s">
         <v>557</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>5</v>
@@ -12250,19 +12351,19 @@
         <v>45</v>
       </c>
       <c r="F131" t="s">
-        <v>401</v>
+        <v>40</v>
       </c>
       <c r="H131" s="4"/>
     </row>
-    <row r="132" spans="1:8" ht="84">
+    <row r="132" spans="1:8" ht="210">
       <c r="A132" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>5</v>
@@ -12271,40 +12372,42 @@
         <v>45</v>
       </c>
       <c r="F132" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H132" s="4"/>
     </row>
-    <row r="133" spans="1:8" ht="84">
+    <row r="133" spans="1:8" ht="63">
       <c r="A133" t="s">
-        <v>553</v>
+        <v>195</v>
       </c>
       <c r="B133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>555</v>
+        <v>253</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E133" t="s">
-        <v>45</v>
+        <v>311</v>
       </c>
       <c r="F133" t="s">
+        <v>254</v>
+      </c>
+      <c r="H133" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="105">
+      <c r="A134" t="s">
+        <v>555</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>556</v>
-      </c>
-      <c r="H133" s="4"/>
-    </row>
-    <row r="134" spans="1:8" ht="84">
-      <c r="A134" t="s">
-        <v>553</v>
-      </c>
-      <c r="B134">
-        <v>2</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>555</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>5</v>
@@ -12313,155 +12416,151 @@
         <v>45</v>
       </c>
       <c r="F134" t="s">
-        <v>556</v>
+        <v>401</v>
       </c>
       <c r="H134" s="4"/>
     </row>
-    <row r="135" spans="1:8" ht="63">
+    <row r="135" spans="1:8" ht="84">
       <c r="A135" t="s">
-        <v>501</v>
+        <v>552</v>
       </c>
       <c r="B135">
         <v>0</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>502</v>
+        <v>553</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>503</v>
+        <v>5</v>
       </c>
       <c r="E135" t="s">
         <v>45</v>
       </c>
       <c r="F135" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="H135" s="4"/>
     </row>
-    <row r="136" spans="1:8" ht="63">
+    <row r="136" spans="1:8" ht="84">
       <c r="A136" t="s">
-        <v>506</v>
+        <v>552</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>504</v>
+        <v>608</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>505</v>
+        <v>5</v>
       </c>
       <c r="E136" t="s">
         <v>45</v>
       </c>
       <c r="F136" t="s">
-        <v>510</v>
+        <v>554</v>
       </c>
       <c r="H136" s="4"/>
     </row>
     <row r="137" spans="1:8" ht="63">
       <c r="A137" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="B137">
         <v>0</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="E137" t="s">
         <v>45</v>
       </c>
       <c r="F137" t="s">
-        <v>511</v>
-      </c>
-      <c r="G137" t="s">
-        <v>512</v>
+        <v>101</v>
       </c>
       <c r="H137" s="4"/>
     </row>
-    <row r="138" spans="1:8" ht="42">
+    <row r="138" spans="1:8" ht="63">
       <c r="A138" t="s">
-        <v>531</v>
+        <v>506</v>
       </c>
       <c r="B138">
         <v>0</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>533</v>
+        <v>504</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="E138" t="s">
         <v>45</v>
       </c>
       <c r="F138" t="s">
-        <v>46</v>
+        <v>510</v>
       </c>
       <c r="H138" s="4"/>
     </row>
-    <row r="139" spans="1:8" ht="42">
+    <row r="139" spans="1:8" ht="63">
       <c r="A139" t="s">
-        <v>532</v>
+        <v>507</v>
       </c>
       <c r="B139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>534</v>
+        <v>508</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>535</v>
+        <v>509</v>
       </c>
       <c r="E139" t="s">
         <v>45</v>
       </c>
       <c r="F139" t="s">
-        <v>39</v>
-      </c>
-      <c r="H139" s="4" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" ht="63">
+        <v>511</v>
+      </c>
+      <c r="G139" t="s">
+        <v>512</v>
+      </c>
+      <c r="H139" s="4"/>
+    </row>
+    <row r="140" spans="1:8" ht="42">
       <c r="A140" t="s">
-        <v>196</v>
+        <v>531</v>
       </c>
       <c r="B140">
         <v>0</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>197</v>
+        <v>533</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>5</v>
+        <v>491</v>
       </c>
       <c r="E140" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="F140" t="s">
-        <v>49</v>
-      </c>
-      <c r="H140" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" ht="84">
+        <v>46</v>
+      </c>
+      <c r="H140" s="4"/>
+    </row>
+    <row r="141" spans="1:8" ht="42">
       <c r="A141" t="s">
-        <v>513</v>
+        <v>532</v>
       </c>
       <c r="B141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>518</v>
+        <v>534</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>5</v>
+        <v>535</v>
       </c>
       <c r="E141" t="s">
         <v>45</v>
@@ -12469,38 +12568,42 @@
       <c r="F141" t="s">
         <v>39</v>
       </c>
-      <c r="H141" s="4"/>
+      <c r="H141" s="4" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="142" spans="1:8" ht="63">
       <c r="A142" t="s">
-        <v>514</v>
+        <v>196</v>
       </c>
       <c r="B142">
         <v>0</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>519</v>
+        <v>197</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>520</v>
+        <v>5</v>
       </c>
       <c r="E142" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="F142" t="s">
-        <v>521</v>
-      </c>
-      <c r="H142" s="4"/>
-    </row>
-    <row r="143" spans="1:8" ht="42">
+        <v>49</v>
+      </c>
+      <c r="H142" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="84">
       <c r="A143" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B143">
         <v>0</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>5</v>
@@ -12509,103 +12612,103 @@
         <v>45</v>
       </c>
       <c r="F143" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H143" s="4"/>
     </row>
     <row r="144" spans="1:8" ht="63">
       <c r="A144" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>386</v>
+        <v>520</v>
       </c>
       <c r="E144" t="s">
         <v>45</v>
       </c>
       <c r="F144" t="s">
-        <v>40</v>
+        <v>521</v>
       </c>
       <c r="H144" s="4"/>
     </row>
-    <row r="145" spans="1:8" ht="84">
+    <row r="145" spans="1:8" ht="42">
       <c r="A145" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="B145">
         <v>0</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E145" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="F145" t="s">
         <v>40</v>
       </c>
       <c r="H145" s="4"/>
     </row>
-    <row r="146" spans="1:8" ht="21">
+    <row r="146" spans="1:8" ht="63">
       <c r="A146" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>5</v>
+        <v>386</v>
       </c>
       <c r="E146" t="s">
         <v>45</v>
       </c>
       <c r="F146" t="s">
-        <v>525</v>
+        <v>40</v>
       </c>
       <c r="H146" s="4"/>
     </row>
-    <row r="147" spans="1:8" ht="42">
+    <row r="147" spans="1:8" ht="84">
       <c r="A147" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B147">
         <v>0</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E147" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="F147" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H147" s="4"/>
     </row>
     <row r="148" spans="1:8" ht="21">
       <c r="A148" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>5</v>
@@ -12614,19 +12717,19 @@
         <v>45</v>
       </c>
       <c r="F148" t="s">
-        <v>36</v>
+        <v>525</v>
       </c>
       <c r="H148" s="4"/>
     </row>
     <row r="149" spans="1:8" ht="42">
       <c r="A149" t="s">
-        <v>119</v>
+        <v>527</v>
       </c>
       <c r="B149">
         <v>0</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>128</v>
+        <v>526</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>5</v>
@@ -12637,16 +12740,17 @@
       <c r="F149" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" ht="84">
+      <c r="H149" s="4"/>
+    </row>
+    <row r="150" spans="1:8" ht="21">
       <c r="A150" t="s">
-        <v>120</v>
+        <v>517</v>
       </c>
       <c r="B150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>129</v>
+        <v>528</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>5</v>
@@ -12655,18 +12759,19 @@
         <v>45</v>
       </c>
       <c r="F150" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" ht="168">
+        <v>36</v>
+      </c>
+      <c r="H150" s="4"/>
+    </row>
+    <row r="151" spans="1:8" ht="42">
       <c r="A151" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B151">
         <v>0</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>5</v>
@@ -12675,18 +12780,18 @@
         <v>45</v>
       </c>
       <c r="F151" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" ht="42">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="84">
       <c r="A152" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>5</v>
@@ -12695,18 +12800,18 @@
         <v>45</v>
       </c>
       <c r="F152" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" ht="63">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="168">
       <c r="A153" t="s">
         <v>121</v>
       </c>
       <c r="B153">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>5</v>
@@ -12718,18 +12823,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="84">
+    <row r="154" spans="1:8" ht="42">
       <c r="A154" t="s">
         <v>121</v>
       </c>
       <c r="B154">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>132</v>
+        <v>5</v>
       </c>
       <c r="E154" t="s">
         <v>45</v>
@@ -12738,61 +12843,58 @@
         <v>39</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="84">
+    <row r="155" spans="1:8" ht="63">
       <c r="A155" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>139</v>
+        <v>5</v>
       </c>
       <c r="E155" t="s">
         <v>45</v>
       </c>
       <c r="F155" t="s">
-        <v>40</v>
-      </c>
-      <c r="H155" s="4" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" ht="42">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="84">
       <c r="A156" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B156">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E156" t="s">
         <v>45</v>
       </c>
       <c r="F156" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="84">
       <c r="A157" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B157">
         <v>0</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>5</v>
+        <v>139</v>
       </c>
       <c r="E157" t="s">
         <v>45</v>
@@ -12800,36 +12902,39 @@
       <c r="F157" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" ht="168">
+      <c r="H157" s="4" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="42">
       <c r="A158" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E158" t="s">
         <v>45</v>
       </c>
       <c r="F158" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" ht="42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="84">
       <c r="A159" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B159">
         <v>0</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>5</v>
@@ -12838,38 +12943,38 @@
         <v>45</v>
       </c>
       <c r="F159" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" ht="105">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="168">
       <c r="A160" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B160">
         <v>0</v>
       </c>
-      <c r="C160" s="3" t="s">
-        <v>148</v>
+      <c r="C160" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>5</v>
+        <v>143</v>
       </c>
       <c r="E160" t="s">
         <v>45</v>
       </c>
       <c r="F160" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="42">
       <c r="A161" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B161">
-        <v>1</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>149</v>
+        <v>0</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>5</v>
@@ -12878,18 +12983,18 @@
         <v>45</v>
       </c>
       <c r="F161" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" ht="63">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="105">
       <c r="A162" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B162">
         <v>0</v>
       </c>
-      <c r="C162" s="1" t="s">
-        <v>552</v>
+      <c r="C162" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>5</v>
@@ -12898,18 +13003,18 @@
         <v>45</v>
       </c>
       <c r="F162" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" ht="21">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="42">
       <c r="A163" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="B163">
-        <v>0</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>79</v>
+        <v>1</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>5</v>
@@ -12920,28 +13025,25 @@
       <c r="F163" t="s">
         <v>36</v>
       </c>
-      <c r="G163" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" ht="84">
+    </row>
+    <row r="164" spans="1:7" ht="63">
       <c r="A164" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="B164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>80</v>
+        <v>551</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="E164" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="F164" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="21">
@@ -12949,33 +13051,36 @@
         <v>78</v>
       </c>
       <c r="B165">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E165" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="F165" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" ht="42">
+      <c r="G165" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="84">
       <c r="A166" t="s">
         <v>78</v>
       </c>
       <c r="B166">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>481</v>
+        <v>81</v>
       </c>
       <c r="E166" t="s">
         <v>70</v>
@@ -12984,18 +13089,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="42">
+    <row r="167" spans="1:7" ht="21">
       <c r="A167" t="s">
         <v>78</v>
       </c>
       <c r="B167">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="E167" t="s">
         <v>70</v>
@@ -13009,13 +13114,13 @@
         <v>78</v>
       </c>
       <c r="B168">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>93</v>
+        <v>481</v>
       </c>
       <c r="E168" t="s">
         <v>70</v>
@@ -13029,13 +13134,13 @@
         <v>78</v>
       </c>
       <c r="B169">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="E169" t="s">
         <v>70</v>
@@ -13049,13 +13154,13 @@
         <v>78</v>
       </c>
       <c r="B170">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E170" t="s">
         <v>70</v>
@@ -13069,13 +13174,13 @@
         <v>78</v>
       </c>
       <c r="B171">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="E171" t="s">
         <v>70</v>
@@ -13089,13 +13194,13 @@
         <v>78</v>
       </c>
       <c r="B172">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E172" t="s">
         <v>70</v>
@@ -13104,21 +13209,21 @@
         <v>36</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="168">
+    <row r="173" spans="1:7" ht="42">
       <c r="A173" t="s">
         <v>78</v>
       </c>
       <c r="B173">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="E173" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="F173" t="s">
         <v>36</v>
@@ -13129,13 +13234,13 @@
         <v>78</v>
       </c>
       <c r="B174">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="E174" t="s">
         <v>70</v>
@@ -13144,75 +13249,75 @@
         <v>36</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="42">
+    <row r="175" spans="1:7" ht="168">
       <c r="A175" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B175">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="E175" t="s">
         <v>45</v>
       </c>
       <c r="F175" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="42">
       <c r="A176" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="B176">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E176" t="s">
+        <v>70</v>
+      </c>
+      <c r="F176" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="42">
+      <c r="A177" t="s">
+        <v>98</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E177" t="s">
         <v>45</v>
       </c>
-      <c r="F176" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" ht="84">
-      <c r="A177" t="s">
-        <v>102</v>
-      </c>
-      <c r="B177">
-        <v>0</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E177" t="s">
-        <v>306</v>
-      </c>
       <c r="F177" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" ht="63">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="42">
       <c r="A178" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B178">
         <v>0</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>5</v>
@@ -13221,38 +13326,38 @@
         <v>45</v>
       </c>
       <c r="F178" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" ht="126">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="84">
       <c r="A179" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B179">
         <v>0</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>108</v>
+        <v>365</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E179" t="s">
-        <v>45</v>
+        <v>306</v>
       </c>
       <c r="F179" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="42">
+    <row r="180" spans="1:8" ht="63">
       <c r="A180" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>5</v>
@@ -13261,21 +13366,21 @@
         <v>45</v>
       </c>
       <c r="F180" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" ht="147">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" ht="126">
       <c r="A181" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B181">
         <v>0</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E181" t="s">
         <v>45</v>
@@ -13284,15 +13389,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="105">
+    <row r="182" spans="1:8" ht="42">
       <c r="A182" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>5</v>
@@ -13301,201 +13406,201 @@
         <v>45</v>
       </c>
       <c r="F182" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="147">
+      <c r="A183" t="s">
+        <v>111</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E183" t="s">
+        <v>45</v>
+      </c>
+      <c r="F183" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="105">
+      <c r="A184" t="s">
+        <v>114</v>
+      </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E184" t="s">
+        <v>45</v>
+      </c>
+      <c r="F184" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="42">
-      <c r="A183" t="s">
+    <row r="185" spans="1:8" ht="42">
+      <c r="A185" t="s">
         <v>482</v>
       </c>
-      <c r="B183">
-        <v>0</v>
-      </c>
-      <c r="C183" s="1" t="s">
+      <c r="B185">
+        <v>0</v>
+      </c>
+      <c r="C185" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D183" s="1" t="s">
+      <c r="D185" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E183" t="s">
+      <c r="E185" t="s">
         <v>293</v>
       </c>
-      <c r="F183" t="s">
+      <c r="F185" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="42">
-      <c r="A184" t="s">
+    <row r="186" spans="1:8" ht="42">
+      <c r="A186" t="s">
         <v>313</v>
       </c>
-      <c r="B184">
-        <v>0</v>
-      </c>
-      <c r="C184" s="1" t="s">
+      <c r="B186">
+        <v>0</v>
+      </c>
+      <c r="C186" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="D184" s="1" t="s">
+      <c r="D186" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="E184" t="s">
-        <v>315</v>
-      </c>
-      <c r="F184" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" ht="21">
-      <c r="A185" t="s">
-        <v>320</v>
-      </c>
-      <c r="B185">
-        <v>0</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="E185" t="s">
-        <v>315</v>
-      </c>
-      <c r="F185" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" ht="63">
-      <c r="B186">
-        <v>1</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="E186" t="s">
         <v>315</v>
       </c>
       <c r="F186" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" ht="63">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="21">
       <c r="A187" t="s">
-        <v>117</v>
+        <v>320</v>
       </c>
       <c r="B187">
         <v>0</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>116</v>
+        <v>318</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>118</v>
+        <v>321</v>
       </c>
       <c r="E187" t="s">
-        <v>45</v>
+        <v>315</v>
       </c>
       <c r="F187" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" ht="105">
-      <c r="A188" t="s">
-        <v>207</v>
-      </c>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="63">
       <c r="B188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>202</v>
+        <v>319</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E188" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="F188" t="s">
-        <v>203</v>
-      </c>
-      <c r="H188" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" ht="21">
-      <c r="A189" s="2" t="s">
-        <v>34</v>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" ht="63">
+      <c r="A189" t="s">
+        <v>117</v>
       </c>
       <c r="B189">
         <v>0</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="E189" t="s">
         <v>45</v>
       </c>
       <c r="F189" t="s">
-        <v>37</v>
-      </c>
-      <c r="H189" s="4" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" ht="84">
-      <c r="A190" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="105">
+      <c r="A190" t="s">
+        <v>207</v>
       </c>
       <c r="B190">
         <v>0</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E190" t="s">
-        <v>45</v>
+        <v>307</v>
       </c>
       <c r="F190" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" ht="336">
+        <v>203</v>
+      </c>
+      <c r="H190" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" ht="21">
       <c r="A191" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B191">
         <v>0</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E191" t="s">
         <v>45</v>
       </c>
       <c r="F191" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" ht="63">
+        <v>37</v>
+      </c>
+      <c r="H191" s="4" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="84">
       <c r="A192" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>5</v>
@@ -13504,18 +13609,18 @@
         <v>45</v>
       </c>
       <c r="F192" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" ht="63">
-      <c r="A193" t="s">
-        <v>12</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" ht="336">
+      <c r="A193" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B193">
         <v>0</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>5</v>
@@ -13524,18 +13629,18 @@
         <v>45</v>
       </c>
       <c r="F193" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="63">
-      <c r="A194" t="s">
-        <v>12</v>
+      <c r="A194" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B194">
         <v>1</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>5</v>
@@ -13549,13 +13654,13 @@
     </row>
     <row r="195" spans="1:8" ht="63">
       <c r="A195" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B195">
         <v>0</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>5</v>
@@ -13567,38 +13672,35 @@
         <v>39</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="84">
+    <row r="196" spans="1:8" ht="63">
       <c r="A196" t="s">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="B196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>174</v>
+        <v>14</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E196" t="s">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="F196" t="s">
-        <v>46</v>
-      </c>
-      <c r="H196" s="4" t="s">
-        <v>159</v>
+        <v>39</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="63">
       <c r="A197" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B197">
         <v>0</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>5</v>
@@ -13607,213 +13709,216 @@
         <v>45</v>
       </c>
       <c r="F197" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" ht="105">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" ht="84">
       <c r="A198" t="s">
-        <v>6</v>
+        <v>173</v>
       </c>
       <c r="B198">
         <v>0</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>4</v>
+        <v>174</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E198" t="s">
+        <v>175</v>
+      </c>
+      <c r="F198" t="s">
+        <v>46</v>
+      </c>
+      <c r="H198" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" ht="63">
+      <c r="A199" t="s">
+        <v>7</v>
+      </c>
+      <c r="B199">
+        <v>0</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E199" t="s">
         <v>45</v>
       </c>
-      <c r="F198" t="s">
+      <c r="F199" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" ht="105">
+      <c r="A200" t="s">
+        <v>6</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E200" t="s">
+        <v>45</v>
+      </c>
+      <c r="F200" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="105">
-      <c r="A199" t="s">
+    <row r="201" spans="1:8" ht="105">
+      <c r="A201" t="s">
         <v>71</v>
       </c>
-      <c r="B199">
-        <v>0</v>
-      </c>
-      <c r="C199" s="1" t="s">
+      <c r="B201">
+        <v>0</v>
+      </c>
+      <c r="C201" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D199" s="1" t="s">
+      <c r="D201" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E199" t="s">
+      <c r="E201" t="s">
         <v>70</v>
       </c>
-      <c r="F199" t="s">
+      <c r="F201" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" ht="42">
-      <c r="A200" t="s">
-        <v>67</v>
-      </c>
-      <c r="B200">
-        <v>0</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E200" t="s">
-        <v>70</v>
-      </c>
-      <c r="F200" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" ht="84">
-      <c r="A201" t="s">
-        <v>171</v>
-      </c>
-      <c r="B201">
-        <v>0</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D201" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E201" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="F201" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="H201" s="4" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="42">
       <c r="A202" t="s">
+        <v>67</v>
+      </c>
+      <c r="B202">
+        <v>0</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E202" t="s">
+        <v>70</v>
+      </c>
+      <c r="F202" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" ht="84">
+      <c r="A203" t="s">
+        <v>171</v>
+      </c>
+      <c r="B203">
+        <v>0</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D203" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E203" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="F203" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H203" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" ht="42">
+      <c r="A204" t="s">
         <v>64</v>
       </c>
-      <c r="B202">
-        <v>0</v>
-      </c>
-      <c r="C202" s="1" t="s">
+      <c r="B204">
+        <v>0</v>
+      </c>
+      <c r="C204" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D202" s="1" t="s">
+      <c r="D204" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E202" t="s">
+      <c r="E204" t="s">
         <v>45</v>
       </c>
-      <c r="F202" t="s">
+      <c r="F204" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="63">
-      <c r="A203" t="s">
+    <row r="205" spans="1:8" ht="63">
+      <c r="A205" t="s">
         <v>62</v>
       </c>
-      <c r="B203">
-        <v>0</v>
-      </c>
-      <c r="C203" s="1" t="s">
+      <c r="B205">
+        <v>0</v>
+      </c>
+      <c r="C205" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D203" s="1" t="s">
+      <c r="D205" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E203" t="s">
+      <c r="E205" t="s">
         <v>45</v>
       </c>
-      <c r="F203" t="s">
+      <c r="F205" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="84">
-      <c r="A204" t="s">
+    <row r="206" spans="1:8" ht="84">
+      <c r="A206" t="s">
         <v>447</v>
       </c>
-      <c r="B204">
-        <v>0</v>
-      </c>
-      <c r="C204" s="1" t="s">
+      <c r="B206">
+        <v>0</v>
+      </c>
+      <c r="C206" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="D204" s="1" t="s">
+      <c r="D206" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="E204" t="s">
-        <v>293</v>
-      </c>
-      <c r="F204" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" ht="105">
-      <c r="A205" t="s">
-        <v>448</v>
-      </c>
-      <c r="B205">
-        <v>0</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="D205" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="E205" t="s">
-        <v>293</v>
-      </c>
-      <c r="F205" t="s">
-        <v>294</v>
-      </c>
-      <c r="G205" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" ht="42">
-      <c r="A206" t="s">
-        <v>448</v>
-      </c>
-      <c r="B206">
-        <v>1</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="D206" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="E206" t="s">
         <v>293</v>
       </c>
       <c r="F206" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" ht="42">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" ht="105">
       <c r="A207" t="s">
         <v>448</v>
       </c>
       <c r="B207">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>5</v>
+        <v>450</v>
       </c>
       <c r="E207" t="s">
         <v>293</v>
       </c>
       <c r="F207" t="s">
         <v>294</v>
+      </c>
+      <c r="G207" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="208" spans="1:8" ht="42">
@@ -13821,10 +13926,10 @@
         <v>448</v>
       </c>
       <c r="B208">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>5</v>
@@ -13836,142 +13941,142 @@
         <v>294</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="126">
-      <c r="A209" s="2" t="s">
-        <v>42</v>
+    <row r="209" spans="1:8" ht="42">
+      <c r="A209" t="s">
+        <v>448</v>
       </c>
       <c r="B209">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>43</v>
+        <v>452</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="E209" t="s">
-        <v>221</v>
+        <v>293</v>
       </c>
       <c r="F209" t="s">
-        <v>46</v>
-      </c>
-      <c r="G209" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" ht="21">
-      <c r="A210" s="2" t="s">
-        <v>167</v>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" ht="42">
+      <c r="A210" t="s">
+        <v>448</v>
       </c>
       <c r="B210">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>168</v>
+        <v>453</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E210" t="s">
-        <v>45</v>
+        <v>293</v>
       </c>
       <c r="F210" t="s">
-        <v>36</v>
-      </c>
-      <c r="H210" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" ht="409.6">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" ht="126">
       <c r="A211" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B211">
+        <v>0</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E211" t="s">
+        <v>221</v>
+      </c>
+      <c r="F211" t="s">
+        <v>46</v>
+      </c>
+      <c r="G211" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" ht="21">
+      <c r="A212" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B211">
-        <v>1</v>
-      </c>
-      <c r="C211" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D211" s="1" t="s">
+      <c r="B212">
+        <v>0</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D212" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E211" t="s">
-        <v>222</v>
-      </c>
-      <c r="F211" t="s">
-        <v>36</v>
-      </c>
-      <c r="H211" s="4"/>
-    </row>
-    <row r="212" spans="1:8" ht="105">
-      <c r="A212" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B212">
-        <v>0</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="E212" t="s">
         <v>45</v>
       </c>
       <c r="F212" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" ht="63">
+        <v>36</v>
+      </c>
+      <c r="H212" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" ht="409.6">
       <c r="A213" s="2" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="B213">
-        <v>0</v>
-      </c>
-      <c r="C213" s="1" t="s">
-        <v>57</v>
+        <v>1</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E213" t="s">
-        <v>45</v>
+        <v>222</v>
       </c>
       <c r="F213" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" ht="42">
+        <v>36</v>
+      </c>
+      <c r="H213" s="4"/>
+    </row>
+    <row r="214" spans="1:8" ht="105">
       <c r="A214" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B214">
         <v>0</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>5</v>
+        <v>157</v>
       </c>
       <c r="E214" t="s">
         <v>45</v>
       </c>
       <c r="F214" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" ht="21">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" ht="63">
       <c r="A215" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B215">
         <v>0</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>5</v>
@@ -13980,18 +14085,18 @@
         <v>45</v>
       </c>
       <c r="F215" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" ht="84">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" ht="42">
       <c r="A216" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>5</v>
@@ -14003,201 +14108,242 @@
         <v>52</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="42">
+    <row r="217" spans="1:8" ht="21">
       <c r="A217" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B217">
         <v>0</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>158</v>
+        <v>5</v>
       </c>
       <c r="E217" t="s">
         <v>45</v>
       </c>
       <c r="F217" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" ht="84">
+      <c r="A218" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B218">
+        <v>1</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E218" t="s">
+        <v>45</v>
+      </c>
+      <c r="F218" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" ht="42">
+      <c r="A219" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B219">
+        <v>0</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E219" t="s">
+        <v>45</v>
+      </c>
+      <c r="F219" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="42">
-      <c r="A218" s="2" t="s">
+    <row r="220" spans="1:8" ht="42">
+      <c r="A220" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B218">
-        <v>0</v>
-      </c>
-      <c r="C218" s="1" t="s">
+      <c r="B220">
+        <v>0</v>
+      </c>
+      <c r="C220" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D218" s="1" t="s">
+      <c r="D220" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E218" t="s">
+      <c r="E220" t="s">
         <v>165</v>
       </c>
-      <c r="F218" t="s">
+      <c r="F220" t="s">
         <v>166</v>
-      </c>
-      <c r="H218" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" ht="126">
-      <c r="A219" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B219">
-        <v>0</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D219" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E219" t="s">
-        <v>223</v>
-      </c>
-      <c r="F219" t="s">
-        <v>295</v>
-      </c>
-      <c r="H219" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" ht="105">
-      <c r="A220" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B220">
-        <v>0</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D220" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E220" t="s">
-        <v>309</v>
-      </c>
-      <c r="F220" t="s">
-        <v>295</v>
       </c>
       <c r="H220" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="42">
+    <row r="221" spans="1:8" ht="126">
       <c r="A221" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>156</v>
+        <v>26</v>
       </c>
       <c r="E221" t="s">
-        <v>70</v>
+        <v>223</v>
       </c>
       <c r="F221" t="s">
         <v>295</v>
       </c>
-      <c r="H221" s="4"/>
-    </row>
-    <row r="222" spans="1:8" ht="21">
+      <c r="H221" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" ht="105">
       <c r="A222" s="2" t="s">
-        <v>405</v>
+        <v>154</v>
       </c>
       <c r="B222">
         <v>0</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>406</v>
+        <v>153</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>407</v>
+        <v>5</v>
       </c>
       <c r="E222" t="s">
-        <v>389</v>
+        <v>309</v>
       </c>
       <c r="F222" t="s">
-        <v>408</v>
-      </c>
-      <c r="G222" t="s">
-        <v>409</v>
-      </c>
-      <c r="H222" s="4"/>
+        <v>295</v>
+      </c>
+      <c r="H222" s="4" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="223" spans="1:8" ht="42">
       <c r="A223" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B223">
+        <v>1</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E223" t="s">
+        <v>70</v>
+      </c>
+      <c r="F223" t="s">
+        <v>295</v>
+      </c>
+      <c r="H223" s="4"/>
+    </row>
+    <row r="224" spans="1:8" ht="21">
+      <c r="A224" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="E224" t="s">
+        <v>389</v>
+      </c>
+      <c r="F224" t="s">
+        <v>408</v>
+      </c>
+      <c r="G224" t="s">
+        <v>409</v>
+      </c>
+      <c r="H224" s="4"/>
+    </row>
+    <row r="225" spans="1:8" ht="42">
+      <c r="A225" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B223">
-        <v>0</v>
-      </c>
-      <c r="C223" s="1" t="s">
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D223" s="1" t="s">
+      <c r="D225" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E223" t="s">
+      <c r="E225" t="s">
         <v>152</v>
       </c>
-      <c r="F223" t="s">
+      <c r="F225" t="s">
         <v>40</v>
       </c>
-      <c r="H223" s="4" t="s">
+      <c r="H225" s="4" t="s">
         <v>159</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H1" xr:uid="{0244D4E8-F443-D54E-A975-960F8853E327}"/>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="H223" r:id="rId1" xr:uid="{81642C6C-B155-384F-AAC7-449D3395E8A1}"/>
-    <hyperlink ref="H220" r:id="rId2" xr:uid="{BF840327-7DE3-494E-9852-F70E198FA83F}"/>
-    <hyperlink ref="H219" r:id="rId3" xr:uid="{C1032CAE-FCD8-1242-B6C3-B70B988BC2CA}"/>
-    <hyperlink ref="H218" r:id="rId4" xr:uid="{F8DE77CC-7236-5740-A008-5EFF79B59035}"/>
-    <hyperlink ref="H210" r:id="rId5" xr:uid="{09EF007C-85D3-5F45-B203-6FE0424E5C99}"/>
-    <hyperlink ref="H201" r:id="rId6" xr:uid="{CA79A61E-3453-F748-8421-4D89662469BF}"/>
-    <hyperlink ref="H196" r:id="rId7" xr:uid="{DF2D3758-0BC9-D246-BED3-26AF94D5F9D8}"/>
-    <hyperlink ref="H140" r:id="rId8" xr:uid="{CCDC15F7-E252-0348-B02C-905084BD776E}"/>
+    <hyperlink ref="H225" r:id="rId1" xr:uid="{81642C6C-B155-384F-AAC7-449D3395E8A1}"/>
+    <hyperlink ref="H222" r:id="rId2" xr:uid="{BF840327-7DE3-494E-9852-F70E198FA83F}"/>
+    <hyperlink ref="H221" r:id="rId3" xr:uid="{C1032CAE-FCD8-1242-B6C3-B70B988BC2CA}"/>
+    <hyperlink ref="H220" r:id="rId4" xr:uid="{F8DE77CC-7236-5740-A008-5EFF79B59035}"/>
+    <hyperlink ref="H212" r:id="rId5" xr:uid="{09EF007C-85D3-5F45-B203-6FE0424E5C99}"/>
+    <hyperlink ref="H203" r:id="rId6" xr:uid="{CA79A61E-3453-F748-8421-4D89662469BF}"/>
+    <hyperlink ref="H198" r:id="rId7" xr:uid="{DF2D3758-0BC9-D246-BED3-26AF94D5F9D8}"/>
+    <hyperlink ref="H142" r:id="rId8" xr:uid="{CCDC15F7-E252-0348-B02C-905084BD776E}"/>
     <hyperlink ref="H32" r:id="rId9" xr:uid="{B4649428-221F-674F-BA70-A2780E5E269C}"/>
-    <hyperlink ref="H188" r:id="rId10" xr:uid="{E8486F26-D2AA-3540-A8B3-73E08A241E3A}"/>
-    <hyperlink ref="H75" r:id="rId11" xr:uid="{DF9E283C-C630-6141-B84A-D4DC20067D3A}"/>
-    <hyperlink ref="H77" r:id="rId12" xr:uid="{AA765222-2C31-E444-93E0-6241B574BBDA}"/>
-    <hyperlink ref="H80" r:id="rId13" xr:uid="{7424A509-2E7F-534F-A182-16DD568A0E14}"/>
-    <hyperlink ref="H89" r:id="rId14" xr:uid="{B81B5BB0-A4D2-CE48-976B-41038463380C}"/>
-    <hyperlink ref="H90" r:id="rId15" xr:uid="{51731D61-79A9-C248-A29C-7F455B171752}"/>
-    <hyperlink ref="H91" r:id="rId16" xr:uid="{DF071ACD-52CF-F248-82F5-DCBA80F5ED7C}"/>
-    <hyperlink ref="H92" r:id="rId17" xr:uid="{A3CDB931-1A52-EE43-BE32-2575167D2188}"/>
-    <hyperlink ref="H94" r:id="rId18" xr:uid="{217C257E-AC48-D240-A20A-4B4B59D80A75}"/>
-    <hyperlink ref="H95" r:id="rId19" xr:uid="{7DD8D092-ADED-CC44-8C91-A6B96A4E7F8B}"/>
-    <hyperlink ref="H96" r:id="rId20" xr:uid="{FF12F444-682A-3040-A650-0D77B1F409BF}"/>
-    <hyperlink ref="H97" r:id="rId21" xr:uid="{1128B72D-52B8-8F47-9418-E2DF8EDBE41D}"/>
-    <hyperlink ref="H118" r:id="rId22" xr:uid="{497C3D62-66B1-B349-919C-BB1436BCE7EA}"/>
-    <hyperlink ref="H130" r:id="rId23" xr:uid="{AA737391-1EFB-A246-BB33-46BEF9DF59DA}"/>
-    <hyperlink ref="H124" r:id="rId24" xr:uid="{12373DBC-12D0-EF44-94D1-6BE389EE8541}"/>
-    <hyperlink ref="H123" r:id="rId25" xr:uid="{0D1FF725-B522-814B-944C-9DE55388698D}"/>
-    <hyperlink ref="H125" r:id="rId26" xr:uid="{B196E238-6A79-1D4C-BE62-208D54322587}"/>
-    <hyperlink ref="H119" r:id="rId27" xr:uid="{C086B470-F6CB-A541-BF4F-D4066F6C3477}"/>
-    <hyperlink ref="H122" r:id="rId28" xr:uid="{6C629B57-C1F3-4545-97A0-DAE1AEC86284}"/>
-    <hyperlink ref="H117" r:id="rId29" xr:uid="{B29892C6-C28D-A544-98D7-253097387448}"/>
-    <hyperlink ref="H116" r:id="rId30" xr:uid="{CB97C88D-610F-9244-AD06-BA36E3E1A20C}"/>
+    <hyperlink ref="H190" r:id="rId10" xr:uid="{E8486F26-D2AA-3540-A8B3-73E08A241E3A}"/>
+    <hyperlink ref="H76" r:id="rId11" xr:uid="{DF9E283C-C630-6141-B84A-D4DC20067D3A}"/>
+    <hyperlink ref="H79" r:id="rId12" xr:uid="{AA765222-2C31-E444-93E0-6241B574BBDA}"/>
+    <hyperlink ref="H82" r:id="rId13" xr:uid="{7424A509-2E7F-534F-A182-16DD568A0E14}"/>
+    <hyperlink ref="H91" r:id="rId14" xr:uid="{B81B5BB0-A4D2-CE48-976B-41038463380C}"/>
+    <hyperlink ref="H92" r:id="rId15" xr:uid="{51731D61-79A9-C248-A29C-7F455B171752}"/>
+    <hyperlink ref="H93" r:id="rId16" xr:uid="{DF071ACD-52CF-F248-82F5-DCBA80F5ED7C}"/>
+    <hyperlink ref="H94" r:id="rId17" xr:uid="{A3CDB931-1A52-EE43-BE32-2575167D2188}"/>
+    <hyperlink ref="H96" r:id="rId18" xr:uid="{217C257E-AC48-D240-A20A-4B4B59D80A75}"/>
+    <hyperlink ref="H97" r:id="rId19" xr:uid="{7DD8D092-ADED-CC44-8C91-A6B96A4E7F8B}"/>
+    <hyperlink ref="H98" r:id="rId20" xr:uid="{FF12F444-682A-3040-A650-0D77B1F409BF}"/>
+    <hyperlink ref="H99" r:id="rId21" xr:uid="{1128B72D-52B8-8F47-9418-E2DF8EDBE41D}"/>
+    <hyperlink ref="H121" r:id="rId22" xr:uid="{497C3D62-66B1-B349-919C-BB1436BCE7EA}"/>
+    <hyperlink ref="H133" r:id="rId23" xr:uid="{AA737391-1EFB-A246-BB33-46BEF9DF59DA}"/>
+    <hyperlink ref="H127" r:id="rId24" xr:uid="{12373DBC-12D0-EF44-94D1-6BE389EE8541}"/>
+    <hyperlink ref="H126" r:id="rId25" xr:uid="{0D1FF725-B522-814B-944C-9DE55388698D}"/>
+    <hyperlink ref="H128" r:id="rId26" xr:uid="{B196E238-6A79-1D4C-BE62-208D54322587}"/>
+    <hyperlink ref="H122" r:id="rId27" xr:uid="{C086B470-F6CB-A541-BF4F-D4066F6C3477}"/>
+    <hyperlink ref="H125" r:id="rId28" xr:uid="{6C629B57-C1F3-4545-97A0-DAE1AEC86284}"/>
+    <hyperlink ref="H120" r:id="rId29" xr:uid="{B29892C6-C28D-A544-98D7-253097387448}"/>
+    <hyperlink ref="H119" r:id="rId30" xr:uid="{CB97C88D-610F-9244-AD06-BA36E3E1A20C}"/>
     <hyperlink ref="H16" r:id="rId31" xr:uid="{E92164C8-75EB-FE45-8332-C3A91BA4451A}"/>
-    <hyperlink ref="H155" r:id="rId32" xr:uid="{1C083029-B686-E448-9351-4D317921CFD1}"/>
-    <hyperlink ref="H189" r:id="rId33" xr:uid="{BD83387D-9020-714F-BA3A-41424AE632FD}"/>
-    <hyperlink ref="H84" r:id="rId34" xr:uid="{4BE75394-77C5-1B40-BE04-9A747380D885}"/>
-    <hyperlink ref="H139" r:id="rId35" xr:uid="{4FBCA80C-79E1-B745-8F51-D46C4D3F8601}"/>
+    <hyperlink ref="H157" r:id="rId32" xr:uid="{1C083029-B686-E448-9351-4D317921CFD1}"/>
+    <hyperlink ref="H191" r:id="rId33" xr:uid="{BD83387D-9020-714F-BA3A-41424AE632FD}"/>
+    <hyperlink ref="H86" r:id="rId34" xr:uid="{4BE75394-77C5-1B40-BE04-9A747380D885}"/>
+    <hyperlink ref="H141" r:id="rId35" xr:uid="{4FBCA80C-79E1-B745-8F51-D46C4D3F8601}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
